--- a/shiny_remaining_greenbook_addresses/greenbook_addresses.xlsx
+++ b/shiny_remaining_greenbook_addresses/greenbook_addresses.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="310">
   <si>
     <t>greenbook_edition</t>
   </si>
@@ -158,6 +158,63 @@
     <t>34</t>
   </si>
   <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
     <t>Alabama</t>
   </si>
   <si>
@@ -200,6 +257,15 @@
     <t>New Haven</t>
   </si>
   <si>
+    <t>New London</t>
+  </si>
+  <si>
+    <t>Stamford</t>
+  </si>
+  <si>
+    <t>Waterbury</t>
+  </si>
+  <si>
     <t>tourist</t>
   </si>
   <si>
@@ -377,6 +443,63 @@
     <t>108 Canal St.</t>
   </si>
   <si>
+    <t>65 Dixwell Ave.</t>
+  </si>
+  <si>
+    <t>54 Dixwell Ave.</t>
+  </si>
+  <si>
+    <t>68 Dixwell Ave.</t>
+  </si>
+  <si>
+    <t>55 Dwxiell Ave.</t>
+  </si>
+  <si>
+    <t>20 Brewer St.</t>
+  </si>
+  <si>
+    <t>45 Shapley St.</t>
+  </si>
+  <si>
+    <t>73 Hempstead St.</t>
+  </si>
+  <si>
+    <t>88 Bank St.</t>
+  </si>
+  <si>
+    <t>785 Bank St.</t>
+  </si>
+  <si>
+    <t>Gay St</t>
+  </si>
+  <si>
+    <t>33 Beekley Ave.</t>
+  </si>
+  <si>
+    <t>57 Bishop St.</t>
+  </si>
+  <si>
+    <t>208 Bridge St.</t>
+  </si>
+  <si>
+    <t>37 Hanrahan Ave.</t>
+  </si>
+  <si>
+    <t>81 Pearl St.</t>
+  </si>
+  <si>
+    <t>99 Pearl St.</t>
+  </si>
+  <si>
+    <t>51 Pearl St.</t>
+  </si>
+  <si>
+    <t>25 Pearl St.</t>
+  </si>
+  <si>
+    <t>56 Pearl St.</t>
+  </si>
+  <si>
     <t>69 N. Cotton St., Andalusia, Alabama</t>
   </si>
   <si>
@@ -446,7 +569,7 @@
     <t>11th St, Tuscaloosa, Alabama</t>
   </si>
   <si>
-    <t>468 Broad St, Bridgeport, Connecticut</t>
+    <t>468 Broad St, Bridgeport, Alabama</t>
   </si>
   <si>
     <t>83 Summer St, Bridgeport, Connecticut</t>
@@ -473,6 +596,63 @@
     <t>108 Canal St., New Haven, Connecticut</t>
   </si>
   <si>
+    <t>65 Dixwell Ave., New Haven, Connecticut</t>
+  </si>
+  <si>
+    <t>54 Dixwell Ave., New Haven, Connecticut</t>
+  </si>
+  <si>
+    <t>68 Dixwell Ave., New Haven, Connecticut</t>
+  </si>
+  <si>
+    <t>55 Dwxiell Ave., New Haven, Connecticut</t>
+  </si>
+  <si>
+    <t>20 Brewer St., New London, Connecticut</t>
+  </si>
+  <si>
+    <t>45 Shapley St., New London, Connecticut</t>
+  </si>
+  <si>
+    <t>73 Hempstead St., New London, Connecticut</t>
+  </si>
+  <si>
+    <t>88 Bank St., New London, Connecticut</t>
+  </si>
+  <si>
+    <t>785 Bank St., New London, Connecticut</t>
+  </si>
+  <si>
+    <t>Gay St, Stamford, Connecticut</t>
+  </si>
+  <si>
+    <t>33 Beekley Ave., Stamford, Connecticut</t>
+  </si>
+  <si>
+    <t>57 Bishop St., Waterbury, Connecticut</t>
+  </si>
+  <si>
+    <t>208 Bridge St., Waterbury, Connecticut</t>
+  </si>
+  <si>
+    <t>37 Hanrahan Ave., Waterbury, Connecticut</t>
+  </si>
+  <si>
+    <t>81 Pearl St., Waterbury, Connecticut</t>
+  </si>
+  <si>
+    <t>99 Pearl St., Waterbury, Connecticut</t>
+  </si>
+  <si>
+    <t>51 Pearl St., Waterbury, Connecticut</t>
+  </si>
+  <si>
+    <t>25 Pearl St., Waterbury, Connecticut</t>
+  </si>
+  <si>
+    <t>56 Pearl St., Waterbury, Connecticut</t>
+  </si>
+  <si>
     <t>[none found]</t>
   </si>
   <si>
@@ -548,6 +728,48 @@
     <t>108 CANAL ST, NEW HAVEN, CT, 06511</t>
   </si>
   <si>
+    <t>65 DIXWELL AVE, NEW HAVEN, CT, 06511</t>
+  </si>
+  <si>
+    <t>54 DIXWELL AVE, NEW HAVEN, CT, 06511</t>
+  </si>
+  <si>
+    <t>68 DIXWELL AVE, NEW HAVEN, CT, 06511</t>
+  </si>
+  <si>
+    <t>20 BREWER ST, NEW LONDON, CT, 06320</t>
+  </si>
+  <si>
+    <t>73 HEMPSTEAD ST, NEW LONDON, CT, 06320</t>
+  </si>
+  <si>
+    <t>88 BANK ST, NEW LONDON, CT, 06320</t>
+  </si>
+  <si>
+    <t>785 BANK ST, NEW LONDON, CT, 06320</t>
+  </si>
+  <si>
+    <t>33 BERKELEY ST, STAMFORD, CT, 06902</t>
+  </si>
+  <si>
+    <t>57 BISHOP ST, WATERBURY, CT, 06704</t>
+  </si>
+  <si>
+    <t>81 PEARL ST, WATERBURY, CT, 06704</t>
+  </si>
+  <si>
+    <t>99 PEARL ST, WATERBURY, CT, 06704</t>
+  </si>
+  <si>
+    <t>51 PEARL ST, WATERBURY, CT, 06704</t>
+  </si>
+  <si>
+    <t>25 PEARL ST, WATERBURY, CT, 06704</t>
+  </si>
+  <si>
+    <t>56 PEARL ST, WATERBURY, CT, 06704</t>
+  </si>
+  <si>
     <t>17TH</t>
   </si>
   <si>
@@ -605,6 +827,27 @@
     <t>CANAL</t>
   </si>
   <si>
+    <t>DIXWELL</t>
+  </si>
+  <si>
+    <t>BREWER</t>
+  </si>
+  <si>
+    <t>HEMPSTEAD</t>
+  </si>
+  <si>
+    <t>BANK</t>
+  </si>
+  <si>
+    <t>BERKELEY</t>
+  </si>
+  <si>
+    <t>BISHOP</t>
+  </si>
+  <si>
+    <t>PEARL</t>
+  </si>
+  <si>
     <t>BIRMINGHAM</t>
   </si>
   <si>
@@ -635,6 +878,15 @@
     <t>NEW HAVEN</t>
   </si>
   <si>
+    <t>NEW LONDON</t>
+  </si>
+  <si>
+    <t>STAMFORD</t>
+  </si>
+  <si>
+    <t>WATERBURY</t>
+  </si>
+  <si>
     <t>AL</t>
   </si>
   <si>
@@ -681,6 +933,15 @@
   </si>
   <si>
     <t>06511</t>
+  </si>
+  <si>
+    <t>06320</t>
+  </si>
+  <si>
+    <t>06902</t>
+  </si>
+  <si>
+    <t>06704</t>
   </si>
 </sst>
 </file>
@@ -784,25 +1045,25 @@
         <v>1938.0</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="G2" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="H2" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="I2" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="J2" t="e">
         <v>#N/A</v>
@@ -831,25 +1092,25 @@
         <v>1938.0</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="G3" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="H3" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="I3" t="s">
-        <v>154</v>
+        <v>214</v>
       </c>
       <c r="J3" t="n">
         <v>-86.8113150658676</v>
@@ -858,16 +1119,16 @@
         <v>33.5143485707937</v>
       </c>
       <c r="L3" t="s">
-        <v>178</v>
+        <v>252</v>
       </c>
       <c r="M3" t="s">
-        <v>197</v>
+        <v>278</v>
       </c>
       <c r="N3" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="O3" t="s">
-        <v>209</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4">
@@ -878,25 +1139,25 @@
         <v>1938.0</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="H4" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="I4" t="s">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c r="J4" t="n">
         <v>-86.8290693868153</v>
@@ -905,16 +1166,16 @@
         <v>33.5320444220056</v>
       </c>
       <c r="L4" t="s">
-        <v>179</v>
+        <v>253</v>
       </c>
       <c r="M4" t="s">
-        <v>197</v>
+        <v>278</v>
       </c>
       <c r="N4" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="O4" t="s">
-        <v>210</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5">
@@ -925,25 +1186,25 @@
         <v>1938.0</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="G5" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="H5" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="I5" t="s">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="J5" t="n">
         <v>-86.8101998183382</v>
@@ -952,16 +1213,16 @@
         <v>33.5154455727818</v>
       </c>
       <c r="L5" t="s">
-        <v>180</v>
+        <v>254</v>
       </c>
       <c r="M5" t="s">
-        <v>197</v>
+        <v>278</v>
       </c>
       <c r="N5" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="O5" t="s">
-        <v>209</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6">
@@ -972,25 +1233,25 @@
         <v>1938.0</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="H6" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="I6" t="s">
-        <v>157</v>
+        <v>217</v>
       </c>
       <c r="J6" t="n">
         <v>-86.8101943813631</v>
@@ -999,16 +1260,16 @@
         <v>33.5154374173175</v>
       </c>
       <c r="L6" t="s">
-        <v>180</v>
+        <v>254</v>
       </c>
       <c r="M6" t="s">
-        <v>197</v>
+        <v>278</v>
       </c>
       <c r="N6" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="O6" t="s">
-        <v>209</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7">
@@ -1019,25 +1280,25 @@
         <v>1938.0</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="H7" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="I7" t="s">
-        <v>158</v>
+        <v>218</v>
       </c>
       <c r="J7" t="n">
         <v>-86.981936433337</v>
@@ -1046,16 +1307,16 @@
         <v>34.6118640107611</v>
       </c>
       <c r="L7" t="s">
-        <v>181</v>
+        <v>255</v>
       </c>
       <c r="M7" t="s">
-        <v>198</v>
+        <v>279</v>
       </c>
       <c r="N7" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="O7" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8">
@@ -1066,25 +1327,25 @@
         <v>1938.0</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="H8" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="I8" t="s">
-        <v>159</v>
+        <v>219</v>
       </c>
       <c r="J8" t="n">
         <v>-85.9687107717626</v>
@@ -1093,16 +1354,16 @@
         <v>33.9940141891079</v>
       </c>
       <c r="L8" t="s">
-        <v>182</v>
+        <v>256</v>
       </c>
       <c r="M8" t="s">
-        <v>199</v>
+        <v>280</v>
       </c>
       <c r="N8" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="O8" t="s">
-        <v>212</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9">
@@ -1113,25 +1374,25 @@
         <v>1938.0</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F9" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="H9" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="I9" t="s">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="J9" t="n">
         <v>-86.0219558574387</v>
@@ -1140,16 +1401,16 @@
         <v>34.0151992985974</v>
       </c>
       <c r="L9" t="s">
-        <v>179</v>
+        <v>253</v>
       </c>
       <c r="M9" t="s">
-        <v>199</v>
+        <v>280</v>
       </c>
       <c r="N9" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="O9" t="s">
-        <v>213</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10">
@@ -1160,25 +1421,25 @@
         <v>1938.0</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="G10" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="H10" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="I10" t="s">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c r="J10" t="n">
         <v>-86.0222979270442</v>
@@ -1187,16 +1448,16 @@
         <v>34.0152022461397</v>
       </c>
       <c r="L10" t="s">
-        <v>179</v>
+        <v>253</v>
       </c>
       <c r="M10" t="s">
-        <v>199</v>
+        <v>280</v>
       </c>
       <c r="N10" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="O10" t="s">
-        <v>213</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11">
@@ -1207,25 +1468,25 @@
         <v>1938.0</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="G11" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="H11" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="I11" t="s">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="J11" t="n">
         <v>-86.0221098420977</v>
@@ -1234,16 +1495,16 @@
         <v>34.0150862358663</v>
       </c>
       <c r="L11" t="s">
-        <v>179</v>
+        <v>253</v>
       </c>
       <c r="M11" t="s">
-        <v>199</v>
+        <v>280</v>
       </c>
       <c r="N11" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="O11" t="s">
-        <v>213</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12">
@@ -1254,25 +1515,25 @@
         <v>1938.0</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="G12" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="H12" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="I12" t="s">
-        <v>163</v>
+        <v>223</v>
       </c>
       <c r="J12" t="n">
         <v>-86.005031796993</v>
@@ -1281,16 +1542,16 @@
         <v>34.0175041515731</v>
       </c>
       <c r="L12" t="s">
-        <v>183</v>
+        <v>257</v>
       </c>
       <c r="M12" t="s">
-        <v>199</v>
+        <v>280</v>
       </c>
       <c r="N12" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="O12" t="s">
-        <v>213</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13">
@@ -1301,25 +1562,25 @@
         <v>1938.0</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F13" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="G13" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="H13" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="I13" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="J13" t="e">
         <v>#N/A</v>
@@ -1348,25 +1609,25 @@
         <v>1938.0</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="G14" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="H14" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="I14" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="J14" t="e">
         <v>#N/A</v>
@@ -1395,25 +1656,25 @@
         <v>1938.0</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F15" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="G15" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="H15" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="I15" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="J15" t="e">
         <v>#N/A</v>
@@ -1442,25 +1703,25 @@
         <v>1938.0</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F16" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="G16" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="H16" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="I16" t="s">
-        <v>164</v>
+        <v>224</v>
       </c>
       <c r="J16" t="n">
         <v>-88.0576867932334</v>
@@ -1469,16 +1730,16 @@
         <v>30.6960542804327</v>
       </c>
       <c r="L16" t="s">
-        <v>184</v>
+        <v>258</v>
       </c>
       <c r="M16" t="s">
-        <v>200</v>
+        <v>281</v>
       </c>
       <c r="N16" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="O16" t="s">
-        <v>214</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17">
@@ -1489,25 +1750,25 @@
         <v>1938.0</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G17" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="H17" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="I17" t="s">
-        <v>165</v>
+        <v>225</v>
       </c>
       <c r="J17" t="n">
         <v>-88.0524129709915</v>
@@ -1516,16 +1777,16 @@
         <v>30.6935613534321</v>
       </c>
       <c r="L17" t="s">
-        <v>185</v>
+        <v>259</v>
       </c>
       <c r="M17" t="s">
-        <v>200</v>
+        <v>281</v>
       </c>
       <c r="N17" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="O17" t="s">
-        <v>214</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18">
@@ -1536,25 +1797,25 @@
         <v>1938.0</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F18" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="G18" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="H18" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="I18" t="s">
-        <v>166</v>
+        <v>226</v>
       </c>
       <c r="J18" t="n">
         <v>-88.0656567796014</v>
@@ -1563,16 +1824,16 @@
         <v>30.6976495325603</v>
       </c>
       <c r="L18" t="s">
-        <v>186</v>
+        <v>260</v>
       </c>
       <c r="M18" t="s">
-        <v>200</v>
+        <v>281</v>
       </c>
       <c r="N18" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="O18" t="s">
-        <v>214</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19">
@@ -1583,25 +1844,25 @@
         <v>1938.0</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F19" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="G19" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="H19" t="s">
-        <v>136</v>
+        <v>177</v>
       </c>
       <c r="I19" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="J19" t="e">
         <v>#N/A</v>
@@ -1630,25 +1891,25 @@
         <v>1938.0</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F20" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="G20" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="H20" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="I20" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="J20" t="e">
         <v>#N/A</v>
@@ -1677,25 +1938,25 @@
         <v>1938.0</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F21" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G21" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="H21" t="s">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="I21" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
       <c r="J21" t="n">
         <v>-85.9677376311342</v>
@@ -1704,16 +1965,16 @@
         <v>31.8159372445166</v>
       </c>
       <c r="L21" t="s">
-        <v>187</v>
+        <v>261</v>
       </c>
       <c r="M21" t="s">
-        <v>201</v>
+        <v>282</v>
       </c>
       <c r="N21" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="O21" t="s">
-        <v>215</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22">
@@ -1724,25 +1985,25 @@
         <v>1938.0</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F22" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="G22" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="H22" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="I22" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="J22" t="e">
         <v>#N/A</v>
@@ -1771,25 +2032,25 @@
         <v>1938.0</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F23" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="G23" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="H23" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="I23" t="s">
-        <v>168</v>
+        <v>228</v>
       </c>
       <c r="J23" t="n">
         <v>-87.5674198878895</v>
@@ -1798,16 +2059,16 @@
         <v>33.2027155164248</v>
       </c>
       <c r="L23" t="s">
-        <v>188</v>
+        <v>262</v>
       </c>
       <c r="M23" t="s">
-        <v>202</v>
+        <v>283</v>
       </c>
       <c r="N23" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="O23" t="s">
-        <v>216</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24">
@@ -1818,25 +2079,25 @@
         <v>1938.0</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F24" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="G24" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="H24" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="I24" t="s">
-        <v>169</v>
+        <v>229</v>
       </c>
       <c r="J24" t="n">
         <v>-87.5765682130659</v>
@@ -1845,16 +2106,16 @@
         <v>33.2083686457691</v>
       </c>
       <c r="L24" t="s">
-        <v>189</v>
+        <v>263</v>
       </c>
       <c r="M24" t="s">
-        <v>202</v>
+        <v>283</v>
       </c>
       <c r="N24" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="O24" t="s">
-        <v>216</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25">
@@ -1865,25 +2126,25 @@
         <v>1938.0</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F25" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="G25" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="H25" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="I25" t="s">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="J25" t="n">
         <v>-87.5651479921732</v>
@@ -1892,16 +2153,16 @@
         <v>33.1997383053909</v>
       </c>
       <c r="L25" t="s">
-        <v>190</v>
+        <v>264</v>
       </c>
       <c r="M25" t="s">
-        <v>202</v>
+        <v>283</v>
       </c>
       <c r="N25" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="O25" t="s">
-        <v>216</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26">
@@ -1912,25 +2173,25 @@
         <v>1938.0</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="E26" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F26" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="G26" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="H26" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="I26" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="J26" t="e">
         <v>#N/A</v>
@@ -1959,43 +2220,43 @@
         <v>1938.0</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="E27" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F27" t="e">
         <v>#N/A</v>
       </c>
       <c r="G27" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="H27" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="I27" t="s">
-        <v>171</v>
+        <v>231</v>
       </c>
       <c r="J27" t="n">
-        <v>-73.18760419910356</v>
+        <v>-73.1876041991036</v>
       </c>
       <c r="K27" t="n">
-        <v>41.169732800618405</v>
+        <v>41.1697328006184</v>
       </c>
       <c r="L27" t="s">
-        <v>191</v>
+        <v>265</v>
       </c>
       <c r="M27" t="s">
-        <v>203</v>
+        <v>284</v>
       </c>
       <c r="N27" t="s">
-        <v>208</v>
+        <v>292</v>
       </c>
       <c r="O27" t="s">
-        <v>217</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28">
@@ -2006,43 +2267,43 @@
         <v>1938.0</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="E28" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F28" t="e">
         <v>#N/A</v>
       </c>
       <c r="G28" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="H28" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="I28" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="J28" t="n">
-        <v>-73.14251642239584</v>
+        <v>-73.1425164223959</v>
       </c>
       <c r="K28" t="n">
-        <v>41.19921679697395</v>
+        <v>41.199216796974</v>
       </c>
       <c r="L28" t="s">
-        <v>192</v>
+        <v>266</v>
       </c>
       <c r="M28" t="s">
-        <v>204</v>
+        <v>285</v>
       </c>
       <c r="N28" t="s">
-        <v>208</v>
+        <v>292</v>
       </c>
       <c r="O28" t="s">
-        <v>218</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29">
@@ -2053,25 +2314,25 @@
         <v>1938.0</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="E29" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F29" t="e">
         <v>#N/A</v>
       </c>
       <c r="G29" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="H29" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="I29" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="J29" t="e">
         <v>#N/A</v>
@@ -2100,43 +2361,43 @@
         <v>1938.0</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="E30" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F30" t="e">
         <v>#N/A</v>
       </c>
       <c r="G30" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="H30" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="I30" t="s">
-        <v>173</v>
+        <v>233</v>
       </c>
       <c r="J30" t="n">
-        <v>-73.17480012426414</v>
+        <v>-73.1748001242641</v>
       </c>
       <c r="K30" t="n">
-        <v>41.184842178076934</v>
+        <v>41.1848421780769</v>
       </c>
       <c r="L30" t="s">
-        <v>181</v>
+        <v>255</v>
       </c>
       <c r="M30" t="s">
-        <v>203</v>
+        <v>284</v>
       </c>
       <c r="N30" t="s">
-        <v>208</v>
+        <v>292</v>
       </c>
       <c r="O30" t="s">
-        <v>219</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31">
@@ -2147,43 +2408,43 @@
         <v>1938.0</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="E31" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F31" t="e">
         <v>#N/A</v>
       </c>
       <c r="G31" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="H31" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="I31" t="s">
-        <v>174</v>
+        <v>234</v>
       </c>
       <c r="J31" t="n">
-        <v>-72.71945134277621</v>
+        <v>-72.7194513427762</v>
       </c>
       <c r="K31" t="n">
-        <v>41.67542783109555</v>
+        <v>41.6754278310956</v>
       </c>
       <c r="L31" t="s">
-        <v>193</v>
+        <v>267</v>
       </c>
       <c r="M31" t="s">
-        <v>205</v>
+        <v>286</v>
       </c>
       <c r="N31" t="s">
-        <v>208</v>
+        <v>292</v>
       </c>
       <c r="O31" t="s">
-        <v>220</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32">
@@ -2194,43 +2455,43 @@
         <v>1938.0</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D32" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F32" t="e">
         <v>#N/A</v>
       </c>
       <c r="G32" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="H32" t="s">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="I32" t="s">
-        <v>175</v>
+        <v>235</v>
       </c>
       <c r="J32" t="n">
-        <v>-72.67598433677638</v>
+        <v>-72.6759843367764</v>
       </c>
       <c r="K32" t="n">
-        <v>41.778444989069676</v>
+        <v>41.7784449890697</v>
       </c>
       <c r="L32" t="s">
-        <v>194</v>
+        <v>268</v>
       </c>
       <c r="M32" t="s">
-        <v>205</v>
+        <v>286</v>
       </c>
       <c r="N32" t="s">
-        <v>208</v>
+        <v>292</v>
       </c>
       <c r="O32" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33">
@@ -2241,25 +2502,25 @@
         <v>1938.0</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="E33" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F33" t="e">
         <v>#N/A</v>
       </c>
       <c r="G33" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="H33" t="s">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="I33" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="J33" t="e">
         <v>#N/A</v>
@@ -2288,43 +2549,43 @@
         <v>1938.0</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="E34" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F34" t="e">
         <v>#N/A</v>
       </c>
       <c r="G34" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="H34" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="I34" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="J34" t="n">
-        <v>-72.93294600768414</v>
+        <v>-72.9329460076841</v>
       </c>
       <c r="K34" t="n">
-        <v>41.31695681768619</v>
+        <v>41.3169568176862</v>
       </c>
       <c r="L34" t="s">
-        <v>195</v>
+        <v>269</v>
       </c>
       <c r="M34" t="s">
-        <v>206</v>
+        <v>287</v>
       </c>
       <c r="N34" t="s">
-        <v>208</v>
+        <v>292</v>
       </c>
       <c r="O34" t="s">
-        <v>222</v>
+        <v>306</v>
       </c>
     </row>
     <row r="35">
@@ -2335,43 +2596,936 @@
         <v>1938.0</v>
       </c>
       <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" t="s">
+        <v>85</v>
+      </c>
+      <c r="F35" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G35" t="s">
+        <v>142</v>
+      </c>
+      <c r="H35" t="s">
+        <v>193</v>
+      </c>
+      <c r="I35" t="s">
+        <v>237</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-72.9283382677717</v>
+      </c>
+      <c r="K35" t="n">
+        <v>41.3180050633791</v>
+      </c>
+      <c r="L35" t="s">
+        <v>270</v>
+      </c>
+      <c r="M35" t="s">
+        <v>287</v>
+      </c>
+      <c r="N35" t="s">
+        <v>292</v>
+      </c>
+      <c r="O35" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G36" t="s">
+        <v>143</v>
+      </c>
+      <c r="H36" t="s">
+        <v>194</v>
+      </c>
+      <c r="I36" t="s">
+        <v>238</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-72.9326610116185</v>
+      </c>
+      <c r="K36" t="n">
+        <v>41.31483335957365</v>
+      </c>
+      <c r="L36" t="s">
+        <v>271</v>
+      </c>
+      <c r="M36" t="s">
+        <v>287</v>
+      </c>
+      <c r="N36" t="s">
+        <v>292</v>
+      </c>
+      <c r="O36" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
         <v>49</v>
       </c>
-      <c r="D35" t="s">
+      <c r="B37" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G37" t="s">
+        <v>144</v>
+      </c>
+      <c r="H37" t="s">
+        <v>195</v>
+      </c>
+      <c r="I37" t="s">
+        <v>239</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-72.93274094154106</v>
+      </c>
+      <c r="K37" t="n">
+        <v>41.31456929035583</v>
+      </c>
+      <c r="L37" t="s">
+        <v>271</v>
+      </c>
+      <c r="M37" t="s">
+        <v>287</v>
+      </c>
+      <c r="N37" t="s">
+        <v>292</v>
+      </c>
+      <c r="O37" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" t="s">
+        <v>84</v>
+      </c>
+      <c r="F38" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G38" t="s">
+        <v>145</v>
+      </c>
+      <c r="H38" t="s">
+        <v>196</v>
+      </c>
+      <c r="I38" t="s">
+        <v>240</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-72.93279529277156</v>
+      </c>
+      <c r="K38" t="n">
+        <v>41.31475770802021</v>
+      </c>
+      <c r="L38" t="s">
+        <v>271</v>
+      </c>
+      <c r="M38" t="s">
+        <v>287</v>
+      </c>
+      <c r="N38" t="s">
+        <v>292</v>
+      </c>
+      <c r="O38" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" t="s">
+        <v>84</v>
+      </c>
+      <c r="F39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G39" t="s">
+        <v>146</v>
+      </c>
+      <c r="H39" t="s">
+        <v>197</v>
+      </c>
+      <c r="I39" t="s">
+        <v>213</v>
+      </c>
+      <c r="J39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O39" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G40" t="s">
+        <v>147</v>
+      </c>
+      <c r="H40" t="s">
+        <v>198</v>
+      </c>
+      <c r="I40" t="s">
+        <v>241</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-72.09892489200932</v>
+      </c>
+      <c r="K40" t="n">
+        <v>41.351472071654875</v>
+      </c>
+      <c r="L40" t="s">
+        <v>272</v>
+      </c>
+      <c r="M40" t="s">
+        <v>288</v>
+      </c>
+      <c r="N40" t="s">
+        <v>292</v>
+      </c>
+      <c r="O40" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" t="s">
+        <v>84</v>
+      </c>
+      <c r="F41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G41" t="s">
+        <v>148</v>
+      </c>
+      <c r="H41" t="s">
+        <v>199</v>
+      </c>
+      <c r="I41" t="s">
+        <v>213</v>
+      </c>
+      <c r="J41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O41" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" t="s">
+        <v>84</v>
+      </c>
+      <c r="F42" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G42" t="s">
+        <v>149</v>
+      </c>
+      <c r="H42" t="s">
+        <v>200</v>
+      </c>
+      <c r="I42" t="s">
+        <v>242</v>
+      </c>
+      <c r="J42" t="n">
+        <v>-72.1036935417646</v>
+      </c>
+      <c r="K42" t="n">
+        <v>41.35473988848303</v>
+      </c>
+      <c r="L42" t="s">
+        <v>273</v>
+      </c>
+      <c r="M42" t="s">
+        <v>288</v>
+      </c>
+      <c r="N42" t="s">
+        <v>292</v>
+      </c>
+      <c r="O42" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G43" t="s">
+        <v>150</v>
+      </c>
+      <c r="H43" t="s">
+        <v>201</v>
+      </c>
+      <c r="I43" t="s">
+        <v>243</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-72.09455312997488</v>
+      </c>
+      <c r="K43" t="n">
+        <v>41.3529769238668</v>
+      </c>
+      <c r="L43" t="s">
+        <v>274</v>
+      </c>
+      <c r="M43" t="s">
+        <v>288</v>
+      </c>
+      <c r="N43" t="s">
+        <v>292</v>
+      </c>
+      <c r="O43" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G44" t="s">
+        <v>151</v>
+      </c>
+      <c r="H44" t="s">
+        <v>202</v>
+      </c>
+      <c r="I44" t="s">
+        <v>244</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-72.10613109643866</v>
+      </c>
+      <c r="K44" t="n">
+        <v>41.3491636454073</v>
+      </c>
+      <c r="L44" t="s">
+        <v>274</v>
+      </c>
+      <c r="M44" t="s">
+        <v>288</v>
+      </c>
+      <c r="N44" t="s">
+        <v>292</v>
+      </c>
+      <c r="O44" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>82</v>
+      </c>
+      <c r="E45" t="s">
+        <v>85</v>
+      </c>
+      <c r="F45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G45" t="s">
+        <v>152</v>
+      </c>
+      <c r="H45" t="s">
+        <v>203</v>
+      </c>
+      <c r="I45" t="s">
+        <v>213</v>
+      </c>
+      <c r="J45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O45" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46" t="s">
+        <v>85</v>
+      </c>
+      <c r="F46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G46" t="s">
+        <v>153</v>
+      </c>
+      <c r="H46" t="s">
+        <v>204</v>
+      </c>
+      <c r="I46" t="s">
+        <v>245</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-73.54353504404457</v>
+      </c>
+      <c r="K46" t="n">
+        <v>41.0437896616415</v>
+      </c>
+      <c r="L46" t="s">
+        <v>275</v>
+      </c>
+      <c r="M46" t="s">
+        <v>289</v>
+      </c>
+      <c r="N46" t="s">
+        <v>292</v>
+      </c>
+      <c r="O46" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47" t="s">
+        <v>84</v>
+      </c>
+      <c r="F47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G47" t="s">
+        <v>154</v>
+      </c>
+      <c r="H47" t="s">
+        <v>205</v>
+      </c>
+      <c r="I47" t="s">
+        <v>246</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-73.03604009890913</v>
+      </c>
+      <c r="K47" t="n">
+        <v>41.56128993053742</v>
+      </c>
+      <c r="L47" t="s">
+        <v>276</v>
+      </c>
+      <c r="M47" t="s">
+        <v>290</v>
+      </c>
+      <c r="N47" t="s">
+        <v>292</v>
+      </c>
+      <c r="O47" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>83</v>
+      </c>
+      <c r="E48" t="s">
+        <v>84</v>
+      </c>
+      <c r="F48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G48" t="s">
+        <v>155</v>
+      </c>
+      <c r="H48" t="s">
+        <v>206</v>
+      </c>
+      <c r="I48" t="s">
+        <v>213</v>
+      </c>
+      <c r="J48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O48" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
         <v>61</v>
       </c>
-      <c r="E35" t="s">
+      <c r="B49" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>83</v>
+      </c>
+      <c r="E49" t="s">
+        <v>84</v>
+      </c>
+      <c r="F49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G49" t="s">
+        <v>156</v>
+      </c>
+      <c r="H49" t="s">
+        <v>207</v>
+      </c>
+      <c r="I49" t="s">
+        <v>213</v>
+      </c>
+      <c r="J49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O49" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>83</v>
+      </c>
+      <c r="E50" t="s">
+        <v>84</v>
+      </c>
+      <c r="F50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G50" t="s">
+        <v>157</v>
+      </c>
+      <c r="H50" t="s">
+        <v>208</v>
+      </c>
+      <c r="I50" t="s">
+        <v>247</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-73.03791040117098</v>
+      </c>
+      <c r="K50" t="n">
+        <v>41.563258875315846</v>
+      </c>
+      <c r="L50" t="s">
+        <v>277</v>
+      </c>
+      <c r="M50" t="s">
+        <v>290</v>
+      </c>
+      <c r="N50" t="s">
+        <v>292</v>
+      </c>
+      <c r="O50" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
         <v>63</v>
       </c>
-      <c r="F35" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G35" t="s">
-        <v>120</v>
-      </c>
-      <c r="H35" t="s">
-        <v>152</v>
-      </c>
-      <c r="I35" t="s">
-        <v>177</v>
-      </c>
-      <c r="J35" t="n">
-        <v>-72.92833826777165</v>
-      </c>
-      <c r="K35" t="n">
-        <v>41.31800506337907</v>
-      </c>
-      <c r="L35" t="s">
-        <v>196</v>
-      </c>
-      <c r="M35" t="s">
-        <v>206</v>
-      </c>
-      <c r="N35" t="s">
-        <v>208</v>
-      </c>
-      <c r="O35" t="s">
-        <v>222</v>
+      <c r="B51" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>83</v>
+      </c>
+      <c r="E51" t="s">
+        <v>84</v>
+      </c>
+      <c r="F51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G51" t="s">
+        <v>158</v>
+      </c>
+      <c r="H51" t="s">
+        <v>209</v>
+      </c>
+      <c r="I51" t="s">
+        <v>248</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-73.0381966494124</v>
+      </c>
+      <c r="K51" t="n">
+        <v>41.563742906389116</v>
+      </c>
+      <c r="L51" t="s">
+        <v>277</v>
+      </c>
+      <c r="M51" t="s">
+        <v>290</v>
+      </c>
+      <c r="N51" t="s">
+        <v>292</v>
+      </c>
+      <c r="O51" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>83</v>
+      </c>
+      <c r="E52" t="s">
+        <v>84</v>
+      </c>
+      <c r="F52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G52" t="s">
+        <v>159</v>
+      </c>
+      <c r="H52" t="s">
+        <v>210</v>
+      </c>
+      <c r="I52" t="s">
+        <v>249</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-73.03767095611347</v>
+      </c>
+      <c r="K52" t="n">
+        <v>41.562421005865986</v>
+      </c>
+      <c r="L52" t="s">
+        <v>277</v>
+      </c>
+      <c r="M52" t="s">
+        <v>290</v>
+      </c>
+      <c r="N52" t="s">
+        <v>292</v>
+      </c>
+      <c r="O52" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>83</v>
+      </c>
+      <c r="E53" t="s">
+        <v>84</v>
+      </c>
+      <c r="F53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G53" t="s">
+        <v>160</v>
+      </c>
+      <c r="H53" t="s">
+        <v>211</v>
+      </c>
+      <c r="I53" t="s">
+        <v>250</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-73.03758834084984</v>
+      </c>
+      <c r="K53" t="n">
+        <v>41.561648399456224</v>
+      </c>
+      <c r="L53" t="s">
+        <v>277</v>
+      </c>
+      <c r="M53" t="s">
+        <v>290</v>
+      </c>
+      <c r="N53" t="s">
+        <v>292</v>
+      </c>
+      <c r="O53" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>83</v>
+      </c>
+      <c r="E54" t="s">
+        <v>84</v>
+      </c>
+      <c r="F54" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G54" t="s">
+        <v>161</v>
+      </c>
+      <c r="H54" t="s">
+        <v>212</v>
+      </c>
+      <c r="I54" t="s">
+        <v>251</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-73.03750015368333</v>
+      </c>
+      <c r="K54" t="n">
+        <v>41.5623010119887</v>
+      </c>
+      <c r="L54" t="s">
+        <v>277</v>
+      </c>
+      <c r="M54" t="s">
+        <v>290</v>
+      </c>
+      <c r="N54" t="s">
+        <v>292</v>
+      </c>
+      <c r="O54" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>

--- a/shiny_remaining_greenbook_addresses/greenbook_addresses.xlsx
+++ b/shiny_remaining_greenbook_addresses/greenbook_addresses.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="505">
   <si>
     <t>greenbook_edition</t>
   </si>
@@ -215,12 +215,141 @@
     <t>53</t>
   </si>
   <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
     <t>Alabama</t>
   </si>
   <si>
     <t>Connecticut</t>
   </si>
   <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>District of Columbia</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
     <t>Andalusia</t>
   </si>
   <si>
@@ -266,12 +395,45 @@
     <t>Waterbury</t>
   </si>
   <si>
+    <t>Dover</t>
+  </si>
+  <si>
+    <t>Wilmington</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Jacksonville</t>
+  </si>
+  <si>
+    <t>Lakeland</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Pensacola</t>
+  </si>
+  <si>
     <t>tourist</t>
   </si>
   <si>
     <t>hotels</t>
   </si>
   <si>
+    <t>taverns</t>
+  </si>
+  <si>
+    <t>restaurants</t>
+  </si>
+  <si>
+    <t>beauty parlors</t>
+  </si>
+  <si>
+    <t>theaters</t>
+  </si>
+  <si>
     <t>Mrs. Ed. Andrews</t>
   </si>
   <si>
@@ -347,6 +509,12 @@
     <t>Mrs. G. Robinson</t>
   </si>
   <si>
+    <t>Moseley’s</t>
+  </si>
+  <si>
+    <t>Weston’s</t>
+  </si>
+  <si>
     <t>69 N. Cotton St.</t>
   </si>
   <si>
@@ -500,6 +668,114 @@
     <t>56 Pearl St.</t>
   </si>
   <si>
+    <t>Kirkwood St.</t>
+  </si>
+  <si>
+    <t>Division St.</t>
+  </si>
+  <si>
+    <t>Lincoln St.</t>
+  </si>
+  <si>
+    <t>Forrest St.</t>
+  </si>
+  <si>
+    <t>1106 Tatnall St.</t>
+  </si>
+  <si>
+    <t>110 W. 12th St.</t>
+  </si>
+  <si>
+    <t>1008 French St.</t>
+  </si>
+  <si>
+    <t>1317 Tatnall St.</t>
+  </si>
+  <si>
+    <t>N. J. Ave &amp; Dost. Ne IW.</t>
+  </si>
+  <si>
+    <t>1825 13th St. N. W.</t>
+  </si>
+  <si>
+    <t>1502 18th St. N. W.</t>
+  </si>
+  <si>
+    <t>7th &amp; N St. N. W.</t>
+  </si>
+  <si>
+    <t>13th &amp; T St. N. W.</t>
+  </si>
+  <si>
+    <t>1816 12th St. N. W.</t>
+  </si>
+  <si>
+    <t>901 Rhode Island Ave. N. W.</t>
+  </si>
+  <si>
+    <t>215 Florida Ave. N. W.</t>
+  </si>
+  <si>
+    <t>1929 13th St. N. W.</t>
+  </si>
+  <si>
+    <t>1212 Girad St.</t>
+  </si>
+  <si>
+    <t>1435 Q St. N. W.</t>
+  </si>
+  <si>
+    <t>910 5th st. N. W.</t>
+  </si>
+  <si>
+    <t>1218 U St. N. W.</t>
+  </si>
+  <si>
+    <t>7th &amp; T St. N. W.</t>
+  </si>
+  <si>
+    <t>1417 U St. N. W.</t>
+  </si>
+  <si>
+    <t>U St. bw 13 &amp; 15 St.</t>
+  </si>
+  <si>
+    <t>U St. bw 13th &amp; 15th St.</t>
+  </si>
+  <si>
+    <t>514 Broad St</t>
+  </si>
+  <si>
+    <t>635 W. Ashley St.</t>
+  </si>
+  <si>
+    <t>636 W. Ashley St.</t>
+  </si>
+  <si>
+    <t>422 Broad St</t>
+  </si>
+  <si>
+    <t>739 W. Church St.</t>
+  </si>
+  <si>
+    <t>2140 Moncrief St.</t>
+  </si>
+  <si>
+    <t>128 Orange St.</t>
+  </si>
+  <si>
+    <t>827 Florida Ave.</t>
+  </si>
+  <si>
+    <t>941 N. W. 2nd Ave.</t>
+  </si>
+  <si>
+    <t>700 N. W. 2nd Ave.</t>
+  </si>
+  <si>
+    <t>311 N. Tarragonia St.</t>
+  </si>
+  <si>
     <t>69 N. Cotton St., Andalusia, Alabama</t>
   </si>
   <si>
@@ -653,6 +929,114 @@
     <t>56 Pearl St., Waterbury, Connecticut</t>
   </si>
   <si>
+    <t>Kirkwood St., Dover, Delaware</t>
+  </si>
+  <si>
+    <t>Division St., Dover, Delaware</t>
+  </si>
+  <si>
+    <t>Lincoln St., Dover, Delaware</t>
+  </si>
+  <si>
+    <t>Forrest St., Dover, Delaware</t>
+  </si>
+  <si>
+    <t>1106 Tatnall St., Wilmington, Delaware</t>
+  </si>
+  <si>
+    <t>110 W. 12th St., Wilmington, Delaware</t>
+  </si>
+  <si>
+    <t>1008 French St., Wilmington, Delaware</t>
+  </si>
+  <si>
+    <t>1317 Tatnall St., Wilmington, Delaware</t>
+  </si>
+  <si>
+    <t>N. J. Ave &amp; Dost. Ne IW., Washington, District of Columbia</t>
+  </si>
+  <si>
+    <t>1825 13th St. N. W., Washington, District of Columbia</t>
+  </si>
+  <si>
+    <t>1502 18th St. N. W., Washington, District of Columbia</t>
+  </si>
+  <si>
+    <t>7th &amp; N St. N. W., Washington, District of Columbia</t>
+  </si>
+  <si>
+    <t>13th &amp; T St. N. W., Washington, District of Columbia</t>
+  </si>
+  <si>
+    <t>1816 12th St. N. W., Washington, District of Columbia</t>
+  </si>
+  <si>
+    <t>901 Rhode Island Ave. N. W., Washington, District of Columbia</t>
+  </si>
+  <si>
+    <t>215 Florida Ave. N. W., Washington, District of Columbia</t>
+  </si>
+  <si>
+    <t>1929 13th St. N. W., Washington, District of Columbia</t>
+  </si>
+  <si>
+    <t>1212 Girad St., Washington, District of Columbia</t>
+  </si>
+  <si>
+    <t>1435 Q St. N. W., Washington, District of Columbia</t>
+  </si>
+  <si>
+    <t>910 5th st. N. W., Washington, District of Columbia</t>
+  </si>
+  <si>
+    <t>1218 U St. N. W., Washington, District of Columbia</t>
+  </si>
+  <si>
+    <t>7th &amp; T St. N. W., Washington, District of Columbia</t>
+  </si>
+  <si>
+    <t>1417 U St. N. W., Washington, District of Columbia</t>
+  </si>
+  <si>
+    <t>U St. bw 13 &amp; 15 St., Washington, District of Columbia</t>
+  </si>
+  <si>
+    <t>U St. bw 13th &amp; 15th St., Washington, District of Columbia</t>
+  </si>
+  <si>
+    <t>514 Broad St, Jacksonville, Florida</t>
+  </si>
+  <si>
+    <t>635 W. Ashley St., Jacksonville, Florida</t>
+  </si>
+  <si>
+    <t>636 W. Ashley St., Jacksonville, Florida</t>
+  </si>
+  <si>
+    <t>422 Broad St, Jacksonville, Florida</t>
+  </si>
+  <si>
+    <t>739 W. Church St., Jacksonville, Florida</t>
+  </si>
+  <si>
+    <t>2140 Moncrief St., Jacksonville, Florida</t>
+  </si>
+  <si>
+    <t>128 Orange St., Jacksonville, Florida</t>
+  </si>
+  <si>
+    <t>827 Florida Ave., Lakeland, Florida</t>
+  </si>
+  <si>
+    <t>941 N. W. 2nd Ave., Miami, Florida</t>
+  </si>
+  <si>
+    <t>700 N. W. 2nd Ave., Miami, Florida</t>
+  </si>
+  <si>
+    <t>311 N. Tarragonia St., Pensacola, Florida</t>
+  </si>
+  <si>
     <t>[none found]</t>
   </si>
   <si>
@@ -770,6 +1154,99 @@
     <t>56 PEARL ST, WATERBURY, CT, 06704</t>
   </si>
   <si>
+    <t>1106 TATNALL ST, WILMINGTON, DE, 19801</t>
+  </si>
+  <si>
+    <t>110 W 12TH ST, WILMINGTON, DE, 19801</t>
+  </si>
+  <si>
+    <t>1008 N FRENCH ST, WILMINGTON, DE, 19801</t>
+  </si>
+  <si>
+    <t>1317 TATNALL ST, WILMINGTON, DE, 19801</t>
+  </si>
+  <si>
+    <t>1825 13TH ST NW, WASHINGTON, DC, 20009</t>
+  </si>
+  <si>
+    <t>1502 18TH ST NW, WASHINGTON, DC, 20036</t>
+  </si>
+  <si>
+    <t>7TH ST NW &amp; N ST NW, WASHINGTON, DC, 20001</t>
+  </si>
+  <si>
+    <t>13TH ST NW &amp; T ST NW, WASHINGTON, DC, 20009</t>
+  </si>
+  <si>
+    <t>1816 12TH ST NW, WASHINGTON, DC, 20009</t>
+  </si>
+  <si>
+    <t>901 RHODE ISLAND AVE NW, WASHINGTON, DC, 20018</t>
+  </si>
+  <si>
+    <t>215 FLORIDA AVE NW, WASHINGTON, DC, 20001</t>
+  </si>
+  <si>
+    <t>1929 13TH ST NW, WASHINGTON, DC, 20009</t>
+  </si>
+  <si>
+    <t>1212 GIRARD ST NW, WASHINGTON, DC, 20009</t>
+  </si>
+  <si>
+    <t>1435 Q ST NW, WASHINGTON, DC, 20009</t>
+  </si>
+  <si>
+    <t>910 5TH ST NW, WASHINGTON, DC, 20001</t>
+  </si>
+  <si>
+    <t>1218 U ST NW, WASHINGTON, DC, 20009</t>
+  </si>
+  <si>
+    <t>7TH ST NW &amp; T ST NW, WASHINGTON, DC, 20001</t>
+  </si>
+  <si>
+    <t>1417 U ST NW, WASHINGTON, DC, 20009</t>
+  </si>
+  <si>
+    <t>U ST NW &amp; 15TH ST NW, WASHINGTON, DC, 20009</t>
+  </si>
+  <si>
+    <t>13TH AVE &amp; 15TH ST</t>
+  </si>
+  <si>
+    <t>514 BROAD ST, JACKSONVILLE, FL, 32202</t>
+  </si>
+  <si>
+    <t>635 W ASHLEY ST, JACKSONVILLE, FL, 32202</t>
+  </si>
+  <si>
+    <t>636 W ASHLEY ST, JACKSONVILLE, FL, 32204</t>
+  </si>
+  <si>
+    <t>422 BROAD ST, JACKSONVILLE, FL, 32202</t>
+  </si>
+  <si>
+    <t>739 W CHURCH ST, JACKSONVILLE, FL, 32202</t>
+  </si>
+  <si>
+    <t>2140 MONCRIEF RD, JACKSONVILLE, FL, 32209</t>
+  </si>
+  <si>
+    <t>128 ORANGE ST, JACKSONVILLE, FL, 32266</t>
+  </si>
+  <si>
+    <t>827 N FLORIDA AVE, LAKELAND, FL, 33801</t>
+  </si>
+  <si>
+    <t>941 NW 2ND AVE, MIAMI, FL, 33136</t>
+  </si>
+  <si>
+    <t>700 NW 2ND AVE, MIAMI, FL, 33136</t>
+  </si>
+  <si>
+    <t>311 N TARRAGONA ST, PENSACOLA, FL, 32501</t>
+  </si>
+  <si>
     <t>17TH</t>
   </si>
   <si>
@@ -848,6 +1325,51 @@
     <t>PEARL</t>
   </si>
   <si>
+    <t>TATNALL</t>
+  </si>
+  <si>
+    <t>FRENCH</t>
+  </si>
+  <si>
+    <t>13TH</t>
+  </si>
+  <si>
+    <t>RHODE ISLAND</t>
+  </si>
+  <si>
+    <t>FLORIDA</t>
+  </si>
+  <si>
+    <t>GIRARD</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>5TH</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>ASHLEY</t>
+  </si>
+  <si>
+    <t>MONCRIEF</t>
+  </si>
+  <si>
+    <t>ORANGE</t>
+  </si>
+  <si>
+    <t>2ND</t>
+  </si>
+  <si>
+    <t>TARRAGONA</t>
+  </si>
+  <si>
     <t>BIRMINGHAM</t>
   </si>
   <si>
@@ -887,12 +1409,39 @@
     <t>WATERBURY</t>
   </si>
   <si>
+    <t>WILMINGTON</t>
+  </si>
+  <si>
+    <t>WASHINGTON</t>
+  </si>
+  <si>
+    <t>JACKSONVILLE</t>
+  </si>
+  <si>
+    <t>LAKELAND</t>
+  </si>
+  <si>
+    <t>MIAMI</t>
+  </si>
+  <si>
+    <t>PENSACOLA</t>
+  </si>
+  <si>
     <t>AL</t>
   </si>
   <si>
     <t>CT</t>
   </si>
   <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
     <t>35203</t>
   </si>
   <si>
@@ -942,6 +1491,42 @@
   </si>
   <si>
     <t>06704</t>
+  </si>
+  <si>
+    <t>19801</t>
+  </si>
+  <si>
+    <t>20009</t>
+  </si>
+  <si>
+    <t>20036</t>
+  </si>
+  <si>
+    <t>20001</t>
+  </si>
+  <si>
+    <t>20018</t>
+  </si>
+  <si>
+    <t>32202</t>
+  </si>
+  <si>
+    <t>32204</t>
+  </si>
+  <si>
+    <t>32209</t>
+  </si>
+  <si>
+    <t>32266</t>
+  </si>
+  <si>
+    <t>33801</t>
+  </si>
+  <si>
+    <t>33136</t>
+  </si>
+  <si>
+    <t>32501</t>
   </si>
 </sst>
 </file>
@@ -1045,25 +1630,25 @@
         <v>1938.0</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="G2" t="s">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="H2" t="s">
-        <v>162</v>
+        <v>254</v>
       </c>
       <c r="I2" t="s">
-        <v>213</v>
+        <v>341</v>
       </c>
       <c r="J2" t="e">
         <v>#N/A</v>
@@ -1092,25 +1677,25 @@
         <v>1938.0</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="G3" t="s">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="H3" t="s">
-        <v>163</v>
+        <v>255</v>
       </c>
       <c r="I3" t="s">
-        <v>214</v>
+        <v>342</v>
       </c>
       <c r="J3" t="n">
         <v>-86.8113150658676</v>
@@ -1119,16 +1704,16 @@
         <v>33.5143485707937</v>
       </c>
       <c r="L3" t="s">
-        <v>252</v>
+        <v>411</v>
       </c>
       <c r="M3" t="s">
-        <v>278</v>
+        <v>452</v>
       </c>
       <c r="N3" t="s">
-        <v>291</v>
+        <v>471</v>
       </c>
       <c r="O3" t="s">
-        <v>293</v>
+        <v>476</v>
       </c>
     </row>
     <row r="4">
@@ -1139,25 +1724,25 @@
         <v>1938.0</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="G4" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="H4" t="s">
-        <v>164</v>
+        <v>256</v>
       </c>
       <c r="I4" t="s">
-        <v>215</v>
+        <v>343</v>
       </c>
       <c r="J4" t="n">
         <v>-86.8290693868153</v>
@@ -1166,16 +1751,16 @@
         <v>33.5320444220056</v>
       </c>
       <c r="L4" t="s">
-        <v>253</v>
+        <v>412</v>
       </c>
       <c r="M4" t="s">
-        <v>278</v>
+        <v>452</v>
       </c>
       <c r="N4" t="s">
-        <v>291</v>
+        <v>471</v>
       </c>
       <c r="O4" t="s">
-        <v>294</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5">
@@ -1186,25 +1771,25 @@
         <v>1938.0</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="G5" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="H5" t="s">
-        <v>165</v>
+        <v>257</v>
       </c>
       <c r="I5" t="s">
-        <v>216</v>
+        <v>344</v>
       </c>
       <c r="J5" t="n">
         <v>-86.8101998183382</v>
@@ -1213,16 +1798,16 @@
         <v>33.5154455727818</v>
       </c>
       <c r="L5" t="s">
-        <v>254</v>
+        <v>413</v>
       </c>
       <c r="M5" t="s">
-        <v>278</v>
+        <v>452</v>
       </c>
       <c r="N5" t="s">
-        <v>291</v>
+        <v>471</v>
       </c>
       <c r="O5" t="s">
-        <v>293</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6">
@@ -1233,25 +1818,25 @@
         <v>1938.0</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="G6" t="s">
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="H6" t="s">
-        <v>166</v>
+        <v>258</v>
       </c>
       <c r="I6" t="s">
-        <v>217</v>
+        <v>345</v>
       </c>
       <c r="J6" t="n">
         <v>-86.8101943813631</v>
@@ -1260,16 +1845,16 @@
         <v>33.5154374173175</v>
       </c>
       <c r="L6" t="s">
-        <v>254</v>
+        <v>413</v>
       </c>
       <c r="M6" t="s">
-        <v>278</v>
+        <v>452</v>
       </c>
       <c r="N6" t="s">
-        <v>291</v>
+        <v>471</v>
       </c>
       <c r="O6" t="s">
-        <v>293</v>
+        <v>476</v>
       </c>
     </row>
     <row r="7">
@@ -1280,25 +1865,25 @@
         <v>1938.0</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="G7" t="s">
-        <v>116</v>
+        <v>172</v>
       </c>
       <c r="H7" t="s">
-        <v>167</v>
+        <v>259</v>
       </c>
       <c r="I7" t="s">
-        <v>218</v>
+        <v>346</v>
       </c>
       <c r="J7" t="n">
         <v>-86.981936433337</v>
@@ -1307,16 +1892,16 @@
         <v>34.6118640107611</v>
       </c>
       <c r="L7" t="s">
-        <v>255</v>
+        <v>414</v>
       </c>
       <c r="M7" t="s">
-        <v>279</v>
+        <v>453</v>
       </c>
       <c r="N7" t="s">
-        <v>291</v>
+        <v>471</v>
       </c>
       <c r="O7" t="s">
-        <v>295</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8">
@@ -1327,25 +1912,25 @@
         <v>1938.0</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>146</v>
       </c>
       <c r="G8" t="s">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="H8" t="s">
-        <v>168</v>
+        <v>260</v>
       </c>
       <c r="I8" t="s">
-        <v>219</v>
+        <v>347</v>
       </c>
       <c r="J8" t="n">
         <v>-85.9687107717626</v>
@@ -1354,16 +1939,16 @@
         <v>33.9940141891079</v>
       </c>
       <c r="L8" t="s">
-        <v>256</v>
+        <v>415</v>
       </c>
       <c r="M8" t="s">
-        <v>280</v>
+        <v>454</v>
       </c>
       <c r="N8" t="s">
-        <v>291</v>
+        <v>471</v>
       </c>
       <c r="O8" t="s">
-        <v>296</v>
+        <v>479</v>
       </c>
     </row>
     <row r="9">
@@ -1374,25 +1959,25 @@
         <v>1938.0</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="G9" t="s">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="H9" t="s">
-        <v>169</v>
+        <v>261</v>
       </c>
       <c r="I9" t="s">
-        <v>220</v>
+        <v>348</v>
       </c>
       <c r="J9" t="n">
         <v>-86.0219558574387</v>
@@ -1401,16 +1986,16 @@
         <v>34.0151992985974</v>
       </c>
       <c r="L9" t="s">
-        <v>253</v>
+        <v>412</v>
       </c>
       <c r="M9" t="s">
-        <v>280</v>
+        <v>454</v>
       </c>
       <c r="N9" t="s">
-        <v>291</v>
+        <v>471</v>
       </c>
       <c r="O9" t="s">
-        <v>297</v>
+        <v>480</v>
       </c>
     </row>
     <row r="10">
@@ -1421,25 +2006,25 @@
         <v>1938.0</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="G10" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="H10" t="s">
-        <v>170</v>
+        <v>262</v>
       </c>
       <c r="I10" t="s">
-        <v>221</v>
+        <v>349</v>
       </c>
       <c r="J10" t="n">
         <v>-86.0222979270442</v>
@@ -1448,16 +2033,16 @@
         <v>34.0152022461397</v>
       </c>
       <c r="L10" t="s">
-        <v>253</v>
+        <v>412</v>
       </c>
       <c r="M10" t="s">
-        <v>280</v>
+        <v>454</v>
       </c>
       <c r="N10" t="s">
-        <v>291</v>
+        <v>471</v>
       </c>
       <c r="O10" t="s">
-        <v>297</v>
+        <v>480</v>
       </c>
     </row>
     <row r="11">
@@ -1468,25 +2053,25 @@
         <v>1938.0</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F11" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="G11" t="s">
-        <v>120</v>
+        <v>176</v>
       </c>
       <c r="H11" t="s">
-        <v>171</v>
+        <v>263</v>
       </c>
       <c r="I11" t="s">
-        <v>222</v>
+        <v>350</v>
       </c>
       <c r="J11" t="n">
         <v>-86.0221098420977</v>
@@ -1495,16 +2080,16 @@
         <v>34.0150862358663</v>
       </c>
       <c r="L11" t="s">
-        <v>253</v>
+        <v>412</v>
       </c>
       <c r="M11" t="s">
-        <v>280</v>
+        <v>454</v>
       </c>
       <c r="N11" t="s">
-        <v>291</v>
+        <v>471</v>
       </c>
       <c r="O11" t="s">
-        <v>297</v>
+        <v>480</v>
       </c>
     </row>
     <row r="12">
@@ -1515,25 +2100,25 @@
         <v>1938.0</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F12" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="G12" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="H12" t="s">
-        <v>172</v>
+        <v>264</v>
       </c>
       <c r="I12" t="s">
-        <v>223</v>
+        <v>351</v>
       </c>
       <c r="J12" t="n">
         <v>-86.005031796993</v>
@@ -1542,16 +2127,16 @@
         <v>34.0175041515731</v>
       </c>
       <c r="L12" t="s">
-        <v>257</v>
+        <v>416</v>
       </c>
       <c r="M12" t="s">
-        <v>280</v>
+        <v>454</v>
       </c>
       <c r="N12" t="s">
-        <v>291</v>
+        <v>471</v>
       </c>
       <c r="O12" t="s">
-        <v>297</v>
+        <v>480</v>
       </c>
     </row>
     <row r="13">
@@ -1562,25 +2147,25 @@
         <v>1938.0</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F13" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="G13" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="H13" t="s">
-        <v>173</v>
+        <v>265</v>
       </c>
       <c r="I13" t="s">
-        <v>213</v>
+        <v>341</v>
       </c>
       <c r="J13" t="e">
         <v>#N/A</v>
@@ -1609,25 +2194,25 @@
         <v>1938.0</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F14" t="s">
-        <v>98</v>
+        <v>152</v>
       </c>
       <c r="G14" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="H14" t="s">
-        <v>173</v>
+        <v>265</v>
       </c>
       <c r="I14" t="s">
-        <v>213</v>
+        <v>341</v>
       </c>
       <c r="J14" t="e">
         <v>#N/A</v>
@@ -1656,25 +2241,25 @@
         <v>1938.0</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F15" t="s">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="G15" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="H15" t="s">
-        <v>173</v>
+        <v>265</v>
       </c>
       <c r="I15" t="s">
-        <v>213</v>
+        <v>341</v>
       </c>
       <c r="J15" t="e">
         <v>#N/A</v>
@@ -1703,25 +2288,25 @@
         <v>1938.0</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F16" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="G16" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
       <c r="H16" t="s">
-        <v>174</v>
+        <v>266</v>
       </c>
       <c r="I16" t="s">
-        <v>224</v>
+        <v>352</v>
       </c>
       <c r="J16" t="n">
         <v>-88.0576867932334</v>
@@ -1730,16 +2315,16 @@
         <v>30.6960542804327</v>
       </c>
       <c r="L16" t="s">
-        <v>258</v>
+        <v>417</v>
       </c>
       <c r="M16" t="s">
-        <v>281</v>
+        <v>455</v>
       </c>
       <c r="N16" t="s">
-        <v>291</v>
+        <v>471</v>
       </c>
       <c r="O16" t="s">
-        <v>298</v>
+        <v>481</v>
       </c>
     </row>
     <row r="17">
@@ -1750,25 +2335,25 @@
         <v>1938.0</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F17" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="G17" t="s">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="H17" t="s">
-        <v>175</v>
+        <v>267</v>
       </c>
       <c r="I17" t="s">
-        <v>225</v>
+        <v>353</v>
       </c>
       <c r="J17" t="n">
         <v>-88.0524129709915</v>
@@ -1777,16 +2362,16 @@
         <v>30.6935613534321</v>
       </c>
       <c r="L17" t="s">
-        <v>259</v>
+        <v>418</v>
       </c>
       <c r="M17" t="s">
-        <v>281</v>
+        <v>455</v>
       </c>
       <c r="N17" t="s">
-        <v>291</v>
+        <v>471</v>
       </c>
       <c r="O17" t="s">
-        <v>298</v>
+        <v>481</v>
       </c>
     </row>
     <row r="18">
@@ -1797,25 +2382,25 @@
         <v>1938.0</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F18" t="s">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="G18" t="s">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="H18" t="s">
-        <v>176</v>
+        <v>268</v>
       </c>
       <c r="I18" t="s">
-        <v>226</v>
+        <v>354</v>
       </c>
       <c r="J18" t="n">
         <v>-88.0656567796014</v>
@@ -1824,16 +2409,16 @@
         <v>30.6976495325603</v>
       </c>
       <c r="L18" t="s">
-        <v>260</v>
+        <v>419</v>
       </c>
       <c r="M18" t="s">
-        <v>281</v>
+        <v>455</v>
       </c>
       <c r="N18" t="s">
-        <v>291</v>
+        <v>471</v>
       </c>
       <c r="O18" t="s">
-        <v>298</v>
+        <v>481</v>
       </c>
     </row>
     <row r="19">
@@ -1844,25 +2429,25 @@
         <v>1938.0</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="E19" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="F19" t="s">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="G19" t="s">
-        <v>126</v>
+        <v>182</v>
       </c>
       <c r="H19" t="s">
-        <v>177</v>
+        <v>269</v>
       </c>
       <c r="I19" t="s">
-        <v>213</v>
+        <v>341</v>
       </c>
       <c r="J19" t="e">
         <v>#N/A</v>
@@ -1891,25 +2476,25 @@
         <v>1938.0</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F20" t="s">
-        <v>104</v>
+        <v>158</v>
       </c>
       <c r="G20" t="s">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="H20" t="s">
-        <v>178</v>
+        <v>270</v>
       </c>
       <c r="I20" t="s">
-        <v>213</v>
+        <v>341</v>
       </c>
       <c r="J20" t="e">
         <v>#N/A</v>
@@ -1938,25 +2523,25 @@
         <v>1938.0</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F21" t="s">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c r="G21" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="H21" t="s">
-        <v>179</v>
+        <v>271</v>
       </c>
       <c r="I21" t="s">
-        <v>227</v>
+        <v>355</v>
       </c>
       <c r="J21" t="n">
         <v>-85.9677376311342</v>
@@ -1965,16 +2550,16 @@
         <v>31.8159372445166</v>
       </c>
       <c r="L21" t="s">
-        <v>261</v>
+        <v>420</v>
       </c>
       <c r="M21" t="s">
-        <v>282</v>
+        <v>456</v>
       </c>
       <c r="N21" t="s">
-        <v>291</v>
+        <v>471</v>
       </c>
       <c r="O21" t="s">
-        <v>299</v>
+        <v>482</v>
       </c>
     </row>
     <row r="22">
@@ -1985,25 +2570,25 @@
         <v>1938.0</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F22" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="G22" t="s">
-        <v>129</v>
+        <v>185</v>
       </c>
       <c r="H22" t="s">
-        <v>180</v>
+        <v>272</v>
       </c>
       <c r="I22" t="s">
-        <v>213</v>
+        <v>341</v>
       </c>
       <c r="J22" t="e">
         <v>#N/A</v>
@@ -2032,25 +2617,25 @@
         <v>1938.0</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="E23" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F23" t="s">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="G23" t="s">
-        <v>130</v>
+        <v>186</v>
       </c>
       <c r="H23" t="s">
-        <v>181</v>
+        <v>273</v>
       </c>
       <c r="I23" t="s">
-        <v>228</v>
+        <v>356</v>
       </c>
       <c r="J23" t="n">
         <v>-87.5674198878895</v>
@@ -2059,16 +2644,16 @@
         <v>33.2027155164248</v>
       </c>
       <c r="L23" t="s">
-        <v>262</v>
+        <v>421</v>
       </c>
       <c r="M23" t="s">
-        <v>283</v>
+        <v>457</v>
       </c>
       <c r="N23" t="s">
-        <v>291</v>
+        <v>471</v>
       </c>
       <c r="O23" t="s">
-        <v>300</v>
+        <v>483</v>
       </c>
     </row>
     <row r="24">
@@ -2079,25 +2664,25 @@
         <v>1938.0</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="E24" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F24" t="s">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="G24" t="s">
-        <v>131</v>
+        <v>187</v>
       </c>
       <c r="H24" t="s">
-        <v>182</v>
+        <v>274</v>
       </c>
       <c r="I24" t="s">
-        <v>229</v>
+        <v>357</v>
       </c>
       <c r="J24" t="n">
         <v>-87.5765682130659</v>
@@ -2106,16 +2691,16 @@
         <v>33.2083686457691</v>
       </c>
       <c r="L24" t="s">
-        <v>263</v>
+        <v>422</v>
       </c>
       <c r="M24" t="s">
-        <v>283</v>
+        <v>457</v>
       </c>
       <c r="N24" t="s">
-        <v>291</v>
+        <v>471</v>
       </c>
       <c r="O24" t="s">
-        <v>300</v>
+        <v>483</v>
       </c>
     </row>
     <row r="25">
@@ -2126,25 +2711,25 @@
         <v>1938.0</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F25" t="s">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c r="G25" t="s">
-        <v>132</v>
+        <v>188</v>
       </c>
       <c r="H25" t="s">
-        <v>183</v>
+        <v>275</v>
       </c>
       <c r="I25" t="s">
-        <v>230</v>
+        <v>358</v>
       </c>
       <c r="J25" t="n">
         <v>-87.5651479921732</v>
@@ -2153,16 +2738,16 @@
         <v>33.1997383053909</v>
       </c>
       <c r="L25" t="s">
-        <v>264</v>
+        <v>423</v>
       </c>
       <c r="M25" t="s">
-        <v>283</v>
+        <v>457</v>
       </c>
       <c r="N25" t="s">
-        <v>291</v>
+        <v>471</v>
       </c>
       <c r="O25" t="s">
-        <v>300</v>
+        <v>483</v>
       </c>
     </row>
     <row r="26">
@@ -2173,25 +2758,25 @@
         <v>1938.0</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F26" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="G26" t="s">
-        <v>133</v>
+        <v>189</v>
       </c>
       <c r="H26" t="s">
-        <v>184</v>
+        <v>276</v>
       </c>
       <c r="I26" t="s">
-        <v>213</v>
+        <v>341</v>
       </c>
       <c r="J26" t="e">
         <v>#N/A</v>
@@ -2220,25 +2805,25 @@
         <v>1938.0</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="E27" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="F27" t="e">
         <v>#N/A</v>
       </c>
       <c r="G27" t="s">
-        <v>134</v>
+        <v>190</v>
       </c>
       <c r="H27" t="s">
-        <v>185</v>
+        <v>277</v>
       </c>
       <c r="I27" t="s">
-        <v>231</v>
+        <v>359</v>
       </c>
       <c r="J27" t="n">
         <v>-73.1876041991036</v>
@@ -2247,16 +2832,16 @@
         <v>41.1697328006184</v>
       </c>
       <c r="L27" t="s">
-        <v>265</v>
+        <v>424</v>
       </c>
       <c r="M27" t="s">
-        <v>284</v>
+        <v>458</v>
       </c>
       <c r="N27" t="s">
-        <v>292</v>
+        <v>472</v>
       </c>
       <c r="O27" t="s">
-        <v>301</v>
+        <v>484</v>
       </c>
     </row>
     <row r="28">
@@ -2267,25 +2852,25 @@
         <v>1938.0</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="E28" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F28" t="e">
         <v>#N/A</v>
       </c>
       <c r="G28" t="s">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="H28" t="s">
-        <v>186</v>
+        <v>278</v>
       </c>
       <c r="I28" t="s">
-        <v>232</v>
+        <v>360</v>
       </c>
       <c r="J28" t="n">
         <v>-73.1425164223959</v>
@@ -2294,16 +2879,16 @@
         <v>41.199216796974</v>
       </c>
       <c r="L28" t="s">
-        <v>266</v>
+        <v>425</v>
       </c>
       <c r="M28" t="s">
-        <v>285</v>
+        <v>459</v>
       </c>
       <c r="N28" t="s">
-        <v>292</v>
+        <v>472</v>
       </c>
       <c r="O28" t="s">
-        <v>302</v>
+        <v>485</v>
       </c>
     </row>
     <row r="29">
@@ -2314,25 +2899,25 @@
         <v>1938.0</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D29" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="E29" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F29" t="e">
         <v>#N/A</v>
       </c>
       <c r="G29" t="s">
-        <v>136</v>
+        <v>192</v>
       </c>
       <c r="H29" t="s">
-        <v>187</v>
+        <v>279</v>
       </c>
       <c r="I29" t="s">
-        <v>213</v>
+        <v>341</v>
       </c>
       <c r="J29" t="e">
         <v>#N/A</v>
@@ -2361,25 +2946,25 @@
         <v>1938.0</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D30" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="E30" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F30" t="e">
         <v>#N/A</v>
       </c>
       <c r="G30" t="s">
-        <v>137</v>
+        <v>193</v>
       </c>
       <c r="H30" t="s">
-        <v>188</v>
+        <v>280</v>
       </c>
       <c r="I30" t="s">
-        <v>233</v>
+        <v>361</v>
       </c>
       <c r="J30" t="n">
         <v>-73.1748001242641</v>
@@ -2388,16 +2973,16 @@
         <v>41.1848421780769</v>
       </c>
       <c r="L30" t="s">
-        <v>255</v>
+        <v>414</v>
       </c>
       <c r="M30" t="s">
-        <v>284</v>
+        <v>458</v>
       </c>
       <c r="N30" t="s">
-        <v>292</v>
+        <v>472</v>
       </c>
       <c r="O30" t="s">
-        <v>303</v>
+        <v>486</v>
       </c>
     </row>
     <row r="31">
@@ -2408,25 +2993,25 @@
         <v>1938.0</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D31" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="E31" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="F31" t="e">
         <v>#N/A</v>
       </c>
       <c r="G31" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
       <c r="H31" t="s">
-        <v>189</v>
+        <v>281</v>
       </c>
       <c r="I31" t="s">
-        <v>234</v>
+        <v>362</v>
       </c>
       <c r="J31" t="n">
         <v>-72.7194513427762</v>
@@ -2435,16 +3020,16 @@
         <v>41.6754278310956</v>
       </c>
       <c r="L31" t="s">
-        <v>267</v>
+        <v>426</v>
       </c>
       <c r="M31" t="s">
-        <v>286</v>
+        <v>460</v>
       </c>
       <c r="N31" t="s">
-        <v>292</v>
+        <v>472</v>
       </c>
       <c r="O31" t="s">
-        <v>304</v>
+        <v>487</v>
       </c>
     </row>
     <row r="32">
@@ -2455,25 +3040,25 @@
         <v>1938.0</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="E32" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="F32" t="e">
         <v>#N/A</v>
       </c>
       <c r="G32" t="s">
-        <v>139</v>
+        <v>195</v>
       </c>
       <c r="H32" t="s">
-        <v>190</v>
+        <v>282</v>
       </c>
       <c r="I32" t="s">
-        <v>235</v>
+        <v>363</v>
       </c>
       <c r="J32" t="n">
         <v>-72.6759843367764</v>
@@ -2482,16 +3067,16 @@
         <v>41.7784449890697</v>
       </c>
       <c r="L32" t="s">
-        <v>268</v>
+        <v>427</v>
       </c>
       <c r="M32" t="s">
-        <v>286</v>
+        <v>460</v>
       </c>
       <c r="N32" t="s">
-        <v>292</v>
+        <v>472</v>
       </c>
       <c r="O32" t="s">
-        <v>305</v>
+        <v>488</v>
       </c>
     </row>
     <row r="33">
@@ -2502,25 +3087,25 @@
         <v>1938.0</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D33" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="E33" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="F33" t="e">
         <v>#N/A</v>
       </c>
       <c r="G33" t="s">
-        <v>140</v>
+        <v>196</v>
       </c>
       <c r="H33" t="s">
-        <v>191</v>
+        <v>283</v>
       </c>
       <c r="I33" t="s">
-        <v>213</v>
+        <v>341</v>
       </c>
       <c r="J33" t="e">
         <v>#N/A</v>
@@ -2549,25 +3134,25 @@
         <v>1938.0</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D34" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="E34" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="F34" t="e">
         <v>#N/A</v>
       </c>
       <c r="G34" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
       <c r="H34" t="s">
-        <v>192</v>
+        <v>284</v>
       </c>
       <c r="I34" t="s">
-        <v>236</v>
+        <v>364</v>
       </c>
       <c r="J34" t="n">
         <v>-72.9329460076841</v>
@@ -2576,16 +3161,16 @@
         <v>41.3169568176862</v>
       </c>
       <c r="L34" t="s">
-        <v>269</v>
+        <v>428</v>
       </c>
       <c r="M34" t="s">
-        <v>287</v>
+        <v>461</v>
       </c>
       <c r="N34" t="s">
-        <v>292</v>
+        <v>472</v>
       </c>
       <c r="O34" t="s">
-        <v>306</v>
+        <v>489</v>
       </c>
     </row>
     <row r="35">
@@ -2596,25 +3181,25 @@
         <v>1938.0</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D35" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="E35" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="F35" t="e">
         <v>#N/A</v>
       </c>
       <c r="G35" t="s">
-        <v>142</v>
+        <v>198</v>
       </c>
       <c r="H35" t="s">
-        <v>193</v>
+        <v>285</v>
       </c>
       <c r="I35" t="s">
-        <v>237</v>
+        <v>365</v>
       </c>
       <c r="J35" t="n">
         <v>-72.9283382677717</v>
@@ -2623,16 +3208,16 @@
         <v>41.3180050633791</v>
       </c>
       <c r="L35" t="s">
-        <v>270</v>
+        <v>429</v>
       </c>
       <c r="M35" t="s">
-        <v>287</v>
+        <v>461</v>
       </c>
       <c r="N35" t="s">
-        <v>292</v>
+        <v>472</v>
       </c>
       <c r="O35" t="s">
-        <v>306</v>
+        <v>489</v>
       </c>
     </row>
     <row r="36">
@@ -2643,43 +3228,43 @@
         <v>1938.0</v>
       </c>
       <c r="C36" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D36" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="E36" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F36" t="e">
         <v>#N/A</v>
       </c>
       <c r="G36" t="s">
-        <v>143</v>
+        <v>199</v>
       </c>
       <c r="H36" t="s">
-        <v>194</v>
+        <v>286</v>
       </c>
       <c r="I36" t="s">
-        <v>238</v>
+        <v>366</v>
       </c>
       <c r="J36" t="n">
         <v>-72.9326610116185</v>
       </c>
       <c r="K36" t="n">
-        <v>41.31483335957365</v>
+        <v>41.3148333595736</v>
       </c>
       <c r="L36" t="s">
-        <v>271</v>
+        <v>430</v>
       </c>
       <c r="M36" t="s">
-        <v>287</v>
+        <v>461</v>
       </c>
       <c r="N36" t="s">
-        <v>292</v>
+        <v>472</v>
       </c>
       <c r="O36" t="s">
-        <v>306</v>
+        <v>489</v>
       </c>
     </row>
     <row r="37">
@@ -2690,43 +3275,43 @@
         <v>1938.0</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D37" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="E37" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F37" t="e">
         <v>#N/A</v>
       </c>
       <c r="G37" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
       <c r="H37" t="s">
-        <v>195</v>
+        <v>287</v>
       </c>
       <c r="I37" t="s">
-        <v>239</v>
+        <v>367</v>
       </c>
       <c r="J37" t="n">
-        <v>-72.93274094154106</v>
+        <v>-72.9327409415411</v>
       </c>
       <c r="K37" t="n">
-        <v>41.31456929035583</v>
+        <v>41.3145692903558</v>
       </c>
       <c r="L37" t="s">
-        <v>271</v>
+        <v>430</v>
       </c>
       <c r="M37" t="s">
-        <v>287</v>
+        <v>461</v>
       </c>
       <c r="N37" t="s">
-        <v>292</v>
+        <v>472</v>
       </c>
       <c r="O37" t="s">
-        <v>306</v>
+        <v>489</v>
       </c>
     </row>
     <row r="38">
@@ -2737,43 +3322,43 @@
         <v>1938.0</v>
       </c>
       <c r="C38" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D38" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="E38" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F38" t="e">
         <v>#N/A</v>
       </c>
       <c r="G38" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="H38" t="s">
-        <v>196</v>
+        <v>288</v>
       </c>
       <c r="I38" t="s">
-        <v>240</v>
+        <v>368</v>
       </c>
       <c r="J38" t="n">
-        <v>-72.93279529277156</v>
+        <v>-72.9327952927716</v>
       </c>
       <c r="K38" t="n">
-        <v>41.31475770802021</v>
+        <v>41.3147577080202</v>
       </c>
       <c r="L38" t="s">
-        <v>271</v>
+        <v>430</v>
       </c>
       <c r="M38" t="s">
-        <v>287</v>
+        <v>461</v>
       </c>
       <c r="N38" t="s">
-        <v>292</v>
+        <v>472</v>
       </c>
       <c r="O38" t="s">
-        <v>306</v>
+        <v>489</v>
       </c>
     </row>
     <row r="39">
@@ -2784,25 +3369,25 @@
         <v>1938.0</v>
       </c>
       <c r="C39" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D39" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="E39" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F39" t="e">
         <v>#N/A</v>
       </c>
       <c r="G39" t="s">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="H39" t="s">
-        <v>197</v>
+        <v>289</v>
       </c>
       <c r="I39" t="s">
-        <v>213</v>
+        <v>341</v>
       </c>
       <c r="J39" t="e">
         <v>#N/A</v>
@@ -2831,43 +3416,43 @@
         <v>1938.0</v>
       </c>
       <c r="C40" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D40" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="E40" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F40" t="e">
         <v>#N/A</v>
       </c>
       <c r="G40" t="s">
-        <v>147</v>
+        <v>203</v>
       </c>
       <c r="H40" t="s">
-        <v>198</v>
+        <v>290</v>
       </c>
       <c r="I40" t="s">
-        <v>241</v>
+        <v>369</v>
       </c>
       <c r="J40" t="n">
-        <v>-72.09892489200932</v>
+        <v>-72.0989248920093</v>
       </c>
       <c r="K40" t="n">
-        <v>41.351472071654875</v>
+        <v>41.3514720716549</v>
       </c>
       <c r="L40" t="s">
-        <v>272</v>
+        <v>431</v>
       </c>
       <c r="M40" t="s">
-        <v>288</v>
+        <v>462</v>
       </c>
       <c r="N40" t="s">
-        <v>292</v>
+        <v>472</v>
       </c>
       <c r="O40" t="s">
-        <v>307</v>
+        <v>490</v>
       </c>
     </row>
     <row r="41">
@@ -2878,25 +3463,25 @@
         <v>1938.0</v>
       </c>
       <c r="C41" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D41" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="E41" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F41" t="e">
         <v>#N/A</v>
       </c>
       <c r="G41" t="s">
-        <v>148</v>
+        <v>204</v>
       </c>
       <c r="H41" t="s">
-        <v>199</v>
+        <v>291</v>
       </c>
       <c r="I41" t="s">
-        <v>213</v>
+        <v>341</v>
       </c>
       <c r="J41" t="e">
         <v>#N/A</v>
@@ -2925,43 +3510,43 @@
         <v>1938.0</v>
       </c>
       <c r="C42" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D42" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="E42" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F42" t="e">
         <v>#N/A</v>
       </c>
       <c r="G42" t="s">
-        <v>149</v>
+        <v>205</v>
       </c>
       <c r="H42" t="s">
-        <v>200</v>
+        <v>292</v>
       </c>
       <c r="I42" t="s">
-        <v>242</v>
+        <v>370</v>
       </c>
       <c r="J42" t="n">
         <v>-72.1036935417646</v>
       </c>
       <c r="K42" t="n">
-        <v>41.35473988848303</v>
+        <v>41.354739888483</v>
       </c>
       <c r="L42" t="s">
-        <v>273</v>
+        <v>432</v>
       </c>
       <c r="M42" t="s">
-        <v>288</v>
+        <v>462</v>
       </c>
       <c r="N42" t="s">
-        <v>292</v>
+        <v>472</v>
       </c>
       <c r="O42" t="s">
-        <v>307</v>
+        <v>490</v>
       </c>
     </row>
     <row r="43">
@@ -2972,43 +3557,43 @@
         <v>1938.0</v>
       </c>
       <c r="C43" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D43" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="E43" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F43" t="e">
         <v>#N/A</v>
       </c>
       <c r="G43" t="s">
-        <v>150</v>
+        <v>206</v>
       </c>
       <c r="H43" t="s">
-        <v>201</v>
+        <v>293</v>
       </c>
       <c r="I43" t="s">
-        <v>243</v>
+        <v>371</v>
       </c>
       <c r="J43" t="n">
-        <v>-72.09455312997488</v>
+        <v>-72.0945531299749</v>
       </c>
       <c r="K43" t="n">
         <v>41.3529769238668</v>
       </c>
       <c r="L43" t="s">
-        <v>274</v>
+        <v>433</v>
       </c>
       <c r="M43" t="s">
-        <v>288</v>
+        <v>462</v>
       </c>
       <c r="N43" t="s">
-        <v>292</v>
+        <v>472</v>
       </c>
       <c r="O43" t="s">
-        <v>307</v>
+        <v>490</v>
       </c>
     </row>
     <row r="44">
@@ -3019,43 +3604,43 @@
         <v>1938.0</v>
       </c>
       <c r="C44" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D44" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="E44" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F44" t="e">
         <v>#N/A</v>
       </c>
       <c r="G44" t="s">
-        <v>151</v>
+        <v>207</v>
       </c>
       <c r="H44" t="s">
-        <v>202</v>
+        <v>294</v>
       </c>
       <c r="I44" t="s">
-        <v>244</v>
+        <v>372</v>
       </c>
       <c r="J44" t="n">
-        <v>-72.10613109643866</v>
+        <v>-72.1061310964387</v>
       </c>
       <c r="K44" t="n">
         <v>41.3491636454073</v>
       </c>
       <c r="L44" t="s">
-        <v>274</v>
+        <v>433</v>
       </c>
       <c r="M44" t="s">
-        <v>288</v>
+        <v>462</v>
       </c>
       <c r="N44" t="s">
-        <v>292</v>
+        <v>472</v>
       </c>
       <c r="O44" t="s">
-        <v>307</v>
+        <v>490</v>
       </c>
     </row>
     <row r="45">
@@ -3066,25 +3651,25 @@
         <v>1938.0</v>
       </c>
       <c r="C45" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D45" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="E45" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="F45" t="e">
         <v>#N/A</v>
       </c>
       <c r="G45" t="s">
-        <v>152</v>
+        <v>208</v>
       </c>
       <c r="H45" t="s">
-        <v>203</v>
+        <v>295</v>
       </c>
       <c r="I45" t="s">
-        <v>213</v>
+        <v>341</v>
       </c>
       <c r="J45" t="e">
         <v>#N/A</v>
@@ -3113,43 +3698,43 @@
         <v>1938.0</v>
       </c>
       <c r="C46" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D46" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="E46" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="F46" t="e">
         <v>#N/A</v>
       </c>
       <c r="G46" t="s">
-        <v>153</v>
+        <v>209</v>
       </c>
       <c r="H46" t="s">
-        <v>204</v>
+        <v>296</v>
       </c>
       <c r="I46" t="s">
-        <v>245</v>
+        <v>373</v>
       </c>
       <c r="J46" t="n">
-        <v>-73.54353504404457</v>
+        <v>-73.5435350440446</v>
       </c>
       <c r="K46" t="n">
         <v>41.0437896616415</v>
       </c>
       <c r="L46" t="s">
-        <v>275</v>
+        <v>434</v>
       </c>
       <c r="M46" t="s">
-        <v>289</v>
+        <v>463</v>
       </c>
       <c r="N46" t="s">
-        <v>292</v>
+        <v>472</v>
       </c>
       <c r="O46" t="s">
-        <v>308</v>
+        <v>491</v>
       </c>
     </row>
     <row r="47">
@@ -3160,43 +3745,43 @@
         <v>1938.0</v>
       </c>
       <c r="C47" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D47" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="E47" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F47" t="e">
         <v>#N/A</v>
       </c>
       <c r="G47" t="s">
-        <v>154</v>
+        <v>210</v>
       </c>
       <c r="H47" t="s">
-        <v>205</v>
+        <v>297</v>
       </c>
       <c r="I47" t="s">
-        <v>246</v>
+        <v>374</v>
       </c>
       <c r="J47" t="n">
-        <v>-73.03604009890913</v>
+        <v>-73.0360400989091</v>
       </c>
       <c r="K47" t="n">
-        <v>41.56128993053742</v>
+        <v>41.5612899305374</v>
       </c>
       <c r="L47" t="s">
-        <v>276</v>
+        <v>435</v>
       </c>
       <c r="M47" t="s">
-        <v>290</v>
+        <v>464</v>
       </c>
       <c r="N47" t="s">
-        <v>292</v>
+        <v>472</v>
       </c>
       <c r="O47" t="s">
-        <v>309</v>
+        <v>492</v>
       </c>
     </row>
     <row r="48">
@@ -3207,25 +3792,25 @@
         <v>1938.0</v>
       </c>
       <c r="C48" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D48" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="E48" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F48" t="e">
         <v>#N/A</v>
       </c>
       <c r="G48" t="s">
-        <v>155</v>
+        <v>211</v>
       </c>
       <c r="H48" t="s">
-        <v>206</v>
+        <v>298</v>
       </c>
       <c r="I48" t="s">
-        <v>213</v>
+        <v>341</v>
       </c>
       <c r="J48" t="e">
         <v>#N/A</v>
@@ -3254,25 +3839,25 @@
         <v>1938.0</v>
       </c>
       <c r="C49" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D49" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="E49" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F49" t="e">
         <v>#N/A</v>
       </c>
       <c r="G49" t="s">
-        <v>156</v>
+        <v>212</v>
       </c>
       <c r="H49" t="s">
-        <v>207</v>
+        <v>299</v>
       </c>
       <c r="I49" t="s">
-        <v>213</v>
+        <v>341</v>
       </c>
       <c r="J49" t="e">
         <v>#N/A</v>
@@ -3301,43 +3886,43 @@
         <v>1938.0</v>
       </c>
       <c r="C50" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="E50" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F50" t="e">
         <v>#N/A</v>
       </c>
       <c r="G50" t="s">
-        <v>157</v>
+        <v>213</v>
       </c>
       <c r="H50" t="s">
-        <v>208</v>
+        <v>300</v>
       </c>
       <c r="I50" t="s">
-        <v>247</v>
+        <v>375</v>
       </c>
       <c r="J50" t="n">
-        <v>-73.03791040117098</v>
+        <v>-73.037910401171</v>
       </c>
       <c r="K50" t="n">
-        <v>41.563258875315846</v>
+        <v>41.5632588753159</v>
       </c>
       <c r="L50" t="s">
-        <v>277</v>
+        <v>436</v>
       </c>
       <c r="M50" t="s">
-        <v>290</v>
+        <v>464</v>
       </c>
       <c r="N50" t="s">
-        <v>292</v>
+        <v>472</v>
       </c>
       <c r="O50" t="s">
-        <v>309</v>
+        <v>492</v>
       </c>
     </row>
     <row r="51">
@@ -3348,43 +3933,43 @@
         <v>1938.0</v>
       </c>
       <c r="C51" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D51" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="E51" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F51" t="e">
         <v>#N/A</v>
       </c>
       <c r="G51" t="s">
-        <v>158</v>
+        <v>214</v>
       </c>
       <c r="H51" t="s">
-        <v>209</v>
+        <v>301</v>
       </c>
       <c r="I51" t="s">
-        <v>248</v>
+        <v>376</v>
       </c>
       <c r="J51" t="n">
         <v>-73.0381966494124</v>
       </c>
       <c r="K51" t="n">
-        <v>41.563742906389116</v>
+        <v>41.5637429063891</v>
       </c>
       <c r="L51" t="s">
-        <v>277</v>
+        <v>436</v>
       </c>
       <c r="M51" t="s">
-        <v>290</v>
+        <v>464</v>
       </c>
       <c r="N51" t="s">
-        <v>292</v>
+        <v>472</v>
       </c>
       <c r="O51" t="s">
-        <v>309</v>
+        <v>492</v>
       </c>
     </row>
     <row r="52">
@@ -3395,43 +3980,43 @@
         <v>1938.0</v>
       </c>
       <c r="C52" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D52" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="E52" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F52" t="e">
         <v>#N/A</v>
       </c>
       <c r="G52" t="s">
-        <v>159</v>
+        <v>215</v>
       </c>
       <c r="H52" t="s">
-        <v>210</v>
+        <v>302</v>
       </c>
       <c r="I52" t="s">
-        <v>249</v>
+        <v>377</v>
       </c>
       <c r="J52" t="n">
-        <v>-73.03767095611347</v>
+        <v>-73.0376709561135</v>
       </c>
       <c r="K52" t="n">
-        <v>41.562421005865986</v>
+        <v>41.562421005866</v>
       </c>
       <c r="L52" t="s">
-        <v>277</v>
+        <v>436</v>
       </c>
       <c r="M52" t="s">
-        <v>290</v>
+        <v>464</v>
       </c>
       <c r="N52" t="s">
-        <v>292</v>
+        <v>472</v>
       </c>
       <c r="O52" t="s">
-        <v>309</v>
+        <v>492</v>
       </c>
     </row>
     <row r="53">
@@ -3442,43 +4027,43 @@
         <v>1938.0</v>
       </c>
       <c r="C53" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D53" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="E53" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F53" t="e">
         <v>#N/A</v>
       </c>
       <c r="G53" t="s">
-        <v>160</v>
+        <v>216</v>
       </c>
       <c r="H53" t="s">
-        <v>211</v>
+        <v>303</v>
       </c>
       <c r="I53" t="s">
-        <v>250</v>
+        <v>378</v>
       </c>
       <c r="J53" t="n">
-        <v>-73.03758834084984</v>
+        <v>-73.0375883408498</v>
       </c>
       <c r="K53" t="n">
-        <v>41.561648399456224</v>
+        <v>41.5616483994562</v>
       </c>
       <c r="L53" t="s">
-        <v>277</v>
+        <v>436</v>
       </c>
       <c r="M53" t="s">
-        <v>290</v>
+        <v>464</v>
       </c>
       <c r="N53" t="s">
-        <v>292</v>
+        <v>472</v>
       </c>
       <c r="O53" t="s">
-        <v>309</v>
+        <v>492</v>
       </c>
     </row>
     <row r="54">
@@ -3489,43 +4074,1923 @@
         <v>1938.0</v>
       </c>
       <c r="C54" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D54" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="E54" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="F54" t="e">
         <v>#N/A</v>
       </c>
       <c r="G54" t="s">
-        <v>161</v>
+        <v>217</v>
       </c>
       <c r="H54" t="s">
-        <v>212</v>
+        <v>304</v>
       </c>
       <c r="I54" t="s">
-        <v>251</v>
+        <v>379</v>
       </c>
       <c r="J54" t="n">
-        <v>-73.03750015368333</v>
+        <v>-73.0375001536833</v>
       </c>
       <c r="K54" t="n">
         <v>41.5623010119887</v>
       </c>
       <c r="L54" t="s">
-        <v>277</v>
+        <v>436</v>
       </c>
       <c r="M54" t="s">
-        <v>290</v>
+        <v>464</v>
       </c>
       <c r="N54" t="s">
-        <v>292</v>
+        <v>472</v>
       </c>
       <c r="O54" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>109</v>
+      </c>
+      <c r="D55" t="s">
+        <v>127</v>
+      </c>
+      <c r="E55" t="s">
+        <v>135</v>
+      </c>
+      <c r="F55" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G55" t="s">
+        <v>218</v>
+      </c>
+      <c r="H55" t="s">
+        <v>305</v>
+      </c>
+      <c r="I55" t="s">
+        <v>341</v>
+      </c>
+      <c r="J55" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K55" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L55" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M55" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N55" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O55" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>109</v>
+      </c>
+      <c r="D56" t="s">
+        <v>127</v>
+      </c>
+      <c r="E56" t="s">
+        <v>135</v>
+      </c>
+      <c r="F56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G56" t="s">
+        <v>219</v>
+      </c>
+      <c r="H56" t="s">
+        <v>306</v>
+      </c>
+      <c r="I56" t="s">
+        <v>341</v>
+      </c>
+      <c r="J56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O56" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D57" t="s">
+        <v>127</v>
+      </c>
+      <c r="E57" t="s">
+        <v>135</v>
+      </c>
+      <c r="F57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G57" t="s">
+        <v>220</v>
+      </c>
+      <c r="H57" t="s">
+        <v>307</v>
+      </c>
+      <c r="I57" t="s">
+        <v>341</v>
+      </c>
+      <c r="J57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O57" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>109</v>
+      </c>
+      <c r="D58" t="s">
+        <v>127</v>
+      </c>
+      <c r="E58" t="s">
+        <v>135</v>
+      </c>
+      <c r="F58" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G58" t="s">
+        <v>221</v>
+      </c>
+      <c r="H58" t="s">
+        <v>308</v>
+      </c>
+      <c r="I58" t="s">
+        <v>341</v>
+      </c>
+      <c r="J58" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K58" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L58" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M58" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N58" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O58" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>109</v>
+      </c>
+      <c r="D59" t="s">
+        <v>127</v>
+      </c>
+      <c r="E59" t="s">
+        <v>135</v>
+      </c>
+      <c r="F59" t="s">
+        <v>165</v>
+      </c>
+      <c r="G59" t="s">
+        <v>219</v>
+      </c>
+      <c r="H59" t="s">
+        <v>306</v>
+      </c>
+      <c r="I59" t="s">
+        <v>341</v>
+      </c>
+      <c r="J59" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K59" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L59" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M59" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N59" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O59" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>109</v>
+      </c>
+      <c r="D60" t="s">
+        <v>127</v>
+      </c>
+      <c r="E60" t="s">
+        <v>135</v>
+      </c>
+      <c r="F60" t="s">
+        <v>166</v>
+      </c>
+      <c r="G60" t="s">
+        <v>219</v>
+      </c>
+      <c r="H60" t="s">
+        <v>306</v>
+      </c>
+      <c r="I60" t="s">
+        <v>341</v>
+      </c>
+      <c r="J60" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K60" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L60" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M60" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N60" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O60" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>109</v>
+      </c>
+      <c r="D61" t="s">
+        <v>127</v>
+      </c>
+      <c r="E61" t="s">
+        <v>135</v>
+      </c>
+      <c r="F61" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G61" t="s">
+        <v>220</v>
+      </c>
+      <c r="H61" t="s">
+        <v>307</v>
+      </c>
+      <c r="I61" t="s">
+        <v>341</v>
+      </c>
+      <c r="J61" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K61" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L61" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M61" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N61" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O61" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>109</v>
+      </c>
+      <c r="D62" t="s">
+        <v>128</v>
+      </c>
+      <c r="E62" t="s">
+        <v>134</v>
+      </c>
+      <c r="F62" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G62" t="s">
+        <v>222</v>
+      </c>
+      <c r="H62" t="s">
         <v>309</v>
+      </c>
+      <c r="I62" t="s">
+        <v>380</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-75.5493300113921</v>
+      </c>
+      <c r="K62" t="n">
+        <v>39.7474398054402</v>
+      </c>
+      <c r="L62" t="s">
+        <v>437</v>
+      </c>
+      <c r="M62" t="s">
+        <v>465</v>
+      </c>
+      <c r="N62" t="s">
+        <v>473</v>
+      </c>
+      <c r="O62" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>109</v>
+      </c>
+      <c r="D63" t="s">
+        <v>128</v>
+      </c>
+      <c r="E63" t="s">
+        <v>134</v>
+      </c>
+      <c r="F63" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G63" t="s">
+        <v>223</v>
+      </c>
+      <c r="H63" t="s">
+        <v>310</v>
+      </c>
+      <c r="I63" t="s">
+        <v>381</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-75.548033259881</v>
+      </c>
+      <c r="K63" t="n">
+        <v>39.7478471710777</v>
+      </c>
+      <c r="L63" t="s">
+        <v>421</v>
+      </c>
+      <c r="M63" t="s">
+        <v>465</v>
+      </c>
+      <c r="N63" t="s">
+        <v>473</v>
+      </c>
+      <c r="O63" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>109</v>
+      </c>
+      <c r="D64" t="s">
+        <v>128</v>
+      </c>
+      <c r="E64" t="s">
+        <v>134</v>
+      </c>
+      <c r="F64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G64" t="s">
+        <v>224</v>
+      </c>
+      <c r="H64" t="s">
+        <v>311</v>
+      </c>
+      <c r="I64" t="s">
+        <v>382</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-75.5459142852752</v>
+      </c>
+      <c r="K64" t="n">
+        <v>39.7449178629458</v>
+      </c>
+      <c r="L64" t="s">
+        <v>438</v>
+      </c>
+      <c r="M64" t="s">
+        <v>465</v>
+      </c>
+      <c r="N64" t="s">
+        <v>473</v>
+      </c>
+      <c r="O64" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>109</v>
+      </c>
+      <c r="D65" t="s">
+        <v>128</v>
+      </c>
+      <c r="E65" t="s">
+        <v>134</v>
+      </c>
+      <c r="F65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G65" t="s">
+        <v>225</v>
+      </c>
+      <c r="H65" t="s">
+        <v>312</v>
+      </c>
+      <c r="I65" t="s">
+        <v>383</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-75.5481252777236</v>
+      </c>
+      <c r="K65" t="n">
+        <v>39.7494633757811</v>
+      </c>
+      <c r="L65" t="s">
+        <v>437</v>
+      </c>
+      <c r="M65" t="s">
+        <v>465</v>
+      </c>
+      <c r="N65" t="s">
+        <v>473</v>
+      </c>
+      <c r="O65" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C66" t="s">
+        <v>110</v>
+      </c>
+      <c r="D66" t="s">
+        <v>129</v>
+      </c>
+      <c r="E66" t="s">
+        <v>135</v>
+      </c>
+      <c r="F66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G66" t="s">
+        <v>226</v>
+      </c>
+      <c r="H66" t="s">
+        <v>313</v>
+      </c>
+      <c r="I66" t="s">
+        <v>341</v>
+      </c>
+      <c r="J66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O66" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>79</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>110</v>
+      </c>
+      <c r="D67" t="s">
+        <v>129</v>
+      </c>
+      <c r="E67" t="s">
+        <v>135</v>
+      </c>
+      <c r="F67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G67" t="s">
+        <v>227</v>
+      </c>
+      <c r="H67" t="s">
+        <v>314</v>
+      </c>
+      <c r="I67" t="s">
+        <v>384</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-77.0295470698206</v>
+      </c>
+      <c r="K67" t="n">
+        <v>38.914479329056</v>
+      </c>
+      <c r="L67" t="s">
+        <v>439</v>
+      </c>
+      <c r="M67" t="s">
+        <v>466</v>
+      </c>
+      <c r="N67" t="s">
+        <v>474</v>
+      </c>
+      <c r="O67" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>80</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>110</v>
+      </c>
+      <c r="D68" t="s">
+        <v>129</v>
+      </c>
+      <c r="E68" t="s">
+        <v>135</v>
+      </c>
+      <c r="F68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G68" t="s">
+        <v>228</v>
+      </c>
+      <c r="H68" t="s">
+        <v>315</v>
+      </c>
+      <c r="I68" t="s">
+        <v>385</v>
+      </c>
+      <c r="J68" t="n">
+        <v>-77.0417451402957</v>
+      </c>
+      <c r="K68" t="n">
+        <v>38.9097567644737</v>
+      </c>
+      <c r="L68" t="s">
+        <v>413</v>
+      </c>
+      <c r="M68" t="s">
+        <v>466</v>
+      </c>
+      <c r="N68" t="s">
+        <v>474</v>
+      </c>
+      <c r="O68" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>81</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C69" t="s">
+        <v>110</v>
+      </c>
+      <c r="D69" t="s">
+        <v>129</v>
+      </c>
+      <c r="E69" t="s">
+        <v>135</v>
+      </c>
+      <c r="F69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G69" t="s">
+        <v>229</v>
+      </c>
+      <c r="H69" t="s">
+        <v>316</v>
+      </c>
+      <c r="I69" t="s">
+        <v>386</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-77.0219212091946</v>
+      </c>
+      <c r="K69" t="n">
+        <v>38.907244212084</v>
+      </c>
+      <c r="L69" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M69" t="s">
+        <v>466</v>
+      </c>
+      <c r="N69" t="s">
+        <v>474</v>
+      </c>
+      <c r="O69" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>82</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>110</v>
+      </c>
+      <c r="D70" t="s">
+        <v>129</v>
+      </c>
+      <c r="E70" t="s">
+        <v>135</v>
+      </c>
+      <c r="F70" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G70" t="s">
+        <v>230</v>
+      </c>
+      <c r="H70" t="s">
+        <v>317</v>
+      </c>
+      <c r="I70" t="s">
+        <v>387</v>
+      </c>
+      <c r="J70" t="n">
+        <v>-77.0296207062875</v>
+      </c>
+      <c r="K70" t="n">
+        <v>38.9155782106912</v>
+      </c>
+      <c r="L70" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M70" t="s">
+        <v>466</v>
+      </c>
+      <c r="N70" t="s">
+        <v>474</v>
+      </c>
+      <c r="O70" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>83</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C71" t="s">
+        <v>110</v>
+      </c>
+      <c r="D71" t="s">
+        <v>129</v>
+      </c>
+      <c r="E71" t="s">
+        <v>135</v>
+      </c>
+      <c r="F71" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G71" t="s">
+        <v>231</v>
+      </c>
+      <c r="H71" t="s">
+        <v>318</v>
+      </c>
+      <c r="I71" t="s">
+        <v>388</v>
+      </c>
+      <c r="J71" t="n">
+        <v>-77.0281553432906</v>
+      </c>
+      <c r="K71" t="n">
+        <v>38.9143727773704</v>
+      </c>
+      <c r="L71" t="s">
+        <v>421</v>
+      </c>
+      <c r="M71" t="s">
+        <v>466</v>
+      </c>
+      <c r="N71" t="s">
+        <v>474</v>
+      </c>
+      <c r="O71" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>84</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>110</v>
+      </c>
+      <c r="D72" t="s">
+        <v>129</v>
+      </c>
+      <c r="E72" t="s">
+        <v>135</v>
+      </c>
+      <c r="F72" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G72" t="s">
+        <v>232</v>
+      </c>
+      <c r="H72" t="s">
+        <v>319</v>
+      </c>
+      <c r="I72" t="s">
+        <v>389</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-76.9937363573609</v>
+      </c>
+      <c r="K72" t="n">
+        <v>38.9219005286626</v>
+      </c>
+      <c r="L72" t="s">
+        <v>440</v>
+      </c>
+      <c r="M72" t="s">
+        <v>466</v>
+      </c>
+      <c r="N72" t="s">
+        <v>474</v>
+      </c>
+      <c r="O72" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>85</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C73" t="s">
+        <v>110</v>
+      </c>
+      <c r="D73" t="s">
+        <v>129</v>
+      </c>
+      <c r="E73" t="s">
+        <v>135</v>
+      </c>
+      <c r="F73" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G73" t="s">
+        <v>233</v>
+      </c>
+      <c r="H73" t="s">
+        <v>320</v>
+      </c>
+      <c r="I73" t="s">
+        <v>390</v>
+      </c>
+      <c r="J73" t="n">
+        <v>-77.01459809738002</v>
+      </c>
+      <c r="K73" t="n">
+        <v>38.913216145225086</v>
+      </c>
+      <c r="L73" t="s">
+        <v>441</v>
+      </c>
+      <c r="M73" t="s">
+        <v>466</v>
+      </c>
+      <c r="N73" t="s">
+        <v>474</v>
+      </c>
+      <c r="O73" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>86</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C74" t="s">
+        <v>110</v>
+      </c>
+      <c r="D74" t="s">
+        <v>129</v>
+      </c>
+      <c r="E74" t="s">
+        <v>135</v>
+      </c>
+      <c r="F74" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G74" t="s">
+        <v>234</v>
+      </c>
+      <c r="H74" t="s">
+        <v>321</v>
+      </c>
+      <c r="I74" t="s">
+        <v>391</v>
+      </c>
+      <c r="J74" t="n">
+        <v>-77.02955110701818</v>
+      </c>
+      <c r="K74" t="n">
+        <v>38.916420652308766</v>
+      </c>
+      <c r="L74" t="s">
+        <v>439</v>
+      </c>
+      <c r="M74" t="s">
+        <v>466</v>
+      </c>
+      <c r="N74" t="s">
+        <v>474</v>
+      </c>
+      <c r="O74" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>87</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C75" t="s">
+        <v>110</v>
+      </c>
+      <c r="D75" t="s">
+        <v>129</v>
+      </c>
+      <c r="E75" t="s">
+        <v>135</v>
+      </c>
+      <c r="F75" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G75" t="s">
+        <v>235</v>
+      </c>
+      <c r="H75" t="s">
+        <v>322</v>
+      </c>
+      <c r="I75" t="s">
+        <v>392</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-77.02854145732209</v>
+      </c>
+      <c r="K75" t="n">
+        <v>38.9256909129142</v>
+      </c>
+      <c r="L75" t="s">
+        <v>442</v>
+      </c>
+      <c r="M75" t="s">
+        <v>466</v>
+      </c>
+      <c r="N75" t="s">
+        <v>474</v>
+      </c>
+      <c r="O75" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>88</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>110</v>
+      </c>
+      <c r="D76" t="s">
+        <v>129</v>
+      </c>
+      <c r="E76" t="s">
+        <v>135</v>
+      </c>
+      <c r="F76" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G76" t="s">
+        <v>236</v>
+      </c>
+      <c r="H76" t="s">
+        <v>323</v>
+      </c>
+      <c r="I76" t="s">
+        <v>393</v>
+      </c>
+      <c r="J76" t="n">
+        <v>-77.03287812844063</v>
+      </c>
+      <c r="K76" t="n">
+        <v>38.91118050739781</v>
+      </c>
+      <c r="L76" t="s">
+        <v>443</v>
+      </c>
+      <c r="M76" t="s">
+        <v>466</v>
+      </c>
+      <c r="N76" t="s">
+        <v>474</v>
+      </c>
+      <c r="O76" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>89</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C77" t="s">
+        <v>110</v>
+      </c>
+      <c r="D77" t="s">
+        <v>129</v>
+      </c>
+      <c r="E77" t="s">
+        <v>136</v>
+      </c>
+      <c r="F77" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G77" t="s">
+        <v>237</v>
+      </c>
+      <c r="H77" t="s">
+        <v>324</v>
+      </c>
+      <c r="I77" t="s">
+        <v>394</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-77.01900233380302</v>
+      </c>
+      <c r="K77" t="n">
+        <v>38.90148995869146</v>
+      </c>
+      <c r="L77" t="s">
+        <v>444</v>
+      </c>
+      <c r="M77" t="s">
+        <v>466</v>
+      </c>
+      <c r="N77" t="s">
+        <v>474</v>
+      </c>
+      <c r="O77" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>90</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C78" t="s">
+        <v>110</v>
+      </c>
+      <c r="D78" t="s">
+        <v>129</v>
+      </c>
+      <c r="E78" t="s">
+        <v>137</v>
+      </c>
+      <c r="F78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G78" t="s">
+        <v>238</v>
+      </c>
+      <c r="H78" t="s">
+        <v>325</v>
+      </c>
+      <c r="I78" t="s">
+        <v>395</v>
+      </c>
+      <c r="J78" t="n">
+        <v>-77.0284109682986</v>
+      </c>
+      <c r="K78" t="n">
+        <v>38.91694291467242</v>
+      </c>
+      <c r="L78" t="s">
+        <v>445</v>
+      </c>
+      <c r="M78" t="s">
+        <v>466</v>
+      </c>
+      <c r="N78" t="s">
+        <v>474</v>
+      </c>
+      <c r="O78" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>91</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C79" t="s">
+        <v>110</v>
+      </c>
+      <c r="D79" t="s">
+        <v>129</v>
+      </c>
+      <c r="E79" t="s">
+        <v>137</v>
+      </c>
+      <c r="F79" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G79" t="s">
+        <v>239</v>
+      </c>
+      <c r="H79" t="s">
+        <v>326</v>
+      </c>
+      <c r="I79" t="s">
+        <v>396</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-77.02192120868584</v>
+      </c>
+      <c r="K79" t="n">
+        <v>38.91556921040576</v>
+      </c>
+      <c r="L79" t="s">
+        <v>446</v>
+      </c>
+      <c r="M79" t="s">
+        <v>466</v>
+      </c>
+      <c r="N79" t="s">
+        <v>474</v>
+      </c>
+      <c r="O79" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C80" t="s">
+        <v>110</v>
+      </c>
+      <c r="D80" t="s">
+        <v>129</v>
+      </c>
+      <c r="E80" t="s">
+        <v>138</v>
+      </c>
+      <c r="F80" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G80" t="s">
+        <v>240</v>
+      </c>
+      <c r="H80" t="s">
+        <v>327</v>
+      </c>
+      <c r="I80" t="s">
+        <v>397</v>
+      </c>
+      <c r="J80" t="n">
+        <v>-77.03341999283333</v>
+      </c>
+      <c r="K80" t="n">
+        <v>38.91705750623342</v>
+      </c>
+      <c r="L80" t="s">
+        <v>445</v>
+      </c>
+      <c r="M80" t="s">
+        <v>466</v>
+      </c>
+      <c r="N80" t="s">
+        <v>474</v>
+      </c>
+      <c r="O80" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>93</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C81" t="s">
+        <v>110</v>
+      </c>
+      <c r="D81" t="s">
+        <v>129</v>
+      </c>
+      <c r="E81" t="s">
+        <v>139</v>
+      </c>
+      <c r="F81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G81" t="s">
+        <v>241</v>
+      </c>
+      <c r="H81" t="s">
+        <v>328</v>
+      </c>
+      <c r="I81" t="s">
+        <v>398</v>
+      </c>
+      <c r="J81" t="n">
+        <v>-77.03453020467171</v>
+      </c>
+      <c r="K81" t="n">
+        <v>38.917000210587815</v>
+      </c>
+      <c r="L81" t="s">
+        <v>446</v>
+      </c>
+      <c r="M81" t="s">
+        <v>466</v>
+      </c>
+      <c r="N81" t="s">
+        <v>474</v>
+      </c>
+      <c r="O81" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>94</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C82" t="s">
+        <v>110</v>
+      </c>
+      <c r="D82" t="s">
+        <v>129</v>
+      </c>
+      <c r="E82" t="s">
+        <v>139</v>
+      </c>
+      <c r="F82" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G82" t="s">
+        <v>242</v>
+      </c>
+      <c r="H82" t="s">
+        <v>329</v>
+      </c>
+      <c r="I82" t="s">
+        <v>399</v>
+      </c>
+      <c r="J82" t="n">
+        <v>-88.69186715159783</v>
+      </c>
+      <c r="K82" t="n">
+        <v>32.371995019098996</v>
+      </c>
+      <c r="L82" t="s">
+        <v>446</v>
+      </c>
+      <c r="M82" t="s">
+        <v>446</v>
+      </c>
+      <c r="N82" t="s">
+        <v>446</v>
+      </c>
+      <c r="O82" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>95</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C83" t="s">
+        <v>110</v>
+      </c>
+      <c r="D83" t="s">
+        <v>129</v>
+      </c>
+      <c r="E83" t="s">
+        <v>139</v>
+      </c>
+      <c r="F83" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G83" t="s">
+        <v>241</v>
+      </c>
+      <c r="H83" t="s">
+        <v>328</v>
+      </c>
+      <c r="I83" t="s">
+        <v>398</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-77.03453020467171</v>
+      </c>
+      <c r="K83" t="n">
+        <v>38.917000210587815</v>
+      </c>
+      <c r="L83" t="s">
+        <v>446</v>
+      </c>
+      <c r="M83" t="s">
+        <v>466</v>
+      </c>
+      <c r="N83" t="s">
+        <v>474</v>
+      </c>
+      <c r="O83" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>96</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C84" t="s">
+        <v>111</v>
+      </c>
+      <c r="D84" t="s">
+        <v>130</v>
+      </c>
+      <c r="E84" t="s">
+        <v>135</v>
+      </c>
+      <c r="F84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G84" t="s">
+        <v>243</v>
+      </c>
+      <c r="H84" t="s">
+        <v>330</v>
+      </c>
+      <c r="I84" t="s">
+        <v>400</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-81.66426413723146</v>
+      </c>
+      <c r="K84" t="n">
+        <v>30.331734088630405</v>
+      </c>
+      <c r="L84" t="s">
+        <v>424</v>
+      </c>
+      <c r="M84" t="s">
+        <v>467</v>
+      </c>
+      <c r="N84" t="s">
+        <v>475</v>
+      </c>
+      <c r="O84" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>97</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C85" t="s">
+        <v>111</v>
+      </c>
+      <c r="D85" t="s">
+        <v>130</v>
+      </c>
+      <c r="E85" t="s">
+        <v>135</v>
+      </c>
+      <c r="F85" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G85" t="s">
+        <v>244</v>
+      </c>
+      <c r="H85" t="s">
+        <v>331</v>
+      </c>
+      <c r="I85" t="s">
+        <v>401</v>
+      </c>
+      <c r="J85" t="n">
+        <v>-81.66441302111136</v>
+      </c>
+      <c r="K85" t="n">
+        <v>30.33248736467606</v>
+      </c>
+      <c r="L85" t="s">
+        <v>447</v>
+      </c>
+      <c r="M85" t="s">
+        <v>467</v>
+      </c>
+      <c r="N85" t="s">
+        <v>475</v>
+      </c>
+      <c r="O85" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>98</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C86" t="s">
+        <v>111</v>
+      </c>
+      <c r="D86" t="s">
+        <v>130</v>
+      </c>
+      <c r="E86" t="s">
+        <v>135</v>
+      </c>
+      <c r="F86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G86" t="s">
+        <v>245</v>
+      </c>
+      <c r="H86" t="s">
+        <v>332</v>
+      </c>
+      <c r="I86" t="s">
+        <v>402</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-81.66446539403759</v>
+      </c>
+      <c r="K86" t="n">
+        <v>30.33238043091579</v>
+      </c>
+      <c r="L86" t="s">
+        <v>447</v>
+      </c>
+      <c r="M86" t="s">
+        <v>467</v>
+      </c>
+      <c r="N86" t="s">
+        <v>475</v>
+      </c>
+      <c r="O86" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>99</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C87" t="s">
+        <v>111</v>
+      </c>
+      <c r="D87" t="s">
+        <v>130</v>
+      </c>
+      <c r="E87" t="s">
+        <v>135</v>
+      </c>
+      <c r="F87" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G87" t="s">
+        <v>246</v>
+      </c>
+      <c r="H87" t="s">
+        <v>333</v>
+      </c>
+      <c r="I87" t="s">
+        <v>403</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-81.66445676014898</v>
+      </c>
+      <c r="K87" t="n">
+        <v>30.331061902734696</v>
+      </c>
+      <c r="L87" t="s">
+        <v>424</v>
+      </c>
+      <c r="M87" t="s">
+        <v>467</v>
+      </c>
+      <c r="N87" t="s">
+        <v>475</v>
+      </c>
+      <c r="O87" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>100</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C88" t="s">
+        <v>111</v>
+      </c>
+      <c r="D88" t="s">
+        <v>130</v>
+      </c>
+      <c r="E88" t="s">
+        <v>134</v>
+      </c>
+      <c r="F88" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G88" t="s">
+        <v>247</v>
+      </c>
+      <c r="H88" t="s">
+        <v>334</v>
+      </c>
+      <c r="I88" t="s">
+        <v>404</v>
+      </c>
+      <c r="J88" t="n">
+        <v>-81.66566414356389</v>
+      </c>
+      <c r="K88" t="n">
+        <v>30.33195726774236</v>
+      </c>
+      <c r="L88" t="s">
+        <v>414</v>
+      </c>
+      <c r="M88" t="s">
+        <v>467</v>
+      </c>
+      <c r="N88" t="s">
+        <v>475</v>
+      </c>
+      <c r="O88" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>101</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C89" t="s">
+        <v>111</v>
+      </c>
+      <c r="D89" t="s">
+        <v>130</v>
+      </c>
+      <c r="E89" t="s">
+        <v>134</v>
+      </c>
+      <c r="F89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G89" t="s">
+        <v>248</v>
+      </c>
+      <c r="H89" t="s">
+        <v>335</v>
+      </c>
+      <c r="I89" t="s">
+        <v>405</v>
+      </c>
+      <c r="J89" t="n">
+        <v>-81.66960512522061</v>
+      </c>
+      <c r="K89" t="n">
+        <v>30.350636939663147</v>
+      </c>
+      <c r="L89" t="s">
+        <v>448</v>
+      </c>
+      <c r="M89" t="s">
+        <v>467</v>
+      </c>
+      <c r="N89" t="s">
+        <v>475</v>
+      </c>
+      <c r="O89" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>102</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C90" t="s">
+        <v>111</v>
+      </c>
+      <c r="D90" t="s">
+        <v>130</v>
+      </c>
+      <c r="E90" t="s">
+        <v>134</v>
+      </c>
+      <c r="F90" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G90" t="s">
+        <v>249</v>
+      </c>
+      <c r="H90" t="s">
+        <v>336</v>
+      </c>
+      <c r="I90" t="s">
+        <v>406</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-81.39550884012574</v>
+      </c>
+      <c r="K90" t="n">
+        <v>30.322939677393787</v>
+      </c>
+      <c r="L90" t="s">
+        <v>449</v>
+      </c>
+      <c r="M90" t="s">
+        <v>467</v>
+      </c>
+      <c r="N90" t="s">
+        <v>475</v>
+      </c>
+      <c r="O90" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>103</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C91" t="s">
+        <v>111</v>
+      </c>
+      <c r="D91" t="s">
+        <v>131</v>
+      </c>
+      <c r="E91" t="s">
+        <v>135</v>
+      </c>
+      <c r="F91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G91" t="s">
+        <v>250</v>
+      </c>
+      <c r="H91" t="s">
+        <v>337</v>
+      </c>
+      <c r="I91" t="s">
+        <v>407</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-81.95728294282242</v>
+      </c>
+      <c r="K91" t="n">
+        <v>28.051533143602214</v>
+      </c>
+      <c r="L91" t="s">
+        <v>441</v>
+      </c>
+      <c r="M91" t="s">
+        <v>468</v>
+      </c>
+      <c r="N91" t="s">
+        <v>475</v>
+      </c>
+      <c r="O91" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>104</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C92" t="s">
+        <v>111</v>
+      </c>
+      <c r="D92" t="s">
+        <v>132</v>
+      </c>
+      <c r="E92" t="s">
+        <v>135</v>
+      </c>
+      <c r="F92" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G92" t="s">
+        <v>251</v>
+      </c>
+      <c r="H92" t="s">
+        <v>338</v>
+      </c>
+      <c r="I92" t="s">
+        <v>408</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-80.19796330654357</v>
+      </c>
+      <c r="K92" t="n">
+        <v>25.783100473685785</v>
+      </c>
+      <c r="L92" t="s">
+        <v>450</v>
+      </c>
+      <c r="M92" t="s">
+        <v>469</v>
+      </c>
+      <c r="N92" t="s">
+        <v>475</v>
+      </c>
+      <c r="O92" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>105</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C93" t="s">
+        <v>111</v>
+      </c>
+      <c r="D93" t="s">
+        <v>132</v>
+      </c>
+      <c r="E93" t="s">
+        <v>135</v>
+      </c>
+      <c r="F93" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G93" t="s">
+        <v>252</v>
+      </c>
+      <c r="H93" t="s">
+        <v>339</v>
+      </c>
+      <c r="I93" t="s">
+        <v>409</v>
+      </c>
+      <c r="J93" t="n">
+        <v>-80.1980312449411</v>
+      </c>
+      <c r="K93" t="n">
+        <v>25.780776879909034</v>
+      </c>
+      <c r="L93" t="s">
+        <v>450</v>
+      </c>
+      <c r="M93" t="s">
+        <v>469</v>
+      </c>
+      <c r="N93" t="s">
+        <v>475</v>
+      </c>
+      <c r="O93" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>106</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C94" t="s">
+        <v>111</v>
+      </c>
+      <c r="D94" t="s">
+        <v>133</v>
+      </c>
+      <c r="E94" t="s">
+        <v>135</v>
+      </c>
+      <c r="F94" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G94" t="s">
+        <v>253</v>
+      </c>
+      <c r="H94" t="s">
+        <v>340</v>
+      </c>
+      <c r="I94" t="s">
+        <v>410</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-87.21373353953004</v>
+      </c>
+      <c r="K94" t="n">
+        <v>30.417328371683503</v>
+      </c>
+      <c r="L94" t="s">
+        <v>451</v>
+      </c>
+      <c r="M94" t="s">
+        <v>470</v>
+      </c>
+      <c r="N94" t="s">
+        <v>475</v>
+      </c>
+      <c r="O94" t="s">
+        <v>504</v>
       </c>
     </row>
   </sheetData>

--- a/shiny_remaining_greenbook_addresses/greenbook_addresses.xlsx
+++ b/shiny_remaining_greenbook_addresses/greenbook_addresses.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="556">
   <si>
     <t>greenbook_edition</t>
   </si>
@@ -335,6 +335,36 @@
     <t>93</t>
   </si>
   <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
     <t>Alabama</t>
   </si>
   <si>
@@ -416,6 +446,15 @@
     <t>Pensacola</t>
   </si>
   <si>
+    <t>St. Augustine</t>
+  </si>
+  <si>
+    <t>St. Petersburg</t>
+  </si>
+  <si>
+    <t>Tampa</t>
+  </si>
+  <si>
     <t>tourist</t>
   </si>
   <si>
@@ -776,6 +815,36 @@
     <t>311 N. Tarragonia St.</t>
   </si>
   <si>
+    <t>129 Central Ave.</t>
+  </si>
+  <si>
+    <t>83 Bridge St.</t>
+  </si>
+  <si>
+    <t>132 Central Ave.</t>
+  </si>
+  <si>
+    <t>28th St. and 6th Ave. S.</t>
+  </si>
+  <si>
+    <t>1505 5th Ave.</t>
+  </si>
+  <si>
+    <t>942 3rd Ave S.</t>
+  </si>
+  <si>
+    <t>1515 Central Ave</t>
+  </si>
+  <si>
+    <t>1028 Central Ave.</t>
+  </si>
+  <si>
+    <t>829 Zack St.</t>
+  </si>
+  <si>
+    <t>822 Contant St.</t>
+  </si>
+  <si>
     <t>69 N. Cotton St., Andalusia, Alabama</t>
   </si>
   <si>
@@ -1037,6 +1106,36 @@
     <t>311 N. Tarragonia St., Pensacola, Florida</t>
   </si>
   <si>
+    <t>129 Central Ave., St. Augustine, Florida</t>
+  </si>
+  <si>
+    <t>83 Bridge St., St. Augustine, Florida</t>
+  </si>
+  <si>
+    <t>132 Central Ave., St. Augustine, Florida</t>
+  </si>
+  <si>
+    <t>28th St. and 6th Ave. S., St. Petersburg, Florida</t>
+  </si>
+  <si>
+    <t>1505 5th Ave., St. Petersburg, Florida</t>
+  </si>
+  <si>
+    <t>942 3rd Ave S., St. Petersburg, Florida</t>
+  </si>
+  <si>
+    <t>1515 Central Ave, Tampa, Florida</t>
+  </si>
+  <si>
+    <t>1028 Central Ave., Tampa, Florida</t>
+  </si>
+  <si>
+    <t>829 Zack St., Tampa, Florida</t>
+  </si>
+  <si>
+    <t>822 Contant St., Tampa, Florida</t>
+  </si>
+  <si>
     <t>[none found]</t>
   </si>
   <si>
@@ -1247,6 +1346,24 @@
     <t>311 N TARRAGONA ST, PENSACOLA, FL, 32501</t>
   </si>
   <si>
+    <t>83 BRIDGE ST, ST AUGUSTINE, FL, 32084</t>
+  </si>
+  <si>
+    <t>28TH ST S &amp; 6TH AVE S, ST PETERSBURG, FL, 33712</t>
+  </si>
+  <si>
+    <t>1505 5TH AVE N, ST PETERSBURG, FL, 33705</t>
+  </si>
+  <si>
+    <t>942 3RD AVE S, ST PETERSBURG, FL, 33705</t>
+  </si>
+  <si>
+    <t>1028 N CENTRAL AVE, TAMPA, FL, 33612</t>
+  </si>
+  <si>
+    <t>829 E ZACK ST, TAMPA, FL, 33602</t>
+  </si>
+  <si>
     <t>17TH</t>
   </si>
   <si>
@@ -1352,22 +1469,34 @@
     <t>U</t>
   </si>
   <si>
+    <t>ASHLEY</t>
+  </si>
+  <si>
+    <t>MONCRIEF</t>
+  </si>
+  <si>
+    <t>ORANGE</t>
+  </si>
+  <si>
+    <t>2ND</t>
+  </si>
+  <si>
+    <t>TARRAGONA</t>
+  </si>
+  <si>
+    <t>BRIDGE</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>ASHLEY</t>
-  </si>
-  <si>
-    <t>MONCRIEF</t>
-  </si>
-  <si>
-    <t>ORANGE</t>
-  </si>
-  <si>
-    <t>2ND</t>
-  </si>
-  <si>
-    <t>TARRAGONA</t>
+    <t>3RD</t>
+  </si>
+  <si>
+    <t>CENTRAL</t>
+  </si>
+  <si>
+    <t>ZACK</t>
   </si>
   <si>
     <t>BIRMINGHAM</t>
@@ -1427,6 +1556,15 @@
     <t>PENSACOLA</t>
   </si>
   <si>
+    <t>ST AUGUSTINE</t>
+  </si>
+  <si>
+    <t>ST PETERSBURG</t>
+  </si>
+  <si>
+    <t>TAMPA</t>
+  </si>
+  <si>
     <t>AL</t>
   </si>
   <si>
@@ -1527,6 +1665,21 @@
   </si>
   <si>
     <t>32501</t>
+  </si>
+  <si>
+    <t>32084</t>
+  </si>
+  <si>
+    <t>33712</t>
+  </si>
+  <si>
+    <t>33705</t>
+  </si>
+  <si>
+    <t>33612</t>
+  </si>
+  <si>
+    <t>33602</t>
   </si>
 </sst>
 </file>
@@ -1630,25 +1783,25 @@
         <v>1938.0</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F2" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="G2" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="H2" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="I2" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="J2" t="e">
         <v>#N/A</v>
@@ -1677,25 +1830,25 @@
         <v>1938.0</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E3" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F3" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="G3" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="H3" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="I3" t="s">
-        <v>342</v>
+        <v>375</v>
       </c>
       <c r="J3" t="n">
         <v>-86.8113150658676</v>
@@ -1704,16 +1857,16 @@
         <v>33.5143485707937</v>
       </c>
       <c r="L3" t="s">
-        <v>411</v>
+        <v>450</v>
       </c>
       <c r="M3" t="s">
-        <v>452</v>
+        <v>495</v>
       </c>
       <c r="N3" t="s">
-        <v>471</v>
+        <v>517</v>
       </c>
       <c r="O3" t="s">
-        <v>476</v>
+        <v>522</v>
       </c>
     </row>
     <row r="4">
@@ -1724,25 +1877,25 @@
         <v>1938.0</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E4" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F4" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="G4" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="H4" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="I4" t="s">
-        <v>343</v>
+        <v>376</v>
       </c>
       <c r="J4" t="n">
         <v>-86.8290693868153</v>
@@ -1751,16 +1904,16 @@
         <v>33.5320444220056</v>
       </c>
       <c r="L4" t="s">
-        <v>412</v>
+        <v>451</v>
       </c>
       <c r="M4" t="s">
-        <v>452</v>
+        <v>495</v>
       </c>
       <c r="N4" t="s">
-        <v>471</v>
+        <v>517</v>
       </c>
       <c r="O4" t="s">
-        <v>477</v>
+        <v>523</v>
       </c>
     </row>
     <row r="5">
@@ -1771,25 +1924,25 @@
         <v>1938.0</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E5" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F5" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="G5" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="H5" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="I5" t="s">
-        <v>344</v>
+        <v>377</v>
       </c>
       <c r="J5" t="n">
         <v>-86.8101998183382</v>
@@ -1798,16 +1951,16 @@
         <v>33.5154455727818</v>
       </c>
       <c r="L5" t="s">
-        <v>413</v>
+        <v>452</v>
       </c>
       <c r="M5" t="s">
-        <v>452</v>
+        <v>495</v>
       </c>
       <c r="N5" t="s">
-        <v>471</v>
+        <v>517</v>
       </c>
       <c r="O5" t="s">
-        <v>476</v>
+        <v>522</v>
       </c>
     </row>
     <row r="6">
@@ -1818,25 +1971,25 @@
         <v>1938.0</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D6" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F6" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="G6" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="H6" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="I6" t="s">
-        <v>345</v>
+        <v>378</v>
       </c>
       <c r="J6" t="n">
         <v>-86.8101943813631</v>
@@ -1845,16 +1998,16 @@
         <v>33.5154374173175</v>
       </c>
       <c r="L6" t="s">
-        <v>413</v>
+        <v>452</v>
       </c>
       <c r="M6" t="s">
-        <v>452</v>
+        <v>495</v>
       </c>
       <c r="N6" t="s">
-        <v>471</v>
+        <v>517</v>
       </c>
       <c r="O6" t="s">
-        <v>476</v>
+        <v>522</v>
       </c>
     </row>
     <row r="7">
@@ -1865,25 +2018,25 @@
         <v>1938.0</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F7" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="G7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="H7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="I7" t="s">
-        <v>346</v>
+        <v>379</v>
       </c>
       <c r="J7" t="n">
         <v>-86.981936433337</v>
@@ -1892,16 +2045,16 @@
         <v>34.6118640107611</v>
       </c>
       <c r="L7" t="s">
-        <v>414</v>
+        <v>453</v>
       </c>
       <c r="M7" t="s">
-        <v>453</v>
+        <v>496</v>
       </c>
       <c r="N7" t="s">
-        <v>471</v>
+        <v>517</v>
       </c>
       <c r="O7" t="s">
-        <v>478</v>
+        <v>524</v>
       </c>
     </row>
     <row r="8">
@@ -1912,25 +2065,25 @@
         <v>1938.0</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E8" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F8" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="G8" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="H8" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="I8" t="s">
-        <v>347</v>
+        <v>380</v>
       </c>
       <c r="J8" t="n">
         <v>-85.9687107717626</v>
@@ -1939,16 +2092,16 @@
         <v>33.9940141891079</v>
       </c>
       <c r="L8" t="s">
-        <v>415</v>
+        <v>454</v>
       </c>
       <c r="M8" t="s">
-        <v>454</v>
+        <v>497</v>
       </c>
       <c r="N8" t="s">
-        <v>471</v>
+        <v>517</v>
       </c>
       <c r="O8" t="s">
-        <v>479</v>
+        <v>525</v>
       </c>
     </row>
     <row r="9">
@@ -1959,25 +2112,25 @@
         <v>1938.0</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D9" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E9" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F9" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="G9" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="H9" t="s">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="I9" t="s">
-        <v>348</v>
+        <v>381</v>
       </c>
       <c r="J9" t="n">
         <v>-86.0219558574387</v>
@@ -1986,16 +2139,16 @@
         <v>34.0151992985974</v>
       </c>
       <c r="L9" t="s">
-        <v>412</v>
+        <v>451</v>
       </c>
       <c r="M9" t="s">
-        <v>454</v>
+        <v>497</v>
       </c>
       <c r="N9" t="s">
-        <v>471</v>
+        <v>517</v>
       </c>
       <c r="O9" t="s">
-        <v>480</v>
+        <v>526</v>
       </c>
     </row>
     <row r="10">
@@ -2006,25 +2159,25 @@
         <v>1938.0</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E10" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F10" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="G10" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="H10" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="I10" t="s">
-        <v>349</v>
+        <v>382</v>
       </c>
       <c r="J10" t="n">
         <v>-86.0222979270442</v>
@@ -2033,16 +2186,16 @@
         <v>34.0152022461397</v>
       </c>
       <c r="L10" t="s">
-        <v>412</v>
+        <v>451</v>
       </c>
       <c r="M10" t="s">
-        <v>454</v>
+        <v>497</v>
       </c>
       <c r="N10" t="s">
-        <v>471</v>
+        <v>517</v>
       </c>
       <c r="O10" t="s">
-        <v>480</v>
+        <v>526</v>
       </c>
     </row>
     <row r="11">
@@ -2053,25 +2206,25 @@
         <v>1938.0</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E11" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F11" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="G11" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="H11" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="I11" t="s">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="J11" t="n">
         <v>-86.0221098420977</v>
@@ -2080,16 +2233,16 @@
         <v>34.0150862358663</v>
       </c>
       <c r="L11" t="s">
-        <v>412</v>
+        <v>451</v>
       </c>
       <c r="M11" t="s">
-        <v>454</v>
+        <v>497</v>
       </c>
       <c r="N11" t="s">
-        <v>471</v>
+        <v>517</v>
       </c>
       <c r="O11" t="s">
-        <v>480</v>
+        <v>526</v>
       </c>
     </row>
     <row r="12">
@@ -2100,25 +2253,25 @@
         <v>1938.0</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D12" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E12" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F12" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="G12" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="H12" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="I12" t="s">
-        <v>351</v>
+        <v>384</v>
       </c>
       <c r="J12" t="n">
         <v>-86.005031796993</v>
@@ -2127,16 +2280,16 @@
         <v>34.0175041515731</v>
       </c>
       <c r="L12" t="s">
-        <v>416</v>
+        <v>455</v>
       </c>
       <c r="M12" t="s">
-        <v>454</v>
+        <v>497</v>
       </c>
       <c r="N12" t="s">
-        <v>471</v>
+        <v>517</v>
       </c>
       <c r="O12" t="s">
-        <v>480</v>
+        <v>526</v>
       </c>
     </row>
     <row r="13">
@@ -2147,25 +2300,25 @@
         <v>1938.0</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D13" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E13" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F13" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="G13" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="H13" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="I13" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="J13" t="e">
         <v>#N/A</v>
@@ -2194,25 +2347,25 @@
         <v>1938.0</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D14" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="G14" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="H14" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="I14" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="J14" t="e">
         <v>#N/A</v>
@@ -2241,25 +2394,25 @@
         <v>1938.0</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D15" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E15" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F15" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="G15" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="H15" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="I15" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="J15" t="e">
         <v>#N/A</v>
@@ -2288,25 +2441,25 @@
         <v>1938.0</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D16" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E16" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F16" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="G16" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="H16" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="I16" t="s">
-        <v>352</v>
+        <v>385</v>
       </c>
       <c r="J16" t="n">
         <v>-88.0576867932334</v>
@@ -2315,16 +2468,16 @@
         <v>30.6960542804327</v>
       </c>
       <c r="L16" t="s">
-        <v>417</v>
+        <v>456</v>
       </c>
       <c r="M16" t="s">
-        <v>455</v>
+        <v>498</v>
       </c>
       <c r="N16" t="s">
-        <v>471</v>
+        <v>517</v>
       </c>
       <c r="O16" t="s">
-        <v>481</v>
+        <v>527</v>
       </c>
     </row>
     <row r="17">
@@ -2335,25 +2488,25 @@
         <v>1938.0</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E17" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F17" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="G17" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="H17" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="I17" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="J17" t="n">
         <v>-88.0524129709915</v>
@@ -2362,16 +2515,16 @@
         <v>30.6935613534321</v>
       </c>
       <c r="L17" t="s">
-        <v>418</v>
+        <v>457</v>
       </c>
       <c r="M17" t="s">
-        <v>455</v>
+        <v>498</v>
       </c>
       <c r="N17" t="s">
-        <v>471</v>
+        <v>517</v>
       </c>
       <c r="O17" t="s">
-        <v>481</v>
+        <v>527</v>
       </c>
     </row>
     <row r="18">
@@ -2382,25 +2535,25 @@
         <v>1938.0</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D18" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E18" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F18" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="G18" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="H18" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="I18" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="J18" t="n">
         <v>-88.0656567796014</v>
@@ -2409,16 +2562,16 @@
         <v>30.6976495325603</v>
       </c>
       <c r="L18" t="s">
-        <v>419</v>
+        <v>458</v>
       </c>
       <c r="M18" t="s">
-        <v>455</v>
+        <v>498</v>
       </c>
       <c r="N18" t="s">
-        <v>471</v>
+        <v>517</v>
       </c>
       <c r="O18" t="s">
-        <v>481</v>
+        <v>527</v>
       </c>
     </row>
     <row r="19">
@@ -2429,25 +2582,25 @@
         <v>1938.0</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D19" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E19" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F19" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="G19" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="H19" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="I19" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="J19" t="e">
         <v>#N/A</v>
@@ -2476,25 +2629,25 @@
         <v>1938.0</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E20" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F20" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="G20" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="H20" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="I20" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="J20" t="e">
         <v>#N/A</v>
@@ -2523,25 +2676,25 @@
         <v>1938.0</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D21" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E21" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F21" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="G21" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="H21" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="I21" t="s">
-        <v>355</v>
+        <v>388</v>
       </c>
       <c r="J21" t="n">
         <v>-85.9677376311342</v>
@@ -2550,16 +2703,16 @@
         <v>31.8159372445166</v>
       </c>
       <c r="L21" t="s">
-        <v>420</v>
+        <v>459</v>
       </c>
       <c r="M21" t="s">
-        <v>456</v>
+        <v>499</v>
       </c>
       <c r="N21" t="s">
-        <v>471</v>
+        <v>517</v>
       </c>
       <c r="O21" t="s">
-        <v>482</v>
+        <v>528</v>
       </c>
     </row>
     <row r="22">
@@ -2570,25 +2723,25 @@
         <v>1938.0</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D22" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E22" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F22" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="G22" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="H22" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="I22" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="J22" t="e">
         <v>#N/A</v>
@@ -2617,25 +2770,25 @@
         <v>1938.0</v>
       </c>
       <c r="C23" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E23" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F23" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="G23" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="H23" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="I23" t="s">
-        <v>356</v>
+        <v>389</v>
       </c>
       <c r="J23" t="n">
         <v>-87.5674198878895</v>
@@ -2644,16 +2797,16 @@
         <v>33.2027155164248</v>
       </c>
       <c r="L23" t="s">
-        <v>421</v>
+        <v>460</v>
       </c>
       <c r="M23" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="N23" t="s">
-        <v>471</v>
+        <v>517</v>
       </c>
       <c r="O23" t="s">
-        <v>483</v>
+        <v>529</v>
       </c>
     </row>
     <row r="24">
@@ -2664,25 +2817,25 @@
         <v>1938.0</v>
       </c>
       <c r="C24" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D24" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E24" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F24" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="G24" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="H24" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="I24" t="s">
-        <v>357</v>
+        <v>390</v>
       </c>
       <c r="J24" t="n">
         <v>-87.5765682130659</v>
@@ -2691,16 +2844,16 @@
         <v>33.2083686457691</v>
       </c>
       <c r="L24" t="s">
-        <v>422</v>
+        <v>461</v>
       </c>
       <c r="M24" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="N24" t="s">
-        <v>471</v>
+        <v>517</v>
       </c>
       <c r="O24" t="s">
-        <v>483</v>
+        <v>529</v>
       </c>
     </row>
     <row r="25">
@@ -2711,25 +2864,25 @@
         <v>1938.0</v>
       </c>
       <c r="C25" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D25" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E25" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F25" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="G25" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="H25" t="s">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="I25" t="s">
-        <v>358</v>
+        <v>391</v>
       </c>
       <c r="J25" t="n">
         <v>-87.5651479921732</v>
@@ -2738,16 +2891,16 @@
         <v>33.1997383053909</v>
       </c>
       <c r="L25" t="s">
-        <v>423</v>
+        <v>462</v>
       </c>
       <c r="M25" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="N25" t="s">
-        <v>471</v>
+        <v>517</v>
       </c>
       <c r="O25" t="s">
-        <v>483</v>
+        <v>529</v>
       </c>
     </row>
     <row r="26">
@@ -2758,25 +2911,25 @@
         <v>1938.0</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E26" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F26" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G26" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="H26" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="I26" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="J26" t="e">
         <v>#N/A</v>
@@ -2805,25 +2958,25 @@
         <v>1938.0</v>
       </c>
       <c r="C27" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D27" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E27" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F27" t="e">
         <v>#N/A</v>
       </c>
       <c r="G27" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="H27" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="I27" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="J27" t="n">
         <v>-73.1876041991036</v>
@@ -2832,16 +2985,16 @@
         <v>41.1697328006184</v>
       </c>
       <c r="L27" t="s">
-        <v>424</v>
+        <v>463</v>
       </c>
       <c r="M27" t="s">
-        <v>458</v>
+        <v>501</v>
       </c>
       <c r="N27" t="s">
-        <v>472</v>
+        <v>518</v>
       </c>
       <c r="O27" t="s">
-        <v>484</v>
+        <v>530</v>
       </c>
     </row>
     <row r="28">
@@ -2852,25 +3005,25 @@
         <v>1938.0</v>
       </c>
       <c r="C28" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D28" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E28" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F28" t="e">
         <v>#N/A</v>
       </c>
       <c r="G28" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="H28" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="I28" t="s">
-        <v>360</v>
+        <v>393</v>
       </c>
       <c r="J28" t="n">
         <v>-73.1425164223959</v>
@@ -2879,16 +3032,16 @@
         <v>41.199216796974</v>
       </c>
       <c r="L28" t="s">
-        <v>425</v>
+        <v>464</v>
       </c>
       <c r="M28" t="s">
-        <v>459</v>
+        <v>502</v>
       </c>
       <c r="N28" t="s">
-        <v>472</v>
+        <v>518</v>
       </c>
       <c r="O28" t="s">
-        <v>485</v>
+        <v>531</v>
       </c>
     </row>
     <row r="29">
@@ -2899,25 +3052,25 @@
         <v>1938.0</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D29" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E29" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F29" t="e">
         <v>#N/A</v>
       </c>
       <c r="G29" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="H29" t="s">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="I29" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="J29" t="e">
         <v>#N/A</v>
@@ -2946,25 +3099,25 @@
         <v>1938.0</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D30" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E30" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F30" t="e">
         <v>#N/A</v>
       </c>
       <c r="G30" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="H30" t="s">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="I30" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="J30" t="n">
         <v>-73.1748001242641</v>
@@ -2973,16 +3126,16 @@
         <v>41.1848421780769</v>
       </c>
       <c r="L30" t="s">
-        <v>414</v>
+        <v>453</v>
       </c>
       <c r="M30" t="s">
-        <v>458</v>
+        <v>501</v>
       </c>
       <c r="N30" t="s">
-        <v>472</v>
+        <v>518</v>
       </c>
       <c r="O30" t="s">
-        <v>486</v>
+        <v>532</v>
       </c>
     </row>
     <row r="31">
@@ -2993,25 +3146,25 @@
         <v>1938.0</v>
       </c>
       <c r="C31" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D31" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E31" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F31" t="e">
         <v>#N/A</v>
       </c>
       <c r="G31" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="H31" t="s">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="I31" t="s">
-        <v>362</v>
+        <v>395</v>
       </c>
       <c r="J31" t="n">
         <v>-72.7194513427762</v>
@@ -3020,16 +3173,16 @@
         <v>41.6754278310956</v>
       </c>
       <c r="L31" t="s">
-        <v>426</v>
+        <v>465</v>
       </c>
       <c r="M31" t="s">
-        <v>460</v>
+        <v>503</v>
       </c>
       <c r="N31" t="s">
-        <v>472</v>
+        <v>518</v>
       </c>
       <c r="O31" t="s">
-        <v>487</v>
+        <v>533</v>
       </c>
     </row>
     <row r="32">
@@ -3040,25 +3193,25 @@
         <v>1938.0</v>
       </c>
       <c r="C32" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D32" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E32" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F32" t="e">
         <v>#N/A</v>
       </c>
       <c r="G32" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="H32" t="s">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="I32" t="s">
-        <v>363</v>
+        <v>396</v>
       </c>
       <c r="J32" t="n">
         <v>-72.6759843367764</v>
@@ -3067,16 +3220,16 @@
         <v>41.7784449890697</v>
       </c>
       <c r="L32" t="s">
-        <v>427</v>
+        <v>466</v>
       </c>
       <c r="M32" t="s">
-        <v>460</v>
+        <v>503</v>
       </c>
       <c r="N32" t="s">
-        <v>472</v>
+        <v>518</v>
       </c>
       <c r="O32" t="s">
-        <v>488</v>
+        <v>534</v>
       </c>
     </row>
     <row r="33">
@@ -3087,25 +3240,25 @@
         <v>1938.0</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D33" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E33" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F33" t="e">
         <v>#N/A</v>
       </c>
       <c r="G33" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="H33" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="I33" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="J33" t="e">
         <v>#N/A</v>
@@ -3134,25 +3287,25 @@
         <v>1938.0</v>
       </c>
       <c r="C34" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D34" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E34" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F34" t="e">
         <v>#N/A</v>
       </c>
       <c r="G34" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="H34" t="s">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="I34" t="s">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="J34" t="n">
         <v>-72.9329460076841</v>
@@ -3161,16 +3314,16 @@
         <v>41.3169568176862</v>
       </c>
       <c r="L34" t="s">
-        <v>428</v>
+        <v>467</v>
       </c>
       <c r="M34" t="s">
-        <v>461</v>
+        <v>504</v>
       </c>
       <c r="N34" t="s">
-        <v>472</v>
+        <v>518</v>
       </c>
       <c r="O34" t="s">
-        <v>489</v>
+        <v>535</v>
       </c>
     </row>
     <row r="35">
@@ -3181,25 +3334,25 @@
         <v>1938.0</v>
       </c>
       <c r="C35" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D35" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E35" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F35" t="e">
         <v>#N/A</v>
       </c>
       <c r="G35" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="H35" t="s">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="I35" t="s">
-        <v>365</v>
+        <v>398</v>
       </c>
       <c r="J35" t="n">
         <v>-72.9283382677717</v>
@@ -3208,16 +3361,16 @@
         <v>41.3180050633791</v>
       </c>
       <c r="L35" t="s">
-        <v>429</v>
+        <v>468</v>
       </c>
       <c r="M35" t="s">
-        <v>461</v>
+        <v>504</v>
       </c>
       <c r="N35" t="s">
-        <v>472</v>
+        <v>518</v>
       </c>
       <c r="O35" t="s">
-        <v>489</v>
+        <v>535</v>
       </c>
     </row>
     <row r="36">
@@ -3228,25 +3381,25 @@
         <v>1938.0</v>
       </c>
       <c r="C36" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D36" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E36" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F36" t="e">
         <v>#N/A</v>
       </c>
       <c r="G36" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="H36" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="I36" t="s">
-        <v>366</v>
+        <v>399</v>
       </c>
       <c r="J36" t="n">
         <v>-72.9326610116185</v>
@@ -3255,16 +3408,16 @@
         <v>41.3148333595736</v>
       </c>
       <c r="L36" t="s">
-        <v>430</v>
+        <v>469</v>
       </c>
       <c r="M36" t="s">
-        <v>461</v>
+        <v>504</v>
       </c>
       <c r="N36" t="s">
-        <v>472</v>
+        <v>518</v>
       </c>
       <c r="O36" t="s">
-        <v>489</v>
+        <v>535</v>
       </c>
     </row>
     <row r="37">
@@ -3275,25 +3428,25 @@
         <v>1938.0</v>
       </c>
       <c r="C37" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D37" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E37" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F37" t="e">
         <v>#N/A</v>
       </c>
       <c r="G37" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="H37" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="I37" t="s">
-        <v>367</v>
+        <v>400</v>
       </c>
       <c r="J37" t="n">
         <v>-72.9327409415411</v>
@@ -3302,16 +3455,16 @@
         <v>41.3145692903558</v>
       </c>
       <c r="L37" t="s">
-        <v>430</v>
+        <v>469</v>
       </c>
       <c r="M37" t="s">
-        <v>461</v>
+        <v>504</v>
       </c>
       <c r="N37" t="s">
-        <v>472</v>
+        <v>518</v>
       </c>
       <c r="O37" t="s">
-        <v>489</v>
+        <v>535</v>
       </c>
     </row>
     <row r="38">
@@ -3322,25 +3475,25 @@
         <v>1938.0</v>
       </c>
       <c r="C38" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D38" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E38" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F38" t="e">
         <v>#N/A</v>
       </c>
       <c r="G38" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="H38" t="s">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="I38" t="s">
-        <v>368</v>
+        <v>401</v>
       </c>
       <c r="J38" t="n">
         <v>-72.9327952927716</v>
@@ -3349,16 +3502,16 @@
         <v>41.3147577080202</v>
       </c>
       <c r="L38" t="s">
-        <v>430</v>
+        <v>469</v>
       </c>
       <c r="M38" t="s">
-        <v>461</v>
+        <v>504</v>
       </c>
       <c r="N38" t="s">
-        <v>472</v>
+        <v>518</v>
       </c>
       <c r="O38" t="s">
-        <v>489</v>
+        <v>535</v>
       </c>
     </row>
     <row r="39">
@@ -3369,25 +3522,25 @@
         <v>1938.0</v>
       </c>
       <c r="C39" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D39" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E39" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F39" t="e">
         <v>#N/A</v>
       </c>
       <c r="G39" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="H39" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="I39" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="J39" t="e">
         <v>#N/A</v>
@@ -3416,25 +3569,25 @@
         <v>1938.0</v>
       </c>
       <c r="C40" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D40" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E40" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F40" t="e">
         <v>#N/A</v>
       </c>
       <c r="G40" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="H40" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="I40" t="s">
-        <v>369</v>
+        <v>402</v>
       </c>
       <c r="J40" t="n">
         <v>-72.0989248920093</v>
@@ -3443,16 +3596,16 @@
         <v>41.3514720716549</v>
       </c>
       <c r="L40" t="s">
-        <v>431</v>
+        <v>470</v>
       </c>
       <c r="M40" t="s">
-        <v>462</v>
+        <v>505</v>
       </c>
       <c r="N40" t="s">
-        <v>472</v>
+        <v>518</v>
       </c>
       <c r="O40" t="s">
-        <v>490</v>
+        <v>536</v>
       </c>
     </row>
     <row r="41">
@@ -3463,25 +3616,25 @@
         <v>1938.0</v>
       </c>
       <c r="C41" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D41" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E41" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F41" t="e">
         <v>#N/A</v>
       </c>
       <c r="G41" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="H41" t="s">
-        <v>291</v>
+        <v>314</v>
       </c>
       <c r="I41" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="J41" t="e">
         <v>#N/A</v>
@@ -3510,25 +3663,25 @@
         <v>1938.0</v>
       </c>
       <c r="C42" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D42" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E42" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F42" t="e">
         <v>#N/A</v>
       </c>
       <c r="G42" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="H42" t="s">
-        <v>292</v>
+        <v>315</v>
       </c>
       <c r="I42" t="s">
-        <v>370</v>
+        <v>403</v>
       </c>
       <c r="J42" t="n">
         <v>-72.1036935417646</v>
@@ -3537,16 +3690,16 @@
         <v>41.354739888483</v>
       </c>
       <c r="L42" t="s">
-        <v>432</v>
+        <v>471</v>
       </c>
       <c r="M42" t="s">
-        <v>462</v>
+        <v>505</v>
       </c>
       <c r="N42" t="s">
-        <v>472</v>
+        <v>518</v>
       </c>
       <c r="O42" t="s">
-        <v>490</v>
+        <v>536</v>
       </c>
     </row>
     <row r="43">
@@ -3557,25 +3710,25 @@
         <v>1938.0</v>
       </c>
       <c r="C43" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D43" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E43" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F43" t="e">
         <v>#N/A</v>
       </c>
       <c r="G43" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="H43" t="s">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="I43" t="s">
-        <v>371</v>
+        <v>404</v>
       </c>
       <c r="J43" t="n">
         <v>-72.0945531299749</v>
@@ -3584,16 +3737,16 @@
         <v>41.3529769238668</v>
       </c>
       <c r="L43" t="s">
-        <v>433</v>
+        <v>472</v>
       </c>
       <c r="M43" t="s">
-        <v>462</v>
+        <v>505</v>
       </c>
       <c r="N43" t="s">
-        <v>472</v>
+        <v>518</v>
       </c>
       <c r="O43" t="s">
-        <v>490</v>
+        <v>536</v>
       </c>
     </row>
     <row r="44">
@@ -3604,25 +3757,25 @@
         <v>1938.0</v>
       </c>
       <c r="C44" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D44" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E44" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F44" t="e">
         <v>#N/A</v>
       </c>
       <c r="G44" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="H44" t="s">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="I44" t="s">
-        <v>372</v>
+        <v>405</v>
       </c>
       <c r="J44" t="n">
         <v>-72.1061310964387</v>
@@ -3631,16 +3784,16 @@
         <v>41.3491636454073</v>
       </c>
       <c r="L44" t="s">
-        <v>433</v>
+        <v>472</v>
       </c>
       <c r="M44" t="s">
-        <v>462</v>
+        <v>505</v>
       </c>
       <c r="N44" t="s">
-        <v>472</v>
+        <v>518</v>
       </c>
       <c r="O44" t="s">
-        <v>490</v>
+        <v>536</v>
       </c>
     </row>
     <row r="45">
@@ -3651,25 +3804,25 @@
         <v>1938.0</v>
       </c>
       <c r="C45" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D45" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E45" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F45" t="e">
         <v>#N/A</v>
       </c>
       <c r="G45" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="H45" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="I45" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="J45" t="e">
         <v>#N/A</v>
@@ -3698,25 +3851,25 @@
         <v>1938.0</v>
       </c>
       <c r="C46" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D46" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E46" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F46" t="e">
         <v>#N/A</v>
       </c>
       <c r="G46" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="H46" t="s">
-        <v>296</v>
+        <v>319</v>
       </c>
       <c r="I46" t="s">
-        <v>373</v>
+        <v>406</v>
       </c>
       <c r="J46" t="n">
         <v>-73.5435350440446</v>
@@ -3725,16 +3878,16 @@
         <v>41.0437896616415</v>
       </c>
       <c r="L46" t="s">
-        <v>434</v>
+        <v>473</v>
       </c>
       <c r="M46" t="s">
-        <v>463</v>
+        <v>506</v>
       </c>
       <c r="N46" t="s">
-        <v>472</v>
+        <v>518</v>
       </c>
       <c r="O46" t="s">
-        <v>491</v>
+        <v>537</v>
       </c>
     </row>
     <row r="47">
@@ -3745,25 +3898,25 @@
         <v>1938.0</v>
       </c>
       <c r="C47" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D47" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E47" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F47" t="e">
         <v>#N/A</v>
       </c>
       <c r="G47" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="H47" t="s">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="I47" t="s">
-        <v>374</v>
+        <v>407</v>
       </c>
       <c r="J47" t="n">
         <v>-73.0360400989091</v>
@@ -3772,16 +3925,16 @@
         <v>41.5612899305374</v>
       </c>
       <c r="L47" t="s">
-        <v>435</v>
+        <v>474</v>
       </c>
       <c r="M47" t="s">
-        <v>464</v>
+        <v>507</v>
       </c>
       <c r="N47" t="s">
-        <v>472</v>
+        <v>518</v>
       </c>
       <c r="O47" t="s">
-        <v>492</v>
+        <v>538</v>
       </c>
     </row>
     <row r="48">
@@ -3792,25 +3945,25 @@
         <v>1938.0</v>
       </c>
       <c r="C48" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D48" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E48" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F48" t="e">
         <v>#N/A</v>
       </c>
       <c r="G48" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="H48" t="s">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="I48" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="J48" t="e">
         <v>#N/A</v>
@@ -3839,25 +3992,25 @@
         <v>1938.0</v>
       </c>
       <c r="C49" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D49" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E49" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F49" t="e">
         <v>#N/A</v>
       </c>
       <c r="G49" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="H49" t="s">
-        <v>299</v>
+        <v>322</v>
       </c>
       <c r="I49" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="J49" t="e">
         <v>#N/A</v>
@@ -3886,25 +4039,25 @@
         <v>1938.0</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D50" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E50" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F50" t="e">
         <v>#N/A</v>
       </c>
       <c r="G50" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="H50" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="I50" t="s">
-        <v>375</v>
+        <v>408</v>
       </c>
       <c r="J50" t="n">
         <v>-73.037910401171</v>
@@ -3913,16 +4066,16 @@
         <v>41.5632588753159</v>
       </c>
       <c r="L50" t="s">
-        <v>436</v>
+        <v>475</v>
       </c>
       <c r="M50" t="s">
-        <v>464</v>
+        <v>507</v>
       </c>
       <c r="N50" t="s">
-        <v>472</v>
+        <v>518</v>
       </c>
       <c r="O50" t="s">
-        <v>492</v>
+        <v>538</v>
       </c>
     </row>
     <row r="51">
@@ -3933,25 +4086,25 @@
         <v>1938.0</v>
       </c>
       <c r="C51" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D51" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E51" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F51" t="e">
         <v>#N/A</v>
       </c>
       <c r="G51" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="H51" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="I51" t="s">
-        <v>376</v>
+        <v>409</v>
       </c>
       <c r="J51" t="n">
         <v>-73.0381966494124</v>
@@ -3960,16 +4113,16 @@
         <v>41.5637429063891</v>
       </c>
       <c r="L51" t="s">
-        <v>436</v>
+        <v>475</v>
       </c>
       <c r="M51" t="s">
-        <v>464</v>
+        <v>507</v>
       </c>
       <c r="N51" t="s">
-        <v>472</v>
+        <v>518</v>
       </c>
       <c r="O51" t="s">
-        <v>492</v>
+        <v>538</v>
       </c>
     </row>
     <row r="52">
@@ -3980,25 +4133,25 @@
         <v>1938.0</v>
       </c>
       <c r="C52" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D52" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E52" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F52" t="e">
         <v>#N/A</v>
       </c>
       <c r="G52" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="H52" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="I52" t="s">
-        <v>377</v>
+        <v>410</v>
       </c>
       <c r="J52" t="n">
         <v>-73.0376709561135</v>
@@ -4007,16 +4160,16 @@
         <v>41.562421005866</v>
       </c>
       <c r="L52" t="s">
-        <v>436</v>
+        <v>475</v>
       </c>
       <c r="M52" t="s">
-        <v>464</v>
+        <v>507</v>
       </c>
       <c r="N52" t="s">
-        <v>472</v>
+        <v>518</v>
       </c>
       <c r="O52" t="s">
-        <v>492</v>
+        <v>538</v>
       </c>
     </row>
     <row r="53">
@@ -4027,25 +4180,25 @@
         <v>1938.0</v>
       </c>
       <c r="C53" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D53" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E53" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F53" t="e">
         <v>#N/A</v>
       </c>
       <c r="G53" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="H53" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="I53" t="s">
-        <v>378</v>
+        <v>411</v>
       </c>
       <c r="J53" t="n">
         <v>-73.0375883408498</v>
@@ -4054,16 +4207,16 @@
         <v>41.5616483994562</v>
       </c>
       <c r="L53" t="s">
-        <v>436</v>
+        <v>475</v>
       </c>
       <c r="M53" t="s">
-        <v>464</v>
+        <v>507</v>
       </c>
       <c r="N53" t="s">
-        <v>472</v>
+        <v>518</v>
       </c>
       <c r="O53" t="s">
-        <v>492</v>
+        <v>538</v>
       </c>
     </row>
     <row r="54">
@@ -4074,25 +4227,25 @@
         <v>1938.0</v>
       </c>
       <c r="C54" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D54" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E54" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F54" t="e">
         <v>#N/A</v>
       </c>
       <c r="G54" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="H54" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="I54" t="s">
-        <v>379</v>
+        <v>412</v>
       </c>
       <c r="J54" t="n">
         <v>-73.0375001536833</v>
@@ -4101,16 +4254,16 @@
         <v>41.5623010119887</v>
       </c>
       <c r="L54" t="s">
-        <v>436</v>
+        <v>475</v>
       </c>
       <c r="M54" t="s">
-        <v>464</v>
+        <v>507</v>
       </c>
       <c r="N54" t="s">
-        <v>472</v>
+        <v>518</v>
       </c>
       <c r="O54" t="s">
-        <v>492</v>
+        <v>538</v>
       </c>
     </row>
     <row r="55">
@@ -4121,25 +4274,25 @@
         <v>1938.0</v>
       </c>
       <c r="C55" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D55" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E55" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F55" t="e">
         <v>#N/A</v>
       </c>
       <c r="G55" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="H55" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="I55" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="J55" t="e">
         <v>#N/A</v>
@@ -4168,25 +4321,25 @@
         <v>1938.0</v>
       </c>
       <c r="C56" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D56" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E56" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F56" t="e">
         <v>#N/A</v>
       </c>
       <c r="G56" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="H56" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="I56" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="J56" t="e">
         <v>#N/A</v>
@@ -4215,25 +4368,25 @@
         <v>1938.0</v>
       </c>
       <c r="C57" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D57" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E57" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F57" t="e">
         <v>#N/A</v>
       </c>
       <c r="G57" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="H57" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="I57" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="J57" t="e">
         <v>#N/A</v>
@@ -4262,25 +4415,25 @@
         <v>1938.0</v>
       </c>
       <c r="C58" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D58" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E58" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F58" t="e">
         <v>#N/A</v>
       </c>
       <c r="G58" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="H58" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="I58" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="J58" t="e">
         <v>#N/A</v>
@@ -4309,25 +4462,25 @@
         <v>1938.0</v>
       </c>
       <c r="C59" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D59" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E59" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F59" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="G59" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="H59" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="I59" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="J59" t="e">
         <v>#N/A</v>
@@ -4356,25 +4509,25 @@
         <v>1938.0</v>
       </c>
       <c r="C60" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D60" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E60" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F60" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="G60" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="H60" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="I60" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="J60" t="e">
         <v>#N/A</v>
@@ -4403,25 +4556,25 @@
         <v>1938.0</v>
       </c>
       <c r="C61" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D61" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E61" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F61" t="e">
         <v>#N/A</v>
       </c>
       <c r="G61" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="H61" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="I61" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="J61" t="e">
         <v>#N/A</v>
@@ -4450,25 +4603,25 @@
         <v>1938.0</v>
       </c>
       <c r="C62" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D62" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E62" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F62" t="e">
         <v>#N/A</v>
       </c>
       <c r="G62" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="H62" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="I62" t="s">
-        <v>380</v>
+        <v>413</v>
       </c>
       <c r="J62" t="n">
         <v>-75.5493300113921</v>
@@ -4477,16 +4630,16 @@
         <v>39.7474398054402</v>
       </c>
       <c r="L62" t="s">
-        <v>437</v>
+        <v>476</v>
       </c>
       <c r="M62" t="s">
-        <v>465</v>
+        <v>508</v>
       </c>
       <c r="N62" t="s">
-        <v>473</v>
+        <v>519</v>
       </c>
       <c r="O62" t="s">
-        <v>493</v>
+        <v>539</v>
       </c>
     </row>
     <row r="63">
@@ -4497,25 +4650,25 @@
         <v>1938.0</v>
       </c>
       <c r="C63" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D63" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E63" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F63" t="e">
         <v>#N/A</v>
       </c>
       <c r="G63" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="H63" t="s">
-        <v>310</v>
+        <v>333</v>
       </c>
       <c r="I63" t="s">
-        <v>381</v>
+        <v>414</v>
       </c>
       <c r="J63" t="n">
         <v>-75.548033259881</v>
@@ -4524,16 +4677,16 @@
         <v>39.7478471710777</v>
       </c>
       <c r="L63" t="s">
-        <v>421</v>
+        <v>460</v>
       </c>
       <c r="M63" t="s">
-        <v>465</v>
+        <v>508</v>
       </c>
       <c r="N63" t="s">
-        <v>473</v>
+        <v>519</v>
       </c>
       <c r="O63" t="s">
-        <v>493</v>
+        <v>539</v>
       </c>
     </row>
     <row r="64">
@@ -4544,25 +4697,25 @@
         <v>1938.0</v>
       </c>
       <c r="C64" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D64" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E64" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F64" t="e">
         <v>#N/A</v>
       </c>
       <c r="G64" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="H64" t="s">
-        <v>311</v>
+        <v>334</v>
       </c>
       <c r="I64" t="s">
-        <v>382</v>
+        <v>415</v>
       </c>
       <c r="J64" t="n">
         <v>-75.5459142852752</v>
@@ -4571,16 +4724,16 @@
         <v>39.7449178629458</v>
       </c>
       <c r="L64" t="s">
-        <v>438</v>
+        <v>477</v>
       </c>
       <c r="M64" t="s">
-        <v>465</v>
+        <v>508</v>
       </c>
       <c r="N64" t="s">
-        <v>473</v>
+        <v>519</v>
       </c>
       <c r="O64" t="s">
-        <v>493</v>
+        <v>539</v>
       </c>
     </row>
     <row r="65">
@@ -4591,25 +4744,25 @@
         <v>1938.0</v>
       </c>
       <c r="C65" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D65" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E65" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F65" t="e">
         <v>#N/A</v>
       </c>
       <c r="G65" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="H65" t="s">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="I65" t="s">
-        <v>383</v>
+        <v>416</v>
       </c>
       <c r="J65" t="n">
         <v>-75.5481252777236</v>
@@ -4618,16 +4771,16 @@
         <v>39.7494633757811</v>
       </c>
       <c r="L65" t="s">
-        <v>437</v>
+        <v>476</v>
       </c>
       <c r="M65" t="s">
-        <v>465</v>
+        <v>508</v>
       </c>
       <c r="N65" t="s">
-        <v>473</v>
+        <v>519</v>
       </c>
       <c r="O65" t="s">
-        <v>493</v>
+        <v>539</v>
       </c>
     </row>
     <row r="66">
@@ -4638,25 +4791,25 @@
         <v>1938.0</v>
       </c>
       <c r="C66" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D66" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E66" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F66" t="e">
         <v>#N/A</v>
       </c>
       <c r="G66" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="H66" t="s">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="I66" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="J66" t="e">
         <v>#N/A</v>
@@ -4685,25 +4838,25 @@
         <v>1938.0</v>
       </c>
       <c r="C67" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D67" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E67" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F67" t="e">
         <v>#N/A</v>
       </c>
       <c r="G67" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="H67" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="I67" t="s">
-        <v>384</v>
+        <v>417</v>
       </c>
       <c r="J67" t="n">
         <v>-77.0295470698206</v>
@@ -4712,16 +4865,16 @@
         <v>38.914479329056</v>
       </c>
       <c r="L67" t="s">
-        <v>439</v>
+        <v>478</v>
       </c>
       <c r="M67" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="N67" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="O67" t="s">
-        <v>494</v>
+        <v>540</v>
       </c>
     </row>
     <row r="68">
@@ -4732,25 +4885,25 @@
         <v>1938.0</v>
       </c>
       <c r="C68" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D68" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F68" t="e">
         <v>#N/A</v>
       </c>
       <c r="G68" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="H68" t="s">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="I68" t="s">
-        <v>385</v>
+        <v>418</v>
       </c>
       <c r="J68" t="n">
         <v>-77.0417451402957</v>
@@ -4759,16 +4912,16 @@
         <v>38.9097567644737</v>
       </c>
       <c r="L68" t="s">
-        <v>413</v>
+        <v>452</v>
       </c>
       <c r="M68" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="N68" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="O68" t="s">
-        <v>495</v>
+        <v>541</v>
       </c>
     </row>
     <row r="69">
@@ -4779,25 +4932,25 @@
         <v>1938.0</v>
       </c>
       <c r="C69" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D69" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F69" t="e">
         <v>#N/A</v>
       </c>
       <c r="G69" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="H69" t="s">
-        <v>316</v>
+        <v>339</v>
       </c>
       <c r="I69" t="s">
-        <v>386</v>
+        <v>419</v>
       </c>
       <c r="J69" t="n">
         <v>-77.0219212091946</v>
@@ -4809,13 +4962,13 @@
         <v>#N/A</v>
       </c>
       <c r="M69" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="N69" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="O69" t="s">
-        <v>496</v>
+        <v>542</v>
       </c>
     </row>
     <row r="70">
@@ -4826,25 +4979,25 @@
         <v>1938.0</v>
       </c>
       <c r="C70" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D70" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E70" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F70" t="e">
         <v>#N/A</v>
       </c>
       <c r="G70" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="H70" t="s">
-        <v>317</v>
+        <v>340</v>
       </c>
       <c r="I70" t="s">
-        <v>387</v>
+        <v>420</v>
       </c>
       <c r="J70" t="n">
         <v>-77.0296207062875</v>
@@ -4856,13 +5009,13 @@
         <v>#N/A</v>
       </c>
       <c r="M70" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="N70" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="O70" t="s">
-        <v>494</v>
+        <v>540</v>
       </c>
     </row>
     <row r="71">
@@ -4873,25 +5026,25 @@
         <v>1938.0</v>
       </c>
       <c r="C71" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D71" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E71" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F71" t="e">
         <v>#N/A</v>
       </c>
       <c r="G71" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="H71" t="s">
-        <v>318</v>
+        <v>341</v>
       </c>
       <c r="I71" t="s">
-        <v>388</v>
+        <v>421</v>
       </c>
       <c r="J71" t="n">
         <v>-77.0281553432906</v>
@@ -4900,16 +5053,16 @@
         <v>38.9143727773704</v>
       </c>
       <c r="L71" t="s">
-        <v>421</v>
+        <v>460</v>
       </c>
       <c r="M71" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="N71" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="O71" t="s">
-        <v>494</v>
+        <v>540</v>
       </c>
     </row>
     <row r="72">
@@ -4920,25 +5073,25 @@
         <v>1938.0</v>
       </c>
       <c r="C72" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D72" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E72" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F72" t="e">
         <v>#N/A</v>
       </c>
       <c r="G72" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="H72" t="s">
-        <v>319</v>
+        <v>342</v>
       </c>
       <c r="I72" t="s">
-        <v>389</v>
+        <v>422</v>
       </c>
       <c r="J72" t="n">
         <v>-76.9937363573609</v>
@@ -4947,16 +5100,16 @@
         <v>38.9219005286626</v>
       </c>
       <c r="L72" t="s">
-        <v>440</v>
+        <v>479</v>
       </c>
       <c r="M72" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="N72" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="O72" t="s">
-        <v>497</v>
+        <v>543</v>
       </c>
     </row>
     <row r="73">
@@ -4967,43 +5120,43 @@
         <v>1938.0</v>
       </c>
       <c r="C73" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D73" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E73" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F73" t="e">
         <v>#N/A</v>
       </c>
       <c r="G73" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="H73" t="s">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="I73" t="s">
-        <v>390</v>
+        <v>423</v>
       </c>
       <c r="J73" t="n">
-        <v>-77.01459809738002</v>
+        <v>-77.01459809738</v>
       </c>
       <c r="K73" t="n">
-        <v>38.913216145225086</v>
+        <v>38.9132161452251</v>
       </c>
       <c r="L73" t="s">
-        <v>441</v>
+        <v>480</v>
       </c>
       <c r="M73" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="N73" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="O73" t="s">
-        <v>496</v>
+        <v>542</v>
       </c>
     </row>
     <row r="74">
@@ -5014,43 +5167,43 @@
         <v>1938.0</v>
       </c>
       <c r="C74" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D74" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E74" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F74" t="e">
         <v>#N/A</v>
       </c>
       <c r="G74" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="H74" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
       <c r="I74" t="s">
-        <v>391</v>
+        <v>424</v>
       </c>
       <c r="J74" t="n">
-        <v>-77.02955110701818</v>
+        <v>-77.0295511070182</v>
       </c>
       <c r="K74" t="n">
-        <v>38.916420652308766</v>
+        <v>38.9164206523088</v>
       </c>
       <c r="L74" t="s">
-        <v>439</v>
+        <v>478</v>
       </c>
       <c r="M74" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="N74" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="O74" t="s">
-        <v>494</v>
+        <v>540</v>
       </c>
     </row>
     <row r="75">
@@ -5061,43 +5214,43 @@
         <v>1938.0</v>
       </c>
       <c r="C75" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D75" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E75" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F75" t="e">
         <v>#N/A</v>
       </c>
       <c r="G75" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="H75" t="s">
-        <v>322</v>
+        <v>345</v>
       </c>
       <c r="I75" t="s">
-        <v>392</v>
+        <v>425</v>
       </c>
       <c r="J75" t="n">
-        <v>-77.02854145732209</v>
+        <v>-77.0285414573221</v>
       </c>
       <c r="K75" t="n">
         <v>38.9256909129142</v>
       </c>
       <c r="L75" t="s">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="M75" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="N75" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="O75" t="s">
-        <v>494</v>
+        <v>540</v>
       </c>
     </row>
     <row r="76">
@@ -5108,43 +5261,43 @@
         <v>1938.0</v>
       </c>
       <c r="C76" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D76" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E76" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F76" t="e">
         <v>#N/A</v>
       </c>
       <c r="G76" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="H76" t="s">
-        <v>323</v>
+        <v>346</v>
       </c>
       <c r="I76" t="s">
-        <v>393</v>
+        <v>426</v>
       </c>
       <c r="J76" t="n">
-        <v>-77.03287812844063</v>
+        <v>-77.0328781284406</v>
       </c>
       <c r="K76" t="n">
-        <v>38.91118050739781</v>
+        <v>38.9111805073978</v>
       </c>
       <c r="L76" t="s">
-        <v>443</v>
+        <v>482</v>
       </c>
       <c r="M76" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="N76" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="O76" t="s">
-        <v>494</v>
+        <v>540</v>
       </c>
     </row>
     <row r="77">
@@ -5155,43 +5308,43 @@
         <v>1938.0</v>
       </c>
       <c r="C77" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D77" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E77" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="F77" t="e">
         <v>#N/A</v>
       </c>
       <c r="G77" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="H77" t="s">
-        <v>324</v>
+        <v>347</v>
       </c>
       <c r="I77" t="s">
-        <v>394</v>
+        <v>427</v>
       </c>
       <c r="J77" t="n">
-        <v>-77.01900233380302</v>
+        <v>-77.019002333803</v>
       </c>
       <c r="K77" t="n">
-        <v>38.90148995869146</v>
+        <v>38.9014899586915</v>
       </c>
       <c r="L77" t="s">
-        <v>444</v>
+        <v>483</v>
       </c>
       <c r="M77" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="N77" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="O77" t="s">
-        <v>496</v>
+        <v>542</v>
       </c>
     </row>
     <row r="78">
@@ -5202,43 +5355,43 @@
         <v>1938.0</v>
       </c>
       <c r="C78" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D78" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E78" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="F78" t="e">
         <v>#N/A</v>
       </c>
       <c r="G78" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="H78" t="s">
-        <v>325</v>
+        <v>348</v>
       </c>
       <c r="I78" t="s">
-        <v>395</v>
+        <v>428</v>
       </c>
       <c r="J78" t="n">
         <v>-77.0284109682986</v>
       </c>
       <c r="K78" t="n">
-        <v>38.91694291467242</v>
+        <v>38.9169429146724</v>
       </c>
       <c r="L78" t="s">
-        <v>445</v>
+        <v>484</v>
       </c>
       <c r="M78" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="N78" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="O78" t="s">
-        <v>494</v>
+        <v>540</v>
       </c>
     </row>
     <row r="79">
@@ -5249,43 +5402,43 @@
         <v>1938.0</v>
       </c>
       <c r="C79" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D79" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E79" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="F79" t="e">
         <v>#N/A</v>
       </c>
       <c r="G79" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="H79" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="I79" t="s">
-        <v>396</v>
+        <v>429</v>
       </c>
       <c r="J79" t="n">
-        <v>-77.02192120868584</v>
+        <v>-77.0219212086858</v>
       </c>
       <c r="K79" t="n">
-        <v>38.91556921040576</v>
-      </c>
-      <c r="L79" t="s">
-        <v>446</v>
+        <v>38.9155692104058</v>
+      </c>
+      <c r="L79" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M79" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="N79" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="O79" t="s">
-        <v>496</v>
+        <v>542</v>
       </c>
     </row>
     <row r="80">
@@ -5296,43 +5449,43 @@
         <v>1938.0</v>
       </c>
       <c r="C80" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D80" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E80" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="F80" t="e">
         <v>#N/A</v>
       </c>
       <c r="G80" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="H80" t="s">
-        <v>327</v>
+        <v>350</v>
       </c>
       <c r="I80" t="s">
-        <v>397</v>
+        <v>430</v>
       </c>
       <c r="J80" t="n">
-        <v>-77.03341999283333</v>
+        <v>-77.0334199928333</v>
       </c>
       <c r="K80" t="n">
-        <v>38.91705750623342</v>
+        <v>38.9170575062334</v>
       </c>
       <c r="L80" t="s">
-        <v>445</v>
+        <v>484</v>
       </c>
       <c r="M80" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="N80" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="O80" t="s">
-        <v>494</v>
+        <v>540</v>
       </c>
     </row>
     <row r="81">
@@ -5343,43 +5496,43 @@
         <v>1938.0</v>
       </c>
       <c r="C81" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D81" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E81" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="F81" t="e">
         <v>#N/A</v>
       </c>
       <c r="G81" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="H81" t="s">
-        <v>328</v>
+        <v>351</v>
       </c>
       <c r="I81" t="s">
-        <v>398</v>
+        <v>431</v>
       </c>
       <c r="J81" t="n">
-        <v>-77.03453020467171</v>
+        <v>-77.0345302046717</v>
       </c>
       <c r="K81" t="n">
-        <v>38.917000210587815</v>
-      </c>
-      <c r="L81" t="s">
-        <v>446</v>
+        <v>38.9170002105878</v>
+      </c>
+      <c r="L81" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M81" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="N81" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="O81" t="s">
-        <v>494</v>
+        <v>540</v>
       </c>
     </row>
     <row r="82">
@@ -5390,43 +5543,43 @@
         <v>1938.0</v>
       </c>
       <c r="C82" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D82" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E82" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="F82" t="e">
         <v>#N/A</v>
       </c>
       <c r="G82" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="H82" t="s">
-        <v>329</v>
+        <v>352</v>
       </c>
       <c r="I82" t="s">
-        <v>399</v>
+        <v>432</v>
       </c>
       <c r="J82" t="n">
-        <v>-88.69186715159783</v>
+        <v>-88.6918671515978</v>
       </c>
       <c r="K82" t="n">
-        <v>32.371995019098996</v>
-      </c>
-      <c r="L82" t="s">
-        <v>446</v>
-      </c>
-      <c r="M82" t="s">
-        <v>446</v>
-      </c>
-      <c r="N82" t="s">
-        <v>446</v>
-      </c>
-      <c r="O82" t="s">
-        <v>446</v>
+        <v>32.371995019099</v>
+      </c>
+      <c r="L82" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M82" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N82" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O82" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="83">
@@ -5437,43 +5590,43 @@
         <v>1938.0</v>
       </c>
       <c r="C83" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D83" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E83" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="F83" t="e">
         <v>#N/A</v>
       </c>
       <c r="G83" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="H83" t="s">
-        <v>328</v>
+        <v>351</v>
       </c>
       <c r="I83" t="s">
-        <v>398</v>
+        <v>431</v>
       </c>
       <c r="J83" t="n">
-        <v>-77.03453020467171</v>
+        <v>-77.0345302046717</v>
       </c>
       <c r="K83" t="n">
-        <v>38.917000210587815</v>
-      </c>
-      <c r="L83" t="s">
-        <v>446</v>
+        <v>38.9170002105878</v>
+      </c>
+      <c r="L83" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M83" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="N83" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="O83" t="s">
-        <v>494</v>
+        <v>540</v>
       </c>
     </row>
     <row r="84">
@@ -5484,43 +5637,43 @@
         <v>1938.0</v>
       </c>
       <c r="C84" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D84" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E84" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F84" t="e">
         <v>#N/A</v>
       </c>
       <c r="G84" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="H84" t="s">
-        <v>330</v>
+        <v>353</v>
       </c>
       <c r="I84" t="s">
-        <v>400</v>
+        <v>433</v>
       </c>
       <c r="J84" t="n">
-        <v>-81.66426413723146</v>
+        <v>-81.6642641372315</v>
       </c>
       <c r="K84" t="n">
-        <v>30.331734088630405</v>
+        <v>30.3317340886304</v>
       </c>
       <c r="L84" t="s">
-        <v>424</v>
+        <v>463</v>
       </c>
       <c r="M84" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="N84" t="s">
-        <v>475</v>
+        <v>521</v>
       </c>
       <c r="O84" t="s">
-        <v>498</v>
+        <v>544</v>
       </c>
     </row>
     <row r="85">
@@ -5531,43 +5684,43 @@
         <v>1938.0</v>
       </c>
       <c r="C85" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D85" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E85" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F85" t="e">
         <v>#N/A</v>
       </c>
       <c r="G85" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="H85" t="s">
-        <v>331</v>
+        <v>354</v>
       </c>
       <c r="I85" t="s">
-        <v>401</v>
+        <v>434</v>
       </c>
       <c r="J85" t="n">
-        <v>-81.66441302111136</v>
+        <v>-81.6644130211114</v>
       </c>
       <c r="K85" t="n">
-        <v>30.33248736467606</v>
+        <v>30.3324873646761</v>
       </c>
       <c r="L85" t="s">
-        <v>447</v>
+        <v>485</v>
       </c>
       <c r="M85" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="N85" t="s">
-        <v>475</v>
+        <v>521</v>
       </c>
       <c r="O85" t="s">
-        <v>498</v>
+        <v>544</v>
       </c>
     </row>
     <row r="86">
@@ -5578,43 +5731,43 @@
         <v>1938.0</v>
       </c>
       <c r="C86" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D86" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E86" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F86" t="e">
         <v>#N/A</v>
       </c>
       <c r="G86" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="H86" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="I86" t="s">
-        <v>402</v>
+        <v>435</v>
       </c>
       <c r="J86" t="n">
-        <v>-81.66446539403759</v>
+        <v>-81.6644653940376</v>
       </c>
       <c r="K86" t="n">
-        <v>30.33238043091579</v>
+        <v>30.3323804309158</v>
       </c>
       <c r="L86" t="s">
-        <v>447</v>
+        <v>485</v>
       </c>
       <c r="M86" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="N86" t="s">
-        <v>475</v>
+        <v>521</v>
       </c>
       <c r="O86" t="s">
-        <v>499</v>
+        <v>545</v>
       </c>
     </row>
     <row r="87">
@@ -5625,43 +5778,43 @@
         <v>1938.0</v>
       </c>
       <c r="C87" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D87" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E87" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F87" t="e">
         <v>#N/A</v>
       </c>
       <c r="G87" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="H87" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="I87" t="s">
-        <v>403</v>
+        <v>436</v>
       </c>
       <c r="J87" t="n">
-        <v>-81.66445676014898</v>
+        <v>-81.664456760149</v>
       </c>
       <c r="K87" t="n">
-        <v>30.331061902734696</v>
+        <v>30.3310619027347</v>
       </c>
       <c r="L87" t="s">
-        <v>424</v>
+        <v>463</v>
       </c>
       <c r="M87" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="N87" t="s">
-        <v>475</v>
+        <v>521</v>
       </c>
       <c r="O87" t="s">
-        <v>498</v>
+        <v>544</v>
       </c>
     </row>
     <row r="88">
@@ -5672,43 +5825,43 @@
         <v>1938.0</v>
       </c>
       <c r="C88" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D88" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E88" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F88" t="e">
         <v>#N/A</v>
       </c>
       <c r="G88" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="H88" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="I88" t="s">
-        <v>404</v>
+        <v>437</v>
       </c>
       <c r="J88" t="n">
-        <v>-81.66566414356389</v>
+        <v>-81.6656641435639</v>
       </c>
       <c r="K88" t="n">
-        <v>30.33195726774236</v>
+        <v>30.3319572677424</v>
       </c>
       <c r="L88" t="s">
-        <v>414</v>
+        <v>453</v>
       </c>
       <c r="M88" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="N88" t="s">
-        <v>475</v>
+        <v>521</v>
       </c>
       <c r="O88" t="s">
-        <v>498</v>
+        <v>544</v>
       </c>
     </row>
     <row r="89">
@@ -5719,43 +5872,43 @@
         <v>1938.0</v>
       </c>
       <c r="C89" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D89" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E89" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F89" t="e">
         <v>#N/A</v>
       </c>
       <c r="G89" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="H89" t="s">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="I89" t="s">
-        <v>405</v>
+        <v>438</v>
       </c>
       <c r="J89" t="n">
-        <v>-81.66960512522061</v>
+        <v>-81.6696051252206</v>
       </c>
       <c r="K89" t="n">
-        <v>30.350636939663147</v>
+        <v>30.3506369396631</v>
       </c>
       <c r="L89" t="s">
-        <v>448</v>
+        <v>486</v>
       </c>
       <c r="M89" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="N89" t="s">
-        <v>475</v>
+        <v>521</v>
       </c>
       <c r="O89" t="s">
-        <v>500</v>
+        <v>546</v>
       </c>
     </row>
     <row r="90">
@@ -5766,43 +5919,43 @@
         <v>1938.0</v>
       </c>
       <c r="C90" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D90" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E90" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F90" t="e">
         <v>#N/A</v>
       </c>
       <c r="G90" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="H90" t="s">
-        <v>336</v>
+        <v>359</v>
       </c>
       <c r="I90" t="s">
-        <v>406</v>
+        <v>439</v>
       </c>
       <c r="J90" t="n">
-        <v>-81.39550884012574</v>
+        <v>-81.3955088401258</v>
       </c>
       <c r="K90" t="n">
-        <v>30.322939677393787</v>
+        <v>30.3229396773938</v>
       </c>
       <c r="L90" t="s">
-        <v>449</v>
+        <v>487</v>
       </c>
       <c r="M90" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="N90" t="s">
-        <v>475</v>
+        <v>521</v>
       </c>
       <c r="O90" t="s">
-        <v>501</v>
+        <v>547</v>
       </c>
     </row>
     <row r="91">
@@ -5813,43 +5966,43 @@
         <v>1938.0</v>
       </c>
       <c r="C91" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D91" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="E91" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F91" t="e">
         <v>#N/A</v>
       </c>
       <c r="G91" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="H91" t="s">
-        <v>337</v>
+        <v>360</v>
       </c>
       <c r="I91" t="s">
-        <v>407</v>
+        <v>440</v>
       </c>
       <c r="J91" t="n">
-        <v>-81.95728294282242</v>
+        <v>-81.9572829428224</v>
       </c>
       <c r="K91" t="n">
-        <v>28.051533143602214</v>
+        <v>28.0515331436022</v>
       </c>
       <c r="L91" t="s">
-        <v>441</v>
+        <v>480</v>
       </c>
       <c r="M91" t="s">
-        <v>468</v>
+        <v>511</v>
       </c>
       <c r="N91" t="s">
-        <v>475</v>
+        <v>521</v>
       </c>
       <c r="O91" t="s">
-        <v>502</v>
+        <v>548</v>
       </c>
     </row>
     <row r="92">
@@ -5860,43 +6013,43 @@
         <v>1938.0</v>
       </c>
       <c r="C92" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D92" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E92" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F92" t="e">
         <v>#N/A</v>
       </c>
       <c r="G92" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="H92" t="s">
-        <v>338</v>
+        <v>361</v>
       </c>
       <c r="I92" t="s">
-        <v>408</v>
+        <v>441</v>
       </c>
       <c r="J92" t="n">
-        <v>-80.19796330654357</v>
+        <v>-80.1979633065436</v>
       </c>
       <c r="K92" t="n">
-        <v>25.783100473685785</v>
+        <v>25.7831004736858</v>
       </c>
       <c r="L92" t="s">
-        <v>450</v>
+        <v>488</v>
       </c>
       <c r="M92" t="s">
-        <v>469</v>
+        <v>512</v>
       </c>
       <c r="N92" t="s">
-        <v>475</v>
+        <v>521</v>
       </c>
       <c r="O92" t="s">
-        <v>503</v>
+        <v>549</v>
       </c>
     </row>
     <row r="93">
@@ -5907,43 +6060,43 @@
         <v>1938.0</v>
       </c>
       <c r="C93" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D93" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E93" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F93" t="e">
         <v>#N/A</v>
       </c>
       <c r="G93" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="H93" t="s">
-        <v>339</v>
+        <v>362</v>
       </c>
       <c r="I93" t="s">
-        <v>409</v>
+        <v>442</v>
       </c>
       <c r="J93" t="n">
         <v>-80.1980312449411</v>
       </c>
       <c r="K93" t="n">
-        <v>25.780776879909034</v>
+        <v>25.780776879909</v>
       </c>
       <c r="L93" t="s">
-        <v>450</v>
+        <v>488</v>
       </c>
       <c r="M93" t="s">
-        <v>469</v>
+        <v>512</v>
       </c>
       <c r="N93" t="s">
-        <v>475</v>
+        <v>521</v>
       </c>
       <c r="O93" t="s">
-        <v>503</v>
+        <v>549</v>
       </c>
     </row>
     <row r="94">
@@ -5954,43 +6107,513 @@
         <v>1938.0</v>
       </c>
       <c r="C94" t="s">
+        <v>121</v>
+      </c>
+      <c r="D94" t="s">
+        <v>143</v>
+      </c>
+      <c r="E94" t="s">
+        <v>148</v>
+      </c>
+      <c r="F94" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G94" t="s">
+        <v>266</v>
+      </c>
+      <c r="H94" t="s">
+        <v>363</v>
+      </c>
+      <c r="I94" t="s">
+        <v>443</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-87.21373353953</v>
+      </c>
+      <c r="K94" t="n">
+        <v>30.4173283716835</v>
+      </c>
+      <c r="L94" t="s">
+        <v>489</v>
+      </c>
+      <c r="M94" t="s">
+        <v>513</v>
+      </c>
+      <c r="N94" t="s">
+        <v>521</v>
+      </c>
+      <c r="O94" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>107</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C95" t="s">
+        <v>121</v>
+      </c>
+      <c r="D95" t="s">
+        <v>144</v>
+      </c>
+      <c r="E95" t="s">
+        <v>147</v>
+      </c>
+      <c r="F95" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G95" t="s">
+        <v>267</v>
+      </c>
+      <c r="H95" t="s">
+        <v>364</v>
+      </c>
+      <c r="I95" t="s">
+        <v>374</v>
+      </c>
+      <c r="J95" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K95" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L95" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M95" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N95" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O95" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>108</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>121</v>
+      </c>
+      <c r="D96" t="s">
+        <v>144</v>
+      </c>
+      <c r="E96" t="s">
+        <v>147</v>
+      </c>
+      <c r="F96" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G96" t="s">
+        <v>268</v>
+      </c>
+      <c r="H96" t="s">
+        <v>365</v>
+      </c>
+      <c r="I96" t="s">
+        <v>444</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-81.31442133739978</v>
+      </c>
+      <c r="K96" t="n">
+        <v>29.88895432612814</v>
+      </c>
+      <c r="L96" t="s">
+        <v>490</v>
+      </c>
+      <c r="M96" t="s">
+        <v>514</v>
+      </c>
+      <c r="N96" t="s">
+        <v>521</v>
+      </c>
+      <c r="O96" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>109</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C97" t="s">
+        <v>121</v>
+      </c>
+      <c r="D97" t="s">
+        <v>144</v>
+      </c>
+      <c r="E97" t="s">
+        <v>147</v>
+      </c>
+      <c r="F97" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G97" t="s">
+        <v>269</v>
+      </c>
+      <c r="H97" t="s">
+        <v>366</v>
+      </c>
+      <c r="I97" t="s">
+        <v>374</v>
+      </c>
+      <c r="J97" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K97" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L97" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M97" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N97" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O97" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>110</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>121</v>
+      </c>
+      <c r="D98" t="s">
+        <v>145</v>
+      </c>
+      <c r="E98" t="s">
+        <v>147</v>
+      </c>
+      <c r="F98" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G98" t="s">
+        <v>270</v>
+      </c>
+      <c r="H98" t="s">
+        <v>367</v>
+      </c>
+      <c r="I98" t="s">
+        <v>445</v>
+      </c>
+      <c r="J98" t="n">
+        <v>-82.67117954274819</v>
+      </c>
+      <c r="K98" t="n">
+        <v>27.764976877558205</v>
+      </c>
+      <c r="L98" t="s">
+        <v>491</v>
+      </c>
+      <c r="M98" t="s">
+        <v>515</v>
+      </c>
+      <c r="N98" t="s">
+        <v>521</v>
+      </c>
+      <c r="O98" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
         <v>111</v>
       </c>
-      <c r="D94" t="s">
-        <v>133</v>
-      </c>
-      <c r="E94" t="s">
-        <v>135</v>
-      </c>
-      <c r="F94" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G94" t="s">
-        <v>253</v>
-      </c>
-      <c r="H94" t="s">
-        <v>340</v>
-      </c>
-      <c r="I94" t="s">
-        <v>410</v>
-      </c>
-      <c r="J94" t="n">
-        <v>-87.21373353953004</v>
-      </c>
-      <c r="K94" t="n">
-        <v>30.417328371683503</v>
-      </c>
-      <c r="L94" t="s">
-        <v>451</v>
-      </c>
-      <c r="M94" t="s">
-        <v>470</v>
-      </c>
-      <c r="N94" t="s">
-        <v>475</v>
-      </c>
-      <c r="O94" t="s">
-        <v>504</v>
+      <c r="B99" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C99" t="s">
+        <v>121</v>
+      </c>
+      <c r="D99" t="s">
+        <v>145</v>
+      </c>
+      <c r="E99" t="s">
+        <v>147</v>
+      </c>
+      <c r="F99" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G99" t="s">
+        <v>271</v>
+      </c>
+      <c r="H99" t="s">
+        <v>368</v>
+      </c>
+      <c r="I99" t="s">
+        <v>446</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-82.65392154972366</v>
+      </c>
+      <c r="K99" t="n">
+        <v>27.77756216977729</v>
+      </c>
+      <c r="L99" t="s">
+        <v>483</v>
+      </c>
+      <c r="M99" t="s">
+        <v>515</v>
+      </c>
+      <c r="N99" t="s">
+        <v>521</v>
+      </c>
+      <c r="O99" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>112</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C100" t="s">
+        <v>121</v>
+      </c>
+      <c r="D100" t="s">
+        <v>145</v>
+      </c>
+      <c r="E100" t="s">
+        <v>147</v>
+      </c>
+      <c r="F100" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G100" t="s">
+        <v>272</v>
+      </c>
+      <c r="H100" t="s">
+        <v>369</v>
+      </c>
+      <c r="I100" t="s">
+        <v>447</v>
+      </c>
+      <c r="J100" t="n">
+        <v>-82.64731694277427</v>
+      </c>
+      <c r="K100" t="n">
+        <v>27.7684565804156</v>
+      </c>
+      <c r="L100" t="s">
+        <v>492</v>
+      </c>
+      <c r="M100" t="s">
+        <v>515</v>
+      </c>
+      <c r="N100" t="s">
+        <v>521</v>
+      </c>
+      <c r="O100" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>113</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C101" t="s">
+        <v>121</v>
+      </c>
+      <c r="D101" t="s">
+        <v>146</v>
+      </c>
+      <c r="E101" t="s">
+        <v>148</v>
+      </c>
+      <c r="F101" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G101" t="s">
+        <v>273</v>
+      </c>
+      <c r="H101" t="s">
+        <v>370</v>
+      </c>
+      <c r="I101" t="s">
+        <v>374</v>
+      </c>
+      <c r="J101" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K101" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L101" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M101" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N101" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O101" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>114</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C102" t="s">
+        <v>121</v>
+      </c>
+      <c r="D102" t="s">
+        <v>146</v>
+      </c>
+      <c r="E102" t="s">
+        <v>148</v>
+      </c>
+      <c r="F102" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G102" t="s">
+        <v>274</v>
+      </c>
+      <c r="H102" t="s">
+        <v>371</v>
+      </c>
+      <c r="I102" t="s">
+        <v>448</v>
+      </c>
+      <c r="J102" t="n">
+        <v>-82.45533737670763</v>
+      </c>
+      <c r="K102" t="n">
+        <v>28.03697055725273</v>
+      </c>
+      <c r="L102" t="s">
+        <v>493</v>
+      </c>
+      <c r="M102" t="s">
+        <v>516</v>
+      </c>
+      <c r="N102" t="s">
+        <v>521</v>
+      </c>
+      <c r="O102" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>115</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C103" t="s">
+        <v>121</v>
+      </c>
+      <c r="D103" t="s">
+        <v>146</v>
+      </c>
+      <c r="E103" t="s">
+        <v>148</v>
+      </c>
+      <c r="F103" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G103" t="s">
+        <v>275</v>
+      </c>
+      <c r="H103" t="s">
+        <v>372</v>
+      </c>
+      <c r="I103" t="s">
+        <v>449</v>
+      </c>
+      <c r="J103" t="n">
+        <v>-82.45416202996856</v>
+      </c>
+      <c r="K103" t="n">
+        <v>27.951475964784862</v>
+      </c>
+      <c r="L103" t="s">
+        <v>494</v>
+      </c>
+      <c r="M103" t="s">
+        <v>516</v>
+      </c>
+      <c r="N103" t="s">
+        <v>521</v>
+      </c>
+      <c r="O103" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>116</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C104" t="s">
+        <v>121</v>
+      </c>
+      <c r="D104" t="s">
+        <v>146</v>
+      </c>
+      <c r="E104" t="s">
+        <v>148</v>
+      </c>
+      <c r="F104" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G104" t="s">
+        <v>276</v>
+      </c>
+      <c r="H104" t="s">
+        <v>373</v>
+      </c>
+      <c r="I104" t="s">
+        <v>374</v>
+      </c>
+      <c r="J104" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K104" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L104" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M104" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N104" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O104" t="e">
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>

--- a/shiny_remaining_greenbook_addresses/greenbook_addresses.xlsx
+++ b/shiny_remaining_greenbook_addresses/greenbook_addresses.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="653">
   <si>
     <t>greenbook_edition</t>
   </si>
@@ -365,6 +365,72 @@
     <t>103</t>
   </si>
   <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
     <t>Alabama</t>
   </si>
   <si>
@@ -380,6 +446,9 @@
     <t>Florida</t>
   </si>
   <si>
+    <t>Georgia</t>
+  </si>
+  <si>
     <t>Andalusia</t>
   </si>
   <si>
@@ -455,6 +524,18 @@
     <t>Tampa</t>
   </si>
   <si>
+    <t>Albany</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>Columbus</t>
+  </si>
+  <si>
+    <t>Dublin</t>
+  </si>
+  <si>
     <t>tourist</t>
   </si>
   <si>
@@ -473,6 +554,18 @@
     <t>theaters</t>
   </si>
   <si>
+    <t>night clubs</t>
+  </si>
+  <si>
+    <t>barber shops</t>
+  </si>
+  <si>
+    <t>dance halls</t>
+  </si>
+  <si>
+    <t>service stations</t>
+  </si>
+  <si>
     <t>Mrs. Ed. Andrews</t>
   </si>
   <si>
@@ -554,6 +647,9 @@
     <t>Weston’s</t>
   </si>
   <si>
+    <t>Lowe’s Hotel</t>
+  </si>
+  <si>
     <t>69 N. Cotton St.</t>
   </si>
   <si>
@@ -845,6 +941,66 @@
     <t>822 Contant St.</t>
   </si>
   <si>
+    <t>525 Mercer St.</t>
+  </si>
+  <si>
+    <t>313 South St.</t>
+  </si>
+  <si>
+    <t>514 Mercer St.</t>
+  </si>
+  <si>
+    <t>214 S. Jackson St.</t>
+  </si>
+  <si>
+    <t>245 Auburn Ave.</t>
+  </si>
+  <si>
+    <t>241 Auburn Ave. N.E</t>
+  </si>
+  <si>
+    <t>Auburn Ave. s</t>
+  </si>
+  <si>
+    <t>22 Butler St.</t>
+  </si>
+  <si>
+    <t>49 Davis St. N. W.</t>
+  </si>
+  <si>
+    <t>Auburn Ave. N. HB.</t>
+  </si>
+  <si>
+    <t>312 Auburn Ave. N. E.</t>
+  </si>
+  <si>
+    <t>55 Decatur St.</t>
+  </si>
+  <si>
+    <t>Auburn &amp; Belle St. N.</t>
+  </si>
+  <si>
+    <t>Auburn Ave. N. E.</t>
+  </si>
+  <si>
+    <t>Hunter St. N. BE.</t>
+  </si>
+  <si>
+    <t>Sunset Casino</t>
+  </si>
+  <si>
+    <t>316 S. Jefferson</t>
+  </si>
+  <si>
+    <t>508 McCall St.</t>
+  </si>
+  <si>
+    <t>504 S. Jefferson</t>
+  </si>
+  <si>
+    <t>405 S. Jefferson St.</t>
+  </si>
+  <si>
     <t>69 N. Cotton St., Andalusia, Alabama</t>
   </si>
   <si>
@@ -1136,6 +1292,69 @@
     <t>822 Contant St., Tampa, Florida</t>
   </si>
   <si>
+    <t>525 Mercer St., Albany, Georgia</t>
+  </si>
+  <si>
+    <t>313 South St., Albany, Georgia</t>
+  </si>
+  <si>
+    <t>514 Mercer St., Albany, Georgia</t>
+  </si>
+  <si>
+    <t>214 S. Jackson St., Albany, Georgia</t>
+  </si>
+  <si>
+    <t>245 Auburn Ave., Atlanta, Georgia</t>
+  </si>
+  <si>
+    <t>241 Auburn Ave. N.E, Atlanta, Georgia</t>
+  </si>
+  <si>
+    <t>Auburn Ave. s, Atlanta, Georgia</t>
+  </si>
+  <si>
+    <t>22 Butler St., Atlanta, Georgia</t>
+  </si>
+  <si>
+    <t>49 Davis St. N. W., Atlanta, Georgia</t>
+  </si>
+  <si>
+    <t>Auburn Ave. N. HB., Atlanta, Georgia</t>
+  </si>
+  <si>
+    <t>312 Auburn Ave. N. E., Atlanta, Georgia</t>
+  </si>
+  <si>
+    <t>55 Decatur St., Atlanta, Georgia</t>
+  </si>
+  <si>
+    <t>Auburn &amp; Belle St. N., Atlanta, Georgia</t>
+  </si>
+  <si>
+    <t>Auburn Ave. N. E., Atlanta, Georgia</t>
+  </si>
+  <si>
+    <t>Hunter St. N. BE., Atlanta, Georgia</t>
+  </si>
+  <si>
+    <t>Sunset Casino, Atlanta, Georgia</t>
+  </si>
+  <si>
+    <t>NA, Columbus, Georgia</t>
+  </si>
+  <si>
+    <t>316 S. Jefferson, Dublin, Georgia</t>
+  </si>
+  <si>
+    <t>508 McCall St., Dublin, Georgia</t>
+  </si>
+  <si>
+    <t>504 S. Jefferson, Dublin, Georgia</t>
+  </si>
+  <si>
+    <t>405 S. Jefferson St., Dublin, Georgia</t>
+  </si>
+  <si>
     <t>[none found]</t>
   </si>
   <si>
@@ -1364,6 +1583,42 @@
     <t>829 E ZACK ST, TAMPA, FL, 33602</t>
   </si>
   <si>
+    <t>525 W MERCER AVE, ALBANY, GA, 31701</t>
+  </si>
+  <si>
+    <t>514 W MERCER AVE, ALBANY, GA, 31701</t>
+  </si>
+  <si>
+    <t>214 S JACKSON ST, ALBANY, GA, 31701</t>
+  </si>
+  <si>
+    <t>245 AUBURN AVE NE, ATLANTA, GA, 30303</t>
+  </si>
+  <si>
+    <t>241 AUBURN AVE NE, ATLANTA, GA, 30303</t>
+  </si>
+  <si>
+    <t>22 BUTLER ST SE, ATLANTA, GA, 30303</t>
+  </si>
+  <si>
+    <t>312 AUBURN AVE NE, ATLANTA, GA, 30303</t>
+  </si>
+  <si>
+    <t>55 DECATUR ST SE, ATLANTA, GA, 30303</t>
+  </si>
+  <si>
+    <t>AUBURN AVE NE &amp; BELL ST NE, ATLANTA, GA, 30303</t>
+  </si>
+  <si>
+    <t>316 S JEFFERSON ST, DUBLIN, GA, 31021</t>
+  </si>
+  <si>
+    <t>504 S JEFFERSON ST, DUBLIN, GA, 31021</t>
+  </si>
+  <si>
+    <t>405 S JEFFERSON ST, DUBLIN, GA, 31021</t>
+  </si>
+  <si>
     <t>17TH</t>
   </si>
   <si>
@@ -1487,24 +1742,39 @@
     <t>BRIDGE</t>
   </si>
   <si>
+    <t>3RD</t>
+  </si>
+  <si>
+    <t>CENTRAL</t>
+  </si>
+  <si>
+    <t>ZACK</t>
+  </si>
+  <si>
+    <t>MERCER</t>
+  </si>
+  <si>
+    <t>JACKSON</t>
+  </si>
+  <si>
+    <t>AUBURN</t>
+  </si>
+  <si>
+    <t>BUTLER</t>
+  </si>
+  <si>
+    <t>DECATUR</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>3RD</t>
-  </si>
-  <si>
-    <t>CENTRAL</t>
-  </si>
-  <si>
-    <t>ZACK</t>
+    <t>JEFFERSON</t>
   </si>
   <si>
     <t>BIRMINGHAM</t>
   </si>
   <si>
-    <t>DECATUR</t>
-  </si>
-  <si>
     <t>GADSDEN</t>
   </si>
   <si>
@@ -1565,6 +1835,15 @@
     <t>TAMPA</t>
   </si>
   <si>
+    <t>ALBANY</t>
+  </si>
+  <si>
+    <t>ATLANTA</t>
+  </si>
+  <si>
+    <t>DUBLIN</t>
+  </si>
+  <si>
     <t>AL</t>
   </si>
   <si>
@@ -1580,6 +1859,9 @@
     <t>FL</t>
   </si>
   <si>
+    <t>GA</t>
+  </si>
+  <si>
     <t>35203</t>
   </si>
   <si>
@@ -1680,6 +1962,15 @@
   </si>
   <si>
     <t>33602</t>
+  </si>
+  <si>
+    <t>31701</t>
+  </si>
+  <si>
+    <t>30303</t>
+  </si>
+  <si>
+    <t>31021</t>
   </si>
 </sst>
 </file>
@@ -1783,25 +2074,25 @@
         <v>1938.0</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="E2" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F2" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="G2" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="H2" t="s">
-        <v>277</v>
+        <v>329</v>
       </c>
       <c r="I2" t="s">
-        <v>374</v>
+        <v>447</v>
       </c>
       <c r="J2" t="e">
         <v>#N/A</v>
@@ -1830,25 +2121,25 @@
         <v>1938.0</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="E3" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="F3" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="G3" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="H3" t="s">
-        <v>278</v>
+        <v>330</v>
       </c>
       <c r="I3" t="s">
-        <v>375</v>
+        <v>448</v>
       </c>
       <c r="J3" t="n">
         <v>-86.8113150658676</v>
@@ -1857,16 +2148,16 @@
         <v>33.5143485707937</v>
       </c>
       <c r="L3" t="s">
-        <v>450</v>
+        <v>535</v>
       </c>
       <c r="M3" t="s">
-        <v>495</v>
+        <v>586</v>
       </c>
       <c r="N3" t="s">
-        <v>517</v>
+        <v>610</v>
       </c>
       <c r="O3" t="s">
-        <v>522</v>
+        <v>616</v>
       </c>
     </row>
     <row r="4">
@@ -1877,25 +2168,25 @@
         <v>1938.0</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="E4" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="F4" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="G4" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="H4" t="s">
-        <v>279</v>
+        <v>331</v>
       </c>
       <c r="I4" t="s">
-        <v>376</v>
+        <v>449</v>
       </c>
       <c r="J4" t="n">
         <v>-86.8290693868153</v>
@@ -1904,16 +2195,16 @@
         <v>33.5320444220056</v>
       </c>
       <c r="L4" t="s">
-        <v>451</v>
+        <v>536</v>
       </c>
       <c r="M4" t="s">
-        <v>495</v>
+        <v>586</v>
       </c>
       <c r="N4" t="s">
-        <v>517</v>
+        <v>610</v>
       </c>
       <c r="O4" t="s">
-        <v>523</v>
+        <v>617</v>
       </c>
     </row>
     <row r="5">
@@ -1924,25 +2215,25 @@
         <v>1938.0</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="E5" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="F5" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="G5" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="H5" t="s">
-        <v>280</v>
+        <v>332</v>
       </c>
       <c r="I5" t="s">
-        <v>377</v>
+        <v>450</v>
       </c>
       <c r="J5" t="n">
         <v>-86.8101998183382</v>
@@ -1951,16 +2242,16 @@
         <v>33.5154455727818</v>
       </c>
       <c r="L5" t="s">
-        <v>452</v>
+        <v>537</v>
       </c>
       <c r="M5" t="s">
-        <v>495</v>
+        <v>586</v>
       </c>
       <c r="N5" t="s">
-        <v>517</v>
+        <v>610</v>
       </c>
       <c r="O5" t="s">
-        <v>522</v>
+        <v>616</v>
       </c>
     </row>
     <row r="6">
@@ -1971,25 +2262,25 @@
         <v>1938.0</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="E6" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="F6" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="G6" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="H6" t="s">
-        <v>281</v>
+        <v>333</v>
       </c>
       <c r="I6" t="s">
-        <v>378</v>
+        <v>451</v>
       </c>
       <c r="J6" t="n">
         <v>-86.8101943813631</v>
@@ -1998,16 +2289,16 @@
         <v>33.5154374173175</v>
       </c>
       <c r="L6" t="s">
-        <v>452</v>
+        <v>537</v>
       </c>
       <c r="M6" t="s">
-        <v>495</v>
+        <v>586</v>
       </c>
       <c r="N6" t="s">
-        <v>517</v>
+        <v>610</v>
       </c>
       <c r="O6" t="s">
-        <v>522</v>
+        <v>616</v>
       </c>
     </row>
     <row r="7">
@@ -2018,25 +2309,25 @@
         <v>1938.0</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="E7" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F7" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="G7" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="H7" t="s">
-        <v>282</v>
+        <v>334</v>
       </c>
       <c r="I7" t="s">
-        <v>379</v>
+        <v>452</v>
       </c>
       <c r="J7" t="n">
         <v>-86.981936433337</v>
@@ -2045,16 +2336,16 @@
         <v>34.6118640107611</v>
       </c>
       <c r="L7" t="s">
-        <v>453</v>
+        <v>538</v>
       </c>
       <c r="M7" t="s">
-        <v>496</v>
+        <v>583</v>
       </c>
       <c r="N7" t="s">
-        <v>517</v>
+        <v>610</v>
       </c>
       <c r="O7" t="s">
-        <v>524</v>
+        <v>618</v>
       </c>
     </row>
     <row r="8">
@@ -2065,25 +2356,25 @@
         <v>1938.0</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="D8" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="E8" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="F8" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="G8" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="H8" t="s">
-        <v>283</v>
+        <v>335</v>
       </c>
       <c r="I8" t="s">
-        <v>380</v>
+        <v>453</v>
       </c>
       <c r="J8" t="n">
         <v>-85.9687107717626</v>
@@ -2092,16 +2383,16 @@
         <v>33.9940141891079</v>
       </c>
       <c r="L8" t="s">
-        <v>454</v>
+        <v>539</v>
       </c>
       <c r="M8" t="s">
-        <v>497</v>
+        <v>587</v>
       </c>
       <c r="N8" t="s">
-        <v>517</v>
+        <v>610</v>
       </c>
       <c r="O8" t="s">
-        <v>525</v>
+        <v>619</v>
       </c>
     </row>
     <row r="9">
@@ -2112,25 +2403,25 @@
         <v>1938.0</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="E9" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F9" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="G9" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="H9" t="s">
-        <v>284</v>
+        <v>336</v>
       </c>
       <c r="I9" t="s">
-        <v>381</v>
+        <v>454</v>
       </c>
       <c r="J9" t="n">
         <v>-86.0219558574387</v>
@@ -2139,16 +2430,16 @@
         <v>34.0151992985974</v>
       </c>
       <c r="L9" t="s">
-        <v>451</v>
+        <v>536</v>
       </c>
       <c r="M9" t="s">
-        <v>497</v>
+        <v>587</v>
       </c>
       <c r="N9" t="s">
-        <v>517</v>
+        <v>610</v>
       </c>
       <c r="O9" t="s">
-        <v>526</v>
+        <v>620</v>
       </c>
     </row>
     <row r="10">
@@ -2159,25 +2450,25 @@
         <v>1938.0</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="D10" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="E10" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F10" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="G10" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="H10" t="s">
-        <v>285</v>
+        <v>337</v>
       </c>
       <c r="I10" t="s">
-        <v>382</v>
+        <v>455</v>
       </c>
       <c r="J10" t="n">
         <v>-86.0222979270442</v>
@@ -2186,16 +2477,16 @@
         <v>34.0152022461397</v>
       </c>
       <c r="L10" t="s">
-        <v>451</v>
+        <v>536</v>
       </c>
       <c r="M10" t="s">
-        <v>497</v>
+        <v>587</v>
       </c>
       <c r="N10" t="s">
-        <v>517</v>
+        <v>610</v>
       </c>
       <c r="O10" t="s">
-        <v>526</v>
+        <v>620</v>
       </c>
     </row>
     <row r="11">
@@ -2206,25 +2497,25 @@
         <v>1938.0</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="E11" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F11" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="G11" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="H11" t="s">
-        <v>286</v>
+        <v>338</v>
       </c>
       <c r="I11" t="s">
-        <v>383</v>
+        <v>456</v>
       </c>
       <c r="J11" t="n">
         <v>-86.0221098420977</v>
@@ -2233,16 +2524,16 @@
         <v>34.0150862358663</v>
       </c>
       <c r="L11" t="s">
-        <v>451</v>
+        <v>536</v>
       </c>
       <c r="M11" t="s">
-        <v>497</v>
+        <v>587</v>
       </c>
       <c r="N11" t="s">
-        <v>517</v>
+        <v>610</v>
       </c>
       <c r="O11" t="s">
-        <v>526</v>
+        <v>620</v>
       </c>
     </row>
     <row r="12">
@@ -2253,25 +2544,25 @@
         <v>1938.0</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="D12" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="E12" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F12" t="s">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="G12" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="H12" t="s">
-        <v>287</v>
+        <v>339</v>
       </c>
       <c r="I12" t="s">
-        <v>384</v>
+        <v>457</v>
       </c>
       <c r="J12" t="n">
         <v>-86.005031796993</v>
@@ -2280,16 +2571,16 @@
         <v>34.0175041515731</v>
       </c>
       <c r="L12" t="s">
-        <v>455</v>
+        <v>540</v>
       </c>
       <c r="M12" t="s">
-        <v>497</v>
+        <v>587</v>
       </c>
       <c r="N12" t="s">
-        <v>517</v>
+        <v>610</v>
       </c>
       <c r="O12" t="s">
-        <v>526</v>
+        <v>620</v>
       </c>
     </row>
     <row r="13">
@@ -2300,25 +2591,25 @@
         <v>1938.0</v>
       </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="D13" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="E13" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F13" t="s">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="G13" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="H13" t="s">
-        <v>288</v>
+        <v>340</v>
       </c>
       <c r="I13" t="s">
-        <v>374</v>
+        <v>447</v>
       </c>
       <c r="J13" t="e">
         <v>#N/A</v>
@@ -2347,25 +2638,25 @@
         <v>1938.0</v>
       </c>
       <c r="C14" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="D14" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="E14" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F14" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="G14" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="H14" t="s">
-        <v>288</v>
+        <v>340</v>
       </c>
       <c r="I14" t="s">
-        <v>374</v>
+        <v>447</v>
       </c>
       <c r="J14" t="e">
         <v>#N/A</v>
@@ -2394,25 +2685,25 @@
         <v>1938.0</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="E15" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F15" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="G15" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="H15" t="s">
-        <v>288</v>
+        <v>340</v>
       </c>
       <c r="I15" t="s">
-        <v>374</v>
+        <v>447</v>
       </c>
       <c r="J15" t="e">
         <v>#N/A</v>
@@ -2441,25 +2732,25 @@
         <v>1938.0</v>
       </c>
       <c r="C16" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="D16" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="E16" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F16" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="G16" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="H16" t="s">
-        <v>289</v>
+        <v>341</v>
       </c>
       <c r="I16" t="s">
-        <v>385</v>
+        <v>458</v>
       </c>
       <c r="J16" t="n">
         <v>-88.0576867932334</v>
@@ -2468,16 +2759,16 @@
         <v>30.6960542804327</v>
       </c>
       <c r="L16" t="s">
-        <v>456</v>
+        <v>541</v>
       </c>
       <c r="M16" t="s">
-        <v>498</v>
+        <v>588</v>
       </c>
       <c r="N16" t="s">
-        <v>517</v>
+        <v>610</v>
       </c>
       <c r="O16" t="s">
-        <v>527</v>
+        <v>621</v>
       </c>
     </row>
     <row r="17">
@@ -2488,25 +2779,25 @@
         <v>1938.0</v>
       </c>
       <c r="C17" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="D17" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="E17" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F17" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="G17" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="H17" t="s">
-        <v>290</v>
+        <v>342</v>
       </c>
       <c r="I17" t="s">
-        <v>386</v>
+        <v>459</v>
       </c>
       <c r="J17" t="n">
         <v>-88.0524129709915</v>
@@ -2515,16 +2806,16 @@
         <v>30.6935613534321</v>
       </c>
       <c r="L17" t="s">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="M17" t="s">
-        <v>498</v>
+        <v>588</v>
       </c>
       <c r="N17" t="s">
-        <v>517</v>
+        <v>610</v>
       </c>
       <c r="O17" t="s">
-        <v>527</v>
+        <v>621</v>
       </c>
     </row>
     <row r="18">
@@ -2535,25 +2826,25 @@
         <v>1938.0</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="D18" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="E18" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F18" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="G18" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="H18" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
       <c r="I18" t="s">
-        <v>387</v>
+        <v>460</v>
       </c>
       <c r="J18" t="n">
         <v>-88.0656567796014</v>
@@ -2562,16 +2853,16 @@
         <v>30.6976495325603</v>
       </c>
       <c r="L18" t="s">
-        <v>458</v>
+        <v>543</v>
       </c>
       <c r="M18" t="s">
-        <v>498</v>
+        <v>588</v>
       </c>
       <c r="N18" t="s">
-        <v>517</v>
+        <v>610</v>
       </c>
       <c r="O18" t="s">
-        <v>527</v>
+        <v>621</v>
       </c>
     </row>
     <row r="19">
@@ -2582,25 +2873,25 @@
         <v>1938.0</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="D19" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="E19" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="F19" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="G19" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="H19" t="s">
-        <v>292</v>
+        <v>344</v>
       </c>
       <c r="I19" t="s">
-        <v>374</v>
+        <v>447</v>
       </c>
       <c r="J19" t="e">
         <v>#N/A</v>
@@ -2629,25 +2920,25 @@
         <v>1938.0</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="D20" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="E20" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F20" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="G20" t="s">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="H20" t="s">
-        <v>293</v>
+        <v>345</v>
       </c>
       <c r="I20" t="s">
-        <v>374</v>
+        <v>447</v>
       </c>
       <c r="J20" t="e">
         <v>#N/A</v>
@@ -2676,25 +2967,25 @@
         <v>1938.0</v>
       </c>
       <c r="C21" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="D21" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="E21" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F21" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="G21" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="H21" t="s">
-        <v>294</v>
+        <v>346</v>
       </c>
       <c r="I21" t="s">
-        <v>388</v>
+        <v>461</v>
       </c>
       <c r="J21" t="n">
         <v>-85.9677376311342</v>
@@ -2703,16 +2994,16 @@
         <v>31.8159372445166</v>
       </c>
       <c r="L21" t="s">
-        <v>459</v>
+        <v>544</v>
       </c>
       <c r="M21" t="s">
-        <v>499</v>
+        <v>589</v>
       </c>
       <c r="N21" t="s">
-        <v>517</v>
+        <v>610</v>
       </c>
       <c r="O21" t="s">
-        <v>528</v>
+        <v>622</v>
       </c>
     </row>
     <row r="22">
@@ -2723,25 +3014,25 @@
         <v>1938.0</v>
       </c>
       <c r="C22" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="D22" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="E22" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F22" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="G22" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="H22" t="s">
-        <v>295</v>
+        <v>347</v>
       </c>
       <c r="I22" t="s">
-        <v>374</v>
+        <v>447</v>
       </c>
       <c r="J22" t="e">
         <v>#N/A</v>
@@ -2770,25 +3061,25 @@
         <v>1938.0</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="D23" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="E23" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F23" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="G23" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="H23" t="s">
-        <v>296</v>
+        <v>348</v>
       </c>
       <c r="I23" t="s">
-        <v>389</v>
+        <v>462</v>
       </c>
       <c r="J23" t="n">
         <v>-87.5674198878895</v>
@@ -2797,16 +3088,16 @@
         <v>33.2027155164248</v>
       </c>
       <c r="L23" t="s">
-        <v>460</v>
+        <v>545</v>
       </c>
       <c r="M23" t="s">
-        <v>500</v>
+        <v>590</v>
       </c>
       <c r="N23" t="s">
-        <v>517</v>
+        <v>610</v>
       </c>
       <c r="O23" t="s">
-        <v>529</v>
+        <v>623</v>
       </c>
     </row>
     <row r="24">
@@ -2817,25 +3108,25 @@
         <v>1938.0</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="D24" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="E24" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F24" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="G24" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="H24" t="s">
-        <v>297</v>
+        <v>349</v>
       </c>
       <c r="I24" t="s">
-        <v>390</v>
+        <v>463</v>
       </c>
       <c r="J24" t="n">
         <v>-87.5765682130659</v>
@@ -2844,16 +3135,16 @@
         <v>33.2083686457691</v>
       </c>
       <c r="L24" t="s">
-        <v>461</v>
+        <v>546</v>
       </c>
       <c r="M24" t="s">
-        <v>500</v>
+        <v>590</v>
       </c>
       <c r="N24" t="s">
-        <v>517</v>
+        <v>610</v>
       </c>
       <c r="O24" t="s">
-        <v>529</v>
+        <v>623</v>
       </c>
     </row>
     <row r="25">
@@ -2864,25 +3155,25 @@
         <v>1938.0</v>
       </c>
       <c r="C25" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="D25" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="E25" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F25" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="G25" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="H25" t="s">
-        <v>298</v>
+        <v>350</v>
       </c>
       <c r="I25" t="s">
-        <v>391</v>
+        <v>464</v>
       </c>
       <c r="J25" t="n">
         <v>-87.5651479921732</v>
@@ -2891,16 +3182,16 @@
         <v>33.1997383053909</v>
       </c>
       <c r="L25" t="s">
-        <v>462</v>
+        <v>547</v>
       </c>
       <c r="M25" t="s">
-        <v>500</v>
+        <v>590</v>
       </c>
       <c r="N25" t="s">
-        <v>517</v>
+        <v>610</v>
       </c>
       <c r="O25" t="s">
-        <v>529</v>
+        <v>623</v>
       </c>
     </row>
     <row r="26">
@@ -2911,25 +3202,25 @@
         <v>1938.0</v>
       </c>
       <c r="C26" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="D26" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="E26" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F26" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="G26" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="H26" t="s">
-        <v>299</v>
+        <v>351</v>
       </c>
       <c r="I26" t="s">
-        <v>374</v>
+        <v>447</v>
       </c>
       <c r="J26" t="e">
         <v>#N/A</v>
@@ -2958,25 +3249,25 @@
         <v>1938.0</v>
       </c>
       <c r="C27" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="D27" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="E27" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="F27" t="e">
         <v>#N/A</v>
       </c>
       <c r="G27" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="H27" t="s">
-        <v>300</v>
+        <v>352</v>
       </c>
       <c r="I27" t="s">
-        <v>392</v>
+        <v>465</v>
       </c>
       <c r="J27" t="n">
         <v>-73.1876041991036</v>
@@ -2985,16 +3276,16 @@
         <v>41.1697328006184</v>
       </c>
       <c r="L27" t="s">
-        <v>463</v>
+        <v>548</v>
       </c>
       <c r="M27" t="s">
-        <v>501</v>
+        <v>591</v>
       </c>
       <c r="N27" t="s">
-        <v>518</v>
+        <v>611</v>
       </c>
       <c r="O27" t="s">
-        <v>530</v>
+        <v>624</v>
       </c>
     </row>
     <row r="28">
@@ -3005,25 +3296,25 @@
         <v>1938.0</v>
       </c>
       <c r="C28" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="D28" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="E28" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F28" t="e">
         <v>#N/A</v>
       </c>
       <c r="G28" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="H28" t="s">
-        <v>301</v>
+        <v>353</v>
       </c>
       <c r="I28" t="s">
-        <v>393</v>
+        <v>466</v>
       </c>
       <c r="J28" t="n">
         <v>-73.1425164223959</v>
@@ -3032,16 +3323,16 @@
         <v>41.199216796974</v>
       </c>
       <c r="L28" t="s">
-        <v>464</v>
+        <v>549</v>
       </c>
       <c r="M28" t="s">
-        <v>502</v>
+        <v>592</v>
       </c>
       <c r="N28" t="s">
-        <v>518</v>
+        <v>611</v>
       </c>
       <c r="O28" t="s">
-        <v>531</v>
+        <v>625</v>
       </c>
     </row>
     <row r="29">
@@ -3052,25 +3343,25 @@
         <v>1938.0</v>
       </c>
       <c r="C29" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="D29" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="E29" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F29" t="e">
         <v>#N/A</v>
       </c>
       <c r="G29" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="H29" t="s">
-        <v>302</v>
+        <v>354</v>
       </c>
       <c r="I29" t="s">
-        <v>374</v>
+        <v>447</v>
       </c>
       <c r="J29" t="e">
         <v>#N/A</v>
@@ -3099,25 +3390,25 @@
         <v>1938.0</v>
       </c>
       <c r="C30" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="D30" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="E30" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F30" t="e">
         <v>#N/A</v>
       </c>
       <c r="G30" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="H30" t="s">
-        <v>303</v>
+        <v>355</v>
       </c>
       <c r="I30" t="s">
-        <v>394</v>
+        <v>467</v>
       </c>
       <c r="J30" t="n">
         <v>-73.1748001242641</v>
@@ -3126,16 +3417,16 @@
         <v>41.1848421780769</v>
       </c>
       <c r="L30" t="s">
-        <v>453</v>
+        <v>538</v>
       </c>
       <c r="M30" t="s">
-        <v>501</v>
+        <v>591</v>
       </c>
       <c r="N30" t="s">
-        <v>518</v>
+        <v>611</v>
       </c>
       <c r="O30" t="s">
-        <v>532</v>
+        <v>626</v>
       </c>
     </row>
     <row r="31">
@@ -3146,25 +3437,25 @@
         <v>1938.0</v>
       </c>
       <c r="C31" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="D31" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="E31" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="F31" t="e">
         <v>#N/A</v>
       </c>
       <c r="G31" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="H31" t="s">
-        <v>304</v>
+        <v>356</v>
       </c>
       <c r="I31" t="s">
-        <v>395</v>
+        <v>468</v>
       </c>
       <c r="J31" t="n">
         <v>-72.7194513427762</v>
@@ -3173,16 +3464,16 @@
         <v>41.6754278310956</v>
       </c>
       <c r="L31" t="s">
-        <v>465</v>
+        <v>550</v>
       </c>
       <c r="M31" t="s">
-        <v>503</v>
+        <v>593</v>
       </c>
       <c r="N31" t="s">
-        <v>518</v>
+        <v>611</v>
       </c>
       <c r="O31" t="s">
-        <v>533</v>
+        <v>627</v>
       </c>
     </row>
     <row r="32">
@@ -3193,25 +3484,25 @@
         <v>1938.0</v>
       </c>
       <c r="C32" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="D32" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="E32" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="F32" t="e">
         <v>#N/A</v>
       </c>
       <c r="G32" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="H32" t="s">
-        <v>305</v>
+        <v>357</v>
       </c>
       <c r="I32" t="s">
-        <v>396</v>
+        <v>469</v>
       </c>
       <c r="J32" t="n">
         <v>-72.6759843367764</v>
@@ -3220,16 +3511,16 @@
         <v>41.7784449890697</v>
       </c>
       <c r="L32" t="s">
-        <v>466</v>
+        <v>551</v>
       </c>
       <c r="M32" t="s">
-        <v>503</v>
+        <v>593</v>
       </c>
       <c r="N32" t="s">
-        <v>518</v>
+        <v>611</v>
       </c>
       <c r="O32" t="s">
-        <v>534</v>
+        <v>628</v>
       </c>
     </row>
     <row r="33">
@@ -3240,25 +3531,25 @@
         <v>1938.0</v>
       </c>
       <c r="C33" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="D33" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="E33" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="F33" t="e">
         <v>#N/A</v>
       </c>
       <c r="G33" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="H33" t="s">
-        <v>306</v>
+        <v>358</v>
       </c>
       <c r="I33" t="s">
-        <v>374</v>
+        <v>447</v>
       </c>
       <c r="J33" t="e">
         <v>#N/A</v>
@@ -3287,25 +3578,25 @@
         <v>1938.0</v>
       </c>
       <c r="C34" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="D34" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="E34" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="F34" t="e">
         <v>#N/A</v>
       </c>
       <c r="G34" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="H34" t="s">
-        <v>307</v>
+        <v>359</v>
       </c>
       <c r="I34" t="s">
-        <v>397</v>
+        <v>470</v>
       </c>
       <c r="J34" t="n">
         <v>-72.9329460076841</v>
@@ -3314,16 +3605,16 @@
         <v>41.3169568176862</v>
       </c>
       <c r="L34" t="s">
-        <v>467</v>
+        <v>552</v>
       </c>
       <c r="M34" t="s">
-        <v>504</v>
+        <v>594</v>
       </c>
       <c r="N34" t="s">
-        <v>518</v>
+        <v>611</v>
       </c>
       <c r="O34" t="s">
-        <v>535</v>
+        <v>629</v>
       </c>
     </row>
     <row r="35">
@@ -3334,25 +3625,25 @@
         <v>1938.0</v>
       </c>
       <c r="C35" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="D35" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="E35" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="F35" t="e">
         <v>#N/A</v>
       </c>
       <c r="G35" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="H35" t="s">
-        <v>308</v>
+        <v>360</v>
       </c>
       <c r="I35" t="s">
-        <v>398</v>
+        <v>471</v>
       </c>
       <c r="J35" t="n">
         <v>-72.9283382677717</v>
@@ -3361,16 +3652,16 @@
         <v>41.3180050633791</v>
       </c>
       <c r="L35" t="s">
-        <v>468</v>
+        <v>553</v>
       </c>
       <c r="M35" t="s">
-        <v>504</v>
+        <v>594</v>
       </c>
       <c r="N35" t="s">
-        <v>518</v>
+        <v>611</v>
       </c>
       <c r="O35" t="s">
-        <v>535</v>
+        <v>629</v>
       </c>
     </row>
     <row r="36">
@@ -3381,25 +3672,25 @@
         <v>1938.0</v>
       </c>
       <c r="C36" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="D36" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="E36" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F36" t="e">
         <v>#N/A</v>
       </c>
       <c r="G36" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="H36" t="s">
-        <v>309</v>
+        <v>361</v>
       </c>
       <c r="I36" t="s">
-        <v>399</v>
+        <v>472</v>
       </c>
       <c r="J36" t="n">
         <v>-72.9326610116185</v>
@@ -3408,16 +3699,16 @@
         <v>41.3148333595736</v>
       </c>
       <c r="L36" t="s">
-        <v>469</v>
+        <v>554</v>
       </c>
       <c r="M36" t="s">
-        <v>504</v>
+        <v>594</v>
       </c>
       <c r="N36" t="s">
-        <v>518</v>
+        <v>611</v>
       </c>
       <c r="O36" t="s">
-        <v>535</v>
+        <v>629</v>
       </c>
     </row>
     <row r="37">
@@ -3428,25 +3719,25 @@
         <v>1938.0</v>
       </c>
       <c r="C37" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="D37" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="E37" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F37" t="e">
         <v>#N/A</v>
       </c>
       <c r="G37" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="H37" t="s">
-        <v>310</v>
+        <v>362</v>
       </c>
       <c r="I37" t="s">
-        <v>400</v>
+        <v>473</v>
       </c>
       <c r="J37" t="n">
         <v>-72.9327409415411</v>
@@ -3455,16 +3746,16 @@
         <v>41.3145692903558</v>
       </c>
       <c r="L37" t="s">
-        <v>469</v>
+        <v>554</v>
       </c>
       <c r="M37" t="s">
-        <v>504</v>
+        <v>594</v>
       </c>
       <c r="N37" t="s">
-        <v>518</v>
+        <v>611</v>
       </c>
       <c r="O37" t="s">
-        <v>535</v>
+        <v>629</v>
       </c>
     </row>
     <row r="38">
@@ -3475,25 +3766,25 @@
         <v>1938.0</v>
       </c>
       <c r="C38" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="D38" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="E38" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F38" t="e">
         <v>#N/A</v>
       </c>
       <c r="G38" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="H38" t="s">
-        <v>311</v>
+        <v>363</v>
       </c>
       <c r="I38" t="s">
-        <v>401</v>
+        <v>474</v>
       </c>
       <c r="J38" t="n">
         <v>-72.9327952927716</v>
@@ -3502,16 +3793,16 @@
         <v>41.3147577080202</v>
       </c>
       <c r="L38" t="s">
-        <v>469</v>
+        <v>554</v>
       </c>
       <c r="M38" t="s">
-        <v>504</v>
+        <v>594</v>
       </c>
       <c r="N38" t="s">
-        <v>518</v>
+        <v>611</v>
       </c>
       <c r="O38" t="s">
-        <v>535</v>
+        <v>629</v>
       </c>
     </row>
     <row r="39">
@@ -3522,25 +3813,25 @@
         <v>1938.0</v>
       </c>
       <c r="C39" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="D39" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="E39" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F39" t="e">
         <v>#N/A</v>
       </c>
       <c r="G39" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="H39" t="s">
-        <v>312</v>
+        <v>364</v>
       </c>
       <c r="I39" t="s">
-        <v>374</v>
+        <v>447</v>
       </c>
       <c r="J39" t="e">
         <v>#N/A</v>
@@ -3569,25 +3860,25 @@
         <v>1938.0</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="D40" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="E40" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F40" t="e">
         <v>#N/A</v>
       </c>
       <c r="G40" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="H40" t="s">
-        <v>313</v>
+        <v>365</v>
       </c>
       <c r="I40" t="s">
-        <v>402</v>
+        <v>475</v>
       </c>
       <c r="J40" t="n">
         <v>-72.0989248920093</v>
@@ -3596,16 +3887,16 @@
         <v>41.3514720716549</v>
       </c>
       <c r="L40" t="s">
-        <v>470</v>
+        <v>555</v>
       </c>
       <c r="M40" t="s">
-        <v>505</v>
+        <v>595</v>
       </c>
       <c r="N40" t="s">
-        <v>518</v>
+        <v>611</v>
       </c>
       <c r="O40" t="s">
-        <v>536</v>
+        <v>630</v>
       </c>
     </row>
     <row r="41">
@@ -3616,25 +3907,25 @@
         <v>1938.0</v>
       </c>
       <c r="C41" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="D41" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="E41" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F41" t="e">
         <v>#N/A</v>
       </c>
       <c r="G41" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="H41" t="s">
-        <v>314</v>
+        <v>366</v>
       </c>
       <c r="I41" t="s">
-        <v>374</v>
+        <v>447</v>
       </c>
       <c r="J41" t="e">
         <v>#N/A</v>
@@ -3663,25 +3954,25 @@
         <v>1938.0</v>
       </c>
       <c r="C42" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="D42" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="E42" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F42" t="e">
         <v>#N/A</v>
       </c>
       <c r="G42" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="H42" t="s">
-        <v>315</v>
+        <v>367</v>
       </c>
       <c r="I42" t="s">
-        <v>403</v>
+        <v>476</v>
       </c>
       <c r="J42" t="n">
         <v>-72.1036935417646</v>
@@ -3690,16 +3981,16 @@
         <v>41.354739888483</v>
       </c>
       <c r="L42" t="s">
-        <v>471</v>
+        <v>556</v>
       </c>
       <c r="M42" t="s">
-        <v>505</v>
+        <v>595</v>
       </c>
       <c r="N42" t="s">
-        <v>518</v>
+        <v>611</v>
       </c>
       <c r="O42" t="s">
-        <v>536</v>
+        <v>630</v>
       </c>
     </row>
     <row r="43">
@@ -3710,25 +4001,25 @@
         <v>1938.0</v>
       </c>
       <c r="C43" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="D43" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="E43" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F43" t="e">
         <v>#N/A</v>
       </c>
       <c r="G43" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="H43" t="s">
-        <v>316</v>
+        <v>368</v>
       </c>
       <c r="I43" t="s">
-        <v>404</v>
+        <v>477</v>
       </c>
       <c r="J43" t="n">
         <v>-72.0945531299749</v>
@@ -3737,16 +4028,16 @@
         <v>41.3529769238668</v>
       </c>
       <c r="L43" t="s">
-        <v>472</v>
+        <v>557</v>
       </c>
       <c r="M43" t="s">
-        <v>505</v>
+        <v>595</v>
       </c>
       <c r="N43" t="s">
-        <v>518</v>
+        <v>611</v>
       </c>
       <c r="O43" t="s">
-        <v>536</v>
+        <v>630</v>
       </c>
     </row>
     <row r="44">
@@ -3757,25 +4048,25 @@
         <v>1938.0</v>
       </c>
       <c r="C44" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="D44" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="E44" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F44" t="e">
         <v>#N/A</v>
       </c>
       <c r="G44" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="H44" t="s">
-        <v>317</v>
+        <v>369</v>
       </c>
       <c r="I44" t="s">
-        <v>405</v>
+        <v>478</v>
       </c>
       <c r="J44" t="n">
         <v>-72.1061310964387</v>
@@ -3784,16 +4075,16 @@
         <v>41.3491636454073</v>
       </c>
       <c r="L44" t="s">
-        <v>472</v>
+        <v>557</v>
       </c>
       <c r="M44" t="s">
-        <v>505</v>
+        <v>595</v>
       </c>
       <c r="N44" t="s">
-        <v>518</v>
+        <v>611</v>
       </c>
       <c r="O44" t="s">
-        <v>536</v>
+        <v>630</v>
       </c>
     </row>
     <row r="45">
@@ -3804,25 +4095,25 @@
         <v>1938.0</v>
       </c>
       <c r="C45" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="D45" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="E45" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="F45" t="e">
         <v>#N/A</v>
       </c>
       <c r="G45" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="H45" t="s">
-        <v>318</v>
+        <v>370</v>
       </c>
       <c r="I45" t="s">
-        <v>374</v>
+        <v>447</v>
       </c>
       <c r="J45" t="e">
         <v>#N/A</v>
@@ -3851,25 +4142,25 @@
         <v>1938.0</v>
       </c>
       <c r="C46" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="D46" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="E46" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="F46" t="e">
         <v>#N/A</v>
       </c>
       <c r="G46" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="H46" t="s">
-        <v>319</v>
+        <v>371</v>
       </c>
       <c r="I46" t="s">
-        <v>406</v>
+        <v>479</v>
       </c>
       <c r="J46" t="n">
         <v>-73.5435350440446</v>
@@ -3878,16 +4169,16 @@
         <v>41.0437896616415</v>
       </c>
       <c r="L46" t="s">
-        <v>473</v>
+        <v>558</v>
       </c>
       <c r="M46" t="s">
-        <v>506</v>
+        <v>596</v>
       </c>
       <c r="N46" t="s">
-        <v>518</v>
+        <v>611</v>
       </c>
       <c r="O46" t="s">
-        <v>537</v>
+        <v>631</v>
       </c>
     </row>
     <row r="47">
@@ -3898,25 +4189,25 @@
         <v>1938.0</v>
       </c>
       <c r="C47" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="D47" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="E47" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F47" t="e">
         <v>#N/A</v>
       </c>
       <c r="G47" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="H47" t="s">
-        <v>320</v>
+        <v>372</v>
       </c>
       <c r="I47" t="s">
-        <v>407</v>
+        <v>480</v>
       </c>
       <c r="J47" t="n">
         <v>-73.0360400989091</v>
@@ -3925,16 +4216,16 @@
         <v>41.5612899305374</v>
       </c>
       <c r="L47" t="s">
-        <v>474</v>
+        <v>559</v>
       </c>
       <c r="M47" t="s">
-        <v>507</v>
+        <v>597</v>
       </c>
       <c r="N47" t="s">
-        <v>518</v>
+        <v>611</v>
       </c>
       <c r="O47" t="s">
-        <v>538</v>
+        <v>632</v>
       </c>
     </row>
     <row r="48">
@@ -3945,25 +4236,25 @@
         <v>1938.0</v>
       </c>
       <c r="C48" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="D48" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="E48" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F48" t="e">
         <v>#N/A</v>
       </c>
       <c r="G48" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="H48" t="s">
-        <v>321</v>
+        <v>373</v>
       </c>
       <c r="I48" t="s">
-        <v>374</v>
+        <v>447</v>
       </c>
       <c r="J48" t="e">
         <v>#N/A</v>
@@ -3992,25 +4283,25 @@
         <v>1938.0</v>
       </c>
       <c r="C49" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="D49" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="E49" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F49" t="e">
         <v>#N/A</v>
       </c>
       <c r="G49" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="H49" t="s">
-        <v>322</v>
+        <v>374</v>
       </c>
       <c r="I49" t="s">
-        <v>374</v>
+        <v>447</v>
       </c>
       <c r="J49" t="e">
         <v>#N/A</v>
@@ -4039,25 +4330,25 @@
         <v>1938.0</v>
       </c>
       <c r="C50" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="D50" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="E50" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F50" t="e">
         <v>#N/A</v>
       </c>
       <c r="G50" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="H50" t="s">
-        <v>323</v>
+        <v>375</v>
       </c>
       <c r="I50" t="s">
-        <v>408</v>
+        <v>481</v>
       </c>
       <c r="J50" t="n">
         <v>-73.037910401171</v>
@@ -4066,16 +4357,16 @@
         <v>41.5632588753159</v>
       </c>
       <c r="L50" t="s">
-        <v>475</v>
+        <v>560</v>
       </c>
       <c r="M50" t="s">
-        <v>507</v>
+        <v>597</v>
       </c>
       <c r="N50" t="s">
-        <v>518</v>
+        <v>611</v>
       </c>
       <c r="O50" t="s">
-        <v>538</v>
+        <v>632</v>
       </c>
     </row>
     <row r="51">
@@ -4086,25 +4377,25 @@
         <v>1938.0</v>
       </c>
       <c r="C51" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="D51" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="E51" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F51" t="e">
         <v>#N/A</v>
       </c>
       <c r="G51" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="H51" t="s">
-        <v>324</v>
+        <v>376</v>
       </c>
       <c r="I51" t="s">
-        <v>409</v>
+        <v>482</v>
       </c>
       <c r="J51" t="n">
         <v>-73.0381966494124</v>
@@ -4113,16 +4404,16 @@
         <v>41.5637429063891</v>
       </c>
       <c r="L51" t="s">
-        <v>475</v>
+        <v>560</v>
       </c>
       <c r="M51" t="s">
-        <v>507</v>
+        <v>597</v>
       </c>
       <c r="N51" t="s">
-        <v>518</v>
+        <v>611</v>
       </c>
       <c r="O51" t="s">
-        <v>538</v>
+        <v>632</v>
       </c>
     </row>
     <row r="52">
@@ -4133,25 +4424,25 @@
         <v>1938.0</v>
       </c>
       <c r="C52" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="D52" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="E52" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F52" t="e">
         <v>#N/A</v>
       </c>
       <c r="G52" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="H52" t="s">
-        <v>325</v>
+        <v>377</v>
       </c>
       <c r="I52" t="s">
-        <v>410</v>
+        <v>483</v>
       </c>
       <c r="J52" t="n">
         <v>-73.0376709561135</v>
@@ -4160,16 +4451,16 @@
         <v>41.562421005866</v>
       </c>
       <c r="L52" t="s">
-        <v>475</v>
+        <v>560</v>
       </c>
       <c r="M52" t="s">
-        <v>507</v>
+        <v>597</v>
       </c>
       <c r="N52" t="s">
-        <v>518</v>
+        <v>611</v>
       </c>
       <c r="O52" t="s">
-        <v>538</v>
+        <v>632</v>
       </c>
     </row>
     <row r="53">
@@ -4180,25 +4471,25 @@
         <v>1938.0</v>
       </c>
       <c r="C53" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="D53" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="E53" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F53" t="e">
         <v>#N/A</v>
       </c>
       <c r="G53" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="H53" t="s">
-        <v>326</v>
+        <v>378</v>
       </c>
       <c r="I53" t="s">
-        <v>411</v>
+        <v>484</v>
       </c>
       <c r="J53" t="n">
         <v>-73.0375883408498</v>
@@ -4207,16 +4498,16 @@
         <v>41.5616483994562</v>
       </c>
       <c r="L53" t="s">
-        <v>475</v>
+        <v>560</v>
       </c>
       <c r="M53" t="s">
-        <v>507</v>
+        <v>597</v>
       </c>
       <c r="N53" t="s">
-        <v>518</v>
+        <v>611</v>
       </c>
       <c r="O53" t="s">
-        <v>538</v>
+        <v>632</v>
       </c>
     </row>
     <row r="54">
@@ -4227,25 +4518,25 @@
         <v>1938.0</v>
       </c>
       <c r="C54" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="D54" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="E54" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F54" t="e">
         <v>#N/A</v>
       </c>
       <c r="G54" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="H54" t="s">
-        <v>327</v>
+        <v>379</v>
       </c>
       <c r="I54" t="s">
-        <v>412</v>
+        <v>485</v>
       </c>
       <c r="J54" t="n">
         <v>-73.0375001536833</v>
@@ -4254,16 +4545,16 @@
         <v>41.5623010119887</v>
       </c>
       <c r="L54" t="s">
-        <v>475</v>
+        <v>560</v>
       </c>
       <c r="M54" t="s">
-        <v>507</v>
+        <v>597</v>
       </c>
       <c r="N54" t="s">
-        <v>518</v>
+        <v>611</v>
       </c>
       <c r="O54" t="s">
-        <v>538</v>
+        <v>632</v>
       </c>
     </row>
     <row r="55">
@@ -4274,25 +4565,25 @@
         <v>1938.0</v>
       </c>
       <c r="C55" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="D55" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="E55" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="F55" t="e">
         <v>#N/A</v>
       </c>
       <c r="G55" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="H55" t="s">
-        <v>328</v>
+        <v>380</v>
       </c>
       <c r="I55" t="s">
-        <v>374</v>
+        <v>447</v>
       </c>
       <c r="J55" t="e">
         <v>#N/A</v>
@@ -4321,25 +4612,25 @@
         <v>1938.0</v>
       </c>
       <c r="C56" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="D56" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="E56" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="F56" t="e">
         <v>#N/A</v>
       </c>
       <c r="G56" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="H56" t="s">
-        <v>329</v>
+        <v>381</v>
       </c>
       <c r="I56" t="s">
-        <v>374</v>
+        <v>447</v>
       </c>
       <c r="J56" t="e">
         <v>#N/A</v>
@@ -4368,25 +4659,25 @@
         <v>1938.0</v>
       </c>
       <c r="C57" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="D57" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="E57" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="F57" t="e">
         <v>#N/A</v>
       </c>
       <c r="G57" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="H57" t="s">
-        <v>330</v>
+        <v>382</v>
       </c>
       <c r="I57" t="s">
-        <v>374</v>
+        <v>447</v>
       </c>
       <c r="J57" t="e">
         <v>#N/A</v>
@@ -4415,25 +4706,25 @@
         <v>1938.0</v>
       </c>
       <c r="C58" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="D58" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="E58" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="F58" t="e">
         <v>#N/A</v>
       </c>
       <c r="G58" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="H58" t="s">
-        <v>331</v>
+        <v>383</v>
       </c>
       <c r="I58" t="s">
-        <v>374</v>
+        <v>447</v>
       </c>
       <c r="J58" t="e">
         <v>#N/A</v>
@@ -4462,25 +4753,25 @@
         <v>1938.0</v>
       </c>
       <c r="C59" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="D59" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="E59" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="F59" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="G59" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="H59" t="s">
-        <v>329</v>
+        <v>381</v>
       </c>
       <c r="I59" t="s">
-        <v>374</v>
+        <v>447</v>
       </c>
       <c r="J59" t="e">
         <v>#N/A</v>
@@ -4509,25 +4800,25 @@
         <v>1938.0</v>
       </c>
       <c r="C60" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="D60" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="E60" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="F60" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="G60" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="H60" t="s">
-        <v>329</v>
+        <v>381</v>
       </c>
       <c r="I60" t="s">
-        <v>374</v>
+        <v>447</v>
       </c>
       <c r="J60" t="e">
         <v>#N/A</v>
@@ -4556,25 +4847,25 @@
         <v>1938.0</v>
       </c>
       <c r="C61" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="D61" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="E61" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="F61" t="e">
         <v>#N/A</v>
       </c>
       <c r="G61" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="H61" t="s">
-        <v>330</v>
+        <v>382</v>
       </c>
       <c r="I61" t="s">
-        <v>374</v>
+        <v>447</v>
       </c>
       <c r="J61" t="e">
         <v>#N/A</v>
@@ -4603,25 +4894,25 @@
         <v>1938.0</v>
       </c>
       <c r="C62" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="D62" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="E62" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F62" t="e">
         <v>#N/A</v>
       </c>
       <c r="G62" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="H62" t="s">
-        <v>332</v>
+        <v>384</v>
       </c>
       <c r="I62" t="s">
-        <v>413</v>
+        <v>486</v>
       </c>
       <c r="J62" t="n">
         <v>-75.5493300113921</v>
@@ -4630,16 +4921,16 @@
         <v>39.7474398054402</v>
       </c>
       <c r="L62" t="s">
-        <v>476</v>
+        <v>561</v>
       </c>
       <c r="M62" t="s">
-        <v>508</v>
+        <v>598</v>
       </c>
       <c r="N62" t="s">
-        <v>519</v>
+        <v>612</v>
       </c>
       <c r="O62" t="s">
-        <v>539</v>
+        <v>633</v>
       </c>
     </row>
     <row r="63">
@@ -4650,25 +4941,25 @@
         <v>1938.0</v>
       </c>
       <c r="C63" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="D63" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="E63" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F63" t="e">
         <v>#N/A</v>
       </c>
       <c r="G63" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="H63" t="s">
-        <v>333</v>
+        <v>385</v>
       </c>
       <c r="I63" t="s">
-        <v>414</v>
+        <v>487</v>
       </c>
       <c r="J63" t="n">
         <v>-75.548033259881</v>
@@ -4677,16 +4968,16 @@
         <v>39.7478471710777</v>
       </c>
       <c r="L63" t="s">
-        <v>460</v>
+        <v>545</v>
       </c>
       <c r="M63" t="s">
-        <v>508</v>
+        <v>598</v>
       </c>
       <c r="N63" t="s">
-        <v>519</v>
+        <v>612</v>
       </c>
       <c r="O63" t="s">
-        <v>539</v>
+        <v>633</v>
       </c>
     </row>
     <row r="64">
@@ -4697,25 +4988,25 @@
         <v>1938.0</v>
       </c>
       <c r="C64" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="D64" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="E64" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F64" t="e">
         <v>#N/A</v>
       </c>
       <c r="G64" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="H64" t="s">
-        <v>334</v>
+        <v>386</v>
       </c>
       <c r="I64" t="s">
-        <v>415</v>
+        <v>488</v>
       </c>
       <c r="J64" t="n">
         <v>-75.5459142852752</v>
@@ -4724,16 +5015,16 @@
         <v>39.7449178629458</v>
       </c>
       <c r="L64" t="s">
-        <v>477</v>
+        <v>562</v>
       </c>
       <c r="M64" t="s">
-        <v>508</v>
+        <v>598</v>
       </c>
       <c r="N64" t="s">
-        <v>519</v>
+        <v>612</v>
       </c>
       <c r="O64" t="s">
-        <v>539</v>
+        <v>633</v>
       </c>
     </row>
     <row r="65">
@@ -4744,25 +5035,25 @@
         <v>1938.0</v>
       </c>
       <c r="C65" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="D65" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="E65" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F65" t="e">
         <v>#N/A</v>
       </c>
       <c r="G65" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="H65" t="s">
-        <v>335</v>
+        <v>387</v>
       </c>
       <c r="I65" t="s">
-        <v>416</v>
+        <v>489</v>
       </c>
       <c r="J65" t="n">
         <v>-75.5481252777236</v>
@@ -4771,16 +5062,16 @@
         <v>39.7494633757811</v>
       </c>
       <c r="L65" t="s">
-        <v>476</v>
+        <v>561</v>
       </c>
       <c r="M65" t="s">
-        <v>508</v>
+        <v>598</v>
       </c>
       <c r="N65" t="s">
-        <v>519</v>
+        <v>612</v>
       </c>
       <c r="O65" t="s">
-        <v>539</v>
+        <v>633</v>
       </c>
     </row>
     <row r="66">
@@ -4791,25 +5082,25 @@
         <v>1938.0</v>
       </c>
       <c r="C66" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="D66" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="E66" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="F66" t="e">
         <v>#N/A</v>
       </c>
       <c r="G66" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="H66" t="s">
-        <v>336</v>
+        <v>388</v>
       </c>
       <c r="I66" t="s">
-        <v>374</v>
+        <v>447</v>
       </c>
       <c r="J66" t="e">
         <v>#N/A</v>
@@ -4838,25 +5129,25 @@
         <v>1938.0</v>
       </c>
       <c r="C67" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="D67" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="E67" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="F67" t="e">
         <v>#N/A</v>
       </c>
       <c r="G67" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="H67" t="s">
-        <v>337</v>
+        <v>389</v>
       </c>
       <c r="I67" t="s">
-        <v>417</v>
+        <v>490</v>
       </c>
       <c r="J67" t="n">
         <v>-77.0295470698206</v>
@@ -4865,16 +5156,16 @@
         <v>38.914479329056</v>
       </c>
       <c r="L67" t="s">
-        <v>478</v>
+        <v>563</v>
       </c>
       <c r="M67" t="s">
-        <v>509</v>
+        <v>599</v>
       </c>
       <c r="N67" t="s">
-        <v>520</v>
+        <v>613</v>
       </c>
       <c r="O67" t="s">
-        <v>540</v>
+        <v>634</v>
       </c>
     </row>
     <row r="68">
@@ -4885,25 +5176,25 @@
         <v>1938.0</v>
       </c>
       <c r="C68" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="D68" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="E68" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="F68" t="e">
         <v>#N/A</v>
       </c>
       <c r="G68" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="H68" t="s">
-        <v>338</v>
+        <v>390</v>
       </c>
       <c r="I68" t="s">
-        <v>418</v>
+        <v>491</v>
       </c>
       <c r="J68" t="n">
         <v>-77.0417451402957</v>
@@ -4912,16 +5203,16 @@
         <v>38.9097567644737</v>
       </c>
       <c r="L68" t="s">
-        <v>452</v>
+        <v>537</v>
       </c>
       <c r="M68" t="s">
-        <v>509</v>
+        <v>599</v>
       </c>
       <c r="N68" t="s">
-        <v>520</v>
+        <v>613</v>
       </c>
       <c r="O68" t="s">
-        <v>541</v>
+        <v>635</v>
       </c>
     </row>
     <row r="69">
@@ -4932,25 +5223,25 @@
         <v>1938.0</v>
       </c>
       <c r="C69" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="D69" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="E69" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="F69" t="e">
         <v>#N/A</v>
       </c>
       <c r="G69" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="H69" t="s">
-        <v>339</v>
+        <v>391</v>
       </c>
       <c r="I69" t="s">
-        <v>419</v>
+        <v>492</v>
       </c>
       <c r="J69" t="n">
         <v>-77.0219212091946</v>
@@ -4962,13 +5253,13 @@
         <v>#N/A</v>
       </c>
       <c r="M69" t="s">
-        <v>509</v>
+        <v>599</v>
       </c>
       <c r="N69" t="s">
-        <v>520</v>
+        <v>613</v>
       </c>
       <c r="O69" t="s">
-        <v>542</v>
+        <v>636</v>
       </c>
     </row>
     <row r="70">
@@ -4979,25 +5270,25 @@
         <v>1938.0</v>
       </c>
       <c r="C70" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="D70" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="E70" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="F70" t="e">
         <v>#N/A</v>
       </c>
       <c r="G70" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="H70" t="s">
-        <v>340</v>
+        <v>392</v>
       </c>
       <c r="I70" t="s">
-        <v>420</v>
+        <v>493</v>
       </c>
       <c r="J70" t="n">
         <v>-77.0296207062875</v>
@@ -5009,13 +5300,13 @@
         <v>#N/A</v>
       </c>
       <c r="M70" t="s">
-        <v>509</v>
+        <v>599</v>
       </c>
       <c r="N70" t="s">
-        <v>520</v>
+        <v>613</v>
       </c>
       <c r="O70" t="s">
-        <v>540</v>
+        <v>634</v>
       </c>
     </row>
     <row r="71">
@@ -5026,25 +5317,25 @@
         <v>1938.0</v>
       </c>
       <c r="C71" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="D71" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="E71" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="F71" t="e">
         <v>#N/A</v>
       </c>
       <c r="G71" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="H71" t="s">
-        <v>341</v>
+        <v>393</v>
       </c>
       <c r="I71" t="s">
-        <v>421</v>
+        <v>494</v>
       </c>
       <c r="J71" t="n">
         <v>-77.0281553432906</v>
@@ -5053,16 +5344,16 @@
         <v>38.9143727773704</v>
       </c>
       <c r="L71" t="s">
-        <v>460</v>
+        <v>545</v>
       </c>
       <c r="M71" t="s">
-        <v>509</v>
+        <v>599</v>
       </c>
       <c r="N71" t="s">
-        <v>520</v>
+        <v>613</v>
       </c>
       <c r="O71" t="s">
-        <v>540</v>
+        <v>634</v>
       </c>
     </row>
     <row r="72">
@@ -5073,25 +5364,25 @@
         <v>1938.0</v>
       </c>
       <c r="C72" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="D72" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="E72" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="F72" t="e">
         <v>#N/A</v>
       </c>
       <c r="G72" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="H72" t="s">
-        <v>342</v>
+        <v>394</v>
       </c>
       <c r="I72" t="s">
-        <v>422</v>
+        <v>495</v>
       </c>
       <c r="J72" t="n">
         <v>-76.9937363573609</v>
@@ -5100,16 +5391,16 @@
         <v>38.9219005286626</v>
       </c>
       <c r="L72" t="s">
-        <v>479</v>
+        <v>564</v>
       </c>
       <c r="M72" t="s">
-        <v>509</v>
+        <v>599</v>
       </c>
       <c r="N72" t="s">
-        <v>520</v>
+        <v>613</v>
       </c>
       <c r="O72" t="s">
-        <v>543</v>
+        <v>637</v>
       </c>
     </row>
     <row r="73">
@@ -5120,25 +5411,25 @@
         <v>1938.0</v>
       </c>
       <c r="C73" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="D73" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="E73" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="F73" t="e">
         <v>#N/A</v>
       </c>
       <c r="G73" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="H73" t="s">
-        <v>343</v>
+        <v>395</v>
       </c>
       <c r="I73" t="s">
-        <v>423</v>
+        <v>496</v>
       </c>
       <c r="J73" t="n">
         <v>-77.01459809738</v>
@@ -5147,16 +5438,16 @@
         <v>38.9132161452251</v>
       </c>
       <c r="L73" t="s">
-        <v>480</v>
+        <v>565</v>
       </c>
       <c r="M73" t="s">
-        <v>509</v>
+        <v>599</v>
       </c>
       <c r="N73" t="s">
-        <v>520</v>
+        <v>613</v>
       </c>
       <c r="O73" t="s">
-        <v>542</v>
+        <v>636</v>
       </c>
     </row>
     <row r="74">
@@ -5167,25 +5458,25 @@
         <v>1938.0</v>
       </c>
       <c r="C74" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="D74" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="E74" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="F74" t="e">
         <v>#N/A</v>
       </c>
       <c r="G74" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="H74" t="s">
-        <v>344</v>
+        <v>396</v>
       </c>
       <c r="I74" t="s">
-        <v>424</v>
+        <v>497</v>
       </c>
       <c r="J74" t="n">
         <v>-77.0295511070182</v>
@@ -5194,16 +5485,16 @@
         <v>38.9164206523088</v>
       </c>
       <c r="L74" t="s">
-        <v>478</v>
+        <v>563</v>
       </c>
       <c r="M74" t="s">
-        <v>509</v>
+        <v>599</v>
       </c>
       <c r="N74" t="s">
-        <v>520</v>
+        <v>613</v>
       </c>
       <c r="O74" t="s">
-        <v>540</v>
+        <v>634</v>
       </c>
     </row>
     <row r="75">
@@ -5214,25 +5505,25 @@
         <v>1938.0</v>
       </c>
       <c r="C75" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="D75" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="E75" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="F75" t="e">
         <v>#N/A</v>
       </c>
       <c r="G75" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="H75" t="s">
-        <v>345</v>
+        <v>397</v>
       </c>
       <c r="I75" t="s">
-        <v>425</v>
+        <v>498</v>
       </c>
       <c r="J75" t="n">
         <v>-77.0285414573221</v>
@@ -5241,16 +5532,16 @@
         <v>38.9256909129142</v>
       </c>
       <c r="L75" t="s">
-        <v>481</v>
+        <v>566</v>
       </c>
       <c r="M75" t="s">
-        <v>509</v>
+        <v>599</v>
       </c>
       <c r="N75" t="s">
-        <v>520</v>
+        <v>613</v>
       </c>
       <c r="O75" t="s">
-        <v>540</v>
+        <v>634</v>
       </c>
     </row>
     <row r="76">
@@ -5261,25 +5552,25 @@
         <v>1938.0</v>
       </c>
       <c r="C76" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="D76" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="E76" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="F76" t="e">
         <v>#N/A</v>
       </c>
       <c r="G76" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="H76" t="s">
-        <v>346</v>
+        <v>398</v>
       </c>
       <c r="I76" t="s">
-        <v>426</v>
+        <v>499</v>
       </c>
       <c r="J76" t="n">
         <v>-77.0328781284406</v>
@@ -5288,16 +5579,16 @@
         <v>38.9111805073978</v>
       </c>
       <c r="L76" t="s">
-        <v>482</v>
+        <v>567</v>
       </c>
       <c r="M76" t="s">
-        <v>509</v>
+        <v>599</v>
       </c>
       <c r="N76" t="s">
-        <v>520</v>
+        <v>613</v>
       </c>
       <c r="O76" t="s">
-        <v>540</v>
+        <v>634</v>
       </c>
     </row>
     <row r="77">
@@ -5308,25 +5599,25 @@
         <v>1938.0</v>
       </c>
       <c r="C77" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="D77" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="E77" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="F77" t="e">
         <v>#N/A</v>
       </c>
       <c r="G77" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="H77" t="s">
-        <v>347</v>
+        <v>399</v>
       </c>
       <c r="I77" t="s">
-        <v>427</v>
+        <v>500</v>
       </c>
       <c r="J77" t="n">
         <v>-77.019002333803</v>
@@ -5335,16 +5626,16 @@
         <v>38.9014899586915</v>
       </c>
       <c r="L77" t="s">
-        <v>483</v>
+        <v>568</v>
       </c>
       <c r="M77" t="s">
-        <v>509</v>
+        <v>599</v>
       </c>
       <c r="N77" t="s">
-        <v>520</v>
+        <v>613</v>
       </c>
       <c r="O77" t="s">
-        <v>542</v>
+        <v>636</v>
       </c>
     </row>
     <row r="78">
@@ -5355,25 +5646,25 @@
         <v>1938.0</v>
       </c>
       <c r="C78" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="D78" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="E78" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="F78" t="e">
         <v>#N/A</v>
       </c>
       <c r="G78" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="H78" t="s">
-        <v>348</v>
+        <v>400</v>
       </c>
       <c r="I78" t="s">
-        <v>428</v>
+        <v>501</v>
       </c>
       <c r="J78" t="n">
         <v>-77.0284109682986</v>
@@ -5382,16 +5673,16 @@
         <v>38.9169429146724</v>
       </c>
       <c r="L78" t="s">
-        <v>484</v>
+        <v>569</v>
       </c>
       <c r="M78" t="s">
-        <v>509</v>
+        <v>599</v>
       </c>
       <c r="N78" t="s">
-        <v>520</v>
+        <v>613</v>
       </c>
       <c r="O78" t="s">
-        <v>540</v>
+        <v>634</v>
       </c>
     </row>
     <row r="79">
@@ -5402,25 +5693,25 @@
         <v>1938.0</v>
       </c>
       <c r="C79" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="D79" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="E79" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="F79" t="e">
         <v>#N/A</v>
       </c>
       <c r="G79" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="H79" t="s">
-        <v>349</v>
+        <v>401</v>
       </c>
       <c r="I79" t="s">
-        <v>429</v>
+        <v>502</v>
       </c>
       <c r="J79" t="n">
         <v>-77.0219212086858</v>
@@ -5432,13 +5723,13 @@
         <v>#N/A</v>
       </c>
       <c r="M79" t="s">
-        <v>509</v>
+        <v>599</v>
       </c>
       <c r="N79" t="s">
-        <v>520</v>
+        <v>613</v>
       </c>
       <c r="O79" t="s">
-        <v>542</v>
+        <v>636</v>
       </c>
     </row>
     <row r="80">
@@ -5449,25 +5740,25 @@
         <v>1938.0</v>
       </c>
       <c r="C80" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="D80" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="E80" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="F80" t="e">
         <v>#N/A</v>
       </c>
       <c r="G80" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="H80" t="s">
-        <v>350</v>
+        <v>402</v>
       </c>
       <c r="I80" t="s">
-        <v>430</v>
+        <v>503</v>
       </c>
       <c r="J80" t="n">
         <v>-77.0334199928333</v>
@@ -5476,16 +5767,16 @@
         <v>38.9170575062334</v>
       </c>
       <c r="L80" t="s">
-        <v>484</v>
+        <v>569</v>
       </c>
       <c r="M80" t="s">
-        <v>509</v>
+        <v>599</v>
       </c>
       <c r="N80" t="s">
-        <v>520</v>
+        <v>613</v>
       </c>
       <c r="O80" t="s">
-        <v>540</v>
+        <v>634</v>
       </c>
     </row>
     <row r="81">
@@ -5496,25 +5787,25 @@
         <v>1938.0</v>
       </c>
       <c r="C81" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="D81" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="E81" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="F81" t="e">
         <v>#N/A</v>
       </c>
       <c r="G81" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="H81" t="s">
-        <v>351</v>
+        <v>403</v>
       </c>
       <c r="I81" t="s">
-        <v>431</v>
+        <v>504</v>
       </c>
       <c r="J81" t="n">
         <v>-77.0345302046717</v>
@@ -5526,13 +5817,13 @@
         <v>#N/A</v>
       </c>
       <c r="M81" t="s">
-        <v>509</v>
+        <v>599</v>
       </c>
       <c r="N81" t="s">
-        <v>520</v>
+        <v>613</v>
       </c>
       <c r="O81" t="s">
-        <v>540</v>
+        <v>634</v>
       </c>
     </row>
     <row r="82">
@@ -5543,25 +5834,25 @@
         <v>1938.0</v>
       </c>
       <c r="C82" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="D82" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="E82" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="F82" t="e">
         <v>#N/A</v>
       </c>
       <c r="G82" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="H82" t="s">
-        <v>352</v>
+        <v>404</v>
       </c>
       <c r="I82" t="s">
-        <v>432</v>
+        <v>505</v>
       </c>
       <c r="J82" t="n">
         <v>-88.6918671515978</v>
@@ -5590,25 +5881,25 @@
         <v>1938.0</v>
       </c>
       <c r="C83" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="D83" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="E83" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="F83" t="e">
         <v>#N/A</v>
       </c>
       <c r="G83" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="H83" t="s">
-        <v>351</v>
+        <v>403</v>
       </c>
       <c r="I83" t="s">
-        <v>431</v>
+        <v>504</v>
       </c>
       <c r="J83" t="n">
         <v>-77.0345302046717</v>
@@ -5620,13 +5911,13 @@
         <v>#N/A</v>
       </c>
       <c r="M83" t="s">
-        <v>509</v>
+        <v>599</v>
       </c>
       <c r="N83" t="s">
-        <v>520</v>
+        <v>613</v>
       </c>
       <c r="O83" t="s">
-        <v>540</v>
+        <v>634</v>
       </c>
     </row>
     <row r="84">
@@ -5637,25 +5928,25 @@
         <v>1938.0</v>
       </c>
       <c r="C84" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="D84" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="E84" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="F84" t="e">
         <v>#N/A</v>
       </c>
       <c r="G84" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="H84" t="s">
-        <v>353</v>
+        <v>405</v>
       </c>
       <c r="I84" t="s">
-        <v>433</v>
+        <v>506</v>
       </c>
       <c r="J84" t="n">
         <v>-81.6642641372315</v>
@@ -5664,16 +5955,16 @@
         <v>30.3317340886304</v>
       </c>
       <c r="L84" t="s">
-        <v>463</v>
+        <v>548</v>
       </c>
       <c r="M84" t="s">
-        <v>510</v>
+        <v>600</v>
       </c>
       <c r="N84" t="s">
-        <v>521</v>
+        <v>614</v>
       </c>
       <c r="O84" t="s">
-        <v>544</v>
+        <v>638</v>
       </c>
     </row>
     <row r="85">
@@ -5684,25 +5975,25 @@
         <v>1938.0</v>
       </c>
       <c r="C85" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="D85" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="E85" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="F85" t="e">
         <v>#N/A</v>
       </c>
       <c r="G85" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="H85" t="s">
-        <v>354</v>
+        <v>406</v>
       </c>
       <c r="I85" t="s">
-        <v>434</v>
+        <v>507</v>
       </c>
       <c r="J85" t="n">
         <v>-81.6644130211114</v>
@@ -5711,16 +6002,16 @@
         <v>30.3324873646761</v>
       </c>
       <c r="L85" t="s">
-        <v>485</v>
+        <v>570</v>
       </c>
       <c r="M85" t="s">
-        <v>510</v>
+        <v>600</v>
       </c>
       <c r="N85" t="s">
-        <v>521</v>
+        <v>614</v>
       </c>
       <c r="O85" t="s">
-        <v>544</v>
+        <v>638</v>
       </c>
     </row>
     <row r="86">
@@ -5731,25 +6022,25 @@
         <v>1938.0</v>
       </c>
       <c r="C86" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="D86" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="E86" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="F86" t="e">
         <v>#N/A</v>
       </c>
       <c r="G86" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="H86" t="s">
-        <v>355</v>
+        <v>407</v>
       </c>
       <c r="I86" t="s">
-        <v>435</v>
+        <v>508</v>
       </c>
       <c r="J86" t="n">
         <v>-81.6644653940376</v>
@@ -5758,16 +6049,16 @@
         <v>30.3323804309158</v>
       </c>
       <c r="L86" t="s">
-        <v>485</v>
+        <v>570</v>
       </c>
       <c r="M86" t="s">
-        <v>510</v>
+        <v>600</v>
       </c>
       <c r="N86" t="s">
-        <v>521</v>
+        <v>614</v>
       </c>
       <c r="O86" t="s">
-        <v>545</v>
+        <v>639</v>
       </c>
     </row>
     <row r="87">
@@ -5778,25 +6069,25 @@
         <v>1938.0</v>
       </c>
       <c r="C87" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="D87" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="E87" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="F87" t="e">
         <v>#N/A</v>
       </c>
       <c r="G87" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="H87" t="s">
-        <v>356</v>
+        <v>408</v>
       </c>
       <c r="I87" t="s">
-        <v>436</v>
+        <v>509</v>
       </c>
       <c r="J87" t="n">
         <v>-81.664456760149</v>
@@ -5805,16 +6096,16 @@
         <v>30.3310619027347</v>
       </c>
       <c r="L87" t="s">
-        <v>463</v>
+        <v>548</v>
       </c>
       <c r="M87" t="s">
-        <v>510</v>
+        <v>600</v>
       </c>
       <c r="N87" t="s">
-        <v>521</v>
+        <v>614</v>
       </c>
       <c r="O87" t="s">
-        <v>544</v>
+        <v>638</v>
       </c>
     </row>
     <row r="88">
@@ -5825,25 +6116,25 @@
         <v>1938.0</v>
       </c>
       <c r="C88" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="D88" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="E88" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F88" t="e">
         <v>#N/A</v>
       </c>
       <c r="G88" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="H88" t="s">
-        <v>357</v>
+        <v>409</v>
       </c>
       <c r="I88" t="s">
-        <v>437</v>
+        <v>510</v>
       </c>
       <c r="J88" t="n">
         <v>-81.6656641435639</v>
@@ -5852,16 +6143,16 @@
         <v>30.3319572677424</v>
       </c>
       <c r="L88" t="s">
-        <v>453</v>
+        <v>538</v>
       </c>
       <c r="M88" t="s">
-        <v>510</v>
+        <v>600</v>
       </c>
       <c r="N88" t="s">
-        <v>521</v>
+        <v>614</v>
       </c>
       <c r="O88" t="s">
-        <v>544</v>
+        <v>638</v>
       </c>
     </row>
     <row r="89">
@@ -5872,25 +6163,25 @@
         <v>1938.0</v>
       </c>
       <c r="C89" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="D89" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="E89" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F89" t="e">
         <v>#N/A</v>
       </c>
       <c r="G89" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="H89" t="s">
-        <v>358</v>
+        <v>410</v>
       </c>
       <c r="I89" t="s">
-        <v>438</v>
+        <v>511</v>
       </c>
       <c r="J89" t="n">
         <v>-81.6696051252206</v>
@@ -5899,16 +6190,16 @@
         <v>30.3506369396631</v>
       </c>
       <c r="L89" t="s">
-        <v>486</v>
+        <v>571</v>
       </c>
       <c r="M89" t="s">
-        <v>510</v>
+        <v>600</v>
       </c>
       <c r="N89" t="s">
-        <v>521</v>
+        <v>614</v>
       </c>
       <c r="O89" t="s">
-        <v>546</v>
+        <v>640</v>
       </c>
     </row>
     <row r="90">
@@ -5919,25 +6210,25 @@
         <v>1938.0</v>
       </c>
       <c r="C90" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="D90" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="E90" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F90" t="e">
         <v>#N/A</v>
       </c>
       <c r="G90" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="H90" t="s">
-        <v>359</v>
+        <v>411</v>
       </c>
       <c r="I90" t="s">
-        <v>439</v>
+        <v>512</v>
       </c>
       <c r="J90" t="n">
         <v>-81.3955088401258</v>
@@ -5946,16 +6237,16 @@
         <v>30.3229396773938</v>
       </c>
       <c r="L90" t="s">
-        <v>487</v>
+        <v>572</v>
       </c>
       <c r="M90" t="s">
-        <v>510</v>
+        <v>600</v>
       </c>
       <c r="N90" t="s">
-        <v>521</v>
+        <v>614</v>
       </c>
       <c r="O90" t="s">
-        <v>547</v>
+        <v>641</v>
       </c>
     </row>
     <row r="91">
@@ -5966,25 +6257,25 @@
         <v>1938.0</v>
       </c>
       <c r="C91" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="D91" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="E91" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="F91" t="e">
         <v>#N/A</v>
       </c>
       <c r="G91" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="H91" t="s">
-        <v>360</v>
+        <v>412</v>
       </c>
       <c r="I91" t="s">
-        <v>440</v>
+        <v>513</v>
       </c>
       <c r="J91" t="n">
         <v>-81.9572829428224</v>
@@ -5993,16 +6284,16 @@
         <v>28.0515331436022</v>
       </c>
       <c r="L91" t="s">
-        <v>480</v>
+        <v>565</v>
       </c>
       <c r="M91" t="s">
-        <v>511</v>
+        <v>601</v>
       </c>
       <c r="N91" t="s">
-        <v>521</v>
+        <v>614</v>
       </c>
       <c r="O91" t="s">
-        <v>548</v>
+        <v>642</v>
       </c>
     </row>
     <row r="92">
@@ -6013,25 +6304,25 @@
         <v>1938.0</v>
       </c>
       <c r="C92" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="D92" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="E92" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="F92" t="e">
         <v>#N/A</v>
       </c>
       <c r="G92" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="H92" t="s">
-        <v>361</v>
+        <v>413</v>
       </c>
       <c r="I92" t="s">
-        <v>441</v>
+        <v>514</v>
       </c>
       <c r="J92" t="n">
         <v>-80.1979633065436</v>
@@ -6040,16 +6331,16 @@
         <v>25.7831004736858</v>
       </c>
       <c r="L92" t="s">
-        <v>488</v>
+        <v>573</v>
       </c>
       <c r="M92" t="s">
-        <v>512</v>
+        <v>602</v>
       </c>
       <c r="N92" t="s">
-        <v>521</v>
+        <v>614</v>
       </c>
       <c r="O92" t="s">
-        <v>549</v>
+        <v>643</v>
       </c>
     </row>
     <row r="93">
@@ -6060,25 +6351,25 @@
         <v>1938.0</v>
       </c>
       <c r="C93" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="D93" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="E93" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="F93" t="e">
         <v>#N/A</v>
       </c>
       <c r="G93" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="H93" t="s">
-        <v>362</v>
+        <v>414</v>
       </c>
       <c r="I93" t="s">
-        <v>442</v>
+        <v>515</v>
       </c>
       <c r="J93" t="n">
         <v>-80.1980312449411</v>
@@ -6087,16 +6378,16 @@
         <v>25.780776879909</v>
       </c>
       <c r="L93" t="s">
-        <v>488</v>
+        <v>573</v>
       </c>
       <c r="M93" t="s">
-        <v>512</v>
+        <v>602</v>
       </c>
       <c r="N93" t="s">
-        <v>521</v>
+        <v>614</v>
       </c>
       <c r="O93" t="s">
-        <v>549</v>
+        <v>643</v>
       </c>
     </row>
     <row r="94">
@@ -6107,25 +6398,25 @@
         <v>1938.0</v>
       </c>
       <c r="C94" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="D94" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="E94" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="F94" t="e">
         <v>#N/A</v>
       </c>
       <c r="G94" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="H94" t="s">
-        <v>363</v>
+        <v>415</v>
       </c>
       <c r="I94" t="s">
-        <v>443</v>
+        <v>516</v>
       </c>
       <c r="J94" t="n">
         <v>-87.21373353953</v>
@@ -6134,16 +6425,16 @@
         <v>30.4173283716835</v>
       </c>
       <c r="L94" t="s">
-        <v>489</v>
+        <v>574</v>
       </c>
       <c r="M94" t="s">
-        <v>513</v>
+        <v>603</v>
       </c>
       <c r="N94" t="s">
-        <v>521</v>
+        <v>614</v>
       </c>
       <c r="O94" t="s">
-        <v>550</v>
+        <v>644</v>
       </c>
     </row>
     <row r="95">
@@ -6154,25 +6445,25 @@
         <v>1938.0</v>
       </c>
       <c r="C95" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="D95" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="E95" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F95" t="e">
         <v>#N/A</v>
       </c>
       <c r="G95" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="H95" t="s">
-        <v>364</v>
+        <v>416</v>
       </c>
       <c r="I95" t="s">
-        <v>374</v>
+        <v>447</v>
       </c>
       <c r="J95" t="e">
         <v>#N/A</v>
@@ -6201,43 +6492,43 @@
         <v>1938.0</v>
       </c>
       <c r="C96" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="D96" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="E96" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F96" t="e">
         <v>#N/A</v>
       </c>
       <c r="G96" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="H96" t="s">
-        <v>365</v>
+        <v>417</v>
       </c>
       <c r="I96" t="s">
-        <v>444</v>
+        <v>517</v>
       </c>
       <c r="J96" t="n">
-        <v>-81.31442133739978</v>
+        <v>-81.3144213373998</v>
       </c>
       <c r="K96" t="n">
-        <v>29.88895432612814</v>
+        <v>29.8889543261281</v>
       </c>
       <c r="L96" t="s">
-        <v>490</v>
+        <v>575</v>
       </c>
       <c r="M96" t="s">
-        <v>514</v>
+        <v>604</v>
       </c>
       <c r="N96" t="s">
-        <v>521</v>
+        <v>614</v>
       </c>
       <c r="O96" t="s">
-        <v>551</v>
+        <v>645</v>
       </c>
     </row>
     <row r="97">
@@ -6248,25 +6539,25 @@
         <v>1938.0</v>
       </c>
       <c r="C97" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="D97" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="E97" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F97" t="e">
         <v>#N/A</v>
       </c>
       <c r="G97" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="H97" t="s">
-        <v>366</v>
+        <v>418</v>
       </c>
       <c r="I97" t="s">
-        <v>374</v>
+        <v>447</v>
       </c>
       <c r="J97" t="e">
         <v>#N/A</v>
@@ -6295,43 +6586,43 @@
         <v>1938.0</v>
       </c>
       <c r="C98" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="D98" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="E98" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F98" t="e">
         <v>#N/A</v>
       </c>
       <c r="G98" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="H98" t="s">
-        <v>367</v>
+        <v>419</v>
       </c>
       <c r="I98" t="s">
-        <v>445</v>
+        <v>518</v>
       </c>
       <c r="J98" t="n">
-        <v>-82.67117954274819</v>
+        <v>-82.6711795427482</v>
       </c>
       <c r="K98" t="n">
-        <v>27.764976877558205</v>
-      </c>
-      <c r="L98" t="s">
-        <v>491</v>
+        <v>27.7649768775582</v>
+      </c>
+      <c r="L98" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M98" t="s">
-        <v>515</v>
+        <v>605</v>
       </c>
       <c r="N98" t="s">
-        <v>521</v>
+        <v>614</v>
       </c>
       <c r="O98" t="s">
-        <v>552</v>
+        <v>646</v>
       </c>
     </row>
     <row r="99">
@@ -6342,43 +6633,43 @@
         <v>1938.0</v>
       </c>
       <c r="C99" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="D99" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="E99" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F99" t="e">
         <v>#N/A</v>
       </c>
       <c r="G99" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="H99" t="s">
-        <v>368</v>
+        <v>420</v>
       </c>
       <c r="I99" t="s">
-        <v>446</v>
+        <v>519</v>
       </c>
       <c r="J99" t="n">
-        <v>-82.65392154972366</v>
+        <v>-82.6539215497237</v>
       </c>
       <c r="K99" t="n">
-        <v>27.77756216977729</v>
+        <v>27.7775621697773</v>
       </c>
       <c r="L99" t="s">
-        <v>483</v>
+        <v>568</v>
       </c>
       <c r="M99" t="s">
-        <v>515</v>
+        <v>605</v>
       </c>
       <c r="N99" t="s">
-        <v>521</v>
+        <v>614</v>
       </c>
       <c r="O99" t="s">
-        <v>553</v>
+        <v>647</v>
       </c>
     </row>
     <row r="100">
@@ -6389,43 +6680,43 @@
         <v>1938.0</v>
       </c>
       <c r="C100" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="D100" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="E100" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F100" t="e">
         <v>#N/A</v>
       </c>
       <c r="G100" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="H100" t="s">
-        <v>369</v>
+        <v>421</v>
       </c>
       <c r="I100" t="s">
-        <v>447</v>
+        <v>520</v>
       </c>
       <c r="J100" t="n">
-        <v>-82.64731694277427</v>
+        <v>-82.6473169427743</v>
       </c>
       <c r="K100" t="n">
         <v>27.7684565804156</v>
       </c>
       <c r="L100" t="s">
-        <v>492</v>
+        <v>576</v>
       </c>
       <c r="M100" t="s">
-        <v>515</v>
+        <v>605</v>
       </c>
       <c r="N100" t="s">
-        <v>521</v>
+        <v>614</v>
       </c>
       <c r="O100" t="s">
-        <v>553</v>
+        <v>647</v>
       </c>
     </row>
     <row r="101">
@@ -6436,25 +6727,25 @@
         <v>1938.0</v>
       </c>
       <c r="C101" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="D101" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="E101" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="F101" t="e">
         <v>#N/A</v>
       </c>
       <c r="G101" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="H101" t="s">
-        <v>370</v>
+        <v>422</v>
       </c>
       <c r="I101" t="s">
-        <v>374</v>
+        <v>447</v>
       </c>
       <c r="J101" t="e">
         <v>#N/A</v>
@@ -6483,43 +6774,43 @@
         <v>1938.0</v>
       </c>
       <c r="C102" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="D102" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="E102" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="F102" t="e">
         <v>#N/A</v>
       </c>
       <c r="G102" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="H102" t="s">
-        <v>371</v>
+        <v>423</v>
       </c>
       <c r="I102" t="s">
-        <v>448</v>
+        <v>521</v>
       </c>
       <c r="J102" t="n">
-        <v>-82.45533737670763</v>
+        <v>-82.4553373767076</v>
       </c>
       <c r="K102" t="n">
-        <v>28.03697055725273</v>
+        <v>28.0369705572527</v>
       </c>
       <c r="L102" t="s">
-        <v>493</v>
+        <v>577</v>
       </c>
       <c r="M102" t="s">
-        <v>516</v>
+        <v>606</v>
       </c>
       <c r="N102" t="s">
-        <v>521</v>
+        <v>614</v>
       </c>
       <c r="O102" t="s">
-        <v>554</v>
+        <v>648</v>
       </c>
     </row>
     <row r="103">
@@ -6530,43 +6821,43 @@
         <v>1938.0</v>
       </c>
       <c r="C103" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="D103" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="E103" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="F103" t="e">
         <v>#N/A</v>
       </c>
       <c r="G103" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="H103" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="I103" t="s">
-        <v>449</v>
+        <v>522</v>
       </c>
       <c r="J103" t="n">
-        <v>-82.45416202996856</v>
+        <v>-82.4541620299686</v>
       </c>
       <c r="K103" t="n">
-        <v>27.951475964784862</v>
+        <v>27.9514759647849</v>
       </c>
       <c r="L103" t="s">
-        <v>494</v>
+        <v>578</v>
       </c>
       <c r="M103" t="s">
-        <v>516</v>
+        <v>606</v>
       </c>
       <c r="N103" t="s">
-        <v>521</v>
+        <v>614</v>
       </c>
       <c r="O103" t="s">
-        <v>555</v>
+        <v>649</v>
       </c>
     </row>
     <row r="104">
@@ -6577,43 +6868,1077 @@
         <v>1938.0</v>
       </c>
       <c r="C104" t="s">
+        <v>143</v>
+      </c>
+      <c r="D104" t="s">
+        <v>169</v>
+      </c>
+      <c r="E104" t="s">
+        <v>175</v>
+      </c>
+      <c r="F104" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G104" t="s">
+        <v>308</v>
+      </c>
+      <c r="H104" t="s">
+        <v>425</v>
+      </c>
+      <c r="I104" t="s">
+        <v>447</v>
+      </c>
+      <c r="J104" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K104" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L104" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M104" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N104" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O104" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>117</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C105" t="s">
+        <v>144</v>
+      </c>
+      <c r="D105" t="s">
+        <v>170</v>
+      </c>
+      <c r="E105" t="s">
+        <v>174</v>
+      </c>
+      <c r="F105" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G105" t="s">
+        <v>309</v>
+      </c>
+      <c r="H105" t="s">
+        <v>426</v>
+      </c>
+      <c r="I105" t="s">
+        <v>523</v>
+      </c>
+      <c r="J105" t="n">
+        <v>-84.15968806291161</v>
+      </c>
+      <c r="K105" t="n">
+        <v>31.570782330215025</v>
+      </c>
+      <c r="L105" t="s">
+        <v>579</v>
+      </c>
+      <c r="M105" t="s">
+        <v>607</v>
+      </c>
+      <c r="N105" t="s">
+        <v>615</v>
+      </c>
+      <c r="O105" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>118</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C106" t="s">
+        <v>144</v>
+      </c>
+      <c r="D106" t="s">
+        <v>170</v>
+      </c>
+      <c r="E106" t="s">
+        <v>174</v>
+      </c>
+      <c r="F106" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G106" t="s">
+        <v>310</v>
+      </c>
+      <c r="H106" t="s">
+        <v>427</v>
+      </c>
+      <c r="I106" t="s">
+        <v>447</v>
+      </c>
+      <c r="J106" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K106" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L106" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M106" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N106" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O106" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>119</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C107" t="s">
+        <v>144</v>
+      </c>
+      <c r="D107" t="s">
+        <v>170</v>
+      </c>
+      <c r="E107" t="s">
+        <v>174</v>
+      </c>
+      <c r="F107" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G107" t="s">
+        <v>311</v>
+      </c>
+      <c r="H107" t="s">
+        <v>428</v>
+      </c>
+      <c r="I107" t="s">
+        <v>524</v>
+      </c>
+      <c r="J107" t="n">
+        <v>-84.15940146113257</v>
+      </c>
+      <c r="K107" t="n">
+        <v>31.57066773883407</v>
+      </c>
+      <c r="L107" t="s">
+        <v>579</v>
+      </c>
+      <c r="M107" t="s">
+        <v>607</v>
+      </c>
+      <c r="N107" t="s">
+        <v>615</v>
+      </c>
+      <c r="O107" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>120</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C108" t="s">
+        <v>144</v>
+      </c>
+      <c r="D108" t="s">
+        <v>170</v>
+      </c>
+      <c r="E108" t="s">
+        <v>174</v>
+      </c>
+      <c r="F108" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G108" t="s">
+        <v>312</v>
+      </c>
+      <c r="H108" t="s">
+        <v>429</v>
+      </c>
+      <c r="I108" t="s">
+        <v>525</v>
+      </c>
+      <c r="J108" t="n">
+        <v>-84.1535885542524</v>
+      </c>
+      <c r="K108" t="n">
+        <v>31.575037261282926</v>
+      </c>
+      <c r="L108" t="s">
+        <v>580</v>
+      </c>
+      <c r="M108" t="s">
+        <v>607</v>
+      </c>
+      <c r="N108" t="s">
+        <v>615</v>
+      </c>
+      <c r="O108" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
         <v>121</v>
       </c>
-      <c r="D104" t="s">
-        <v>146</v>
-      </c>
-      <c r="E104" t="s">
-        <v>148</v>
-      </c>
-      <c r="F104" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G104" t="s">
-        <v>276</v>
-      </c>
-      <c r="H104" t="s">
-        <v>373</v>
-      </c>
-      <c r="I104" t="s">
-        <v>374</v>
-      </c>
-      <c r="J104" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K104" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L104" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M104" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N104" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O104" t="e">
-        <v>#N/A</v>
+      <c r="B109" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C109" t="s">
+        <v>144</v>
+      </c>
+      <c r="D109" t="s">
+        <v>171</v>
+      </c>
+      <c r="E109" t="s">
+        <v>175</v>
+      </c>
+      <c r="F109" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G109" t="s">
+        <v>313</v>
+      </c>
+      <c r="H109" t="s">
+        <v>430</v>
+      </c>
+      <c r="I109" t="s">
+        <v>526</v>
+      </c>
+      <c r="J109" t="n">
+        <v>-84.37986896428545</v>
+      </c>
+      <c r="K109" t="n">
+        <v>33.75547615520484</v>
+      </c>
+      <c r="L109" t="s">
+        <v>581</v>
+      </c>
+      <c r="M109" t="s">
+        <v>608</v>
+      </c>
+      <c r="N109" t="s">
+        <v>615</v>
+      </c>
+      <c r="O109" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>122</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C110" t="s">
+        <v>144</v>
+      </c>
+      <c r="D110" t="s">
+        <v>171</v>
+      </c>
+      <c r="E110" t="s">
+        <v>175</v>
+      </c>
+      <c r="F110" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G110" t="s">
+        <v>314</v>
+      </c>
+      <c r="H110" t="s">
+        <v>431</v>
+      </c>
+      <c r="I110" t="s">
+        <v>527</v>
+      </c>
+      <c r="J110" t="n">
+        <v>-84.37989676775622</v>
+      </c>
+      <c r="K110" t="n">
+        <v>33.75547646073855</v>
+      </c>
+      <c r="L110" t="s">
+        <v>581</v>
+      </c>
+      <c r="M110" t="s">
+        <v>608</v>
+      </c>
+      <c r="N110" t="s">
+        <v>615</v>
+      </c>
+      <c r="O110" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>123</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C111" t="s">
+        <v>144</v>
+      </c>
+      <c r="D111" t="s">
+        <v>171</v>
+      </c>
+      <c r="E111" t="s">
+        <v>175</v>
+      </c>
+      <c r="F111" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G111" t="s">
+        <v>315</v>
+      </c>
+      <c r="H111" t="s">
+        <v>432</v>
+      </c>
+      <c r="I111" t="s">
+        <v>447</v>
+      </c>
+      <c r="J111" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K111" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L111" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M111" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N111" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O111" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>124</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C112" t="s">
+        <v>144</v>
+      </c>
+      <c r="D112" t="s">
+        <v>171</v>
+      </c>
+      <c r="E112" t="s">
+        <v>175</v>
+      </c>
+      <c r="F112" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G112" t="s">
+        <v>316</v>
+      </c>
+      <c r="H112" t="s">
+        <v>433</v>
+      </c>
+      <c r="I112" t="s">
+        <v>528</v>
+      </c>
+      <c r="J112" t="n">
+        <v>-84.38030156350074</v>
+      </c>
+      <c r="K112" t="n">
+        <v>33.754298898346796</v>
+      </c>
+      <c r="L112" t="s">
+        <v>582</v>
+      </c>
+      <c r="M112" t="s">
+        <v>608</v>
+      </c>
+      <c r="N112" t="s">
+        <v>615</v>
+      </c>
+      <c r="O112" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>125</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C113" t="s">
+        <v>144</v>
+      </c>
+      <c r="D113" t="s">
+        <v>171</v>
+      </c>
+      <c r="E113" t="s">
+        <v>174</v>
+      </c>
+      <c r="F113" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G113" t="s">
+        <v>317</v>
+      </c>
+      <c r="H113" t="s">
+        <v>434</v>
+      </c>
+      <c r="I113" t="s">
+        <v>447</v>
+      </c>
+      <c r="J113" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K113" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L113" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M113" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N113" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O113" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>126</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C114" t="s">
+        <v>144</v>
+      </c>
+      <c r="D114" t="s">
+        <v>171</v>
+      </c>
+      <c r="E114" t="s">
+        <v>180</v>
+      </c>
+      <c r="F114" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G114" t="s">
+        <v>318</v>
+      </c>
+      <c r="H114" t="s">
+        <v>435</v>
+      </c>
+      <c r="I114" t="s">
+        <v>447</v>
+      </c>
+      <c r="J114" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K114" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L114" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M114" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N114" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O114" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>127</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C115" t="s">
+        <v>144</v>
+      </c>
+      <c r="D115" t="s">
+        <v>171</v>
+      </c>
+      <c r="E115" t="s">
+        <v>177</v>
+      </c>
+      <c r="F115" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G115" t="s">
+        <v>319</v>
+      </c>
+      <c r="H115" t="s">
+        <v>436</v>
+      </c>
+      <c r="I115" t="s">
+        <v>529</v>
+      </c>
+      <c r="J115" t="n">
+        <v>-84.37748628415449</v>
+      </c>
+      <c r="K115" t="n">
+        <v>33.755573706652015</v>
+      </c>
+      <c r="L115" t="s">
+        <v>581</v>
+      </c>
+      <c r="M115" t="s">
+        <v>608</v>
+      </c>
+      <c r="N115" t="s">
+        <v>615</v>
+      </c>
+      <c r="O115" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>128</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C116" t="s">
+        <v>144</v>
+      </c>
+      <c r="D116" t="s">
+        <v>171</v>
+      </c>
+      <c r="E116" t="s">
+        <v>181</v>
+      </c>
+      <c r="F116" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G116" t="s">
+        <v>320</v>
+      </c>
+      <c r="H116" t="s">
+        <v>437</v>
+      </c>
+      <c r="I116" t="s">
+        <v>530</v>
+      </c>
+      <c r="J116" t="n">
+        <v>-84.38812101207311</v>
+      </c>
+      <c r="K116" t="n">
+        <v>33.753324706230586</v>
+      </c>
+      <c r="L116" t="s">
+        <v>583</v>
+      </c>
+      <c r="M116" t="s">
+        <v>608</v>
+      </c>
+      <c r="N116" t="s">
+        <v>615</v>
+      </c>
+      <c r="O116" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>129</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C117" t="s">
+        <v>144</v>
+      </c>
+      <c r="D117" t="s">
+        <v>171</v>
+      </c>
+      <c r="E117" t="s">
+        <v>178</v>
+      </c>
+      <c r="F117" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G117" t="s">
+        <v>321</v>
+      </c>
+      <c r="H117" t="s">
+        <v>438</v>
+      </c>
+      <c r="I117" t="s">
+        <v>531</v>
+      </c>
+      <c r="J117" t="n">
+        <v>-84.37942379929825</v>
+      </c>
+      <c r="K117" t="n">
+        <v>33.75552856395278</v>
+      </c>
+      <c r="L117" t="s">
+        <v>584</v>
+      </c>
+      <c r="M117" t="s">
+        <v>608</v>
+      </c>
+      <c r="N117" t="s">
+        <v>615</v>
+      </c>
+      <c r="O117" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>130</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C118" t="s">
+        <v>144</v>
+      </c>
+      <c r="D118" t="s">
+        <v>171</v>
+      </c>
+      <c r="E118" t="s">
+        <v>179</v>
+      </c>
+      <c r="F118" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G118" t="s">
+        <v>322</v>
+      </c>
+      <c r="H118" t="s">
+        <v>439</v>
+      </c>
+      <c r="I118" t="s">
+        <v>447</v>
+      </c>
+      <c r="J118" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K118" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L118" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M118" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N118" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O118" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>131</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C119" t="s">
+        <v>144</v>
+      </c>
+      <c r="D119" t="s">
+        <v>171</v>
+      </c>
+      <c r="E119" t="s">
+        <v>179</v>
+      </c>
+      <c r="F119" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G119" t="s">
+        <v>323</v>
+      </c>
+      <c r="H119" t="s">
+        <v>440</v>
+      </c>
+      <c r="I119" t="s">
+        <v>447</v>
+      </c>
+      <c r="J119" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K119" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L119" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M119" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N119" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O119" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>132</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C120" t="s">
+        <v>144</v>
+      </c>
+      <c r="D120" t="s">
+        <v>171</v>
+      </c>
+      <c r="E120" t="s">
+        <v>182</v>
+      </c>
+      <c r="F120" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G120" t="s">
+        <v>324</v>
+      </c>
+      <c r="H120" t="s">
+        <v>441</v>
+      </c>
+      <c r="I120" t="s">
+        <v>447</v>
+      </c>
+      <c r="J120" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K120" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L120" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M120" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N120" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O120" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>133</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C121" t="s">
+        <v>144</v>
+      </c>
+      <c r="D121" t="s">
+        <v>171</v>
+      </c>
+      <c r="E121" t="s">
+        <v>183</v>
+      </c>
+      <c r="F121" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G121" t="s">
+        <v>322</v>
+      </c>
+      <c r="H121" t="s">
+        <v>439</v>
+      </c>
+      <c r="I121" t="s">
+        <v>447</v>
+      </c>
+      <c r="J121" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K121" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L121" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M121" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N121" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O121" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>134</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C122" t="s">
+        <v>144</v>
+      </c>
+      <c r="D122" t="s">
+        <v>172</v>
+      </c>
+      <c r="E122" t="s">
+        <v>175</v>
+      </c>
+      <c r="F122" t="s">
+        <v>211</v>
+      </c>
+      <c r="G122" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H122" t="s">
+        <v>442</v>
+      </c>
+      <c r="I122" t="s">
+        <v>447</v>
+      </c>
+      <c r="J122" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K122" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L122" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M122" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N122" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O122" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>135</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C123" t="s">
+        <v>144</v>
+      </c>
+      <c r="D123" t="s">
+        <v>173</v>
+      </c>
+      <c r="E123" t="s">
+        <v>174</v>
+      </c>
+      <c r="F123" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G123" t="s">
+        <v>325</v>
+      </c>
+      <c r="H123" t="s">
+        <v>443</v>
+      </c>
+      <c r="I123" t="s">
+        <v>532</v>
+      </c>
+      <c r="J123" t="n">
+        <v>-82.90338952677564</v>
+      </c>
+      <c r="K123" t="n">
+        <v>32.53777091727922</v>
+      </c>
+      <c r="L123" t="s">
+        <v>585</v>
+      </c>
+      <c r="M123" t="s">
+        <v>609</v>
+      </c>
+      <c r="N123" t="s">
+        <v>615</v>
+      </c>
+      <c r="O123" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>136</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C124" t="s">
+        <v>144</v>
+      </c>
+      <c r="D124" t="s">
+        <v>173</v>
+      </c>
+      <c r="E124" t="s">
+        <v>174</v>
+      </c>
+      <c r="F124" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G124" t="s">
+        <v>326</v>
+      </c>
+      <c r="H124" t="s">
+        <v>444</v>
+      </c>
+      <c r="I124" t="s">
+        <v>447</v>
+      </c>
+      <c r="J124" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K124" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L124" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M124" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N124" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O124" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>137</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C125" t="s">
+        <v>144</v>
+      </c>
+      <c r="D125" t="s">
+        <v>173</v>
+      </c>
+      <c r="E125" t="s">
+        <v>174</v>
+      </c>
+      <c r="F125" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G125" t="s">
+        <v>327</v>
+      </c>
+      <c r="H125" t="s">
+        <v>445</v>
+      </c>
+      <c r="I125" t="s">
+        <v>533</v>
+      </c>
+      <c r="J125" t="n">
+        <v>-82.90141214040578</v>
+      </c>
+      <c r="K125" t="n">
+        <v>32.53487297350056</v>
+      </c>
+      <c r="L125" t="s">
+        <v>585</v>
+      </c>
+      <c r="M125" t="s">
+        <v>609</v>
+      </c>
+      <c r="N125" t="s">
+        <v>615</v>
+      </c>
+      <c r="O125" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>138</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C126" t="s">
+        <v>144</v>
+      </c>
+      <c r="D126" t="s">
+        <v>173</v>
+      </c>
+      <c r="E126" t="s">
+        <v>174</v>
+      </c>
+      <c r="F126" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G126" t="s">
+        <v>328</v>
+      </c>
+      <c r="H126" t="s">
+        <v>446</v>
+      </c>
+      <c r="I126" t="s">
+        <v>534</v>
+      </c>
+      <c r="J126" t="n">
+        <v>-82.90129544252753</v>
+      </c>
+      <c r="K126" t="n">
+        <v>32.534814221498706</v>
+      </c>
+      <c r="L126" t="s">
+        <v>585</v>
+      </c>
+      <c r="M126" t="s">
+        <v>609</v>
+      </c>
+      <c r="N126" t="s">
+        <v>615</v>
+      </c>
+      <c r="O126" t="s">
+        <v>652</v>
       </c>
     </row>
   </sheetData>

--- a/shiny_remaining_greenbook_addresses/greenbook_addresses.xlsx
+++ b/shiny_remaining_greenbook_addresses/greenbook_addresses.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="847">
   <si>
     <t>greenbook_edition</t>
   </si>
@@ -431,6 +431,129 @@
     <t>125</t>
   </si>
   <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
     <t>Alabama</t>
   </si>
   <si>
@@ -449,6 +572,12 @@
     <t>Georgia</t>
   </si>
   <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
     <t>Andalusia</t>
   </si>
   <si>
@@ -536,6 +665,42 @@
     <t>Dublin</t>
   </si>
   <si>
+    <t>Eastman</t>
+  </si>
+  <si>
+    <t>Greensboro</t>
+  </si>
+  <si>
+    <t>Macon</t>
+  </si>
+  <si>
+    <t>Savannah</t>
+  </si>
+  <si>
+    <t>Waycross</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>Danville</t>
+  </si>
+  <si>
+    <t>Springfield</t>
+  </si>
+  <si>
+    <t>Louisville</t>
+  </si>
+  <si>
+    <t>Mammoth Cave</t>
+  </si>
+  <si>
+    <t>Mt. Sterling</t>
+  </si>
+  <si>
+    <t>Paducah</t>
+  </si>
+  <si>
     <t>tourist</t>
   </si>
   <si>
@@ -566,6 +731,9 @@
     <t>service stations</t>
   </si>
   <si>
+    <t>other</t>
+  </si>
+  <si>
     <t>Mrs. Ed. Andrews</t>
   </si>
   <si>
@@ -650,6 +818,12 @@
     <t>Lowe’s Hotel</t>
   </si>
   <si>
+    <t>jerry cox trailer park</t>
+  </si>
+  <si>
+    <t>Brantsford</t>
+  </si>
+  <si>
     <t>69 N. Cotton St.</t>
   </si>
   <si>
@@ -1001,6 +1175,120 @@
     <t>405 S. Jefferson St.</t>
   </si>
   <si>
+    <t>211 College St.</t>
+  </si>
+  <si>
+    <t>408 Ist Ave.</t>
+  </si>
+  <si>
+    <t>Caanen Section</t>
+  </si>
+  <si>
+    <t>Railroad Sec.</t>
+  </si>
+  <si>
+    <t>Springfield Sec.</t>
+  </si>
+  <si>
+    <t>361-3 Broadway</t>
+  </si>
+  <si>
+    <t>319 Broadway</t>
+  </si>
+  <si>
+    <t>104 Spring St.</t>
+  </si>
+  <si>
+    <t>122 Spring St.</t>
+  </si>
+  <si>
+    <t>139 1st Ave.</t>
+  </si>
+  <si>
+    <t>108 Spring St</t>
+  </si>
+  <si>
+    <t>964 Renolds St.</t>
+  </si>
+  <si>
+    <t>843 Reynolds</t>
+  </si>
+  <si>
+    <t>3953 S. Michigan Ave.</t>
+  </si>
+  <si>
+    <t>51 St. Michigan Ave.</t>
+  </si>
+  <si>
+    <t>5048 S. Parkway</t>
+  </si>
+  <si>
+    <t>649 E. 37th.St.</t>
+  </si>
+  <si>
+    <t>3449 S. State St.</t>
+  </si>
+  <si>
+    <t>409 E. Oakwood Blvd.</t>
+  </si>
+  <si>
+    <t>6014 S. Park Ave.</t>
+  </si>
+  <si>
+    <t>409 Oakwood Blvd.</t>
+  </si>
+  <si>
+    <t>4259 S. Parkway</t>
+  </si>
+  <si>
+    <t>601 E. 36th St.</t>
+  </si>
+  <si>
+    <t>3763 S. Wabash Ave.</t>
+  </si>
+  <si>
+    <t>4559 S. Parkway</t>
+  </si>
+  <si>
+    <t>3942 Indiana Ave.</t>
+  </si>
+  <si>
+    <t>303 N. Pine St.</t>
+  </si>
+  <si>
+    <t>503 N. Poplar St.</t>
+  </si>
+  <si>
+    <t>120 N. Poplar St.</t>
+  </si>
+  <si>
+    <t>BH. North St.</t>
+  </si>
+  <si>
+    <t>130 S. 11th St.</t>
+  </si>
+  <si>
+    <t>2516 W. Madison</t>
+  </si>
+  <si>
+    <t>615 Walnut St.</t>
+  </si>
+  <si>
+    <t>528 S. Walnut St.</t>
+  </si>
+  <si>
+    <t>E. Locust St.</t>
+  </si>
+  <si>
+    <t>51l4 S, 8th St.</t>
+  </si>
+  <si>
+    <t>724 Jackson St.</t>
+  </si>
+  <si>
+    <t>805 Washington St.</t>
+  </si>
+  <si>
     <t>69 N. Cotton St., Andalusia, Alabama</t>
   </si>
   <si>
@@ -1355,6 +1643,126 @@
     <t>405 S. Jefferson St., Dublin, Georgia</t>
   </si>
   <si>
+    <t>211 College St., Eastman, Georgia</t>
+  </si>
+  <si>
+    <t>408 Ist Ave., Eastman, Georgia</t>
+  </si>
+  <si>
+    <t>Caanen Section, Greensboro, Georgia</t>
+  </si>
+  <si>
+    <t>Railroad Sec., Greensboro, Georgia</t>
+  </si>
+  <si>
+    <t>Springfield Sec., Greensboro, Georgia</t>
+  </si>
+  <si>
+    <t>361-3 Broadway, Macon, Georgia</t>
+  </si>
+  <si>
+    <t>319 Broadway, Macon, Georgia</t>
+  </si>
+  <si>
+    <t>104 Spring St., Macon, Georgia</t>
+  </si>
+  <si>
+    <t>122 Spring St., Macon, Georgia</t>
+  </si>
+  <si>
+    <t>139 1st Ave., Macon, Georgia</t>
+  </si>
+  <si>
+    <t>108 Spring St, Macon, Georgia</t>
+  </si>
+  <si>
+    <t>NA, Savannah, Georgia</t>
+  </si>
+  <si>
+    <t>964 Renolds St., Waycross, Georgia</t>
+  </si>
+  <si>
+    <t>843 Reynolds, Waycross, Georgia</t>
+  </si>
+  <si>
+    <t>3953 S. Michigan Ave., Chicago, Illinois</t>
+  </si>
+  <si>
+    <t>51 St. Michigan Ave., Chicago, Illinois</t>
+  </si>
+  <si>
+    <t>5048 S. Parkway, Chicago, Illinois</t>
+  </si>
+  <si>
+    <t>649 E. 37th.St., Chicago, Illinois</t>
+  </si>
+  <si>
+    <t>3449 S. State St., Chicago, Illinois</t>
+  </si>
+  <si>
+    <t>409 E. Oakwood Blvd., Chicago, Illinois</t>
+  </si>
+  <si>
+    <t>6014 S. Park Ave., Chicago, Illinois</t>
+  </si>
+  <si>
+    <t>409 Oakwood Blvd., Chicago, Illinois</t>
+  </si>
+  <si>
+    <t>4259 S. Parkway, Chicago, Illinois</t>
+  </si>
+  <si>
+    <t>601 E. 36th St., Chicago, Illinois</t>
+  </si>
+  <si>
+    <t>3763 S. Wabash Ave., Chicago, Illinois</t>
+  </si>
+  <si>
+    <t>4559 S. Parkway, Chicago, Illinois</t>
+  </si>
+  <si>
+    <t>3942 Indiana Ave., Chicago, Illinois</t>
+  </si>
+  <si>
+    <t>303 N. Pine St., Chicago, Illinois</t>
+  </si>
+  <si>
+    <t>503 N. Poplar St., Chicago, Illinois</t>
+  </si>
+  <si>
+    <t>120 N. Poplar St., Chicago, Illinois</t>
+  </si>
+  <si>
+    <t>BH. North St., Danville, Illinois</t>
+  </si>
+  <si>
+    <t>130 S. 11th St., Springfield, Illinois</t>
+  </si>
+  <si>
+    <t>2516 W. Madison, Louisville, Kentucky</t>
+  </si>
+  <si>
+    <t>615 Walnut St., Louisville, Kentucky</t>
+  </si>
+  <si>
+    <t>528 S. Walnut St., Louisville, Kentucky</t>
+  </si>
+  <si>
+    <t>NA, Mammoth Cave, Kentucky</t>
+  </si>
+  <si>
+    <t>E. Locust St., Mt. Sterling, Kentucky</t>
+  </si>
+  <si>
+    <t>51l4 S, 8th St., Paducah, Kentucky</t>
+  </si>
+  <si>
+    <t>724 Jackson St., Paducah, Kentucky</t>
+  </si>
+  <si>
+    <t>805 Washington St., Paducah, Kentucky</t>
+  </si>
+  <si>
     <t>[none found]</t>
   </si>
   <si>
@@ -1619,6 +2027,72 @@
     <t>405 S JEFFERSON ST, DUBLIN, GA, 31021</t>
   </si>
   <si>
+    <t>211 COLLEGE ST, EASTMAN, GA, 31023</t>
+  </si>
+  <si>
+    <t>361 BROADWAY, MACON, GA, 31201</t>
+  </si>
+  <si>
+    <t>319 BROADWAY, MACON, GA, 31201</t>
+  </si>
+  <si>
+    <t>104 SPRING ST, MACON, GA, 31201</t>
+  </si>
+  <si>
+    <t>122 SPRING ST, MACON, GA, 31201</t>
+  </si>
+  <si>
+    <t>139 1ST ST, MACON, GA, 31201</t>
+  </si>
+  <si>
+    <t>108 SPRING ST, MACON, GA, 31201</t>
+  </si>
+  <si>
+    <t>964 REYNOLDS ST, WAYCROSS, GA, 31501</t>
+  </si>
+  <si>
+    <t>843 REYNOLDS ST, WAYCROSS, GA, 31501</t>
+  </si>
+  <si>
+    <t>3953 S MICHIGAN AVE, CHICAGO, IL, 60653</t>
+  </si>
+  <si>
+    <t>51 N MICHIGAN AVE, CHICAGO, IL, 60602</t>
+  </si>
+  <si>
+    <t>649 E 37TH ST, CHICAGO, IL, 60653</t>
+  </si>
+  <si>
+    <t>3449 S STATE ST, CRETE, IL, 60417</t>
+  </si>
+  <si>
+    <t>409 E OAKWOOD BLVD, CHICAGO, IL, 60653</t>
+  </si>
+  <si>
+    <t>601 W 36TH ST, CHICAGO, IL, 60609</t>
+  </si>
+  <si>
+    <t>3763 S WABASH AVE, CHICAGO, IL, 60653</t>
+  </si>
+  <si>
+    <t>3942 S INDIANA AVE, CHICAGO, IL, 60653</t>
+  </si>
+  <si>
+    <t>130 S 11TH ST, SPRINGFIELD, IL, 62703</t>
+  </si>
+  <si>
+    <t>2516 W MADISON ST, LOUISVILLE, KY, 40211</t>
+  </si>
+  <si>
+    <t>528 WALNUT ST, W LOUISVILLE, KY, 42327</t>
+  </si>
+  <si>
+    <t>724 JACKSON ST, PADUCAH, KY, 42003</t>
+  </si>
+  <si>
+    <t>805 WASHINGTON ST, PADUCAH, KY, 42003</t>
+  </si>
+  <si>
     <t>17TH</t>
   </si>
   <si>
@@ -1766,12 +2240,57 @@
     <t>DECATUR</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>JEFFERSON</t>
   </si>
   <si>
+    <t>COLLEGE</t>
+  </si>
+  <si>
+    <t>BROADWAY</t>
+  </si>
+  <si>
+    <t>SPRING</t>
+  </si>
+  <si>
+    <t>1ST</t>
+  </si>
+  <si>
+    <t>REYNOLDS</t>
+  </si>
+  <si>
+    <t>MICHIGAN</t>
+  </si>
+  <si>
+    <t>37TH</t>
+  </si>
+  <si>
+    <t>STATE</t>
+  </si>
+  <si>
+    <t>OAKWOOD</t>
+  </si>
+  <si>
+    <t>36TH</t>
+  </si>
+  <si>
+    <t>WABASH</t>
+  </si>
+  <si>
+    <t>INDIANA</t>
+  </si>
+  <si>
+    <t>11TH</t>
+  </si>
+  <si>
+    <t>MADISON</t>
+  </si>
+  <si>
+    <t>WALNUT</t>
+  </si>
+  <si>
+    <t>WASHINGTON</t>
+  </si>
+  <si>
     <t>BIRMINGHAM</t>
   </si>
   <si>
@@ -1811,9 +2330,6 @@
     <t>WILMINGTON</t>
   </si>
   <si>
-    <t>WASHINGTON</t>
-  </si>
-  <si>
     <t>JACKSONVILLE</t>
   </si>
   <si>
@@ -1844,6 +2360,33 @@
     <t>DUBLIN</t>
   </si>
   <si>
+    <t>EASTMAN</t>
+  </si>
+  <si>
+    <t>MACON</t>
+  </si>
+  <si>
+    <t>WAYCROSS</t>
+  </si>
+  <si>
+    <t>CHICAGO</t>
+  </si>
+  <si>
+    <t>CRETE</t>
+  </si>
+  <si>
+    <t>SPRINGFIELD</t>
+  </si>
+  <si>
+    <t>LOUISVILLE</t>
+  </si>
+  <si>
+    <t>W LOUISVILLE</t>
+  </si>
+  <si>
+    <t>PADUCAH</t>
+  </si>
+  <si>
     <t>AL</t>
   </si>
   <si>
@@ -1862,6 +2405,12 @@
     <t>GA</t>
   </si>
   <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
     <t>35203</t>
   </si>
   <si>
@@ -1971,6 +2520,39 @@
   </si>
   <si>
     <t>31021</t>
+  </si>
+  <si>
+    <t>31023</t>
+  </si>
+  <si>
+    <t>31201</t>
+  </si>
+  <si>
+    <t>31501</t>
+  </si>
+  <si>
+    <t>60653</t>
+  </si>
+  <si>
+    <t>60602</t>
+  </si>
+  <si>
+    <t>60417</t>
+  </si>
+  <si>
+    <t>60609</t>
+  </si>
+  <si>
+    <t>62703</t>
+  </si>
+  <si>
+    <t>40211</t>
+  </si>
+  <si>
+    <t>42327</t>
+  </si>
+  <si>
+    <t>42003</t>
   </si>
 </sst>
 </file>
@@ -2074,25 +2656,25 @@
         <v>1938.0</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="E2" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F2" t="s">
-        <v>184</v>
+        <v>240</v>
       </c>
       <c r="G2" t="s">
-        <v>212</v>
+        <v>270</v>
       </c>
       <c r="H2" t="s">
-        <v>329</v>
+        <v>425</v>
       </c>
       <c r="I2" t="s">
-        <v>447</v>
+        <v>583</v>
       </c>
       <c r="J2" t="e">
         <v>#N/A</v>
@@ -2121,25 +2703,25 @@
         <v>1938.0</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="E3" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="F3" t="s">
-        <v>185</v>
+        <v>241</v>
       </c>
       <c r="G3" t="s">
-        <v>213</v>
+        <v>271</v>
       </c>
       <c r="H3" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="I3" t="s">
-        <v>448</v>
+        <v>584</v>
       </c>
       <c r="J3" t="n">
         <v>-86.8113150658676</v>
@@ -2148,16 +2730,16 @@
         <v>33.5143485707937</v>
       </c>
       <c r="L3" t="s">
-        <v>535</v>
+        <v>693</v>
       </c>
       <c r="M3" t="s">
-        <v>586</v>
+        <v>759</v>
       </c>
       <c r="N3" t="s">
-        <v>610</v>
+        <v>791</v>
       </c>
       <c r="O3" t="s">
-        <v>616</v>
+        <v>799</v>
       </c>
     </row>
     <row r="4">
@@ -2168,25 +2750,25 @@
         <v>1938.0</v>
       </c>
       <c r="C4" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="D4" t="s">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="E4" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="F4" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="G4" t="s">
-        <v>214</v>
+        <v>272</v>
       </c>
       <c r="H4" t="s">
-        <v>331</v>
+        <v>427</v>
       </c>
       <c r="I4" t="s">
-        <v>449</v>
+        <v>585</v>
       </c>
       <c r="J4" t="n">
         <v>-86.8290693868153</v>
@@ -2195,16 +2777,16 @@
         <v>33.5320444220056</v>
       </c>
       <c r="L4" t="s">
-        <v>536</v>
+        <v>694</v>
       </c>
       <c r="M4" t="s">
-        <v>586</v>
+        <v>759</v>
       </c>
       <c r="N4" t="s">
-        <v>610</v>
+        <v>791</v>
       </c>
       <c r="O4" t="s">
-        <v>617</v>
+        <v>800</v>
       </c>
     </row>
     <row r="5">
@@ -2215,25 +2797,25 @@
         <v>1938.0</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="D5" t="s">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="E5" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="F5" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="G5" t="s">
-        <v>215</v>
+        <v>273</v>
       </c>
       <c r="H5" t="s">
-        <v>332</v>
+        <v>428</v>
       </c>
       <c r="I5" t="s">
-        <v>450</v>
+        <v>586</v>
       </c>
       <c r="J5" t="n">
         <v>-86.8101998183382</v>
@@ -2242,16 +2824,16 @@
         <v>33.5154455727818</v>
       </c>
       <c r="L5" t="s">
-        <v>537</v>
+        <v>695</v>
       </c>
       <c r="M5" t="s">
-        <v>586</v>
+        <v>759</v>
       </c>
       <c r="N5" t="s">
-        <v>610</v>
+        <v>791</v>
       </c>
       <c r="O5" t="s">
-        <v>616</v>
+        <v>799</v>
       </c>
     </row>
     <row r="6">
@@ -2262,25 +2844,25 @@
         <v>1938.0</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="D6" t="s">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="E6" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="F6" t="s">
-        <v>188</v>
+        <v>244</v>
       </c>
       <c r="G6" t="s">
-        <v>216</v>
+        <v>274</v>
       </c>
       <c r="H6" t="s">
-        <v>333</v>
+        <v>429</v>
       </c>
       <c r="I6" t="s">
-        <v>451</v>
+        <v>587</v>
       </c>
       <c r="J6" t="n">
         <v>-86.8101943813631</v>
@@ -2289,16 +2871,16 @@
         <v>33.5154374173175</v>
       </c>
       <c r="L6" t="s">
-        <v>537</v>
+        <v>695</v>
       </c>
       <c r="M6" t="s">
-        <v>586</v>
+        <v>759</v>
       </c>
       <c r="N6" t="s">
-        <v>610</v>
+        <v>791</v>
       </c>
       <c r="O6" t="s">
-        <v>616</v>
+        <v>799</v>
       </c>
     </row>
     <row r="7">
@@ -2309,25 +2891,25 @@
         <v>1938.0</v>
       </c>
       <c r="C7" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="D7" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
       <c r="E7" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F7" t="s">
-        <v>189</v>
+        <v>245</v>
       </c>
       <c r="G7" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="H7" t="s">
-        <v>334</v>
+        <v>430</v>
       </c>
       <c r="I7" t="s">
-        <v>452</v>
+        <v>588</v>
       </c>
       <c r="J7" t="n">
         <v>-86.981936433337</v>
@@ -2336,16 +2918,16 @@
         <v>34.6118640107611</v>
       </c>
       <c r="L7" t="s">
-        <v>538</v>
+        <v>696</v>
       </c>
       <c r="M7" t="s">
-        <v>583</v>
+        <v>741</v>
       </c>
       <c r="N7" t="s">
-        <v>610</v>
+        <v>791</v>
       </c>
       <c r="O7" t="s">
-        <v>618</v>
+        <v>801</v>
       </c>
     </row>
     <row r="8">
@@ -2356,25 +2938,25 @@
         <v>1938.0</v>
       </c>
       <c r="C8" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="D8" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="E8" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="F8" t="s">
-        <v>190</v>
+        <v>246</v>
       </c>
       <c r="G8" t="s">
-        <v>218</v>
+        <v>276</v>
       </c>
       <c r="H8" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="I8" t="s">
-        <v>453</v>
+        <v>589</v>
       </c>
       <c r="J8" t="n">
         <v>-85.9687107717626</v>
@@ -2383,16 +2965,16 @@
         <v>33.9940141891079</v>
       </c>
       <c r="L8" t="s">
-        <v>539</v>
+        <v>697</v>
       </c>
       <c r="M8" t="s">
-        <v>587</v>
+        <v>760</v>
       </c>
       <c r="N8" t="s">
-        <v>610</v>
+        <v>791</v>
       </c>
       <c r="O8" t="s">
-        <v>619</v>
+        <v>802</v>
       </c>
     </row>
     <row r="9">
@@ -2403,25 +2985,25 @@
         <v>1938.0</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="D9" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="E9" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F9" t="s">
-        <v>191</v>
+        <v>247</v>
       </c>
       <c r="G9" t="s">
-        <v>219</v>
+        <v>277</v>
       </c>
       <c r="H9" t="s">
-        <v>336</v>
+        <v>432</v>
       </c>
       <c r="I9" t="s">
-        <v>454</v>
+        <v>590</v>
       </c>
       <c r="J9" t="n">
         <v>-86.0219558574387</v>
@@ -2430,16 +3012,16 @@
         <v>34.0151992985974</v>
       </c>
       <c r="L9" t="s">
-        <v>536</v>
+        <v>694</v>
       </c>
       <c r="M9" t="s">
-        <v>587</v>
+        <v>760</v>
       </c>
       <c r="N9" t="s">
-        <v>610</v>
+        <v>791</v>
       </c>
       <c r="O9" t="s">
-        <v>620</v>
+        <v>803</v>
       </c>
     </row>
     <row r="10">
@@ -2450,25 +3032,25 @@
         <v>1938.0</v>
       </c>
       <c r="C10" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="D10" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="E10" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F10" t="s">
-        <v>192</v>
+        <v>248</v>
       </c>
       <c r="G10" t="s">
-        <v>220</v>
+        <v>278</v>
       </c>
       <c r="H10" t="s">
-        <v>337</v>
+        <v>433</v>
       </c>
       <c r="I10" t="s">
-        <v>455</v>
+        <v>591</v>
       </c>
       <c r="J10" t="n">
         <v>-86.0222979270442</v>
@@ -2477,16 +3059,16 @@
         <v>34.0152022461397</v>
       </c>
       <c r="L10" t="s">
-        <v>536</v>
+        <v>694</v>
       </c>
       <c r="M10" t="s">
-        <v>587</v>
+        <v>760</v>
       </c>
       <c r="N10" t="s">
-        <v>610</v>
+        <v>791</v>
       </c>
       <c r="O10" t="s">
-        <v>620</v>
+        <v>803</v>
       </c>
     </row>
     <row r="11">
@@ -2497,25 +3079,25 @@
         <v>1938.0</v>
       </c>
       <c r="C11" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="D11" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="E11" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F11" t="s">
-        <v>193</v>
+        <v>249</v>
       </c>
       <c r="G11" t="s">
-        <v>221</v>
+        <v>279</v>
       </c>
       <c r="H11" t="s">
-        <v>338</v>
+        <v>434</v>
       </c>
       <c r="I11" t="s">
-        <v>456</v>
+        <v>592</v>
       </c>
       <c r="J11" t="n">
         <v>-86.0221098420977</v>
@@ -2524,16 +3106,16 @@
         <v>34.0150862358663</v>
       </c>
       <c r="L11" t="s">
-        <v>536</v>
+        <v>694</v>
       </c>
       <c r="M11" t="s">
-        <v>587</v>
+        <v>760</v>
       </c>
       <c r="N11" t="s">
-        <v>610</v>
+        <v>791</v>
       </c>
       <c r="O11" t="s">
-        <v>620</v>
+        <v>803</v>
       </c>
     </row>
     <row r="12">
@@ -2544,25 +3126,25 @@
         <v>1938.0</v>
       </c>
       <c r="C12" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="D12" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="E12" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F12" t="s">
-        <v>194</v>
+        <v>250</v>
       </c>
       <c r="G12" t="s">
-        <v>222</v>
+        <v>280</v>
       </c>
       <c r="H12" t="s">
-        <v>339</v>
+        <v>435</v>
       </c>
       <c r="I12" t="s">
-        <v>457</v>
+        <v>593</v>
       </c>
       <c r="J12" t="n">
         <v>-86.005031796993</v>
@@ -2571,16 +3153,16 @@
         <v>34.0175041515731</v>
       </c>
       <c r="L12" t="s">
-        <v>540</v>
+        <v>698</v>
       </c>
       <c r="M12" t="s">
-        <v>587</v>
+        <v>760</v>
       </c>
       <c r="N12" t="s">
-        <v>610</v>
+        <v>791</v>
       </c>
       <c r="O12" t="s">
-        <v>620</v>
+        <v>803</v>
       </c>
     </row>
     <row r="13">
@@ -2591,25 +3173,25 @@
         <v>1938.0</v>
       </c>
       <c r="C13" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="D13" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="E13" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F13" t="s">
-        <v>195</v>
+        <v>251</v>
       </c>
       <c r="G13" t="s">
-        <v>223</v>
+        <v>281</v>
       </c>
       <c r="H13" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="I13" t="s">
-        <v>447</v>
+        <v>583</v>
       </c>
       <c r="J13" t="e">
         <v>#N/A</v>
@@ -2638,25 +3220,25 @@
         <v>1938.0</v>
       </c>
       <c r="C14" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="D14" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="E14" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F14" t="s">
-        <v>196</v>
+        <v>252</v>
       </c>
       <c r="G14" t="s">
-        <v>223</v>
+        <v>281</v>
       </c>
       <c r="H14" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="I14" t="s">
-        <v>447</v>
+        <v>583</v>
       </c>
       <c r="J14" t="e">
         <v>#N/A</v>
@@ -2685,25 +3267,25 @@
         <v>1938.0</v>
       </c>
       <c r="C15" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="D15" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="E15" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F15" t="s">
-        <v>197</v>
+        <v>253</v>
       </c>
       <c r="G15" t="s">
-        <v>223</v>
+        <v>281</v>
       </c>
       <c r="H15" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="I15" t="s">
-        <v>447</v>
+        <v>583</v>
       </c>
       <c r="J15" t="e">
         <v>#N/A</v>
@@ -2732,25 +3314,25 @@
         <v>1938.0</v>
       </c>
       <c r="C16" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="D16" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="E16" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F16" t="s">
-        <v>198</v>
+        <v>254</v>
       </c>
       <c r="G16" t="s">
-        <v>224</v>
+        <v>282</v>
       </c>
       <c r="H16" t="s">
-        <v>341</v>
+        <v>437</v>
       </c>
       <c r="I16" t="s">
-        <v>458</v>
+        <v>594</v>
       </c>
       <c r="J16" t="n">
         <v>-88.0576867932334</v>
@@ -2759,16 +3341,16 @@
         <v>30.6960542804327</v>
       </c>
       <c r="L16" t="s">
-        <v>541</v>
+        <v>699</v>
       </c>
       <c r="M16" t="s">
-        <v>588</v>
+        <v>761</v>
       </c>
       <c r="N16" t="s">
-        <v>610</v>
+        <v>791</v>
       </c>
       <c r="O16" t="s">
-        <v>621</v>
+        <v>804</v>
       </c>
     </row>
     <row r="17">
@@ -2779,25 +3361,25 @@
         <v>1938.0</v>
       </c>
       <c r="C17" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="D17" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="E17" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F17" t="s">
-        <v>199</v>
+        <v>255</v>
       </c>
       <c r="G17" t="s">
-        <v>225</v>
+        <v>283</v>
       </c>
       <c r="H17" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="I17" t="s">
-        <v>459</v>
+        <v>595</v>
       </c>
       <c r="J17" t="n">
         <v>-88.0524129709915</v>
@@ -2806,16 +3388,16 @@
         <v>30.6935613534321</v>
       </c>
       <c r="L17" t="s">
-        <v>542</v>
+        <v>700</v>
       </c>
       <c r="M17" t="s">
-        <v>588</v>
+        <v>761</v>
       </c>
       <c r="N17" t="s">
-        <v>610</v>
+        <v>791</v>
       </c>
       <c r="O17" t="s">
-        <v>621</v>
+        <v>804</v>
       </c>
     </row>
     <row r="18">
@@ -2826,25 +3408,25 @@
         <v>1938.0</v>
       </c>
       <c r="C18" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="D18" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="E18" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F18" t="s">
-        <v>200</v>
+        <v>256</v>
       </c>
       <c r="G18" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="H18" t="s">
-        <v>343</v>
+        <v>439</v>
       </c>
       <c r="I18" t="s">
-        <v>460</v>
+        <v>596</v>
       </c>
       <c r="J18" t="n">
         <v>-88.0656567796014</v>
@@ -2853,16 +3435,16 @@
         <v>30.6976495325603</v>
       </c>
       <c r="L18" t="s">
-        <v>543</v>
+        <v>701</v>
       </c>
       <c r="M18" t="s">
-        <v>588</v>
+        <v>761</v>
       </c>
       <c r="N18" t="s">
-        <v>610</v>
+        <v>791</v>
       </c>
       <c r="O18" t="s">
-        <v>621</v>
+        <v>804</v>
       </c>
     </row>
     <row r="19">
@@ -2873,25 +3455,25 @@
         <v>1938.0</v>
       </c>
       <c r="C19" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="D19" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="E19" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="F19" t="s">
-        <v>201</v>
+        <v>257</v>
       </c>
       <c r="G19" t="s">
-        <v>227</v>
+        <v>285</v>
       </c>
       <c r="H19" t="s">
-        <v>344</v>
+        <v>440</v>
       </c>
       <c r="I19" t="s">
-        <v>447</v>
+        <v>583</v>
       </c>
       <c r="J19" t="e">
         <v>#N/A</v>
@@ -2920,25 +3502,25 @@
         <v>1938.0</v>
       </c>
       <c r="C20" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="D20" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="E20" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F20" t="s">
-        <v>202</v>
+        <v>258</v>
       </c>
       <c r="G20" t="s">
-        <v>228</v>
+        <v>286</v>
       </c>
       <c r="H20" t="s">
-        <v>345</v>
+        <v>441</v>
       </c>
       <c r="I20" t="s">
-        <v>447</v>
+        <v>583</v>
       </c>
       <c r="J20" t="e">
         <v>#N/A</v>
@@ -2967,25 +3549,25 @@
         <v>1938.0</v>
       </c>
       <c r="C21" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="D21" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="E21" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F21" t="s">
-        <v>203</v>
+        <v>259</v>
       </c>
       <c r="G21" t="s">
-        <v>229</v>
+        <v>287</v>
       </c>
       <c r="H21" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="I21" t="s">
-        <v>461</v>
+        <v>597</v>
       </c>
       <c r="J21" t="n">
         <v>-85.9677376311342</v>
@@ -2994,16 +3576,16 @@
         <v>31.8159372445166</v>
       </c>
       <c r="L21" t="s">
-        <v>544</v>
+        <v>702</v>
       </c>
       <c r="M21" t="s">
-        <v>589</v>
+        <v>762</v>
       </c>
       <c r="N21" t="s">
-        <v>610</v>
+        <v>791</v>
       </c>
       <c r="O21" t="s">
-        <v>622</v>
+        <v>805</v>
       </c>
     </row>
     <row r="22">
@@ -3014,25 +3596,25 @@
         <v>1938.0</v>
       </c>
       <c r="C22" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="D22" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="E22" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F22" t="s">
-        <v>204</v>
+        <v>260</v>
       </c>
       <c r="G22" t="s">
-        <v>230</v>
+        <v>288</v>
       </c>
       <c r="H22" t="s">
-        <v>347</v>
+        <v>443</v>
       </c>
       <c r="I22" t="s">
-        <v>447</v>
+        <v>583</v>
       </c>
       <c r="J22" t="e">
         <v>#N/A</v>
@@ -3061,25 +3643,25 @@
         <v>1938.0</v>
       </c>
       <c r="C23" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="D23" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="E23" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F23" t="s">
-        <v>205</v>
+        <v>261</v>
       </c>
       <c r="G23" t="s">
-        <v>231</v>
+        <v>289</v>
       </c>
       <c r="H23" t="s">
-        <v>348</v>
+        <v>444</v>
       </c>
       <c r="I23" t="s">
-        <v>462</v>
+        <v>598</v>
       </c>
       <c r="J23" t="n">
         <v>-87.5674198878895</v>
@@ -3088,16 +3670,16 @@
         <v>33.2027155164248</v>
       </c>
       <c r="L23" t="s">
-        <v>545</v>
+        <v>703</v>
       </c>
       <c r="M23" t="s">
-        <v>590</v>
+        <v>763</v>
       </c>
       <c r="N23" t="s">
-        <v>610</v>
+        <v>791</v>
       </c>
       <c r="O23" t="s">
-        <v>623</v>
+        <v>806</v>
       </c>
     </row>
     <row r="24">
@@ -3108,25 +3690,25 @@
         <v>1938.0</v>
       </c>
       <c r="C24" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="D24" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="E24" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F24" t="s">
-        <v>206</v>
+        <v>262</v>
       </c>
       <c r="G24" t="s">
-        <v>232</v>
+        <v>290</v>
       </c>
       <c r="H24" t="s">
-        <v>349</v>
+        <v>445</v>
       </c>
       <c r="I24" t="s">
-        <v>463</v>
+        <v>599</v>
       </c>
       <c r="J24" t="n">
         <v>-87.5765682130659</v>
@@ -3135,16 +3717,16 @@
         <v>33.2083686457691</v>
       </c>
       <c r="L24" t="s">
-        <v>546</v>
+        <v>704</v>
       </c>
       <c r="M24" t="s">
-        <v>590</v>
+        <v>763</v>
       </c>
       <c r="N24" t="s">
-        <v>610</v>
+        <v>791</v>
       </c>
       <c r="O24" t="s">
-        <v>623</v>
+        <v>806</v>
       </c>
     </row>
     <row r="25">
@@ -3155,25 +3737,25 @@
         <v>1938.0</v>
       </c>
       <c r="C25" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="D25" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="E25" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F25" t="s">
-        <v>207</v>
+        <v>263</v>
       </c>
       <c r="G25" t="s">
-        <v>233</v>
+        <v>291</v>
       </c>
       <c r="H25" t="s">
-        <v>350</v>
+        <v>446</v>
       </c>
       <c r="I25" t="s">
-        <v>464</v>
+        <v>600</v>
       </c>
       <c r="J25" t="n">
         <v>-87.5651479921732</v>
@@ -3182,16 +3764,16 @@
         <v>33.1997383053909</v>
       </c>
       <c r="L25" t="s">
-        <v>547</v>
+        <v>705</v>
       </c>
       <c r="M25" t="s">
-        <v>590</v>
+        <v>763</v>
       </c>
       <c r="N25" t="s">
-        <v>610</v>
+        <v>791</v>
       </c>
       <c r="O25" t="s">
-        <v>623</v>
+        <v>806</v>
       </c>
     </row>
     <row r="26">
@@ -3202,25 +3784,25 @@
         <v>1938.0</v>
       </c>
       <c r="C26" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="D26" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="E26" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F26" t="s">
-        <v>208</v>
+        <v>264</v>
       </c>
       <c r="G26" t="s">
-        <v>234</v>
+        <v>292</v>
       </c>
       <c r="H26" t="s">
-        <v>351</v>
+        <v>447</v>
       </c>
       <c r="I26" t="s">
-        <v>447</v>
+        <v>583</v>
       </c>
       <c r="J26" t="e">
         <v>#N/A</v>
@@ -3249,25 +3831,25 @@
         <v>1938.0</v>
       </c>
       <c r="C27" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="D27" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="E27" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="F27" t="e">
         <v>#N/A</v>
       </c>
       <c r="G27" t="s">
-        <v>235</v>
+        <v>293</v>
       </c>
       <c r="H27" t="s">
-        <v>352</v>
+        <v>448</v>
       </c>
       <c r="I27" t="s">
-        <v>465</v>
+        <v>601</v>
       </c>
       <c r="J27" t="n">
         <v>-73.1876041991036</v>
@@ -3276,16 +3858,16 @@
         <v>41.1697328006184</v>
       </c>
       <c r="L27" t="s">
-        <v>548</v>
+        <v>706</v>
       </c>
       <c r="M27" t="s">
-        <v>591</v>
+        <v>764</v>
       </c>
       <c r="N27" t="s">
-        <v>611</v>
+        <v>792</v>
       </c>
       <c r="O27" t="s">
-        <v>624</v>
+        <v>807</v>
       </c>
     </row>
     <row r="28">
@@ -3296,25 +3878,25 @@
         <v>1938.0</v>
       </c>
       <c r="C28" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="D28" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="E28" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F28" t="e">
         <v>#N/A</v>
       </c>
       <c r="G28" t="s">
-        <v>236</v>
+        <v>294</v>
       </c>
       <c r="H28" t="s">
-        <v>353</v>
+        <v>449</v>
       </c>
       <c r="I28" t="s">
-        <v>466</v>
+        <v>602</v>
       </c>
       <c r="J28" t="n">
         <v>-73.1425164223959</v>
@@ -3323,16 +3905,16 @@
         <v>41.199216796974</v>
       </c>
       <c r="L28" t="s">
-        <v>549</v>
+        <v>707</v>
       </c>
       <c r="M28" t="s">
-        <v>592</v>
+        <v>765</v>
       </c>
       <c r="N28" t="s">
-        <v>611</v>
+        <v>792</v>
       </c>
       <c r="O28" t="s">
-        <v>625</v>
+        <v>808</v>
       </c>
     </row>
     <row r="29">
@@ -3343,25 +3925,25 @@
         <v>1938.0</v>
       </c>
       <c r="C29" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="D29" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="E29" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F29" t="e">
         <v>#N/A</v>
       </c>
       <c r="G29" t="s">
-        <v>237</v>
+        <v>295</v>
       </c>
       <c r="H29" t="s">
-        <v>354</v>
+        <v>450</v>
       </c>
       <c r="I29" t="s">
-        <v>447</v>
+        <v>583</v>
       </c>
       <c r="J29" t="e">
         <v>#N/A</v>
@@ -3390,25 +3972,25 @@
         <v>1938.0</v>
       </c>
       <c r="C30" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="D30" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="E30" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F30" t="e">
         <v>#N/A</v>
       </c>
       <c r="G30" t="s">
-        <v>238</v>
+        <v>296</v>
       </c>
       <c r="H30" t="s">
-        <v>355</v>
+        <v>451</v>
       </c>
       <c r="I30" t="s">
-        <v>467</v>
+        <v>603</v>
       </c>
       <c r="J30" t="n">
         <v>-73.1748001242641</v>
@@ -3417,16 +3999,16 @@
         <v>41.1848421780769</v>
       </c>
       <c r="L30" t="s">
-        <v>538</v>
+        <v>696</v>
       </c>
       <c r="M30" t="s">
-        <v>591</v>
+        <v>764</v>
       </c>
       <c r="N30" t="s">
-        <v>611</v>
+        <v>792</v>
       </c>
       <c r="O30" t="s">
-        <v>626</v>
+        <v>809</v>
       </c>
     </row>
     <row r="31">
@@ -3437,25 +4019,25 @@
         <v>1938.0</v>
       </c>
       <c r="C31" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="D31" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="E31" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="F31" t="e">
         <v>#N/A</v>
       </c>
       <c r="G31" t="s">
-        <v>239</v>
+        <v>297</v>
       </c>
       <c r="H31" t="s">
-        <v>356</v>
+        <v>452</v>
       </c>
       <c r="I31" t="s">
-        <v>468</v>
+        <v>604</v>
       </c>
       <c r="J31" t="n">
         <v>-72.7194513427762</v>
@@ -3464,16 +4046,16 @@
         <v>41.6754278310956</v>
       </c>
       <c r="L31" t="s">
-        <v>550</v>
+        <v>708</v>
       </c>
       <c r="M31" t="s">
-        <v>593</v>
+        <v>766</v>
       </c>
       <c r="N31" t="s">
-        <v>611</v>
+        <v>792</v>
       </c>
       <c r="O31" t="s">
-        <v>627</v>
+        <v>810</v>
       </c>
     </row>
     <row r="32">
@@ -3484,25 +4066,25 @@
         <v>1938.0</v>
       </c>
       <c r="C32" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="D32" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="E32" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="F32" t="e">
         <v>#N/A</v>
       </c>
       <c r="G32" t="s">
-        <v>240</v>
+        <v>298</v>
       </c>
       <c r="H32" t="s">
-        <v>357</v>
+        <v>453</v>
       </c>
       <c r="I32" t="s">
-        <v>469</v>
+        <v>605</v>
       </c>
       <c r="J32" t="n">
         <v>-72.6759843367764</v>
@@ -3511,16 +4093,16 @@
         <v>41.7784449890697</v>
       </c>
       <c r="L32" t="s">
-        <v>551</v>
+        <v>709</v>
       </c>
       <c r="M32" t="s">
-        <v>593</v>
+        <v>766</v>
       </c>
       <c r="N32" t="s">
-        <v>611</v>
+        <v>792</v>
       </c>
       <c r="O32" t="s">
-        <v>628</v>
+        <v>811</v>
       </c>
     </row>
     <row r="33">
@@ -3531,25 +4113,25 @@
         <v>1938.0</v>
       </c>
       <c r="C33" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="D33" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="E33" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="F33" t="e">
         <v>#N/A</v>
       </c>
       <c r="G33" t="s">
-        <v>241</v>
+        <v>299</v>
       </c>
       <c r="H33" t="s">
-        <v>358</v>
+        <v>454</v>
       </c>
       <c r="I33" t="s">
-        <v>447</v>
+        <v>583</v>
       </c>
       <c r="J33" t="e">
         <v>#N/A</v>
@@ -3578,25 +4160,25 @@
         <v>1938.0</v>
       </c>
       <c r="C34" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="D34" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="E34" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="F34" t="e">
         <v>#N/A</v>
       </c>
       <c r="G34" t="s">
-        <v>242</v>
+        <v>300</v>
       </c>
       <c r="H34" t="s">
-        <v>359</v>
+        <v>455</v>
       </c>
       <c r="I34" t="s">
-        <v>470</v>
+        <v>606</v>
       </c>
       <c r="J34" t="n">
         <v>-72.9329460076841</v>
@@ -3605,16 +4187,16 @@
         <v>41.3169568176862</v>
       </c>
       <c r="L34" t="s">
-        <v>552</v>
+        <v>710</v>
       </c>
       <c r="M34" t="s">
-        <v>594</v>
+        <v>767</v>
       </c>
       <c r="N34" t="s">
-        <v>611</v>
+        <v>792</v>
       </c>
       <c r="O34" t="s">
-        <v>629</v>
+        <v>812</v>
       </c>
     </row>
     <row r="35">
@@ -3625,25 +4207,25 @@
         <v>1938.0</v>
       </c>
       <c r="C35" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="D35" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="E35" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="F35" t="e">
         <v>#N/A</v>
       </c>
       <c r="G35" t="s">
-        <v>243</v>
+        <v>301</v>
       </c>
       <c r="H35" t="s">
-        <v>360</v>
+        <v>456</v>
       </c>
       <c r="I35" t="s">
-        <v>471</v>
+        <v>607</v>
       </c>
       <c r="J35" t="n">
         <v>-72.9283382677717</v>
@@ -3652,16 +4234,16 @@
         <v>41.3180050633791</v>
       </c>
       <c r="L35" t="s">
-        <v>553</v>
+        <v>711</v>
       </c>
       <c r="M35" t="s">
-        <v>594</v>
+        <v>767</v>
       </c>
       <c r="N35" t="s">
-        <v>611</v>
+        <v>792</v>
       </c>
       <c r="O35" t="s">
-        <v>629</v>
+        <v>812</v>
       </c>
     </row>
     <row r="36">
@@ -3672,25 +4254,25 @@
         <v>1938.0</v>
       </c>
       <c r="C36" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="D36" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="E36" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F36" t="e">
         <v>#N/A</v>
       </c>
       <c r="G36" t="s">
-        <v>244</v>
+        <v>302</v>
       </c>
       <c r="H36" t="s">
-        <v>361</v>
+        <v>457</v>
       </c>
       <c r="I36" t="s">
-        <v>472</v>
+        <v>608</v>
       </c>
       <c r="J36" t="n">
         <v>-72.9326610116185</v>
@@ -3699,16 +4281,16 @@
         <v>41.3148333595736</v>
       </c>
       <c r="L36" t="s">
-        <v>554</v>
+        <v>712</v>
       </c>
       <c r="M36" t="s">
-        <v>594</v>
+        <v>767</v>
       </c>
       <c r="N36" t="s">
-        <v>611</v>
+        <v>792</v>
       </c>
       <c r="O36" t="s">
-        <v>629</v>
+        <v>812</v>
       </c>
     </row>
     <row r="37">
@@ -3719,25 +4301,25 @@
         <v>1938.0</v>
       </c>
       <c r="C37" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="D37" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="E37" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F37" t="e">
         <v>#N/A</v>
       </c>
       <c r="G37" t="s">
-        <v>245</v>
+        <v>303</v>
       </c>
       <c r="H37" t="s">
-        <v>362</v>
+        <v>458</v>
       </c>
       <c r="I37" t="s">
-        <v>473</v>
+        <v>609</v>
       </c>
       <c r="J37" t="n">
         <v>-72.9327409415411</v>
@@ -3746,16 +4328,16 @@
         <v>41.3145692903558</v>
       </c>
       <c r="L37" t="s">
-        <v>554</v>
+        <v>712</v>
       </c>
       <c r="M37" t="s">
-        <v>594</v>
+        <v>767</v>
       </c>
       <c r="N37" t="s">
-        <v>611</v>
+        <v>792</v>
       </c>
       <c r="O37" t="s">
-        <v>629</v>
+        <v>812</v>
       </c>
     </row>
     <row r="38">
@@ -3766,25 +4348,25 @@
         <v>1938.0</v>
       </c>
       <c r="C38" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="D38" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="E38" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F38" t="e">
         <v>#N/A</v>
       </c>
       <c r="G38" t="s">
-        <v>246</v>
+        <v>304</v>
       </c>
       <c r="H38" t="s">
-        <v>363</v>
+        <v>459</v>
       </c>
       <c r="I38" t="s">
-        <v>474</v>
+        <v>610</v>
       </c>
       <c r="J38" t="n">
         <v>-72.9327952927716</v>
@@ -3793,16 +4375,16 @@
         <v>41.3147577080202</v>
       </c>
       <c r="L38" t="s">
-        <v>554</v>
+        <v>712</v>
       </c>
       <c r="M38" t="s">
-        <v>594</v>
+        <v>767</v>
       </c>
       <c r="N38" t="s">
-        <v>611</v>
+        <v>792</v>
       </c>
       <c r="O38" t="s">
-        <v>629</v>
+        <v>812</v>
       </c>
     </row>
     <row r="39">
@@ -3813,25 +4395,25 @@
         <v>1938.0</v>
       </c>
       <c r="C39" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="D39" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="E39" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F39" t="e">
         <v>#N/A</v>
       </c>
       <c r="G39" t="s">
-        <v>247</v>
+        <v>305</v>
       </c>
       <c r="H39" t="s">
-        <v>364</v>
+        <v>460</v>
       </c>
       <c r="I39" t="s">
-        <v>447</v>
+        <v>583</v>
       </c>
       <c r="J39" t="e">
         <v>#N/A</v>
@@ -3860,25 +4442,25 @@
         <v>1938.0</v>
       </c>
       <c r="C40" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="D40" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="E40" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F40" t="e">
         <v>#N/A</v>
       </c>
       <c r="G40" t="s">
-        <v>248</v>
+        <v>306</v>
       </c>
       <c r="H40" t="s">
-        <v>365</v>
+        <v>461</v>
       </c>
       <c r="I40" t="s">
-        <v>475</v>
+        <v>611</v>
       </c>
       <c r="J40" t="n">
         <v>-72.0989248920093</v>
@@ -3887,16 +4469,16 @@
         <v>41.3514720716549</v>
       </c>
       <c r="L40" t="s">
-        <v>555</v>
+        <v>713</v>
       </c>
       <c r="M40" t="s">
-        <v>595</v>
+        <v>768</v>
       </c>
       <c r="N40" t="s">
-        <v>611</v>
+        <v>792</v>
       </c>
       <c r="O40" t="s">
-        <v>630</v>
+        <v>813</v>
       </c>
     </row>
     <row r="41">
@@ -3907,25 +4489,25 @@
         <v>1938.0</v>
       </c>
       <c r="C41" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="D41" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="E41" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F41" t="e">
         <v>#N/A</v>
       </c>
       <c r="G41" t="s">
-        <v>249</v>
+        <v>307</v>
       </c>
       <c r="H41" t="s">
-        <v>366</v>
+        <v>462</v>
       </c>
       <c r="I41" t="s">
-        <v>447</v>
+        <v>583</v>
       </c>
       <c r="J41" t="e">
         <v>#N/A</v>
@@ -3954,25 +4536,25 @@
         <v>1938.0</v>
       </c>
       <c r="C42" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="D42" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="E42" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F42" t="e">
         <v>#N/A</v>
       </c>
       <c r="G42" t="s">
-        <v>250</v>
+        <v>308</v>
       </c>
       <c r="H42" t="s">
-        <v>367</v>
+        <v>463</v>
       </c>
       <c r="I42" t="s">
-        <v>476</v>
+        <v>612</v>
       </c>
       <c r="J42" t="n">
         <v>-72.1036935417646</v>
@@ -3981,16 +4563,16 @@
         <v>41.354739888483</v>
       </c>
       <c r="L42" t="s">
-        <v>556</v>
+        <v>714</v>
       </c>
       <c r="M42" t="s">
-        <v>595</v>
+        <v>768</v>
       </c>
       <c r="N42" t="s">
-        <v>611</v>
+        <v>792</v>
       </c>
       <c r="O42" t="s">
-        <v>630</v>
+        <v>813</v>
       </c>
     </row>
     <row r="43">
@@ -4001,25 +4583,25 @@
         <v>1938.0</v>
       </c>
       <c r="C43" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="D43" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="E43" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F43" t="e">
         <v>#N/A</v>
       </c>
       <c r="G43" t="s">
-        <v>251</v>
+        <v>309</v>
       </c>
       <c r="H43" t="s">
-        <v>368</v>
+        <v>464</v>
       </c>
       <c r="I43" t="s">
-        <v>477</v>
+        <v>613</v>
       </c>
       <c r="J43" t="n">
         <v>-72.0945531299749</v>
@@ -4028,16 +4610,16 @@
         <v>41.3529769238668</v>
       </c>
       <c r="L43" t="s">
-        <v>557</v>
+        <v>715</v>
       </c>
       <c r="M43" t="s">
-        <v>595</v>
+        <v>768</v>
       </c>
       <c r="N43" t="s">
-        <v>611</v>
+        <v>792</v>
       </c>
       <c r="O43" t="s">
-        <v>630</v>
+        <v>813</v>
       </c>
     </row>
     <row r="44">
@@ -4048,25 +4630,25 @@
         <v>1938.0</v>
       </c>
       <c r="C44" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="D44" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="E44" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F44" t="e">
         <v>#N/A</v>
       </c>
       <c r="G44" t="s">
-        <v>252</v>
+        <v>310</v>
       </c>
       <c r="H44" t="s">
-        <v>369</v>
+        <v>465</v>
       </c>
       <c r="I44" t="s">
-        <v>478</v>
+        <v>614</v>
       </c>
       <c r="J44" t="n">
         <v>-72.1061310964387</v>
@@ -4075,16 +4657,16 @@
         <v>41.3491636454073</v>
       </c>
       <c r="L44" t="s">
-        <v>557</v>
+        <v>715</v>
       </c>
       <c r="M44" t="s">
-        <v>595</v>
+        <v>768</v>
       </c>
       <c r="N44" t="s">
-        <v>611</v>
+        <v>792</v>
       </c>
       <c r="O44" t="s">
-        <v>630</v>
+        <v>813</v>
       </c>
     </row>
     <row r="45">
@@ -4095,25 +4677,25 @@
         <v>1938.0</v>
       </c>
       <c r="C45" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="D45" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="E45" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="F45" t="e">
         <v>#N/A</v>
       </c>
       <c r="G45" t="s">
-        <v>253</v>
+        <v>311</v>
       </c>
       <c r="H45" t="s">
-        <v>370</v>
+        <v>466</v>
       </c>
       <c r="I45" t="s">
-        <v>447</v>
+        <v>583</v>
       </c>
       <c r="J45" t="e">
         <v>#N/A</v>
@@ -4142,25 +4724,25 @@
         <v>1938.0</v>
       </c>
       <c r="C46" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="D46" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="E46" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="F46" t="e">
         <v>#N/A</v>
       </c>
       <c r="G46" t="s">
-        <v>254</v>
+        <v>312</v>
       </c>
       <c r="H46" t="s">
-        <v>371</v>
+        <v>467</v>
       </c>
       <c r="I46" t="s">
-        <v>479</v>
+        <v>615</v>
       </c>
       <c r="J46" t="n">
         <v>-73.5435350440446</v>
@@ -4169,16 +4751,16 @@
         <v>41.0437896616415</v>
       </c>
       <c r="L46" t="s">
-        <v>558</v>
+        <v>716</v>
       </c>
       <c r="M46" t="s">
-        <v>596</v>
+        <v>769</v>
       </c>
       <c r="N46" t="s">
-        <v>611</v>
+        <v>792</v>
       </c>
       <c r="O46" t="s">
-        <v>631</v>
+        <v>814</v>
       </c>
     </row>
     <row r="47">
@@ -4189,25 +4771,25 @@
         <v>1938.0</v>
       </c>
       <c r="C47" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="D47" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
       <c r="E47" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F47" t="e">
         <v>#N/A</v>
       </c>
       <c r="G47" t="s">
-        <v>255</v>
+        <v>313</v>
       </c>
       <c r="H47" t="s">
-        <v>372</v>
+        <v>468</v>
       </c>
       <c r="I47" t="s">
-        <v>480</v>
+        <v>616</v>
       </c>
       <c r="J47" t="n">
         <v>-73.0360400989091</v>
@@ -4216,16 +4798,16 @@
         <v>41.5612899305374</v>
       </c>
       <c r="L47" t="s">
-        <v>559</v>
+        <v>717</v>
       </c>
       <c r="M47" t="s">
-        <v>597</v>
+        <v>770</v>
       </c>
       <c r="N47" t="s">
-        <v>611</v>
+        <v>792</v>
       </c>
       <c r="O47" t="s">
-        <v>632</v>
+        <v>815</v>
       </c>
     </row>
     <row r="48">
@@ -4236,25 +4818,25 @@
         <v>1938.0</v>
       </c>
       <c r="C48" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="D48" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
       <c r="E48" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F48" t="e">
         <v>#N/A</v>
       </c>
       <c r="G48" t="s">
-        <v>256</v>
+        <v>314</v>
       </c>
       <c r="H48" t="s">
-        <v>373</v>
+        <v>469</v>
       </c>
       <c r="I48" t="s">
-        <v>447</v>
+        <v>583</v>
       </c>
       <c r="J48" t="e">
         <v>#N/A</v>
@@ -4283,25 +4865,25 @@
         <v>1938.0</v>
       </c>
       <c r="C49" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="D49" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
       <c r="E49" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F49" t="e">
         <v>#N/A</v>
       </c>
       <c r="G49" t="s">
-        <v>257</v>
+        <v>315</v>
       </c>
       <c r="H49" t="s">
-        <v>374</v>
+        <v>470</v>
       </c>
       <c r="I49" t="s">
-        <v>447</v>
+        <v>583</v>
       </c>
       <c r="J49" t="e">
         <v>#N/A</v>
@@ -4330,25 +4912,25 @@
         <v>1938.0</v>
       </c>
       <c r="C50" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="D50" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
       <c r="E50" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F50" t="e">
         <v>#N/A</v>
       </c>
       <c r="G50" t="s">
-        <v>258</v>
+        <v>316</v>
       </c>
       <c r="H50" t="s">
-        <v>375</v>
+        <v>471</v>
       </c>
       <c r="I50" t="s">
-        <v>481</v>
+        <v>617</v>
       </c>
       <c r="J50" t="n">
         <v>-73.037910401171</v>
@@ -4357,16 +4939,16 @@
         <v>41.5632588753159</v>
       </c>
       <c r="L50" t="s">
-        <v>560</v>
+        <v>718</v>
       </c>
       <c r="M50" t="s">
-        <v>597</v>
+        <v>770</v>
       </c>
       <c r="N50" t="s">
-        <v>611</v>
+        <v>792</v>
       </c>
       <c r="O50" t="s">
-        <v>632</v>
+        <v>815</v>
       </c>
     </row>
     <row r="51">
@@ -4377,25 +4959,25 @@
         <v>1938.0</v>
       </c>
       <c r="C51" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="D51" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
       <c r="E51" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F51" t="e">
         <v>#N/A</v>
       </c>
       <c r="G51" t="s">
-        <v>259</v>
+        <v>317</v>
       </c>
       <c r="H51" t="s">
-        <v>376</v>
+        <v>472</v>
       </c>
       <c r="I51" t="s">
-        <v>482</v>
+        <v>618</v>
       </c>
       <c r="J51" t="n">
         <v>-73.0381966494124</v>
@@ -4404,16 +4986,16 @@
         <v>41.5637429063891</v>
       </c>
       <c r="L51" t="s">
-        <v>560</v>
+        <v>718</v>
       </c>
       <c r="M51" t="s">
-        <v>597</v>
+        <v>770</v>
       </c>
       <c r="N51" t="s">
-        <v>611</v>
+        <v>792</v>
       </c>
       <c r="O51" t="s">
-        <v>632</v>
+        <v>815</v>
       </c>
     </row>
     <row r="52">
@@ -4424,25 +5006,25 @@
         <v>1938.0</v>
       </c>
       <c r="C52" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="D52" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
       <c r="E52" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F52" t="e">
         <v>#N/A</v>
       </c>
       <c r="G52" t="s">
-        <v>260</v>
+        <v>318</v>
       </c>
       <c r="H52" t="s">
-        <v>377</v>
+        <v>473</v>
       </c>
       <c r="I52" t="s">
-        <v>483</v>
+        <v>619</v>
       </c>
       <c r="J52" t="n">
         <v>-73.0376709561135</v>
@@ -4451,16 +5033,16 @@
         <v>41.562421005866</v>
       </c>
       <c r="L52" t="s">
-        <v>560</v>
+        <v>718</v>
       </c>
       <c r="M52" t="s">
-        <v>597</v>
+        <v>770</v>
       </c>
       <c r="N52" t="s">
-        <v>611</v>
+        <v>792</v>
       </c>
       <c r="O52" t="s">
-        <v>632</v>
+        <v>815</v>
       </c>
     </row>
     <row r="53">
@@ -4471,25 +5053,25 @@
         <v>1938.0</v>
       </c>
       <c r="C53" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="D53" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
       <c r="E53" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F53" t="e">
         <v>#N/A</v>
       </c>
       <c r="G53" t="s">
-        <v>261</v>
+        <v>319</v>
       </c>
       <c r="H53" t="s">
-        <v>378</v>
+        <v>474</v>
       </c>
       <c r="I53" t="s">
-        <v>484</v>
+        <v>620</v>
       </c>
       <c r="J53" t="n">
         <v>-73.0375883408498</v>
@@ -4498,16 +5080,16 @@
         <v>41.5616483994562</v>
       </c>
       <c r="L53" t="s">
-        <v>560</v>
+        <v>718</v>
       </c>
       <c r="M53" t="s">
-        <v>597</v>
+        <v>770</v>
       </c>
       <c r="N53" t="s">
-        <v>611</v>
+        <v>792</v>
       </c>
       <c r="O53" t="s">
-        <v>632</v>
+        <v>815</v>
       </c>
     </row>
     <row r="54">
@@ -4518,25 +5100,25 @@
         <v>1938.0</v>
       </c>
       <c r="C54" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="D54" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
       <c r="E54" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F54" t="e">
         <v>#N/A</v>
       </c>
       <c r="G54" t="s">
-        <v>262</v>
+        <v>320</v>
       </c>
       <c r="H54" t="s">
-        <v>379</v>
+        <v>475</v>
       </c>
       <c r="I54" t="s">
-        <v>485</v>
+        <v>621</v>
       </c>
       <c r="J54" t="n">
         <v>-73.0375001536833</v>
@@ -4545,16 +5127,16 @@
         <v>41.5623010119887</v>
       </c>
       <c r="L54" t="s">
-        <v>560</v>
+        <v>718</v>
       </c>
       <c r="M54" t="s">
-        <v>597</v>
+        <v>770</v>
       </c>
       <c r="N54" t="s">
-        <v>611</v>
+        <v>792</v>
       </c>
       <c r="O54" t="s">
-        <v>632</v>
+        <v>815</v>
       </c>
     </row>
     <row r="55">
@@ -4565,25 +5147,25 @@
         <v>1938.0</v>
       </c>
       <c r="C55" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="D55" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="E55" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="F55" t="e">
         <v>#N/A</v>
       </c>
       <c r="G55" t="s">
-        <v>263</v>
+        <v>321</v>
       </c>
       <c r="H55" t="s">
-        <v>380</v>
+        <v>476</v>
       </c>
       <c r="I55" t="s">
-        <v>447</v>
+        <v>583</v>
       </c>
       <c r="J55" t="e">
         <v>#N/A</v>
@@ -4612,25 +5194,25 @@
         <v>1938.0</v>
       </c>
       <c r="C56" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="D56" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="E56" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="F56" t="e">
         <v>#N/A</v>
       </c>
       <c r="G56" t="s">
-        <v>264</v>
+        <v>322</v>
       </c>
       <c r="H56" t="s">
-        <v>381</v>
+        <v>477</v>
       </c>
       <c r="I56" t="s">
-        <v>447</v>
+        <v>583</v>
       </c>
       <c r="J56" t="e">
         <v>#N/A</v>
@@ -4659,25 +5241,25 @@
         <v>1938.0</v>
       </c>
       <c r="C57" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="D57" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="E57" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="F57" t="e">
         <v>#N/A</v>
       </c>
       <c r="G57" t="s">
-        <v>265</v>
+        <v>323</v>
       </c>
       <c r="H57" t="s">
-        <v>382</v>
+        <v>478</v>
       </c>
       <c r="I57" t="s">
-        <v>447</v>
+        <v>583</v>
       </c>
       <c r="J57" t="e">
         <v>#N/A</v>
@@ -4706,25 +5288,25 @@
         <v>1938.0</v>
       </c>
       <c r="C58" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="D58" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="E58" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="F58" t="e">
         <v>#N/A</v>
       </c>
       <c r="G58" t="s">
-        <v>266</v>
+        <v>324</v>
       </c>
       <c r="H58" t="s">
-        <v>383</v>
+        <v>479</v>
       </c>
       <c r="I58" t="s">
-        <v>447</v>
+        <v>583</v>
       </c>
       <c r="J58" t="e">
         <v>#N/A</v>
@@ -4753,25 +5335,25 @@
         <v>1938.0</v>
       </c>
       <c r="C59" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="D59" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="E59" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="F59" t="s">
-        <v>209</v>
+        <v>265</v>
       </c>
       <c r="G59" t="s">
-        <v>264</v>
+        <v>322</v>
       </c>
       <c r="H59" t="s">
-        <v>381</v>
+        <v>477</v>
       </c>
       <c r="I59" t="s">
-        <v>447</v>
+        <v>583</v>
       </c>
       <c r="J59" t="e">
         <v>#N/A</v>
@@ -4800,25 +5382,25 @@
         <v>1938.0</v>
       </c>
       <c r="C60" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="D60" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="E60" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="F60" t="s">
-        <v>210</v>
+        <v>266</v>
       </c>
       <c r="G60" t="s">
-        <v>264</v>
+        <v>322</v>
       </c>
       <c r="H60" t="s">
-        <v>381</v>
+        <v>477</v>
       </c>
       <c r="I60" t="s">
-        <v>447</v>
+        <v>583</v>
       </c>
       <c r="J60" t="e">
         <v>#N/A</v>
@@ -4847,25 +5429,25 @@
         <v>1938.0</v>
       </c>
       <c r="C61" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="D61" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="E61" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="F61" t="e">
         <v>#N/A</v>
       </c>
       <c r="G61" t="s">
-        <v>265</v>
+        <v>323</v>
       </c>
       <c r="H61" t="s">
-        <v>382</v>
+        <v>478</v>
       </c>
       <c r="I61" t="s">
-        <v>447</v>
+        <v>583</v>
       </c>
       <c r="J61" t="e">
         <v>#N/A</v>
@@ -4894,25 +5476,25 @@
         <v>1938.0</v>
       </c>
       <c r="C62" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="D62" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="E62" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F62" t="e">
         <v>#N/A</v>
       </c>
       <c r="G62" t="s">
-        <v>267</v>
+        <v>325</v>
       </c>
       <c r="H62" t="s">
-        <v>384</v>
+        <v>480</v>
       </c>
       <c r="I62" t="s">
-        <v>486</v>
+        <v>622</v>
       </c>
       <c r="J62" t="n">
         <v>-75.5493300113921</v>
@@ -4921,16 +5503,16 @@
         <v>39.7474398054402</v>
       </c>
       <c r="L62" t="s">
-        <v>561</v>
+        <v>719</v>
       </c>
       <c r="M62" t="s">
-        <v>598</v>
+        <v>771</v>
       </c>
       <c r="N62" t="s">
-        <v>612</v>
+        <v>793</v>
       </c>
       <c r="O62" t="s">
-        <v>633</v>
+        <v>816</v>
       </c>
     </row>
     <row r="63">
@@ -4941,25 +5523,25 @@
         <v>1938.0</v>
       </c>
       <c r="C63" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="D63" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="E63" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F63" t="e">
         <v>#N/A</v>
       </c>
       <c r="G63" t="s">
-        <v>268</v>
+        <v>326</v>
       </c>
       <c r="H63" t="s">
-        <v>385</v>
+        <v>481</v>
       </c>
       <c r="I63" t="s">
-        <v>487</v>
+        <v>623</v>
       </c>
       <c r="J63" t="n">
         <v>-75.548033259881</v>
@@ -4968,16 +5550,16 @@
         <v>39.7478471710777</v>
       </c>
       <c r="L63" t="s">
-        <v>545</v>
+        <v>703</v>
       </c>
       <c r="M63" t="s">
-        <v>598</v>
+        <v>771</v>
       </c>
       <c r="N63" t="s">
-        <v>612</v>
+        <v>793</v>
       </c>
       <c r="O63" t="s">
-        <v>633</v>
+        <v>816</v>
       </c>
     </row>
     <row r="64">
@@ -4988,25 +5570,25 @@
         <v>1938.0</v>
       </c>
       <c r="C64" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="D64" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="E64" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F64" t="e">
         <v>#N/A</v>
       </c>
       <c r="G64" t="s">
-        <v>269</v>
+        <v>327</v>
       </c>
       <c r="H64" t="s">
-        <v>386</v>
+        <v>482</v>
       </c>
       <c r="I64" t="s">
-        <v>488</v>
+        <v>624</v>
       </c>
       <c r="J64" t="n">
         <v>-75.5459142852752</v>
@@ -5015,16 +5597,16 @@
         <v>39.7449178629458</v>
       </c>
       <c r="L64" t="s">
-        <v>562</v>
+        <v>720</v>
       </c>
       <c r="M64" t="s">
-        <v>598</v>
+        <v>771</v>
       </c>
       <c r="N64" t="s">
-        <v>612</v>
+        <v>793</v>
       </c>
       <c r="O64" t="s">
-        <v>633</v>
+        <v>816</v>
       </c>
     </row>
     <row r="65">
@@ -5035,25 +5617,25 @@
         <v>1938.0</v>
       </c>
       <c r="C65" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="D65" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="E65" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F65" t="e">
         <v>#N/A</v>
       </c>
       <c r="G65" t="s">
-        <v>270</v>
+        <v>328</v>
       </c>
       <c r="H65" t="s">
-        <v>387</v>
+        <v>483</v>
       </c>
       <c r="I65" t="s">
-        <v>489</v>
+        <v>625</v>
       </c>
       <c r="J65" t="n">
         <v>-75.5481252777236</v>
@@ -5062,16 +5644,16 @@
         <v>39.7494633757811</v>
       </c>
       <c r="L65" t="s">
-        <v>561</v>
+        <v>719</v>
       </c>
       <c r="M65" t="s">
-        <v>598</v>
+        <v>771</v>
       </c>
       <c r="N65" t="s">
-        <v>612</v>
+        <v>793</v>
       </c>
       <c r="O65" t="s">
-        <v>633</v>
+        <v>816</v>
       </c>
     </row>
     <row r="66">
@@ -5082,25 +5664,25 @@
         <v>1938.0</v>
       </c>
       <c r="C66" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="D66" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="E66" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="F66" t="e">
         <v>#N/A</v>
       </c>
       <c r="G66" t="s">
-        <v>271</v>
+        <v>329</v>
       </c>
       <c r="H66" t="s">
-        <v>388</v>
+        <v>484</v>
       </c>
       <c r="I66" t="s">
-        <v>447</v>
+        <v>583</v>
       </c>
       <c r="J66" t="e">
         <v>#N/A</v>
@@ -5129,25 +5711,25 @@
         <v>1938.0</v>
       </c>
       <c r="C67" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="D67" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="E67" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="F67" t="e">
         <v>#N/A</v>
       </c>
       <c r="G67" t="s">
-        <v>272</v>
+        <v>330</v>
       </c>
       <c r="H67" t="s">
-        <v>389</v>
+        <v>485</v>
       </c>
       <c r="I67" t="s">
-        <v>490</v>
+        <v>626</v>
       </c>
       <c r="J67" t="n">
         <v>-77.0295470698206</v>
@@ -5156,16 +5738,16 @@
         <v>38.914479329056</v>
       </c>
       <c r="L67" t="s">
-        <v>563</v>
+        <v>721</v>
       </c>
       <c r="M67" t="s">
-        <v>599</v>
+        <v>758</v>
       </c>
       <c r="N67" t="s">
-        <v>613</v>
+        <v>794</v>
       </c>
       <c r="O67" t="s">
-        <v>634</v>
+        <v>817</v>
       </c>
     </row>
     <row r="68">
@@ -5176,25 +5758,25 @@
         <v>1938.0</v>
       </c>
       <c r="C68" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="D68" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="E68" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="F68" t="e">
         <v>#N/A</v>
       </c>
       <c r="G68" t="s">
-        <v>273</v>
+        <v>331</v>
       </c>
       <c r="H68" t="s">
-        <v>390</v>
+        <v>486</v>
       </c>
       <c r="I68" t="s">
-        <v>491</v>
+        <v>627</v>
       </c>
       <c r="J68" t="n">
         <v>-77.0417451402957</v>
@@ -5203,16 +5785,16 @@
         <v>38.9097567644737</v>
       </c>
       <c r="L68" t="s">
-        <v>537</v>
+        <v>695</v>
       </c>
       <c r="M68" t="s">
-        <v>599</v>
+        <v>758</v>
       </c>
       <c r="N68" t="s">
-        <v>613</v>
+        <v>794</v>
       </c>
       <c r="O68" t="s">
-        <v>635</v>
+        <v>818</v>
       </c>
     </row>
     <row r="69">
@@ -5223,25 +5805,25 @@
         <v>1938.0</v>
       </c>
       <c r="C69" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="D69" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="E69" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="F69" t="e">
         <v>#N/A</v>
       </c>
       <c r="G69" t="s">
-        <v>274</v>
+        <v>332</v>
       </c>
       <c r="H69" t="s">
-        <v>391</v>
+        <v>487</v>
       </c>
       <c r="I69" t="s">
-        <v>492</v>
+        <v>628</v>
       </c>
       <c r="J69" t="n">
         <v>-77.0219212091946</v>
@@ -5253,13 +5835,13 @@
         <v>#N/A</v>
       </c>
       <c r="M69" t="s">
-        <v>599</v>
+        <v>758</v>
       </c>
       <c r="N69" t="s">
-        <v>613</v>
+        <v>794</v>
       </c>
       <c r="O69" t="s">
-        <v>636</v>
+        <v>819</v>
       </c>
     </row>
     <row r="70">
@@ -5270,25 +5852,25 @@
         <v>1938.0</v>
       </c>
       <c r="C70" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="D70" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="E70" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="F70" t="e">
         <v>#N/A</v>
       </c>
       <c r="G70" t="s">
-        <v>275</v>
+        <v>333</v>
       </c>
       <c r="H70" t="s">
-        <v>392</v>
+        <v>488</v>
       </c>
       <c r="I70" t="s">
-        <v>493</v>
+        <v>629</v>
       </c>
       <c r="J70" t="n">
         <v>-77.0296207062875</v>
@@ -5300,13 +5882,13 @@
         <v>#N/A</v>
       </c>
       <c r="M70" t="s">
-        <v>599</v>
+        <v>758</v>
       </c>
       <c r="N70" t="s">
-        <v>613</v>
+        <v>794</v>
       </c>
       <c r="O70" t="s">
-        <v>634</v>
+        <v>817</v>
       </c>
     </row>
     <row r="71">
@@ -5317,25 +5899,25 @@
         <v>1938.0</v>
       </c>
       <c r="C71" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="D71" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="E71" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="F71" t="e">
         <v>#N/A</v>
       </c>
       <c r="G71" t="s">
-        <v>276</v>
+        <v>334</v>
       </c>
       <c r="H71" t="s">
-        <v>393</v>
+        <v>489</v>
       </c>
       <c r="I71" t="s">
-        <v>494</v>
+        <v>630</v>
       </c>
       <c r="J71" t="n">
         <v>-77.0281553432906</v>
@@ -5344,16 +5926,16 @@
         <v>38.9143727773704</v>
       </c>
       <c r="L71" t="s">
-        <v>545</v>
+        <v>703</v>
       </c>
       <c r="M71" t="s">
-        <v>599</v>
+        <v>758</v>
       </c>
       <c r="N71" t="s">
-        <v>613</v>
+        <v>794</v>
       </c>
       <c r="O71" t="s">
-        <v>634</v>
+        <v>817</v>
       </c>
     </row>
     <row r="72">
@@ -5364,25 +5946,25 @@
         <v>1938.0</v>
       </c>
       <c r="C72" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="D72" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="E72" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="F72" t="e">
         <v>#N/A</v>
       </c>
       <c r="G72" t="s">
-        <v>277</v>
+        <v>335</v>
       </c>
       <c r="H72" t="s">
-        <v>394</v>
+        <v>490</v>
       </c>
       <c r="I72" t="s">
-        <v>495</v>
+        <v>631</v>
       </c>
       <c r="J72" t="n">
         <v>-76.9937363573609</v>
@@ -5391,16 +5973,16 @@
         <v>38.9219005286626</v>
       </c>
       <c r="L72" t="s">
-        <v>564</v>
+        <v>722</v>
       </c>
       <c r="M72" t="s">
-        <v>599</v>
+        <v>758</v>
       </c>
       <c r="N72" t="s">
-        <v>613</v>
+        <v>794</v>
       </c>
       <c r="O72" t="s">
-        <v>637</v>
+        <v>820</v>
       </c>
     </row>
     <row r="73">
@@ -5411,25 +5993,25 @@
         <v>1938.0</v>
       </c>
       <c r="C73" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="D73" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="E73" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="F73" t="e">
         <v>#N/A</v>
       </c>
       <c r="G73" t="s">
-        <v>278</v>
+        <v>336</v>
       </c>
       <c r="H73" t="s">
-        <v>395</v>
+        <v>491</v>
       </c>
       <c r="I73" t="s">
-        <v>496</v>
+        <v>632</v>
       </c>
       <c r="J73" t="n">
         <v>-77.01459809738</v>
@@ -5438,16 +6020,16 @@
         <v>38.9132161452251</v>
       </c>
       <c r="L73" t="s">
-        <v>565</v>
+        <v>723</v>
       </c>
       <c r="M73" t="s">
-        <v>599</v>
+        <v>758</v>
       </c>
       <c r="N73" t="s">
-        <v>613</v>
+        <v>794</v>
       </c>
       <c r="O73" t="s">
-        <v>636</v>
+        <v>819</v>
       </c>
     </row>
     <row r="74">
@@ -5458,25 +6040,25 @@
         <v>1938.0</v>
       </c>
       <c r="C74" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="D74" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="E74" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="F74" t="e">
         <v>#N/A</v>
       </c>
       <c r="G74" t="s">
-        <v>279</v>
+        <v>337</v>
       </c>
       <c r="H74" t="s">
-        <v>396</v>
+        <v>492</v>
       </c>
       <c r="I74" t="s">
-        <v>497</v>
+        <v>633</v>
       </c>
       <c r="J74" t="n">
         <v>-77.0295511070182</v>
@@ -5485,16 +6067,16 @@
         <v>38.9164206523088</v>
       </c>
       <c r="L74" t="s">
-        <v>563</v>
+        <v>721</v>
       </c>
       <c r="M74" t="s">
-        <v>599</v>
+        <v>758</v>
       </c>
       <c r="N74" t="s">
-        <v>613</v>
+        <v>794</v>
       </c>
       <c r="O74" t="s">
-        <v>634</v>
+        <v>817</v>
       </c>
     </row>
     <row r="75">
@@ -5505,25 +6087,25 @@
         <v>1938.0</v>
       </c>
       <c r="C75" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="D75" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="E75" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="F75" t="e">
         <v>#N/A</v>
       </c>
       <c r="G75" t="s">
-        <v>280</v>
+        <v>338</v>
       </c>
       <c r="H75" t="s">
-        <v>397</v>
+        <v>493</v>
       </c>
       <c r="I75" t="s">
-        <v>498</v>
+        <v>634</v>
       </c>
       <c r="J75" t="n">
         <v>-77.0285414573221</v>
@@ -5532,16 +6114,16 @@
         <v>38.9256909129142</v>
       </c>
       <c r="L75" t="s">
-        <v>566</v>
+        <v>724</v>
       </c>
       <c r="M75" t="s">
-        <v>599</v>
+        <v>758</v>
       </c>
       <c r="N75" t="s">
-        <v>613</v>
+        <v>794</v>
       </c>
       <c r="O75" t="s">
-        <v>634</v>
+        <v>817</v>
       </c>
     </row>
     <row r="76">
@@ -5552,25 +6134,25 @@
         <v>1938.0</v>
       </c>
       <c r="C76" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="D76" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="E76" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="F76" t="e">
         <v>#N/A</v>
       </c>
       <c r="G76" t="s">
-        <v>281</v>
+        <v>339</v>
       </c>
       <c r="H76" t="s">
-        <v>398</v>
+        <v>494</v>
       </c>
       <c r="I76" t="s">
-        <v>499</v>
+        <v>635</v>
       </c>
       <c r="J76" t="n">
         <v>-77.0328781284406</v>
@@ -5579,16 +6161,16 @@
         <v>38.9111805073978</v>
       </c>
       <c r="L76" t="s">
-        <v>567</v>
+        <v>725</v>
       </c>
       <c r="M76" t="s">
-        <v>599</v>
+        <v>758</v>
       </c>
       <c r="N76" t="s">
-        <v>613</v>
+        <v>794</v>
       </c>
       <c r="O76" t="s">
-        <v>634</v>
+        <v>817</v>
       </c>
     </row>
     <row r="77">
@@ -5599,25 +6181,25 @@
         <v>1938.0</v>
       </c>
       <c r="C77" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="D77" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="E77" t="s">
-        <v>176</v>
+        <v>231</v>
       </c>
       <c r="F77" t="e">
         <v>#N/A</v>
       </c>
       <c r="G77" t="s">
-        <v>282</v>
+        <v>340</v>
       </c>
       <c r="H77" t="s">
-        <v>399</v>
+        <v>495</v>
       </c>
       <c r="I77" t="s">
-        <v>500</v>
+        <v>636</v>
       </c>
       <c r="J77" t="n">
         <v>-77.019002333803</v>
@@ -5626,16 +6208,16 @@
         <v>38.9014899586915</v>
       </c>
       <c r="L77" t="s">
-        <v>568</v>
+        <v>726</v>
       </c>
       <c r="M77" t="s">
-        <v>599</v>
+        <v>758</v>
       </c>
       <c r="N77" t="s">
-        <v>613</v>
+        <v>794</v>
       </c>
       <c r="O77" t="s">
-        <v>636</v>
+        <v>819</v>
       </c>
     </row>
     <row r="78">
@@ -5646,25 +6228,25 @@
         <v>1938.0</v>
       </c>
       <c r="C78" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="D78" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="E78" t="s">
-        <v>177</v>
+        <v>232</v>
       </c>
       <c r="F78" t="e">
         <v>#N/A</v>
       </c>
       <c r="G78" t="s">
-        <v>283</v>
+        <v>341</v>
       </c>
       <c r="H78" t="s">
-        <v>400</v>
+        <v>496</v>
       </c>
       <c r="I78" t="s">
-        <v>501</v>
+        <v>637</v>
       </c>
       <c r="J78" t="n">
         <v>-77.0284109682986</v>
@@ -5673,16 +6255,16 @@
         <v>38.9169429146724</v>
       </c>
       <c r="L78" t="s">
-        <v>569</v>
+        <v>727</v>
       </c>
       <c r="M78" t="s">
-        <v>599</v>
+        <v>758</v>
       </c>
       <c r="N78" t="s">
-        <v>613</v>
+        <v>794</v>
       </c>
       <c r="O78" t="s">
-        <v>634</v>
+        <v>817</v>
       </c>
     </row>
     <row r="79">
@@ -5693,25 +6275,25 @@
         <v>1938.0</v>
       </c>
       <c r="C79" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="D79" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="E79" t="s">
-        <v>177</v>
+        <v>232</v>
       </c>
       <c r="F79" t="e">
         <v>#N/A</v>
       </c>
       <c r="G79" t="s">
-        <v>284</v>
+        <v>342</v>
       </c>
       <c r="H79" t="s">
-        <v>401</v>
+        <v>497</v>
       </c>
       <c r="I79" t="s">
-        <v>502</v>
+        <v>638</v>
       </c>
       <c r="J79" t="n">
         <v>-77.0219212086858</v>
@@ -5723,13 +6305,13 @@
         <v>#N/A</v>
       </c>
       <c r="M79" t="s">
-        <v>599</v>
+        <v>758</v>
       </c>
       <c r="N79" t="s">
-        <v>613</v>
+        <v>794</v>
       </c>
       <c r="O79" t="s">
-        <v>636</v>
+        <v>819</v>
       </c>
     </row>
     <row r="80">
@@ -5740,25 +6322,25 @@
         <v>1938.0</v>
       </c>
       <c r="C80" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="D80" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="E80" t="s">
-        <v>178</v>
+        <v>233</v>
       </c>
       <c r="F80" t="e">
         <v>#N/A</v>
       </c>
       <c r="G80" t="s">
-        <v>285</v>
+        <v>343</v>
       </c>
       <c r="H80" t="s">
-        <v>402</v>
+        <v>498</v>
       </c>
       <c r="I80" t="s">
-        <v>503</v>
+        <v>639</v>
       </c>
       <c r="J80" t="n">
         <v>-77.0334199928333</v>
@@ -5767,16 +6349,16 @@
         <v>38.9170575062334</v>
       </c>
       <c r="L80" t="s">
-        <v>569</v>
+        <v>727</v>
       </c>
       <c r="M80" t="s">
-        <v>599</v>
+        <v>758</v>
       </c>
       <c r="N80" t="s">
-        <v>613</v>
+        <v>794</v>
       </c>
       <c r="O80" t="s">
-        <v>634</v>
+        <v>817</v>
       </c>
     </row>
     <row r="81">
@@ -5787,25 +6369,25 @@
         <v>1938.0</v>
       </c>
       <c r="C81" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="D81" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="E81" t="s">
-        <v>179</v>
+        <v>234</v>
       </c>
       <c r="F81" t="e">
         <v>#N/A</v>
       </c>
       <c r="G81" t="s">
-        <v>286</v>
+        <v>344</v>
       </c>
       <c r="H81" t="s">
-        <v>403</v>
+        <v>499</v>
       </c>
       <c r="I81" t="s">
-        <v>504</v>
+        <v>640</v>
       </c>
       <c r="J81" t="n">
         <v>-77.0345302046717</v>
@@ -5817,13 +6399,13 @@
         <v>#N/A</v>
       </c>
       <c r="M81" t="s">
-        <v>599</v>
+        <v>758</v>
       </c>
       <c r="N81" t="s">
-        <v>613</v>
+        <v>794</v>
       </c>
       <c r="O81" t="s">
-        <v>634</v>
+        <v>817</v>
       </c>
     </row>
     <row r="82">
@@ -5834,25 +6416,25 @@
         <v>1938.0</v>
       </c>
       <c r="C82" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="D82" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="E82" t="s">
-        <v>179</v>
+        <v>234</v>
       </c>
       <c r="F82" t="e">
         <v>#N/A</v>
       </c>
       <c r="G82" t="s">
-        <v>287</v>
+        <v>345</v>
       </c>
       <c r="H82" t="s">
-        <v>404</v>
+        <v>500</v>
       </c>
       <c r="I82" t="s">
-        <v>505</v>
+        <v>641</v>
       </c>
       <c r="J82" t="n">
         <v>-88.6918671515978</v>
@@ -5881,25 +6463,25 @@
         <v>1938.0</v>
       </c>
       <c r="C83" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="D83" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="E83" t="s">
-        <v>179</v>
+        <v>234</v>
       </c>
       <c r="F83" t="e">
         <v>#N/A</v>
       </c>
       <c r="G83" t="s">
-        <v>286</v>
+        <v>344</v>
       </c>
       <c r="H83" t="s">
-        <v>403</v>
+        <v>499</v>
       </c>
       <c r="I83" t="s">
-        <v>504</v>
+        <v>640</v>
       </c>
       <c r="J83" t="n">
         <v>-77.0345302046717</v>
@@ -5911,13 +6493,13 @@
         <v>#N/A</v>
       </c>
       <c r="M83" t="s">
-        <v>599</v>
+        <v>758</v>
       </c>
       <c r="N83" t="s">
-        <v>613</v>
+        <v>794</v>
       </c>
       <c r="O83" t="s">
-        <v>634</v>
+        <v>817</v>
       </c>
     </row>
     <row r="84">
@@ -5928,25 +6510,25 @@
         <v>1938.0</v>
       </c>
       <c r="C84" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="D84" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="E84" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="F84" t="e">
         <v>#N/A</v>
       </c>
       <c r="G84" t="s">
-        <v>288</v>
+        <v>346</v>
       </c>
       <c r="H84" t="s">
-        <v>405</v>
+        <v>501</v>
       </c>
       <c r="I84" t="s">
-        <v>506</v>
+        <v>642</v>
       </c>
       <c r="J84" t="n">
         <v>-81.6642641372315</v>
@@ -5955,16 +6537,16 @@
         <v>30.3317340886304</v>
       </c>
       <c r="L84" t="s">
-        <v>548</v>
+        <v>706</v>
       </c>
       <c r="M84" t="s">
-        <v>600</v>
+        <v>772</v>
       </c>
       <c r="N84" t="s">
-        <v>614</v>
+        <v>795</v>
       </c>
       <c r="O84" t="s">
-        <v>638</v>
+        <v>821</v>
       </c>
     </row>
     <row r="85">
@@ -5975,25 +6557,25 @@
         <v>1938.0</v>
       </c>
       <c r="C85" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="D85" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="E85" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="F85" t="e">
         <v>#N/A</v>
       </c>
       <c r="G85" t="s">
-        <v>289</v>
+        <v>347</v>
       </c>
       <c r="H85" t="s">
-        <v>406</v>
+        <v>502</v>
       </c>
       <c r="I85" t="s">
-        <v>507</v>
+        <v>643</v>
       </c>
       <c r="J85" t="n">
         <v>-81.6644130211114</v>
@@ -6002,16 +6584,16 @@
         <v>30.3324873646761</v>
       </c>
       <c r="L85" t="s">
-        <v>570</v>
+        <v>728</v>
       </c>
       <c r="M85" t="s">
-        <v>600</v>
+        <v>772</v>
       </c>
       <c r="N85" t="s">
-        <v>614</v>
+        <v>795</v>
       </c>
       <c r="O85" t="s">
-        <v>638</v>
+        <v>821</v>
       </c>
     </row>
     <row r="86">
@@ -6022,25 +6604,25 @@
         <v>1938.0</v>
       </c>
       <c r="C86" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="D86" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="E86" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="F86" t="e">
         <v>#N/A</v>
       </c>
       <c r="G86" t="s">
-        <v>290</v>
+        <v>348</v>
       </c>
       <c r="H86" t="s">
-        <v>407</v>
+        <v>503</v>
       </c>
       <c r="I86" t="s">
-        <v>508</v>
+        <v>644</v>
       </c>
       <c r="J86" t="n">
         <v>-81.6644653940376</v>
@@ -6049,16 +6631,16 @@
         <v>30.3323804309158</v>
       </c>
       <c r="L86" t="s">
-        <v>570</v>
+        <v>728</v>
       </c>
       <c r="M86" t="s">
-        <v>600</v>
+        <v>772</v>
       </c>
       <c r="N86" t="s">
-        <v>614</v>
+        <v>795</v>
       </c>
       <c r="O86" t="s">
-        <v>639</v>
+        <v>822</v>
       </c>
     </row>
     <row r="87">
@@ -6069,25 +6651,25 @@
         <v>1938.0</v>
       </c>
       <c r="C87" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="D87" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="E87" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="F87" t="e">
         <v>#N/A</v>
       </c>
       <c r="G87" t="s">
-        <v>291</v>
+        <v>349</v>
       </c>
       <c r="H87" t="s">
-        <v>408</v>
+        <v>504</v>
       </c>
       <c r="I87" t="s">
-        <v>509</v>
+        <v>645</v>
       </c>
       <c r="J87" t="n">
         <v>-81.664456760149</v>
@@ -6096,16 +6678,16 @@
         <v>30.3310619027347</v>
       </c>
       <c r="L87" t="s">
-        <v>548</v>
+        <v>706</v>
       </c>
       <c r="M87" t="s">
-        <v>600</v>
+        <v>772</v>
       </c>
       <c r="N87" t="s">
-        <v>614</v>
+        <v>795</v>
       </c>
       <c r="O87" t="s">
-        <v>638</v>
+        <v>821</v>
       </c>
     </row>
     <row r="88">
@@ -6116,25 +6698,25 @@
         <v>1938.0</v>
       </c>
       <c r="C88" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="D88" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="E88" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F88" t="e">
         <v>#N/A</v>
       </c>
       <c r="G88" t="s">
-        <v>292</v>
+        <v>350</v>
       </c>
       <c r="H88" t="s">
-        <v>409</v>
+        <v>505</v>
       </c>
       <c r="I88" t="s">
-        <v>510</v>
+        <v>646</v>
       </c>
       <c r="J88" t="n">
         <v>-81.6656641435639</v>
@@ -6143,16 +6725,16 @@
         <v>30.3319572677424</v>
       </c>
       <c r="L88" t="s">
-        <v>538</v>
+        <v>696</v>
       </c>
       <c r="M88" t="s">
-        <v>600</v>
+        <v>772</v>
       </c>
       <c r="N88" t="s">
-        <v>614</v>
+        <v>795</v>
       </c>
       <c r="O88" t="s">
-        <v>638</v>
+        <v>821</v>
       </c>
     </row>
     <row r="89">
@@ -6163,25 +6745,25 @@
         <v>1938.0</v>
       </c>
       <c r="C89" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="D89" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="E89" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F89" t="e">
         <v>#N/A</v>
       </c>
       <c r="G89" t="s">
-        <v>293</v>
+        <v>351</v>
       </c>
       <c r="H89" t="s">
-        <v>410</v>
+        <v>506</v>
       </c>
       <c r="I89" t="s">
-        <v>511</v>
+        <v>647</v>
       </c>
       <c r="J89" t="n">
         <v>-81.6696051252206</v>
@@ -6190,16 +6772,16 @@
         <v>30.3506369396631</v>
       </c>
       <c r="L89" t="s">
-        <v>571</v>
+        <v>729</v>
       </c>
       <c r="M89" t="s">
-        <v>600</v>
+        <v>772</v>
       </c>
       <c r="N89" t="s">
-        <v>614</v>
+        <v>795</v>
       </c>
       <c r="O89" t="s">
-        <v>640</v>
+        <v>823</v>
       </c>
     </row>
     <row r="90">
@@ -6210,25 +6792,25 @@
         <v>1938.0</v>
       </c>
       <c r="C90" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="D90" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="E90" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F90" t="e">
         <v>#N/A</v>
       </c>
       <c r="G90" t="s">
-        <v>294</v>
+        <v>352</v>
       </c>
       <c r="H90" t="s">
-        <v>411</v>
+        <v>507</v>
       </c>
       <c r="I90" t="s">
-        <v>512</v>
+        <v>648</v>
       </c>
       <c r="J90" t="n">
         <v>-81.3955088401258</v>
@@ -6237,16 +6819,16 @@
         <v>30.3229396773938</v>
       </c>
       <c r="L90" t="s">
-        <v>572</v>
+        <v>730</v>
       </c>
       <c r="M90" t="s">
-        <v>600</v>
+        <v>772</v>
       </c>
       <c r="N90" t="s">
-        <v>614</v>
+        <v>795</v>
       </c>
       <c r="O90" t="s">
-        <v>641</v>
+        <v>824</v>
       </c>
     </row>
     <row r="91">
@@ -6257,25 +6839,25 @@
         <v>1938.0</v>
       </c>
       <c r="C91" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="D91" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="E91" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="F91" t="e">
         <v>#N/A</v>
       </c>
       <c r="G91" t="s">
-        <v>295</v>
+        <v>353</v>
       </c>
       <c r="H91" t="s">
-        <v>412</v>
+        <v>508</v>
       </c>
       <c r="I91" t="s">
-        <v>513</v>
+        <v>649</v>
       </c>
       <c r="J91" t="n">
         <v>-81.9572829428224</v>
@@ -6284,16 +6866,16 @@
         <v>28.0515331436022</v>
       </c>
       <c r="L91" t="s">
-        <v>565</v>
+        <v>723</v>
       </c>
       <c r="M91" t="s">
-        <v>601</v>
+        <v>773</v>
       </c>
       <c r="N91" t="s">
-        <v>614</v>
+        <v>795</v>
       </c>
       <c r="O91" t="s">
-        <v>642</v>
+        <v>825</v>
       </c>
     </row>
     <row r="92">
@@ -6304,25 +6886,25 @@
         <v>1938.0</v>
       </c>
       <c r="C92" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="D92" t="s">
-        <v>165</v>
+        <v>208</v>
       </c>
       <c r="E92" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="F92" t="e">
         <v>#N/A</v>
       </c>
       <c r="G92" t="s">
-        <v>296</v>
+        <v>354</v>
       </c>
       <c r="H92" t="s">
-        <v>413</v>
+        <v>509</v>
       </c>
       <c r="I92" t="s">
-        <v>514</v>
+        <v>650</v>
       </c>
       <c r="J92" t="n">
         <v>-80.1979633065436</v>
@@ -6331,16 +6913,16 @@
         <v>25.7831004736858</v>
       </c>
       <c r="L92" t="s">
-        <v>573</v>
+        <v>731</v>
       </c>
       <c r="M92" t="s">
-        <v>602</v>
+        <v>774</v>
       </c>
       <c r="N92" t="s">
-        <v>614</v>
+        <v>795</v>
       </c>
       <c r="O92" t="s">
-        <v>643</v>
+        <v>826</v>
       </c>
     </row>
     <row r="93">
@@ -6351,25 +6933,25 @@
         <v>1938.0</v>
       </c>
       <c r="C93" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="D93" t="s">
-        <v>165</v>
+        <v>208</v>
       </c>
       <c r="E93" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="F93" t="e">
         <v>#N/A</v>
       </c>
       <c r="G93" t="s">
-        <v>297</v>
+        <v>355</v>
       </c>
       <c r="H93" t="s">
-        <v>414</v>
+        <v>510</v>
       </c>
       <c r="I93" t="s">
-        <v>515</v>
+        <v>651</v>
       </c>
       <c r="J93" t="n">
         <v>-80.1980312449411</v>
@@ -6378,16 +6960,16 @@
         <v>25.780776879909</v>
       </c>
       <c r="L93" t="s">
-        <v>573</v>
+        <v>731</v>
       </c>
       <c r="M93" t="s">
-        <v>602</v>
+        <v>774</v>
       </c>
       <c r="N93" t="s">
-        <v>614</v>
+        <v>795</v>
       </c>
       <c r="O93" t="s">
-        <v>643</v>
+        <v>826</v>
       </c>
     </row>
     <row r="94">
@@ -6398,25 +6980,25 @@
         <v>1938.0</v>
       </c>
       <c r="C94" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="D94" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="E94" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="F94" t="e">
         <v>#N/A</v>
       </c>
       <c r="G94" t="s">
-        <v>298</v>
+        <v>356</v>
       </c>
       <c r="H94" t="s">
-        <v>415</v>
+        <v>511</v>
       </c>
       <c r="I94" t="s">
-        <v>516</v>
+        <v>652</v>
       </c>
       <c r="J94" t="n">
         <v>-87.21373353953</v>
@@ -6425,16 +7007,16 @@
         <v>30.4173283716835</v>
       </c>
       <c r="L94" t="s">
-        <v>574</v>
+        <v>732</v>
       </c>
       <c r="M94" t="s">
-        <v>603</v>
+        <v>775</v>
       </c>
       <c r="N94" t="s">
-        <v>614</v>
+        <v>795</v>
       </c>
       <c r="O94" t="s">
-        <v>644</v>
+        <v>827</v>
       </c>
     </row>
     <row r="95">
@@ -6445,25 +7027,25 @@
         <v>1938.0</v>
       </c>
       <c r="C95" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="D95" t="s">
-        <v>167</v>
+        <v>210</v>
       </c>
       <c r="E95" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F95" t="e">
         <v>#N/A</v>
       </c>
       <c r="G95" t="s">
-        <v>299</v>
+        <v>357</v>
       </c>
       <c r="H95" t="s">
-        <v>416</v>
+        <v>512</v>
       </c>
       <c r="I95" t="s">
-        <v>447</v>
+        <v>583</v>
       </c>
       <c r="J95" t="e">
         <v>#N/A</v>
@@ -6492,25 +7074,25 @@
         <v>1938.0</v>
       </c>
       <c r="C96" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="D96" t="s">
-        <v>167</v>
+        <v>210</v>
       </c>
       <c r="E96" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F96" t="e">
         <v>#N/A</v>
       </c>
       <c r="G96" t="s">
-        <v>300</v>
+        <v>358</v>
       </c>
       <c r="H96" t="s">
-        <v>417</v>
+        <v>513</v>
       </c>
       <c r="I96" t="s">
-        <v>517</v>
+        <v>653</v>
       </c>
       <c r="J96" t="n">
         <v>-81.3144213373998</v>
@@ -6519,16 +7101,16 @@
         <v>29.8889543261281</v>
       </c>
       <c r="L96" t="s">
-        <v>575</v>
+        <v>733</v>
       </c>
       <c r="M96" t="s">
-        <v>604</v>
+        <v>776</v>
       </c>
       <c r="N96" t="s">
-        <v>614</v>
+        <v>795</v>
       </c>
       <c r="O96" t="s">
-        <v>645</v>
+        <v>828</v>
       </c>
     </row>
     <row r="97">
@@ -6539,25 +7121,25 @@
         <v>1938.0</v>
       </c>
       <c r="C97" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="D97" t="s">
-        <v>167</v>
+        <v>210</v>
       </c>
       <c r="E97" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F97" t="e">
         <v>#N/A</v>
       </c>
       <c r="G97" t="s">
-        <v>301</v>
+        <v>359</v>
       </c>
       <c r="H97" t="s">
-        <v>418</v>
+        <v>514</v>
       </c>
       <c r="I97" t="s">
-        <v>447</v>
+        <v>583</v>
       </c>
       <c r="J97" t="e">
         <v>#N/A</v>
@@ -6586,25 +7168,25 @@
         <v>1938.0</v>
       </c>
       <c r="C98" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="D98" t="s">
-        <v>168</v>
+        <v>211</v>
       </c>
       <c r="E98" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F98" t="e">
         <v>#N/A</v>
       </c>
       <c r="G98" t="s">
-        <v>302</v>
+        <v>360</v>
       </c>
       <c r="H98" t="s">
-        <v>419</v>
+        <v>515</v>
       </c>
       <c r="I98" t="s">
-        <v>518</v>
+        <v>654</v>
       </c>
       <c r="J98" t="n">
         <v>-82.6711795427482</v>
@@ -6616,13 +7198,13 @@
         <v>#N/A</v>
       </c>
       <c r="M98" t="s">
-        <v>605</v>
+        <v>777</v>
       </c>
       <c r="N98" t="s">
-        <v>614</v>
+        <v>795</v>
       </c>
       <c r="O98" t="s">
-        <v>646</v>
+        <v>829</v>
       </c>
     </row>
     <row r="99">
@@ -6633,25 +7215,25 @@
         <v>1938.0</v>
       </c>
       <c r="C99" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="D99" t="s">
-        <v>168</v>
+        <v>211</v>
       </c>
       <c r="E99" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F99" t="e">
         <v>#N/A</v>
       </c>
       <c r="G99" t="s">
-        <v>303</v>
+        <v>361</v>
       </c>
       <c r="H99" t="s">
-        <v>420</v>
+        <v>516</v>
       </c>
       <c r="I99" t="s">
-        <v>519</v>
+        <v>655</v>
       </c>
       <c r="J99" t="n">
         <v>-82.6539215497237</v>
@@ -6660,16 +7242,16 @@
         <v>27.7775621697773</v>
       </c>
       <c r="L99" t="s">
-        <v>568</v>
+        <v>726</v>
       </c>
       <c r="M99" t="s">
-        <v>605</v>
+        <v>777</v>
       </c>
       <c r="N99" t="s">
-        <v>614</v>
+        <v>795</v>
       </c>
       <c r="O99" t="s">
-        <v>647</v>
+        <v>830</v>
       </c>
     </row>
     <row r="100">
@@ -6680,25 +7262,25 @@
         <v>1938.0</v>
       </c>
       <c r="C100" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="D100" t="s">
-        <v>168</v>
+        <v>211</v>
       </c>
       <c r="E100" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F100" t="e">
         <v>#N/A</v>
       </c>
       <c r="G100" t="s">
-        <v>304</v>
+        <v>362</v>
       </c>
       <c r="H100" t="s">
-        <v>421</v>
+        <v>517</v>
       </c>
       <c r="I100" t="s">
-        <v>520</v>
+        <v>656</v>
       </c>
       <c r="J100" t="n">
         <v>-82.6473169427743</v>
@@ -6707,16 +7289,16 @@
         <v>27.7684565804156</v>
       </c>
       <c r="L100" t="s">
-        <v>576</v>
+        <v>734</v>
       </c>
       <c r="M100" t="s">
-        <v>605</v>
+        <v>777</v>
       </c>
       <c r="N100" t="s">
-        <v>614</v>
+        <v>795</v>
       </c>
       <c r="O100" t="s">
-        <v>647</v>
+        <v>830</v>
       </c>
     </row>
     <row r="101">
@@ -6727,25 +7309,25 @@
         <v>1938.0</v>
       </c>
       <c r="C101" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="D101" t="s">
-        <v>169</v>
+        <v>212</v>
       </c>
       <c r="E101" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="F101" t="e">
         <v>#N/A</v>
       </c>
       <c r="G101" t="s">
-        <v>305</v>
+        <v>363</v>
       </c>
       <c r="H101" t="s">
-        <v>422</v>
+        <v>518</v>
       </c>
       <c r="I101" t="s">
-        <v>447</v>
+        <v>583</v>
       </c>
       <c r="J101" t="e">
         <v>#N/A</v>
@@ -6774,25 +7356,25 @@
         <v>1938.0</v>
       </c>
       <c r="C102" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="D102" t="s">
-        <v>169</v>
+        <v>212</v>
       </c>
       <c r="E102" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="F102" t="e">
         <v>#N/A</v>
       </c>
       <c r="G102" t="s">
-        <v>306</v>
+        <v>364</v>
       </c>
       <c r="H102" t="s">
-        <v>423</v>
+        <v>519</v>
       </c>
       <c r="I102" t="s">
-        <v>521</v>
+        <v>657</v>
       </c>
       <c r="J102" t="n">
         <v>-82.4553373767076</v>
@@ -6801,16 +7383,16 @@
         <v>28.0369705572527</v>
       </c>
       <c r="L102" t="s">
-        <v>577</v>
+        <v>735</v>
       </c>
       <c r="M102" t="s">
-        <v>606</v>
+        <v>778</v>
       </c>
       <c r="N102" t="s">
-        <v>614</v>
+        <v>795</v>
       </c>
       <c r="O102" t="s">
-        <v>648</v>
+        <v>831</v>
       </c>
     </row>
     <row r="103">
@@ -6821,25 +7403,25 @@
         <v>1938.0</v>
       </c>
       <c r="C103" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="D103" t="s">
-        <v>169</v>
+        <v>212</v>
       </c>
       <c r="E103" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="F103" t="e">
         <v>#N/A</v>
       </c>
       <c r="G103" t="s">
-        <v>307</v>
+        <v>365</v>
       </c>
       <c r="H103" t="s">
-        <v>424</v>
+        <v>520</v>
       </c>
       <c r="I103" t="s">
-        <v>522</v>
+        <v>658</v>
       </c>
       <c r="J103" t="n">
         <v>-82.4541620299686</v>
@@ -6848,16 +7430,16 @@
         <v>27.9514759647849</v>
       </c>
       <c r="L103" t="s">
-        <v>578</v>
+        <v>736</v>
       </c>
       <c r="M103" t="s">
-        <v>606</v>
+        <v>778</v>
       </c>
       <c r="N103" t="s">
-        <v>614</v>
+        <v>795</v>
       </c>
       <c r="O103" t="s">
-        <v>649</v>
+        <v>832</v>
       </c>
     </row>
     <row r="104">
@@ -6868,25 +7450,25 @@
         <v>1938.0</v>
       </c>
       <c r="C104" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="D104" t="s">
-        <v>169</v>
+        <v>212</v>
       </c>
       <c r="E104" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="F104" t="e">
         <v>#N/A</v>
       </c>
       <c r="G104" t="s">
-        <v>308</v>
+        <v>366</v>
       </c>
       <c r="H104" t="s">
-        <v>425</v>
+        <v>521</v>
       </c>
       <c r="I104" t="s">
-        <v>447</v>
+        <v>583</v>
       </c>
       <c r="J104" t="e">
         <v>#N/A</v>
@@ -6915,43 +7497,43 @@
         <v>1938.0</v>
       </c>
       <c r="C105" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="D105" t="s">
-        <v>170</v>
+        <v>213</v>
       </c>
       <c r="E105" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F105" t="e">
         <v>#N/A</v>
       </c>
       <c r="G105" t="s">
-        <v>309</v>
+        <v>367</v>
       </c>
       <c r="H105" t="s">
-        <v>426</v>
+        <v>522</v>
       </c>
       <c r="I105" t="s">
-        <v>523</v>
+        <v>659</v>
       </c>
       <c r="J105" t="n">
-        <v>-84.15968806291161</v>
+        <v>-84.1596880629116</v>
       </c>
       <c r="K105" t="n">
-        <v>31.570782330215025</v>
+        <v>31.570782330215</v>
       </c>
       <c r="L105" t="s">
-        <v>579</v>
+        <v>737</v>
       </c>
       <c r="M105" t="s">
-        <v>607</v>
+        <v>779</v>
       </c>
       <c r="N105" t="s">
-        <v>615</v>
+        <v>796</v>
       </c>
       <c r="O105" t="s">
-        <v>650</v>
+        <v>833</v>
       </c>
     </row>
     <row r="106">
@@ -6962,25 +7544,25 @@
         <v>1938.0</v>
       </c>
       <c r="C106" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="D106" t="s">
-        <v>170</v>
+        <v>213</v>
       </c>
       <c r="E106" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F106" t="e">
         <v>#N/A</v>
       </c>
       <c r="G106" t="s">
-        <v>310</v>
+        <v>368</v>
       </c>
       <c r="H106" t="s">
-        <v>427</v>
+        <v>523</v>
       </c>
       <c r="I106" t="s">
-        <v>447</v>
+        <v>583</v>
       </c>
       <c r="J106" t="e">
         <v>#N/A</v>
@@ -7009,43 +7591,43 @@
         <v>1938.0</v>
       </c>
       <c r="C107" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="D107" t="s">
-        <v>170</v>
+        <v>213</v>
       </c>
       <c r="E107" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F107" t="e">
         <v>#N/A</v>
       </c>
       <c r="G107" t="s">
-        <v>311</v>
+        <v>369</v>
       </c>
       <c r="H107" t="s">
-        <v>428</v>
+        <v>524</v>
       </c>
       <c r="I107" t="s">
-        <v>524</v>
+        <v>660</v>
       </c>
       <c r="J107" t="n">
-        <v>-84.15940146113257</v>
+        <v>-84.1594014611326</v>
       </c>
       <c r="K107" t="n">
-        <v>31.57066773883407</v>
+        <v>31.5706677388341</v>
       </c>
       <c r="L107" t="s">
-        <v>579</v>
+        <v>737</v>
       </c>
       <c r="M107" t="s">
-        <v>607</v>
+        <v>779</v>
       </c>
       <c r="N107" t="s">
-        <v>615</v>
+        <v>796</v>
       </c>
       <c r="O107" t="s">
-        <v>650</v>
+        <v>833</v>
       </c>
     </row>
     <row r="108">
@@ -7056,43 +7638,43 @@
         <v>1938.0</v>
       </c>
       <c r="C108" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="D108" t="s">
-        <v>170</v>
+        <v>213</v>
       </c>
       <c r="E108" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F108" t="e">
         <v>#N/A</v>
       </c>
       <c r="G108" t="s">
-        <v>312</v>
+        <v>370</v>
       </c>
       <c r="H108" t="s">
-        <v>429</v>
+        <v>525</v>
       </c>
       <c r="I108" t="s">
-        <v>525</v>
+        <v>661</v>
       </c>
       <c r="J108" t="n">
         <v>-84.1535885542524</v>
       </c>
       <c r="K108" t="n">
-        <v>31.575037261282926</v>
+        <v>31.5750372612829</v>
       </c>
       <c r="L108" t="s">
-        <v>580</v>
+        <v>738</v>
       </c>
       <c r="M108" t="s">
-        <v>607</v>
+        <v>779</v>
       </c>
       <c r="N108" t="s">
-        <v>615</v>
+        <v>796</v>
       </c>
       <c r="O108" t="s">
-        <v>650</v>
+        <v>833</v>
       </c>
     </row>
     <row r="109">
@@ -7103,43 +7685,43 @@
         <v>1938.0</v>
       </c>
       <c r="C109" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="D109" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="E109" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="F109" t="e">
         <v>#N/A</v>
       </c>
       <c r="G109" t="s">
-        <v>313</v>
+        <v>371</v>
       </c>
       <c r="H109" t="s">
-        <v>430</v>
+        <v>526</v>
       </c>
       <c r="I109" t="s">
-        <v>526</v>
+        <v>662</v>
       </c>
       <c r="J109" t="n">
-        <v>-84.37986896428545</v>
+        <v>-84.3798689642854</v>
       </c>
       <c r="K109" t="n">
-        <v>33.75547615520484</v>
+        <v>33.7554761552048</v>
       </c>
       <c r="L109" t="s">
-        <v>581</v>
+        <v>739</v>
       </c>
       <c r="M109" t="s">
-        <v>608</v>
+        <v>780</v>
       </c>
       <c r="N109" t="s">
-        <v>615</v>
+        <v>796</v>
       </c>
       <c r="O109" t="s">
-        <v>651</v>
+        <v>834</v>
       </c>
     </row>
     <row r="110">
@@ -7150,43 +7732,43 @@
         <v>1938.0</v>
       </c>
       <c r="C110" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="D110" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="E110" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="F110" t="e">
         <v>#N/A</v>
       </c>
       <c r="G110" t="s">
-        <v>314</v>
+        <v>372</v>
       </c>
       <c r="H110" t="s">
-        <v>431</v>
+        <v>527</v>
       </c>
       <c r="I110" t="s">
-        <v>527</v>
+        <v>663</v>
       </c>
       <c r="J110" t="n">
-        <v>-84.37989676775622</v>
+        <v>-84.3798967677562</v>
       </c>
       <c r="K110" t="n">
-        <v>33.75547646073855</v>
+        <v>33.7554764607385</v>
       </c>
       <c r="L110" t="s">
-        <v>581</v>
+        <v>739</v>
       </c>
       <c r="M110" t="s">
-        <v>608</v>
+        <v>780</v>
       </c>
       <c r="N110" t="s">
-        <v>615</v>
+        <v>796</v>
       </c>
       <c r="O110" t="s">
-        <v>651</v>
+        <v>834</v>
       </c>
     </row>
     <row r="111">
@@ -7197,25 +7779,25 @@
         <v>1938.0</v>
       </c>
       <c r="C111" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="D111" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="E111" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="F111" t="e">
         <v>#N/A</v>
       </c>
       <c r="G111" t="s">
-        <v>315</v>
+        <v>373</v>
       </c>
       <c r="H111" t="s">
-        <v>432</v>
+        <v>528</v>
       </c>
       <c r="I111" t="s">
-        <v>447</v>
+        <v>583</v>
       </c>
       <c r="J111" t="e">
         <v>#N/A</v>
@@ -7244,43 +7826,43 @@
         <v>1938.0</v>
       </c>
       <c r="C112" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="D112" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="E112" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="F112" t="e">
         <v>#N/A</v>
       </c>
       <c r="G112" t="s">
-        <v>316</v>
+        <v>374</v>
       </c>
       <c r="H112" t="s">
-        <v>433</v>
+        <v>529</v>
       </c>
       <c r="I112" t="s">
-        <v>528</v>
+        <v>664</v>
       </c>
       <c r="J112" t="n">
-        <v>-84.38030156350074</v>
+        <v>-84.3803015635007</v>
       </c>
       <c r="K112" t="n">
-        <v>33.754298898346796</v>
+        <v>33.7542988983468</v>
       </c>
       <c r="L112" t="s">
-        <v>582</v>
+        <v>740</v>
       </c>
       <c r="M112" t="s">
-        <v>608</v>
+        <v>780</v>
       </c>
       <c r="N112" t="s">
-        <v>615</v>
+        <v>796</v>
       </c>
       <c r="O112" t="s">
-        <v>651</v>
+        <v>834</v>
       </c>
     </row>
     <row r="113">
@@ -7291,25 +7873,25 @@
         <v>1938.0</v>
       </c>
       <c r="C113" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="D113" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="E113" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F113" t="e">
         <v>#N/A</v>
       </c>
       <c r="G113" t="s">
-        <v>317</v>
+        <v>375</v>
       </c>
       <c r="H113" t="s">
-        <v>434</v>
+        <v>530</v>
       </c>
       <c r="I113" t="s">
-        <v>447</v>
+        <v>583</v>
       </c>
       <c r="J113" t="e">
         <v>#N/A</v>
@@ -7338,25 +7920,25 @@
         <v>1938.0</v>
       </c>
       <c r="C114" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="D114" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="E114" t="s">
-        <v>180</v>
+        <v>235</v>
       </c>
       <c r="F114" t="e">
         <v>#N/A</v>
       </c>
       <c r="G114" t="s">
-        <v>318</v>
+        <v>376</v>
       </c>
       <c r="H114" t="s">
-        <v>435</v>
+        <v>531</v>
       </c>
       <c r="I114" t="s">
-        <v>447</v>
+        <v>583</v>
       </c>
       <c r="J114" t="e">
         <v>#N/A</v>
@@ -7385,43 +7967,43 @@
         <v>1938.0</v>
       </c>
       <c r="C115" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="D115" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="E115" t="s">
-        <v>177</v>
+        <v>232</v>
       </c>
       <c r="F115" t="e">
         <v>#N/A</v>
       </c>
       <c r="G115" t="s">
-        <v>319</v>
+        <v>377</v>
       </c>
       <c r="H115" t="s">
-        <v>436</v>
+        <v>532</v>
       </c>
       <c r="I115" t="s">
-        <v>529</v>
+        <v>665</v>
       </c>
       <c r="J115" t="n">
-        <v>-84.37748628415449</v>
+        <v>-84.3774862841545</v>
       </c>
       <c r="K115" t="n">
-        <v>33.755573706652015</v>
+        <v>33.755573706652</v>
       </c>
       <c r="L115" t="s">
-        <v>581</v>
+        <v>739</v>
       </c>
       <c r="M115" t="s">
-        <v>608</v>
+        <v>780</v>
       </c>
       <c r="N115" t="s">
-        <v>615</v>
+        <v>796</v>
       </c>
       <c r="O115" t="s">
-        <v>651</v>
+        <v>834</v>
       </c>
     </row>
     <row r="116">
@@ -7432,43 +8014,43 @@
         <v>1938.0</v>
       </c>
       <c r="C116" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="D116" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="E116" t="s">
-        <v>181</v>
+        <v>236</v>
       </c>
       <c r="F116" t="e">
         <v>#N/A</v>
       </c>
       <c r="G116" t="s">
-        <v>320</v>
+        <v>378</v>
       </c>
       <c r="H116" t="s">
-        <v>437</v>
+        <v>533</v>
       </c>
       <c r="I116" t="s">
-        <v>530</v>
+        <v>666</v>
       </c>
       <c r="J116" t="n">
-        <v>-84.38812101207311</v>
+        <v>-84.3881210120731</v>
       </c>
       <c r="K116" t="n">
-        <v>33.753324706230586</v>
+        <v>33.7533247062306</v>
       </c>
       <c r="L116" t="s">
-        <v>583</v>
+        <v>741</v>
       </c>
       <c r="M116" t="s">
-        <v>608</v>
+        <v>780</v>
       </c>
       <c r="N116" t="s">
-        <v>615</v>
+        <v>796</v>
       </c>
       <c r="O116" t="s">
-        <v>651</v>
+        <v>834</v>
       </c>
     </row>
     <row r="117">
@@ -7479,43 +8061,43 @@
         <v>1938.0</v>
       </c>
       <c r="C117" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="D117" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="E117" t="s">
-        <v>178</v>
+        <v>233</v>
       </c>
       <c r="F117" t="e">
         <v>#N/A</v>
       </c>
       <c r="G117" t="s">
-        <v>321</v>
+        <v>379</v>
       </c>
       <c r="H117" t="s">
-        <v>438</v>
+        <v>534</v>
       </c>
       <c r="I117" t="s">
-        <v>531</v>
+        <v>667</v>
       </c>
       <c r="J117" t="n">
-        <v>-84.37942379929825</v>
+        <v>-84.3794237992983</v>
       </c>
       <c r="K117" t="n">
-        <v>33.75552856395278</v>
-      </c>
-      <c r="L117" t="s">
-        <v>584</v>
+        <v>33.7555285639528</v>
+      </c>
+      <c r="L117" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M117" t="s">
-        <v>608</v>
+        <v>780</v>
       </c>
       <c r="N117" t="s">
-        <v>615</v>
+        <v>796</v>
       </c>
       <c r="O117" t="s">
-        <v>651</v>
+        <v>834</v>
       </c>
     </row>
     <row r="118">
@@ -7526,25 +8108,25 @@
         <v>1938.0</v>
       </c>
       <c r="C118" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="D118" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="E118" t="s">
-        <v>179</v>
+        <v>234</v>
       </c>
       <c r="F118" t="e">
         <v>#N/A</v>
       </c>
       <c r="G118" t="s">
-        <v>322</v>
+        <v>380</v>
       </c>
       <c r="H118" t="s">
-        <v>439</v>
+        <v>535</v>
       </c>
       <c r="I118" t="s">
-        <v>447</v>
+        <v>583</v>
       </c>
       <c r="J118" t="e">
         <v>#N/A</v>
@@ -7573,25 +8155,25 @@
         <v>1938.0</v>
       </c>
       <c r="C119" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="D119" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="E119" t="s">
-        <v>179</v>
+        <v>234</v>
       </c>
       <c r="F119" t="e">
         <v>#N/A</v>
       </c>
       <c r="G119" t="s">
-        <v>323</v>
+        <v>381</v>
       </c>
       <c r="H119" t="s">
-        <v>440</v>
+        <v>536</v>
       </c>
       <c r="I119" t="s">
-        <v>447</v>
+        <v>583</v>
       </c>
       <c r="J119" t="e">
         <v>#N/A</v>
@@ -7620,25 +8202,25 @@
         <v>1938.0</v>
       </c>
       <c r="C120" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="D120" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="E120" t="s">
-        <v>182</v>
+        <v>237</v>
       </c>
       <c r="F120" t="e">
         <v>#N/A</v>
       </c>
       <c r="G120" t="s">
-        <v>324</v>
+        <v>382</v>
       </c>
       <c r="H120" t="s">
-        <v>441</v>
+        <v>537</v>
       </c>
       <c r="I120" t="s">
-        <v>447</v>
+        <v>583</v>
       </c>
       <c r="J120" t="e">
         <v>#N/A</v>
@@ -7667,25 +8249,25 @@
         <v>1938.0</v>
       </c>
       <c r="C121" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="D121" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="E121" t="s">
-        <v>183</v>
+        <v>238</v>
       </c>
       <c r="F121" t="e">
         <v>#N/A</v>
       </c>
       <c r="G121" t="s">
-        <v>322</v>
+        <v>380</v>
       </c>
       <c r="H121" t="s">
-        <v>439</v>
+        <v>535</v>
       </c>
       <c r="I121" t="s">
-        <v>447</v>
+        <v>583</v>
       </c>
       <c r="J121" t="e">
         <v>#N/A</v>
@@ -7714,25 +8296,25 @@
         <v>1938.0</v>
       </c>
       <c r="C122" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="D122" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="E122" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="F122" t="s">
-        <v>211</v>
+        <v>267</v>
       </c>
       <c r="G122" t="e">
         <v>#N/A</v>
       </c>
       <c r="H122" t="s">
-        <v>442</v>
+        <v>538</v>
       </c>
       <c r="I122" t="s">
-        <v>447</v>
+        <v>583</v>
       </c>
       <c r="J122" t="e">
         <v>#N/A</v>
@@ -7761,43 +8343,43 @@
         <v>1938.0</v>
       </c>
       <c r="C123" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="D123" t="s">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="E123" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F123" t="e">
         <v>#N/A</v>
       </c>
       <c r="G123" t="s">
-        <v>325</v>
+        <v>383</v>
       </c>
       <c r="H123" t="s">
-        <v>443</v>
+        <v>539</v>
       </c>
       <c r="I123" t="s">
-        <v>532</v>
+        <v>668</v>
       </c>
       <c r="J123" t="n">
-        <v>-82.90338952677564</v>
+        <v>-82.9033895267756</v>
       </c>
       <c r="K123" t="n">
-        <v>32.53777091727922</v>
+        <v>32.5377709172792</v>
       </c>
       <c r="L123" t="s">
-        <v>585</v>
+        <v>742</v>
       </c>
       <c r="M123" t="s">
-        <v>609</v>
+        <v>781</v>
       </c>
       <c r="N123" t="s">
-        <v>615</v>
+        <v>796</v>
       </c>
       <c r="O123" t="s">
-        <v>652</v>
+        <v>835</v>
       </c>
     </row>
     <row r="124">
@@ -7808,25 +8390,25 @@
         <v>1938.0</v>
       </c>
       <c r="C124" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="D124" t="s">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="E124" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F124" t="e">
         <v>#N/A</v>
       </c>
       <c r="G124" t="s">
-        <v>326</v>
+        <v>384</v>
       </c>
       <c r="H124" t="s">
-        <v>444</v>
+        <v>540</v>
       </c>
       <c r="I124" t="s">
-        <v>447</v>
+        <v>583</v>
       </c>
       <c r="J124" t="e">
         <v>#N/A</v>
@@ -7855,43 +8437,43 @@
         <v>1938.0</v>
       </c>
       <c r="C125" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="D125" t="s">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="E125" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="F125" t="e">
         <v>#N/A</v>
       </c>
       <c r="G125" t="s">
-        <v>327</v>
+        <v>385</v>
       </c>
       <c r="H125" t="s">
-        <v>445</v>
+        <v>541</v>
       </c>
       <c r="I125" t="s">
-        <v>533</v>
+        <v>669</v>
       </c>
       <c r="J125" t="n">
-        <v>-82.90141214040578</v>
+        <v>-82.9014121404058</v>
       </c>
       <c r="K125" t="n">
-        <v>32.53487297350056</v>
+        <v>32.5348729735006</v>
       </c>
       <c r="L125" t="s">
-        <v>585</v>
+        <v>742</v>
       </c>
       <c r="M125" t="s">
-        <v>609</v>
+        <v>781</v>
       </c>
       <c r="N125" t="s">
-        <v>615</v>
+        <v>796</v>
       </c>
       <c r="O125" t="s">
-        <v>652</v>
+        <v>835</v>
       </c>
     </row>
     <row r="126">
@@ -7902,43 +8484,1970 @@
         <v>1938.0</v>
       </c>
       <c r="C126" t="s">
+        <v>185</v>
+      </c>
+      <c r="D126" t="s">
+        <v>216</v>
+      </c>
+      <c r="E126" t="s">
+        <v>229</v>
+      </c>
+      <c r="F126" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G126" t="s">
+        <v>386</v>
+      </c>
+      <c r="H126" t="s">
+        <v>542</v>
+      </c>
+      <c r="I126" t="s">
+        <v>670</v>
+      </c>
+      <c r="J126" t="n">
+        <v>-82.9012954425275</v>
+      </c>
+      <c r="K126" t="n">
+        <v>32.5348142214987</v>
+      </c>
+      <c r="L126" t="s">
+        <v>742</v>
+      </c>
+      <c r="M126" t="s">
+        <v>781</v>
+      </c>
+      <c r="N126" t="s">
+        <v>796</v>
+      </c>
+      <c r="O126" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>139</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C127" t="s">
+        <v>185</v>
+      </c>
+      <c r="D127" t="s">
+        <v>217</v>
+      </c>
+      <c r="E127" t="s">
+        <v>229</v>
+      </c>
+      <c r="F127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G127" t="s">
+        <v>387</v>
+      </c>
+      <c r="H127" t="s">
+        <v>543</v>
+      </c>
+      <c r="I127" t="s">
+        <v>671</v>
+      </c>
+      <c r="J127" t="n">
+        <v>-83.17688658924054</v>
+      </c>
+      <c r="K127" t="n">
+        <v>32.19742592744334</v>
+      </c>
+      <c r="L127" t="s">
+        <v>743</v>
+      </c>
+      <c r="M127" t="s">
+        <v>782</v>
+      </c>
+      <c r="N127" t="s">
+        <v>796</v>
+      </c>
+      <c r="O127" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>140</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C128" t="s">
+        <v>185</v>
+      </c>
+      <c r="D128" t="s">
+        <v>217</v>
+      </c>
+      <c r="E128" t="s">
+        <v>229</v>
+      </c>
+      <c r="F128" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G128" t="s">
+        <v>388</v>
+      </c>
+      <c r="H128" t="s">
+        <v>544</v>
+      </c>
+      <c r="I128" t="s">
+        <v>583</v>
+      </c>
+      <c r="J128" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K128" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L128" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M128" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N128" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O128" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>141</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C129" t="s">
+        <v>185</v>
+      </c>
+      <c r="D129" t="s">
+        <v>218</v>
+      </c>
+      <c r="E129" t="s">
+        <v>229</v>
+      </c>
+      <c r="F129" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G129" t="s">
+        <v>389</v>
+      </c>
+      <c r="H129" t="s">
+        <v>545</v>
+      </c>
+      <c r="I129" t="s">
+        <v>583</v>
+      </c>
+      <c r="J129" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K129" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L129" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M129" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N129" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O129" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>142</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C130" t="s">
+        <v>185</v>
+      </c>
+      <c r="D130" t="s">
+        <v>218</v>
+      </c>
+      <c r="E130" t="s">
+        <v>229</v>
+      </c>
+      <c r="F130" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G130" t="s">
+        <v>390</v>
+      </c>
+      <c r="H130" t="s">
+        <v>546</v>
+      </c>
+      <c r="I130" t="s">
+        <v>583</v>
+      </c>
+      <c r="J130" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K130" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L130" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M130" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N130" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O130" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>143</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C131" t="s">
+        <v>185</v>
+      </c>
+      <c r="D131" t="s">
+        <v>218</v>
+      </c>
+      <c r="E131" t="s">
+        <v>229</v>
+      </c>
+      <c r="F131" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G131" t="s">
+        <v>391</v>
+      </c>
+      <c r="H131" t="s">
+        <v>547</v>
+      </c>
+      <c r="I131" t="s">
+        <v>583</v>
+      </c>
+      <c r="J131" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K131" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L131" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M131" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N131" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O131" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
         <v>144</v>
       </c>
-      <c r="D126" t="s">
+      <c r="B132" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C132" t="s">
+        <v>185</v>
+      </c>
+      <c r="D132" t="s">
+        <v>219</v>
+      </c>
+      <c r="E132" t="s">
+        <v>230</v>
+      </c>
+      <c r="F132" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G132" t="s">
+        <v>392</v>
+      </c>
+      <c r="H132" t="s">
+        <v>548</v>
+      </c>
+      <c r="I132" t="s">
+        <v>672</v>
+      </c>
+      <c r="J132" t="n">
+        <v>-83.62467012770172</v>
+      </c>
+      <c r="K132" t="n">
+        <v>32.83638915014489</v>
+      </c>
+      <c r="L132" t="s">
+        <v>744</v>
+      </c>
+      <c r="M132" t="s">
+        <v>783</v>
+      </c>
+      <c r="N132" t="s">
+        <v>796</v>
+      </c>
+      <c r="O132" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>145</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C133" t="s">
+        <v>185</v>
+      </c>
+      <c r="D133" t="s">
+        <v>219</v>
+      </c>
+      <c r="E133" t="s">
+        <v>230</v>
+      </c>
+      <c r="F133" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G133" t="s">
+        <v>393</v>
+      </c>
+      <c r="H133" t="s">
+        <v>549</v>
+      </c>
+      <c r="I133" t="s">
+        <v>673</v>
+      </c>
+      <c r="J133" t="n">
+        <v>-83.62455710276289</v>
+      </c>
+      <c r="K133" t="n">
+        <v>32.836523500541574</v>
+      </c>
+      <c r="L133" t="s">
+        <v>744</v>
+      </c>
+      <c r="M133" t="s">
+        <v>783</v>
+      </c>
+      <c r="N133" t="s">
+        <v>796</v>
+      </c>
+      <c r="O133" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>146</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C134" t="s">
+        <v>185</v>
+      </c>
+      <c r="D134" t="s">
+        <v>219</v>
+      </c>
+      <c r="E134" t="s">
+        <v>229</v>
+      </c>
+      <c r="F134" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G134" t="s">
+        <v>394</v>
+      </c>
+      <c r="H134" t="s">
+        <v>550</v>
+      </c>
+      <c r="I134" t="s">
+        <v>674</v>
+      </c>
+      <c r="J134" t="n">
+        <v>-83.6303341915166</v>
+      </c>
+      <c r="K134" t="n">
+        <v>32.84317815070177</v>
+      </c>
+      <c r="L134" t="s">
+        <v>745</v>
+      </c>
+      <c r="M134" t="s">
+        <v>783</v>
+      </c>
+      <c r="N134" t="s">
+        <v>796</v>
+      </c>
+      <c r="O134" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>147</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C135" t="s">
+        <v>185</v>
+      </c>
+      <c r="D135" t="s">
+        <v>219</v>
+      </c>
+      <c r="E135" t="s">
+        <v>229</v>
+      </c>
+      <c r="F135" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G135" t="s">
+        <v>395</v>
+      </c>
+      <c r="H135" t="s">
+        <v>551</v>
+      </c>
+      <c r="I135" t="s">
+        <v>675</v>
+      </c>
+      <c r="J135" t="n">
+        <v>-83.63051958162428</v>
+      </c>
+      <c r="K135" t="n">
+        <v>32.84295905330554</v>
+      </c>
+      <c r="L135" t="s">
+        <v>745</v>
+      </c>
+      <c r="M135" t="s">
+        <v>783</v>
+      </c>
+      <c r="N135" t="s">
+        <v>796</v>
+      </c>
+      <c r="O135" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>148</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C136" t="s">
+        <v>185</v>
+      </c>
+      <c r="D136" t="s">
+        <v>219</v>
+      </c>
+      <c r="E136" t="s">
+        <v>229</v>
+      </c>
+      <c r="F136" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G136" t="s">
+        <v>396</v>
+      </c>
+      <c r="H136" t="s">
+        <v>552</v>
+      </c>
+      <c r="I136" t="s">
+        <v>676</v>
+      </c>
+      <c r="J136" t="n">
+        <v>-83.62770138937051</v>
+      </c>
+      <c r="K136" t="n">
+        <v>32.84097690410207</v>
+      </c>
+      <c r="L136" t="s">
+        <v>746</v>
+      </c>
+      <c r="M136" t="s">
+        <v>783</v>
+      </c>
+      <c r="N136" t="s">
+        <v>796</v>
+      </c>
+      <c r="O136" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>149</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C137" t="s">
+        <v>185</v>
+      </c>
+      <c r="D137" t="s">
+        <v>219</v>
+      </c>
+      <c r="E137" t="s">
+        <v>229</v>
+      </c>
+      <c r="F137" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G137" t="s">
+        <v>397</v>
+      </c>
+      <c r="H137" t="s">
+        <v>553</v>
+      </c>
+      <c r="I137" t="s">
+        <v>677</v>
+      </c>
+      <c r="J137" t="n">
+        <v>-83.63037538931832</v>
+      </c>
+      <c r="K137" t="n">
+        <v>32.84312946239148</v>
+      </c>
+      <c r="L137" t="s">
+        <v>745</v>
+      </c>
+      <c r="M137" t="s">
+        <v>783</v>
+      </c>
+      <c r="N137" t="s">
+        <v>796</v>
+      </c>
+      <c r="O137" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>150</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C138" t="s">
+        <v>185</v>
+      </c>
+      <c r="D138" t="s">
+        <v>220</v>
+      </c>
+      <c r="E138" t="s">
+        <v>239</v>
+      </c>
+      <c r="F138" t="s">
+        <v>268</v>
+      </c>
+      <c r="G138" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H138" t="s">
+        <v>554</v>
+      </c>
+      <c r="I138" t="s">
+        <v>583</v>
+      </c>
+      <c r="J138" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K138" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L138" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M138" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N138" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O138" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>151</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C139" t="s">
+        <v>185</v>
+      </c>
+      <c r="D139" t="s">
+        <v>221</v>
+      </c>
+      <c r="E139" t="s">
+        <v>229</v>
+      </c>
+      <c r="F139" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G139" t="s">
+        <v>398</v>
+      </c>
+      <c r="H139" t="s">
+        <v>555</v>
+      </c>
+      <c r="I139" t="s">
+        <v>678</v>
+      </c>
+      <c r="J139" t="n">
+        <v>-82.34716350579527</v>
+      </c>
+      <c r="K139" t="n">
+        <v>31.20616854200469</v>
+      </c>
+      <c r="L139" t="s">
+        <v>747</v>
+      </c>
+      <c r="M139" t="s">
+        <v>784</v>
+      </c>
+      <c r="N139" t="s">
+        <v>796</v>
+      </c>
+      <c r="O139" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>152</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C140" t="s">
+        <v>185</v>
+      </c>
+      <c r="D140" t="s">
+        <v>221</v>
+      </c>
+      <c r="E140" t="s">
+        <v>229</v>
+      </c>
+      <c r="F140" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G140" t="s">
+        <v>399</v>
+      </c>
+      <c r="H140" t="s">
+        <v>556</v>
+      </c>
+      <c r="I140" t="s">
+        <v>679</v>
+      </c>
+      <c r="J140" t="n">
+        <v>-82.34886420196818</v>
+      </c>
+      <c r="K140" t="n">
+        <v>31.206314065228465</v>
+      </c>
+      <c r="L140" t="s">
+        <v>747</v>
+      </c>
+      <c r="M140" t="s">
+        <v>784</v>
+      </c>
+      <c r="N140" t="s">
+        <v>796</v>
+      </c>
+      <c r="O140" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>153</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C141" t="s">
+        <v>186</v>
+      </c>
+      <c r="D141" t="s">
+        <v>222</v>
+      </c>
+      <c r="E141" t="s">
+        <v>230</v>
+      </c>
+      <c r="F141" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G141" t="s">
+        <v>400</v>
+      </c>
+      <c r="H141" t="s">
+        <v>557</v>
+      </c>
+      <c r="I141" t="s">
+        <v>680</v>
+      </c>
+      <c r="J141" t="n">
+        <v>-87.6231169443589</v>
+      </c>
+      <c r="K141" t="n">
+        <v>41.82283224265591</v>
+      </c>
+      <c r="L141" t="s">
+        <v>748</v>
+      </c>
+      <c r="M141" t="s">
+        <v>785</v>
+      </c>
+      <c r="N141" t="s">
+        <v>797</v>
+      </c>
+      <c r="O141" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>154</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C142" t="s">
+        <v>186</v>
+      </c>
+      <c r="D142" t="s">
+        <v>222</v>
+      </c>
+      <c r="E142" t="s">
+        <v>230</v>
+      </c>
+      <c r="F142" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G142" t="s">
+        <v>401</v>
+      </c>
+      <c r="H142" t="s">
+        <v>558</v>
+      </c>
+      <c r="I142" t="s">
+        <v>681</v>
+      </c>
+      <c r="J142" t="n">
+        <v>-87.6242662052082</v>
+      </c>
+      <c r="K142" t="n">
+        <v>41.8838745143989</v>
+      </c>
+      <c r="L142" t="s">
+        <v>748</v>
+      </c>
+      <c r="M142" t="s">
+        <v>785</v>
+      </c>
+      <c r="N142" t="s">
+        <v>797</v>
+      </c>
+      <c r="O142" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>155</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C143" t="s">
+        <v>186</v>
+      </c>
+      <c r="D143" t="s">
+        <v>222</v>
+      </c>
+      <c r="E143" t="s">
+        <v>230</v>
+      </c>
+      <c r="F143" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G143" t="s">
+        <v>402</v>
+      </c>
+      <c r="H143" t="s">
+        <v>559</v>
+      </c>
+      <c r="I143" t="s">
+        <v>583</v>
+      </c>
+      <c r="J143" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K143" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L143" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M143" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N143" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O143" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>156</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C144" t="s">
+        <v>186</v>
+      </c>
+      <c r="D144" t="s">
+        <v>222</v>
+      </c>
+      <c r="E144" t="s">
+        <v>230</v>
+      </c>
+      <c r="F144" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G144" t="s">
+        <v>403</v>
+      </c>
+      <c r="H144" t="s">
+        <v>560</v>
+      </c>
+      <c r="I144" t="s">
+        <v>682</v>
+      </c>
+      <c r="J144" t="n">
+        <v>-87.60985776924201</v>
+      </c>
+      <c r="K144" t="n">
+        <v>41.82722811593631</v>
+      </c>
+      <c r="L144" t="s">
+        <v>749</v>
+      </c>
+      <c r="M144" t="s">
+        <v>785</v>
+      </c>
+      <c r="N144" t="s">
+        <v>797</v>
+      </c>
+      <c r="O144" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>157</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C145" t="s">
+        <v>186</v>
+      </c>
+      <c r="D145" t="s">
+        <v>222</v>
+      </c>
+      <c r="E145" t="s">
+        <v>230</v>
+      </c>
+      <c r="F145" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G145" t="s">
+        <v>404</v>
+      </c>
+      <c r="H145" t="s">
+        <v>561</v>
+      </c>
+      <c r="I145" t="s">
+        <v>683</v>
+      </c>
+      <c r="J145" t="n">
+        <v>-87.61592239846624</v>
+      </c>
+      <c r="K145" t="n">
+        <v>41.46766445502393</v>
+      </c>
+      <c r="L145" t="s">
+        <v>750</v>
+      </c>
+      <c r="M145" t="s">
+        <v>786</v>
+      </c>
+      <c r="N145" t="s">
+        <v>797</v>
+      </c>
+      <c r="O145" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>158</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C146" t="s">
+        <v>186</v>
+      </c>
+      <c r="D146" t="s">
+        <v>222</v>
+      </c>
+      <c r="E146" t="s">
+        <v>230</v>
+      </c>
+      <c r="F146" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G146" t="s">
+        <v>405</v>
+      </c>
+      <c r="H146" t="s">
+        <v>562</v>
+      </c>
+      <c r="I146" t="s">
+        <v>684</v>
+      </c>
+      <c r="J146" t="n">
+        <v>-87.61638236156217</v>
+      </c>
+      <c r="K146" t="n">
+        <v>41.8225947282313</v>
+      </c>
+      <c r="L146" t="s">
+        <v>751</v>
+      </c>
+      <c r="M146" t="s">
+        <v>785</v>
+      </c>
+      <c r="N146" t="s">
+        <v>797</v>
+      </c>
+      <c r="O146" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>159</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C147" t="s">
+        <v>186</v>
+      </c>
+      <c r="D147" t="s">
+        <v>222</v>
+      </c>
+      <c r="E147" t="s">
+        <v>230</v>
+      </c>
+      <c r="F147" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G147" t="s">
+        <v>406</v>
+      </c>
+      <c r="H147" t="s">
+        <v>563</v>
+      </c>
+      <c r="I147" t="s">
+        <v>583</v>
+      </c>
+      <c r="J147" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K147" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L147" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M147" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N147" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O147" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>160</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C148" t="s">
+        <v>186</v>
+      </c>
+      <c r="D148" t="s">
+        <v>222</v>
+      </c>
+      <c r="E148" t="s">
+        <v>230</v>
+      </c>
+      <c r="F148" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G148" t="s">
+        <v>407</v>
+      </c>
+      <c r="H148" t="s">
+        <v>564</v>
+      </c>
+      <c r="I148" t="s">
+        <v>684</v>
+      </c>
+      <c r="J148" t="n">
+        <v>-87.61638236156217</v>
+      </c>
+      <c r="K148" t="n">
+        <v>41.8225947282313</v>
+      </c>
+      <c r="L148" t="s">
+        <v>751</v>
+      </c>
+      <c r="M148" t="s">
+        <v>785</v>
+      </c>
+      <c r="N148" t="s">
+        <v>797</v>
+      </c>
+      <c r="O148" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>161</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C149" t="s">
+        <v>186</v>
+      </c>
+      <c r="D149" t="s">
+        <v>222</v>
+      </c>
+      <c r="E149" t="s">
+        <v>230</v>
+      </c>
+      <c r="F149" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G149" t="s">
+        <v>408</v>
+      </c>
+      <c r="H149" t="s">
+        <v>565</v>
+      </c>
+      <c r="I149" t="s">
+        <v>583</v>
+      </c>
+      <c r="J149" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K149" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L149" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M149" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N149" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O149" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>162</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C150" t="s">
+        <v>186</v>
+      </c>
+      <c r="D150" t="s">
+        <v>222</v>
+      </c>
+      <c r="E150" t="s">
+        <v>230</v>
+      </c>
+      <c r="F150" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G150" t="s">
+        <v>409</v>
+      </c>
+      <c r="H150" t="s">
+        <v>566</v>
+      </c>
+      <c r="I150" t="s">
+        <v>685</v>
+      </c>
+      <c r="J150" t="n">
+        <v>-87.64126564437206</v>
+      </c>
+      <c r="K150" t="n">
+        <v>41.82892885975733</v>
+      </c>
+      <c r="L150" t="s">
+        <v>752</v>
+      </c>
+      <c r="M150" t="s">
+        <v>785</v>
+      </c>
+      <c r="N150" t="s">
+        <v>797</v>
+      </c>
+      <c r="O150" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>163</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C151" t="s">
+        <v>186</v>
+      </c>
+      <c r="D151" t="s">
+        <v>222</v>
+      </c>
+      <c r="E151" t="s">
+        <v>230</v>
+      </c>
+      <c r="F151" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G151" t="s">
+        <v>410</v>
+      </c>
+      <c r="H151" t="s">
+        <v>567</v>
+      </c>
+      <c r="I151" t="s">
+        <v>686</v>
+      </c>
+      <c r="J151" t="n">
+        <v>-87.624777545598</v>
+      </c>
+      <c r="K151" t="n">
+        <v>41.82605337430268</v>
+      </c>
+      <c r="L151" t="s">
+        <v>753</v>
+      </c>
+      <c r="M151" t="s">
+        <v>785</v>
+      </c>
+      <c r="N151" t="s">
+        <v>797</v>
+      </c>
+      <c r="O151" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>164</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C152" t="s">
+        <v>186</v>
+      </c>
+      <c r="D152" t="s">
+        <v>222</v>
+      </c>
+      <c r="E152" t="s">
+        <v>230</v>
+      </c>
+      <c r="F152" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G152" t="s">
+        <v>411</v>
+      </c>
+      <c r="H152" t="s">
+        <v>568</v>
+      </c>
+      <c r="I152" t="s">
+        <v>583</v>
+      </c>
+      <c r="J152" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K152" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L152" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M152" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N152" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O152" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>165</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C153" t="s">
+        <v>186</v>
+      </c>
+      <c r="D153" t="s">
+        <v>222</v>
+      </c>
+      <c r="E153" t="s">
+        <v>230</v>
+      </c>
+      <c r="F153" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G153" t="s">
+        <v>412</v>
+      </c>
+      <c r="H153" t="s">
+        <v>569</v>
+      </c>
+      <c r="I153" t="s">
+        <v>687</v>
+      </c>
+      <c r="J153" t="n">
+        <v>-87.62165745599462</v>
+      </c>
+      <c r="K153" t="n">
+        <v>41.822915801430725</v>
+      </c>
+      <c r="L153" t="s">
+        <v>754</v>
+      </c>
+      <c r="M153" t="s">
+        <v>785</v>
+      </c>
+      <c r="N153" t="s">
+        <v>797</v>
+      </c>
+      <c r="O153" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>166</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C154" t="s">
+        <v>186</v>
+      </c>
+      <c r="D154" t="s">
+        <v>222</v>
+      </c>
+      <c r="E154" t="s">
+        <v>230</v>
+      </c>
+      <c r="F154" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G154" t="s">
+        <v>413</v>
+      </c>
+      <c r="H154" t="s">
+        <v>570</v>
+      </c>
+      <c r="I154" t="s">
+        <v>583</v>
+      </c>
+      <c r="J154" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K154" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L154" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M154" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N154" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O154" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>167</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C155" t="s">
+        <v>186</v>
+      </c>
+      <c r="D155" t="s">
+        <v>222</v>
+      </c>
+      <c r="E155" t="s">
+        <v>236</v>
+      </c>
+      <c r="F155" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G155" t="s">
+        <v>414</v>
+      </c>
+      <c r="H155" t="s">
+        <v>571</v>
+      </c>
+      <c r="I155" t="s">
+        <v>583</v>
+      </c>
+      <c r="J155" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K155" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L155" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M155" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N155" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O155" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>168</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C156" t="s">
+        <v>186</v>
+      </c>
+      <c r="D156" t="s">
+        <v>222</v>
+      </c>
+      <c r="E156" t="s">
+        <v>236</v>
+      </c>
+      <c r="F156" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G156" t="s">
+        <v>414</v>
+      </c>
+      <c r="H156" t="s">
+        <v>571</v>
+      </c>
+      <c r="I156" t="s">
+        <v>583</v>
+      </c>
+      <c r="J156" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K156" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L156" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M156" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N156" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O156" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>169</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C157" t="s">
+        <v>186</v>
+      </c>
+      <c r="D157" t="s">
+        <v>222</v>
+      </c>
+      <c r="E157" t="s">
+        <v>236</v>
+      </c>
+      <c r="F157" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G157" t="s">
+        <v>415</v>
+      </c>
+      <c r="H157" t="s">
+        <v>572</v>
+      </c>
+      <c r="I157" t="s">
+        <v>583</v>
+      </c>
+      <c r="J157" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K157" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L157" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M157" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N157" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O157" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>170</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C158" t="s">
+        <v>186</v>
+      </c>
+      <c r="D158" t="s">
+        <v>223</v>
+      </c>
+      <c r="E158" t="s">
+        <v>229</v>
+      </c>
+      <c r="F158" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G158" t="s">
+        <v>416</v>
+      </c>
+      <c r="H158" t="s">
+        <v>573</v>
+      </c>
+      <c r="I158" t="s">
+        <v>583</v>
+      </c>
+      <c r="J158" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K158" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L158" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M158" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N158" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O158" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>171</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C159" t="s">
+        <v>186</v>
+      </c>
+      <c r="D159" t="s">
+        <v>224</v>
+      </c>
+      <c r="E159" t="s">
+        <v>230</v>
+      </c>
+      <c r="F159" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G159" t="s">
+        <v>417</v>
+      </c>
+      <c r="H159" t="s">
+        <v>574</v>
+      </c>
+      <c r="I159" t="s">
+        <v>688</v>
+      </c>
+      <c r="J159" t="n">
+        <v>-89.64072860287438</v>
+      </c>
+      <c r="K159" t="n">
+        <v>39.801213073633065</v>
+      </c>
+      <c r="L159" t="s">
+        <v>755</v>
+      </c>
+      <c r="M159" t="s">
+        <v>787</v>
+      </c>
+      <c r="N159" t="s">
+        <v>797</v>
+      </c>
+      <c r="O159" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>172</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C160" t="s">
+        <v>187</v>
+      </c>
+      <c r="D160" t="s">
+        <v>225</v>
+      </c>
+      <c r="E160" t="s">
+        <v>230</v>
+      </c>
+      <c r="F160" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G160" t="s">
+        <v>418</v>
+      </c>
+      <c r="H160" t="s">
+        <v>575</v>
+      </c>
+      <c r="I160" t="s">
+        <v>689</v>
+      </c>
+      <c r="J160" t="n">
+        <v>-85.7932585618627</v>
+      </c>
+      <c r="K160" t="n">
+        <v>38.253920869889036</v>
+      </c>
+      <c r="L160" t="s">
+        <v>756</v>
+      </c>
+      <c r="M160" t="s">
+        <v>788</v>
+      </c>
+      <c r="N160" t="s">
+        <v>798</v>
+      </c>
+      <c r="O160" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
         <v>173</v>
       </c>
-      <c r="E126" t="s">
+      <c r="B161" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C161" t="s">
+        <v>187</v>
+      </c>
+      <c r="D161" t="s">
+        <v>225</v>
+      </c>
+      <c r="E161" t="s">
+        <v>230</v>
+      </c>
+      <c r="F161" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G161" t="s">
+        <v>419</v>
+      </c>
+      <c r="H161" t="s">
+        <v>576</v>
+      </c>
+      <c r="I161" t="s">
+        <v>583</v>
+      </c>
+      <c r="J161" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K161" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L161" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M161" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N161" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O161" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
         <v>174</v>
       </c>
-      <c r="F126" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G126" t="s">
-        <v>328</v>
-      </c>
-      <c r="H126" t="s">
-        <v>446</v>
-      </c>
-      <c r="I126" t="s">
-        <v>534</v>
-      </c>
-      <c r="J126" t="n">
-        <v>-82.90129544252753</v>
-      </c>
-      <c r="K126" t="n">
-        <v>32.534814221498706</v>
-      </c>
-      <c r="L126" t="s">
-        <v>585</v>
-      </c>
-      <c r="M126" t="s">
-        <v>609</v>
-      </c>
-      <c r="N126" t="s">
-        <v>615</v>
-      </c>
-      <c r="O126" t="s">
-        <v>652</v>
+      <c r="B162" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C162" t="s">
+        <v>187</v>
+      </c>
+      <c r="D162" t="s">
+        <v>225</v>
+      </c>
+      <c r="E162" t="s">
+        <v>230</v>
+      </c>
+      <c r="F162" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G162" t="s">
+        <v>420</v>
+      </c>
+      <c r="H162" t="s">
+        <v>577</v>
+      </c>
+      <c r="I162" t="s">
+        <v>690</v>
+      </c>
+      <c r="J162" t="n">
+        <v>-87.25696846663135</v>
+      </c>
+      <c r="K162" t="n">
+        <v>37.54050372502175</v>
+      </c>
+      <c r="L162" t="s">
+        <v>757</v>
+      </c>
+      <c r="M162" t="s">
+        <v>789</v>
+      </c>
+      <c r="N162" t="s">
+        <v>798</v>
+      </c>
+      <c r="O162" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>175</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C163" t="s">
+        <v>187</v>
+      </c>
+      <c r="D163" t="s">
+        <v>226</v>
+      </c>
+      <c r="E163" t="s">
+        <v>230</v>
+      </c>
+      <c r="F163" t="s">
+        <v>269</v>
+      </c>
+      <c r="G163" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H163" t="s">
+        <v>578</v>
+      </c>
+      <c r="I163" t="s">
+        <v>583</v>
+      </c>
+      <c r="J163" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K163" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L163" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M163" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N163" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O163" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>176</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C164" t="s">
+        <v>187</v>
+      </c>
+      <c r="D164" t="s">
+        <v>227</v>
+      </c>
+      <c r="E164" t="s">
+        <v>230</v>
+      </c>
+      <c r="F164" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G164" t="s">
+        <v>421</v>
+      </c>
+      <c r="H164" t="s">
+        <v>579</v>
+      </c>
+      <c r="I164" t="s">
+        <v>583</v>
+      </c>
+      <c r="J164" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K164" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L164" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M164" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N164" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O164" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>177</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C165" t="s">
+        <v>187</v>
+      </c>
+      <c r="D165" t="s">
+        <v>228</v>
+      </c>
+      <c r="E165" t="s">
+        <v>230</v>
+      </c>
+      <c r="F165" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G165" t="s">
+        <v>422</v>
+      </c>
+      <c r="H165" t="s">
+        <v>580</v>
+      </c>
+      <c r="I165" t="s">
+        <v>583</v>
+      </c>
+      <c r="J165" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K165" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L165" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M165" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N165" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O165" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>178</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C166" t="s">
+        <v>187</v>
+      </c>
+      <c r="D166" t="s">
+        <v>228</v>
+      </c>
+      <c r="E166" t="s">
+        <v>230</v>
+      </c>
+      <c r="F166" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G166" t="s">
+        <v>423</v>
+      </c>
+      <c r="H166" t="s">
+        <v>581</v>
+      </c>
+      <c r="I166" t="s">
+        <v>691</v>
+      </c>
+      <c r="J166" t="n">
+        <v>-88.59873204287392</v>
+      </c>
+      <c r="K166" t="n">
+        <v>37.079650477871084</v>
+      </c>
+      <c r="L166" t="s">
+        <v>738</v>
+      </c>
+      <c r="M166" t="s">
+        <v>790</v>
+      </c>
+      <c r="N166" t="s">
+        <v>798</v>
+      </c>
+      <c r="O166" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>179</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="C167" t="s">
+        <v>187</v>
+      </c>
+      <c r="D167" t="s">
+        <v>228</v>
+      </c>
+      <c r="E167" t="s">
+        <v>230</v>
+      </c>
+      <c r="F167" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G167" t="s">
+        <v>424</v>
+      </c>
+      <c r="H167" t="s">
+        <v>582</v>
+      </c>
+      <c r="I167" t="s">
+        <v>692</v>
+      </c>
+      <c r="J167" t="n">
+        <v>-88.60193118790114</v>
+      </c>
+      <c r="K167" t="n">
+        <v>37.082681854609625</v>
+      </c>
+      <c r="L167" t="s">
+        <v>758</v>
+      </c>
+      <c r="M167" t="s">
+        <v>790</v>
+      </c>
+      <c r="N167" t="s">
+        <v>798</v>
+      </c>
+      <c r="O167" t="s">
+        <v>846</v>
       </c>
     </row>
   </sheetData>
